--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF9FD44-5744-40EA-BA23-DC9CCF21A31F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFFFEF8-5EAD-4B3B-A2C1-99ECA558094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="118">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,9 +379,6 @@
     <t>planner</t>
   </si>
   <si>
-    <t>cucumber</t>
-  </si>
-  <si>
     <t>cucumber 적용</t>
   </si>
   <si>
@@ -391,9 +388,6 @@
     <t>3GPP 규격 리뷰</t>
   </si>
   <si>
-    <t>C++</t>
-  </si>
-  <si>
     <t>JSON</t>
   </si>
   <si>
@@ -430,9 +424,6 @@
     <t>Agile</t>
   </si>
   <si>
-    <t>Git, Jenkins, GDB</t>
-  </si>
-  <si>
     <t>JIRA, Bamboo CI/CD, Confluence</t>
   </si>
   <si>
@@ -446,6 +437,27 @@
   </si>
   <si>
     <t>book - C++, English, 저장소 정리(google drive, one drive, git, EXT HDD, naver, Local HDD)</t>
+  </si>
+  <si>
+    <t>daily one hour(piano, reading, etc.)</t>
+  </si>
+  <si>
+    <t>Git, Jenkins</t>
+  </si>
+  <si>
+    <t>GDB</t>
+  </si>
+  <si>
+    <t>Cucumber</t>
+  </si>
+  <si>
+    <t>C++, 3GPP TM, Cucumber</t>
+  </si>
+  <si>
+    <t>CPP</t>
+  </si>
+  <si>
+    <t>ENG</t>
   </si>
 </sst>
 </file>
@@ -456,7 +468,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -524,6 +536,13 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -704,7 +723,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -819,12 +838,69 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -860,60 +936,6 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1358,8 +1380,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28"/>
+      <pane ySplit="18" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1374,197 +1396,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="54" t="s">
+      <c r="B1" s="58" t="s">
         <v>76</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="54"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="38" t="s">
+      <c r="B2" s="56" t="s">
         <v>88</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="44" t="s">
-        <v>111</v>
-      </c>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="63" t="s">
+        <v>108</v>
+      </c>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
       <c r="G2" s="37" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="38"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="37" t="s">
+      <c r="B3" s="56"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="65" t="s">
+        <v>111</v>
+      </c>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="38" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="56"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66"/>
+      <c r="F4" s="66"/>
+      <c r="G4" s="37" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="56"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="66"/>
+      <c r="F5" s="66"/>
+      <c r="G5" s="37" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="56" t="s">
+        <v>89</v>
+      </c>
+      <c r="C6" s="57"/>
+      <c r="D6" s="67" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="68"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="56"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="68"/>
+      <c r="F7" s="68"/>
+      <c r="G7" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="56"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="36" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="56"/>
+      <c r="C9" s="57"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="59" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="60"/>
+      <c r="D10" s="69" t="s">
+        <v>110</v>
+      </c>
+      <c r="E10" s="70"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="59"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="69" t="s">
+        <v>102</v>
+      </c>
+      <c r="E11" s="70"/>
+      <c r="F11" s="70"/>
+      <c r="G11" s="36" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="59"/>
+      <c r="C12" s="60"/>
+      <c r="D12" s="69" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="59"/>
+      <c r="C13" s="60"/>
+      <c r="D13" s="69" t="s">
+        <v>103</v>
+      </c>
+      <c r="E13" s="70"/>
+      <c r="F13" s="70"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="62"/>
+      <c r="D14" s="54" t="s">
+        <v>91</v>
+      </c>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="36" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="4" spans="2:7">
-      <c r="B4" s="38"/>
-      <c r="C4" s="39"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="37" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="37" t="s">
+    <row r="15" spans="2:7">
+      <c r="B15" s="61"/>
+      <c r="C15" s="62"/>
+      <c r="D15" s="54" t="s">
+        <v>92</v>
+      </c>
+      <c r="E15" s="55"/>
+      <c r="F15" s="55"/>
+      <c r="G15" s="36" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C6" s="39"/>
-      <c r="D6" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="36" t="s">
+    <row r="16" spans="2:7">
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="54" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="55"/>
+      <c r="F16" s="55"/>
+      <c r="G16" s="36" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="38"/>
-      <c r="C7" s="39"/>
-      <c r="D7" s="48" t="s">
-        <v>110</v>
-      </c>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="36" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="38"/>
-      <c r="C8" s="39"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="38"/>
-      <c r="C9" s="39"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="36" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="C10" s="41"/>
-      <c r="D10" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="36" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="36" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="50" t="s">
-        <v>112</v>
-      </c>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="36" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="50" t="s">
-        <v>105</v>
-      </c>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="36"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="42" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="43"/>
-      <c r="D14" s="52" t="s">
-        <v>92</v>
-      </c>
-      <c r="E14" s="53"/>
-      <c r="F14" s="53"/>
-      <c r="G14" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="42"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="52" t="s">
-        <v>93</v>
-      </c>
-      <c r="E15" s="53"/>
-      <c r="F15" s="53"/>
-      <c r="G15" s="36" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="42"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="52" t="s">
-        <v>94</v>
-      </c>
-      <c r="E16" s="53"/>
-      <c r="F16" s="53"/>
-      <c r="G16" s="36" t="s">
-        <v>101</v>
-      </c>
-    </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="42"/>
-      <c r="C17" s="43"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="62"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="55"/>
+      <c r="F17" s="55"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
@@ -1588,10 +1612,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="55">
+      <c r="B19" s="45">
         <v>43962</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1602,8 +1626,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="56"/>
-      <c r="C20" s="59"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="49"/>
       <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
@@ -1612,8 +1636,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="56"/>
-      <c r="C21" s="59"/>
+      <c r="B21" s="46"/>
+      <c r="C21" s="49"/>
       <c r="D21" s="21" t="s">
         <v>15</v>
       </c>
@@ -1622,8 +1646,8 @@
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="56"/>
-      <c r="C22" s="59"/>
+      <c r="B22" s="46"/>
+      <c r="C22" s="49"/>
       <c r="D22" s="26" t="s">
         <v>7</v>
       </c>
@@ -1632,8 +1656,8 @@
       <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="56"/>
-      <c r="C23" s="59"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="49"/>
       <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1644,8 +1668,8 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="56"/>
-      <c r="C24" s="59"/>
+      <c r="B24" s="46"/>
+      <c r="C24" s="49"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1656,44 +1680,44 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="56"/>
-      <c r="C25" s="59"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="49"/>
       <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="56"/>
-      <c r="C26" s="59"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="49"/>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="56"/>
-      <c r="C27" s="59"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="49"/>
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="57"/>
-      <c r="C28" s="60"/>
+      <c r="B28" s="47"/>
+      <c r="C28" s="50"/>
       <c r="D28" s="16" t="s">
         <v>21</v>
       </c>
@@ -1702,10 +1726,10 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="61">
+      <c r="B29" s="39">
         <v>43963</v>
       </c>
-      <c r="C29" s="64" t="s">
+      <c r="C29" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1716,28 +1740,32 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="62"/>
-      <c r="C30" s="65"/>
+      <c r="B30" s="40"/>
+      <c r="C30" s="43"/>
       <c r="D30" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3"/>
+      <c r="E30" s="3" t="s">
+        <v>113</v>
+      </c>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="62"/>
-      <c r="C31" s="65"/>
+      <c r="B31" s="40"/>
+      <c r="C31" s="43"/>
       <c r="D31" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E31" s="3"/>
+      <c r="E31" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F31" s="23"/>
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="62"/>
-      <c r="C32" s="65"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="43"/>
       <c r="D32" s="26" t="s">
         <v>7</v>
       </c>
@@ -1746,8 +1774,8 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="62"/>
-      <c r="C33" s="65"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="43"/>
       <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
@@ -1756,48 +1784,56 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="62"/>
-      <c r="C34" s="65"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="43"/>
       <c r="D34" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E34" s="22"/>
+      <c r="E34" s="22" t="s">
+        <v>117</v>
+      </c>
       <c r="F34" s="21"/>
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="62"/>
-      <c r="C35" s="65"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="43"/>
       <c r="D35" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="22"/>
+      <c r="E35" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="62"/>
-      <c r="C36" s="65"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="43"/>
       <c r="D36" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="22"/>
+      <c r="E36" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F36" s="21"/>
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="62"/>
-      <c r="C37" s="65"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="43"/>
       <c r="D37" s="21" t="s">
         <v>85</v>
       </c>
-      <c r="E37" s="22"/>
+      <c r="E37" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F37" s="23"/>
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="63"/>
-      <c r="C38" s="66"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="44"/>
       <c r="D38" s="16" t="s">
         <v>21</v>
       </c>
@@ -1806,10 +1842,10 @@
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="55">
+      <c r="B39" s="45">
         <v>43964</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1820,28 +1856,32 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="56"/>
-      <c r="C40" s="59"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E40" s="22"/>
+      <c r="E40" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="F40" s="23"/>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="56"/>
-      <c r="C41" s="59"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="49"/>
       <c r="D41" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E41" s="22"/>
+      <c r="E41" s="22" t="s">
+        <v>103</v>
+      </c>
       <c r="F41" s="23"/>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="56"/>
-      <c r="C42" s="59"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="26" t="s">
         <v>7</v>
       </c>
@@ -1850,58 +1890,68 @@
       <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="56"/>
-      <c r="C43" s="59"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E43" s="3"/>
+      <c r="E43" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F43" s="7"/>
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="56"/>
-      <c r="C44" s="59"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E44" s="3"/>
+      <c r="E44" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="56"/>
-      <c r="C45" s="59"/>
+      <c r="B45" s="46"/>
+      <c r="C45" s="49"/>
       <c r="D45" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E45" s="22"/>
+      <c r="E45" s="22" t="s">
+        <v>114</v>
+      </c>
       <c r="F45" s="21"/>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="56"/>
-      <c r="C46" s="59"/>
+      <c r="B46" s="46"/>
+      <c r="C46" s="49"/>
       <c r="D46" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E46" s="22"/>
+      <c r="E46" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="56"/>
-      <c r="C47" s="59"/>
+      <c r="B47" s="46"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E47" s="22"/>
+      <c r="E47" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F47" s="23"/>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="57"/>
-      <c r="C48" s="60"/>
+      <c r="B48" s="47"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="16" t="s">
         <v>21</v>
       </c>
@@ -1910,10 +1960,10 @@
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="67">
+      <c r="B49" s="51">
         <v>43965</v>
       </c>
-      <c r="C49" s="64" t="s">
+      <c r="C49" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -1924,8 +1974,8 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="68"/>
-      <c r="C50" s="65"/>
+      <c r="B50" s="52"/>
+      <c r="C50" s="43"/>
       <c r="D50" s="21" t="s">
         <v>14</v>
       </c>
@@ -1934,8 +1984,8 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="68"/>
-      <c r="C51" s="65"/>
+      <c r="B51" s="52"/>
+      <c r="C51" s="43"/>
       <c r="D51" s="21" t="s">
         <v>15</v>
       </c>
@@ -1944,8 +1994,8 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="68"/>
-      <c r="C52" s="65"/>
+      <c r="B52" s="52"/>
+      <c r="C52" s="43"/>
       <c r="D52" s="26" t="s">
         <v>7</v>
       </c>
@@ -1954,8 +2004,8 @@
       <c r="G52" s="29"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="68"/>
-      <c r="C53" s="65"/>
+      <c r="B53" s="52"/>
+      <c r="C53" s="43"/>
       <c r="D53" s="21" t="s">
         <v>10</v>
       </c>
@@ -1964,8 +2014,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="68"/>
-      <c r="C54" s="65"/>
+      <c r="B54" s="52"/>
+      <c r="C54" s="43"/>
       <c r="D54" s="21" t="s">
         <v>82</v>
       </c>
@@ -1974,8 +2024,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="68"/>
-      <c r="C55" s="65"/>
+      <c r="B55" s="52"/>
+      <c r="C55" s="43"/>
       <c r="D55" s="21" t="s">
         <v>83</v>
       </c>
@@ -1984,8 +2034,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="68"/>
-      <c r="C56" s="65"/>
+      <c r="B56" s="52"/>
+      <c r="C56" s="43"/>
       <c r="D56" s="21" t="s">
         <v>84</v>
       </c>
@@ -1994,8 +2044,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="68"/>
-      <c r="C57" s="65"/>
+      <c r="B57" s="52"/>
+      <c r="C57" s="43"/>
       <c r="D57" s="21" t="s">
         <v>85</v>
       </c>
@@ -2004,8 +2054,8 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="69"/>
-      <c r="C58" s="66"/>
+      <c r="B58" s="53"/>
+      <c r="C58" s="44"/>
       <c r="D58" s="16" t="s">
         <v>21</v>
       </c>
@@ -2014,10 +2064,10 @@
       <c r="G58" s="19"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="67">
+      <c r="B59" s="51">
         <v>43966</v>
       </c>
-      <c r="C59" s="58" t="s">
+      <c r="C59" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2028,8 +2078,8 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="68"/>
-      <c r="C60" s="59"/>
+      <c r="B60" s="52"/>
+      <c r="C60" s="49"/>
       <c r="D60" s="21" t="s">
         <v>14</v>
       </c>
@@ -2038,8 +2088,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="68"/>
-      <c r="C61" s="59"/>
+      <c r="B61" s="52"/>
+      <c r="C61" s="49"/>
       <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
@@ -2048,8 +2098,8 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="68"/>
-      <c r="C62" s="59"/>
+      <c r="B62" s="52"/>
+      <c r="C62" s="49"/>
       <c r="D62" s="26" t="s">
         <v>7</v>
       </c>
@@ -2058,8 +2108,8 @@
       <c r="G62" s="29"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="68"/>
-      <c r="C63" s="59"/>
+      <c r="B63" s="52"/>
+      <c r="C63" s="49"/>
       <c r="D63" s="2" t="s">
         <v>16</v>
       </c>
@@ -2068,8 +2118,8 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="68"/>
-      <c r="C64" s="59"/>
+      <c r="B64" s="52"/>
+      <c r="C64" s="49"/>
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
@@ -2078,8 +2128,8 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="68"/>
-      <c r="C65" s="59"/>
+      <c r="B65" s="52"/>
+      <c r="C65" s="49"/>
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
@@ -2088,8 +2138,8 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="68"/>
-      <c r="C66" s="59"/>
+      <c r="B66" s="52"/>
+      <c r="C66" s="49"/>
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
@@ -2098,8 +2148,8 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="68"/>
-      <c r="C67" s="59"/>
+      <c r="B67" s="52"/>
+      <c r="C67" s="49"/>
       <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
@@ -2108,8 +2158,8 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="69"/>
-      <c r="C68" s="60"/>
+      <c r="B68" s="53"/>
+      <c r="C68" s="50"/>
       <c r="D68" s="16" t="s">
         <v>21</v>
       </c>
@@ -2118,10 +2168,10 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="55">
+      <c r="B69" s="45">
         <v>43969</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2132,8 +2182,8 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="56"/>
-      <c r="C70" s="59"/>
+      <c r="B70" s="46"/>
+      <c r="C70" s="49"/>
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
@@ -2142,8 +2192,8 @@
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="56"/>
-      <c r="C71" s="59"/>
+      <c r="B71" s="46"/>
+      <c r="C71" s="49"/>
       <c r="D71" s="21" t="s">
         <v>15</v>
       </c>
@@ -2152,8 +2202,8 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="56"/>
-      <c r="C72" s="59"/>
+      <c r="B72" s="46"/>
+      <c r="C72" s="49"/>
       <c r="D72" s="26" t="s">
         <v>7</v>
       </c>
@@ -2162,8 +2212,8 @@
       <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="56"/>
-      <c r="C73" s="59"/>
+      <c r="B73" s="46"/>
+      <c r="C73" s="49"/>
       <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
@@ -2172,8 +2222,8 @@
       <c r="G73" s="20"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="56"/>
-      <c r="C74" s="59"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="49"/>
       <c r="D74" s="2" t="s">
         <v>17</v>
       </c>
@@ -2182,8 +2232,8 @@
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="56"/>
-      <c r="C75" s="59"/>
+      <c r="B75" s="46"/>
+      <c r="C75" s="49"/>
       <c r="D75" s="21" t="s">
         <v>18</v>
       </c>
@@ -2192,8 +2242,8 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="56"/>
-      <c r="C76" s="59"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="49"/>
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
@@ -2202,8 +2252,8 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="56"/>
-      <c r="C77" s="59"/>
+      <c r="B77" s="46"/>
+      <c r="C77" s="49"/>
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
@@ -2212,8 +2262,8 @@
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="57"/>
-      <c r="C78" s="60"/>
+      <c r="B78" s="47"/>
+      <c r="C78" s="50"/>
       <c r="D78" s="16" t="s">
         <v>21</v>
       </c>
@@ -2222,10 +2272,10 @@
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="61">
+      <c r="B79" s="39">
         <v>43970</v>
       </c>
-      <c r="C79" s="64" t="s">
+      <c r="C79" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -2236,8 +2286,8 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="62"/>
-      <c r="C80" s="65"/>
+      <c r="B80" s="40"/>
+      <c r="C80" s="43"/>
       <c r="D80" s="21" t="s">
         <v>14</v>
       </c>
@@ -2246,8 +2296,8 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="62"/>
-      <c r="C81" s="65"/>
+      <c r="B81" s="40"/>
+      <c r="C81" s="43"/>
       <c r="D81" s="21" t="s">
         <v>15</v>
       </c>
@@ -2256,8 +2306,8 @@
       <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="62"/>
-      <c r="C82" s="65"/>
+      <c r="B82" s="40"/>
+      <c r="C82" s="43"/>
       <c r="D82" s="26" t="s">
         <v>7</v>
       </c>
@@ -2266,8 +2316,8 @@
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="62"/>
-      <c r="C83" s="65"/>
+      <c r="B83" s="40"/>
+      <c r="C83" s="43"/>
       <c r="D83" s="21" t="s">
         <v>10</v>
       </c>
@@ -2276,8 +2326,8 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="62"/>
-      <c r="C84" s="65"/>
+      <c r="B84" s="40"/>
+      <c r="C84" s="43"/>
       <c r="D84" s="21" t="s">
         <v>82</v>
       </c>
@@ -2286,8 +2336,8 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="62"/>
-      <c r="C85" s="65"/>
+      <c r="B85" s="40"/>
+      <c r="C85" s="43"/>
       <c r="D85" s="21" t="s">
         <v>83</v>
       </c>
@@ -2296,8 +2346,8 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="62"/>
-      <c r="C86" s="65"/>
+      <c r="B86" s="40"/>
+      <c r="C86" s="43"/>
       <c r="D86" s="21" t="s">
         <v>84</v>
       </c>
@@ -2306,8 +2356,8 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="62"/>
-      <c r="C87" s="65"/>
+      <c r="B87" s="40"/>
+      <c r="C87" s="43"/>
       <c r="D87" s="21" t="s">
         <v>85</v>
       </c>
@@ -2316,8 +2366,8 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="63"/>
-      <c r="C88" s="66"/>
+      <c r="B88" s="41"/>
+      <c r="C88" s="44"/>
       <c r="D88" s="16" t="s">
         <v>21</v>
       </c>
@@ -2326,10 +2376,10 @@
       <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="55">
+      <c r="B89" s="45">
         <v>43971</v>
       </c>
-      <c r="C89" s="58" t="s">
+      <c r="C89" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2340,8 +2390,8 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="56"/>
-      <c r="C90" s="59"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="49"/>
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
@@ -2350,8 +2400,8 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="56"/>
-      <c r="C91" s="59"/>
+      <c r="B91" s="46"/>
+      <c r="C91" s="49"/>
       <c r="D91" s="21" t="s">
         <v>15</v>
       </c>
@@ -2360,8 +2410,8 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="56"/>
-      <c r="C92" s="59"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="49"/>
       <c r="D92" s="26" t="s">
         <v>7</v>
       </c>
@@ -2370,8 +2420,8 @@
       <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="56"/>
-      <c r="C93" s="59"/>
+      <c r="B93" s="46"/>
+      <c r="C93" s="49"/>
       <c r="D93" s="2" t="s">
         <v>16</v>
       </c>
@@ -2380,8 +2430,8 @@
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="56"/>
-      <c r="C94" s="59"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="49"/>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
@@ -2390,8 +2440,8 @@
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="56"/>
-      <c r="C95" s="59"/>
+      <c r="B95" s="46"/>
+      <c r="C95" s="49"/>
       <c r="D95" s="21" t="s">
         <v>18</v>
       </c>
@@ -2400,8 +2450,8 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="56"/>
-      <c r="C96" s="59"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="49"/>
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
@@ -2410,8 +2460,8 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="56"/>
-      <c r="C97" s="59"/>
+      <c r="B97" s="46"/>
+      <c r="C97" s="49"/>
       <c r="D97" s="21" t="s">
         <v>20</v>
       </c>
@@ -2420,8 +2470,8 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="57"/>
-      <c r="C98" s="60"/>
+      <c r="B98" s="47"/>
+      <c r="C98" s="50"/>
       <c r="D98" s="16" t="s">
         <v>21</v>
       </c>
@@ -2430,10 +2480,10 @@
       <c r="G98" s="19"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="61">
+      <c r="B99" s="39">
         <v>43972</v>
       </c>
-      <c r="C99" s="64" t="s">
+      <c r="C99" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -2444,8 +2494,8 @@
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="62"/>
-      <c r="C100" s="65"/>
+      <c r="B100" s="40"/>
+      <c r="C100" s="43"/>
       <c r="D100" s="21" t="s">
         <v>14</v>
       </c>
@@ -2454,8 +2504,8 @@
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="62"/>
-      <c r="C101" s="65"/>
+      <c r="B101" s="40"/>
+      <c r="C101" s="43"/>
       <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
@@ -2464,8 +2514,8 @@
       <c r="G101" s="25"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="62"/>
-      <c r="C102" s="65"/>
+      <c r="B102" s="40"/>
+      <c r="C102" s="43"/>
       <c r="D102" s="26" t="s">
         <v>7</v>
       </c>
@@ -2474,8 +2524,8 @@
       <c r="G102" s="29"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="62"/>
-      <c r="C103" s="65"/>
+      <c r="B103" s="40"/>
+      <c r="C103" s="43"/>
       <c r="D103" s="21" t="s">
         <v>10</v>
       </c>
@@ -2484,8 +2534,8 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="62"/>
-      <c r="C104" s="65"/>
+      <c r="B104" s="40"/>
+      <c r="C104" s="43"/>
       <c r="D104" s="21" t="s">
         <v>82</v>
       </c>
@@ -2494,8 +2544,8 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="62"/>
-      <c r="C105" s="65"/>
+      <c r="B105" s="40"/>
+      <c r="C105" s="43"/>
       <c r="D105" s="21" t="s">
         <v>83</v>
       </c>
@@ -2504,8 +2554,8 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="62"/>
-      <c r="C106" s="65"/>
+      <c r="B106" s="40"/>
+      <c r="C106" s="43"/>
       <c r="D106" s="21" t="s">
         <v>84</v>
       </c>
@@ -2514,8 +2564,8 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="62"/>
-      <c r="C107" s="65"/>
+      <c r="B107" s="40"/>
+      <c r="C107" s="43"/>
       <c r="D107" s="21" t="s">
         <v>85</v>
       </c>
@@ -2524,8 +2574,8 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="63"/>
-      <c r="C108" s="66"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="44"/>
       <c r="D108" s="16" t="s">
         <v>21</v>
       </c>
@@ -2534,10 +2584,10 @@
       <c r="G108" s="19"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="61">
+      <c r="B109" s="39">
         <v>43973</v>
       </c>
-      <c r="C109" s="64" t="s">
+      <c r="C109" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -2548,8 +2598,8 @@
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="62"/>
-      <c r="C110" s="65"/>
+      <c r="B110" s="40"/>
+      <c r="C110" s="43"/>
       <c r="D110" s="21" t="s">
         <v>14</v>
       </c>
@@ -2558,8 +2608,8 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="62"/>
-      <c r="C111" s="65"/>
+      <c r="B111" s="40"/>
+      <c r="C111" s="43"/>
       <c r="D111" s="21" t="s">
         <v>15</v>
       </c>
@@ -2568,8 +2618,8 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="62"/>
-      <c r="C112" s="65"/>
+      <c r="B112" s="40"/>
+      <c r="C112" s="43"/>
       <c r="D112" s="26" t="s">
         <v>7</v>
       </c>
@@ -2578,8 +2628,8 @@
       <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="62"/>
-      <c r="C113" s="65"/>
+      <c r="B113" s="40"/>
+      <c r="C113" s="43"/>
       <c r="D113" s="2" t="s">
         <v>16</v>
       </c>
@@ -2588,8 +2638,8 @@
       <c r="G113" s="20"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="62"/>
-      <c r="C114" s="65"/>
+      <c r="B114" s="40"/>
+      <c r="C114" s="43"/>
       <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
@@ -2598,8 +2648,8 @@
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="62"/>
-      <c r="C115" s="65"/>
+      <c r="B115" s="40"/>
+      <c r="C115" s="43"/>
       <c r="D115" s="21" t="s">
         <v>18</v>
       </c>
@@ -2608,8 +2658,8 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="62"/>
-      <c r="C116" s="65"/>
+      <c r="B116" s="40"/>
+      <c r="C116" s="43"/>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
@@ -2618,8 +2668,8 @@
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="62"/>
-      <c r="C117" s="65"/>
+      <c r="B117" s="40"/>
+      <c r="C117" s="43"/>
       <c r="D117" s="21" t="s">
         <v>20</v>
       </c>
@@ -2628,8 +2678,8 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="63"/>
-      <c r="C118" s="66"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="44"/>
       <c r="D118" s="16" t="s">
         <v>21</v>
       </c>
@@ -2638,10 +2688,10 @@
       <c r="G118" s="19"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="55">
+      <c r="B119" s="45">
         <v>43976</v>
       </c>
-      <c r="C119" s="58" t="s">
+      <c r="C119" s="48" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -2652,8 +2702,8 @@
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="56"/>
-      <c r="C120" s="59"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="49"/>
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
@@ -2662,8 +2712,8 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="56"/>
-      <c r="C121" s="59"/>
+      <c r="B121" s="46"/>
+      <c r="C121" s="49"/>
       <c r="D121" s="21" t="s">
         <v>15</v>
       </c>
@@ -2672,8 +2722,8 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="56"/>
-      <c r="C122" s="59"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="49"/>
       <c r="D122" s="26" t="s">
         <v>7</v>
       </c>
@@ -2682,8 +2732,8 @@
       <c r="G122" s="29"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="56"/>
-      <c r="C123" s="59"/>
+      <c r="B123" s="46"/>
+      <c r="C123" s="49"/>
       <c r="D123" s="2" t="s">
         <v>16</v>
       </c>
@@ -2692,8 +2742,8 @@
       <c r="G123" s="20"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="56"/>
-      <c r="C124" s="59"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="49"/>
       <c r="D124" s="2" t="s">
         <v>17</v>
       </c>
@@ -2702,8 +2752,8 @@
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="56"/>
-      <c r="C125" s="59"/>
+      <c r="B125" s="46"/>
+      <c r="C125" s="49"/>
       <c r="D125" s="21" t="s">
         <v>18</v>
       </c>
@@ -2712,8 +2762,8 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="56"/>
-      <c r="C126" s="59"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="49"/>
       <c r="D126" s="2" t="s">
         <v>19</v>
       </c>
@@ -2722,8 +2772,8 @@
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="56"/>
-      <c r="C127" s="59"/>
+      <c r="B127" s="46"/>
+      <c r="C127" s="49"/>
       <c r="D127" s="21" t="s">
         <v>20</v>
       </c>
@@ -2732,8 +2782,8 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="57"/>
-      <c r="C128" s="60"/>
+      <c r="B128" s="47"/>
+      <c r="C128" s="50"/>
       <c r="D128" s="16" t="s">
         <v>21</v>
       </c>
@@ -2742,10 +2792,10 @@
       <c r="G128" s="19"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="61">
+      <c r="B129" s="39">
         <v>43977</v>
       </c>
-      <c r="C129" s="64" t="s">
+      <c r="C129" s="42" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="21" t="s">
@@ -2756,8 +2806,8 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="62"/>
-      <c r="C130" s="65"/>
+      <c r="B130" s="40"/>
+      <c r="C130" s="43"/>
       <c r="D130" s="21" t="s">
         <v>14</v>
       </c>
@@ -2766,8 +2816,8 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="62"/>
-      <c r="C131" s="65"/>
+      <c r="B131" s="40"/>
+      <c r="C131" s="43"/>
       <c r="D131" s="21" t="s">
         <v>15</v>
       </c>
@@ -2776,8 +2826,8 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="62"/>
-      <c r="C132" s="65"/>
+      <c r="B132" s="40"/>
+      <c r="C132" s="43"/>
       <c r="D132" s="26" t="s">
         <v>7</v>
       </c>
@@ -2786,8 +2836,8 @@
       <c r="G132" s="29"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="62"/>
-      <c r="C133" s="65"/>
+      <c r="B133" s="40"/>
+      <c r="C133" s="43"/>
       <c r="D133" s="21" t="s">
         <v>10</v>
       </c>
@@ -2796,8 +2846,8 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="62"/>
-      <c r="C134" s="65"/>
+      <c r="B134" s="40"/>
+      <c r="C134" s="43"/>
       <c r="D134" s="21" t="s">
         <v>82</v>
       </c>
@@ -2806,8 +2856,8 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="62"/>
-      <c r="C135" s="65"/>
+      <c r="B135" s="40"/>
+      <c r="C135" s="43"/>
       <c r="D135" s="21" t="s">
         <v>83</v>
       </c>
@@ -2816,8 +2866,8 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="62"/>
-      <c r="C136" s="65"/>
+      <c r="B136" s="40"/>
+      <c r="C136" s="43"/>
       <c r="D136" s="21" t="s">
         <v>84</v>
       </c>
@@ -2826,8 +2876,8 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="62"/>
-      <c r="C137" s="65"/>
+      <c r="B137" s="40"/>
+      <c r="C137" s="43"/>
       <c r="D137" s="21" t="s">
         <v>85</v>
       </c>
@@ -2836,8 +2886,8 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="63"/>
-      <c r="C138" s="66"/>
+      <c r="B138" s="41"/>
+      <c r="C138" s="44"/>
       <c r="D138" s="16" t="s">
         <v>21</v>
       </c>
@@ -2846,10 +2896,10 @@
       <c r="G138" s="19"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="55">
+      <c r="B139" s="45">
         <v>43978</v>
       </c>
-      <c r="C139" s="58" t="s">
+      <c r="C139" s="48" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -2860,8 +2910,8 @@
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="56"/>
-      <c r="C140" s="59"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="49"/>
       <c r="D140" s="21" t="s">
         <v>14</v>
       </c>
@@ -2870,8 +2920,8 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="56"/>
-      <c r="C141" s="59"/>
+      <c r="B141" s="46"/>
+      <c r="C141" s="49"/>
       <c r="D141" s="21" t="s">
         <v>15</v>
       </c>
@@ -2880,8 +2930,8 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="56"/>
-      <c r="C142" s="59"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="49"/>
       <c r="D142" s="26" t="s">
         <v>7</v>
       </c>
@@ -2890,8 +2940,8 @@
       <c r="G142" s="29"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="56"/>
-      <c r="C143" s="59"/>
+      <c r="B143" s="46"/>
+      <c r="C143" s="49"/>
       <c r="D143" s="2" t="s">
         <v>16</v>
       </c>
@@ -2900,8 +2950,8 @@
       <c r="G143" s="20"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="56"/>
-      <c r="C144" s="59"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="49"/>
       <c r="D144" s="2" t="s">
         <v>17</v>
       </c>
@@ -2910,8 +2960,8 @@
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="56"/>
-      <c r="C145" s="59"/>
+      <c r="B145" s="46"/>
+      <c r="C145" s="49"/>
       <c r="D145" s="21" t="s">
         <v>18</v>
       </c>
@@ -2920,8 +2970,8 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="56"/>
-      <c r="C146" s="59"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="49"/>
       <c r="D146" s="2" t="s">
         <v>19</v>
       </c>
@@ -2930,8 +2980,8 @@
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="56"/>
-      <c r="C147" s="59"/>
+      <c r="B147" s="46"/>
+      <c r="C147" s="49"/>
       <c r="D147" s="21" t="s">
         <v>20</v>
       </c>
@@ -2940,8 +2990,8 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="57"/>
-      <c r="C148" s="60"/>
+      <c r="B148" s="47"/>
+      <c r="C148" s="50"/>
       <c r="D148" s="16" t="s">
         <v>21</v>
       </c>
@@ -2950,10 +3000,10 @@
       <c r="G148" s="19"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="61">
+      <c r="B149" s="39">
         <v>43979</v>
       </c>
-      <c r="C149" s="64" t="s">
+      <c r="C149" s="42" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="21" t="s">
@@ -2964,8 +3014,8 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="62"/>
-      <c r="C150" s="65"/>
+      <c r="B150" s="40"/>
+      <c r="C150" s="43"/>
       <c r="D150" s="21" t="s">
         <v>14</v>
       </c>
@@ -2974,8 +3024,8 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="62"/>
-      <c r="C151" s="65"/>
+      <c r="B151" s="40"/>
+      <c r="C151" s="43"/>
       <c r="D151" s="21" t="s">
         <v>15</v>
       </c>
@@ -2984,8 +3034,8 @@
       <c r="G151" s="25"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="62"/>
-      <c r="C152" s="65"/>
+      <c r="B152" s="40"/>
+      <c r="C152" s="43"/>
       <c r="D152" s="26" t="s">
         <v>7</v>
       </c>
@@ -2994,8 +3044,8 @@
       <c r="G152" s="29"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="62"/>
-      <c r="C153" s="65"/>
+      <c r="B153" s="40"/>
+      <c r="C153" s="43"/>
       <c r="D153" s="21" t="s">
         <v>10</v>
       </c>
@@ -3004,8 +3054,8 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="62"/>
-      <c r="C154" s="65"/>
+      <c r="B154" s="40"/>
+      <c r="C154" s="43"/>
       <c r="D154" s="21" t="s">
         <v>82</v>
       </c>
@@ -3014,8 +3064,8 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="62"/>
-      <c r="C155" s="65"/>
+      <c r="B155" s="40"/>
+      <c r="C155" s="43"/>
       <c r="D155" s="21" t="s">
         <v>83</v>
       </c>
@@ -3024,8 +3074,8 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="62"/>
-      <c r="C156" s="65"/>
+      <c r="B156" s="40"/>
+      <c r="C156" s="43"/>
       <c r="D156" s="21" t="s">
         <v>84</v>
       </c>
@@ -3034,8 +3084,8 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="62"/>
-      <c r="C157" s="65"/>
+      <c r="B157" s="40"/>
+      <c r="C157" s="43"/>
       <c r="D157" s="21" t="s">
         <v>85</v>
       </c>
@@ -3044,8 +3094,8 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="63"/>
-      <c r="C158" s="66"/>
+      <c r="B158" s="41"/>
+      <c r="C158" s="44"/>
       <c r="D158" s="16" t="s">
         <v>21</v>
       </c>
@@ -3054,10 +3104,10 @@
       <c r="G158" s="19"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="61">
+      <c r="B159" s="39">
         <v>43980</v>
       </c>
-      <c r="C159" s="64" t="s">
+      <c r="C159" s="42" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -3068,8 +3118,8 @@
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="62"/>
-      <c r="C160" s="65"/>
+      <c r="B160" s="40"/>
+      <c r="C160" s="43"/>
       <c r="D160" s="21" t="s">
         <v>14</v>
       </c>
@@ -3078,8 +3128,8 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="62"/>
-      <c r="C161" s="65"/>
+      <c r="B161" s="40"/>
+      <c r="C161" s="43"/>
       <c r="D161" s="21" t="s">
         <v>15</v>
       </c>
@@ -3088,8 +3138,8 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="62"/>
-      <c r="C162" s="65"/>
+      <c r="B162" s="40"/>
+      <c r="C162" s="43"/>
       <c r="D162" s="26" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3148,8 @@
       <c r="G162" s="29"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="62"/>
-      <c r="C163" s="65"/>
+      <c r="B163" s="40"/>
+      <c r="C163" s="43"/>
       <c r="D163" s="2" t="s">
         <v>16</v>
       </c>
@@ -3108,8 +3158,8 @@
       <c r="G163" s="20"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="62"/>
-      <c r="C164" s="65"/>
+      <c r="B164" s="40"/>
+      <c r="C164" s="43"/>
       <c r="D164" s="2" t="s">
         <v>17</v>
       </c>
@@ -3118,8 +3168,8 @@
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="62"/>
-      <c r="C165" s="65"/>
+      <c r="B165" s="40"/>
+      <c r="C165" s="43"/>
       <c r="D165" s="21" t="s">
         <v>18</v>
       </c>
@@ -3128,8 +3178,8 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="62"/>
-      <c r="C166" s="65"/>
+      <c r="B166" s="40"/>
+      <c r="C166" s="43"/>
       <c r="D166" s="2" t="s">
         <v>19</v>
       </c>
@@ -3138,8 +3188,8 @@
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="62"/>
-      <c r="C167" s="65"/>
+      <c r="B167" s="40"/>
+      <c r="C167" s="43"/>
       <c r="D167" s="21" t="s">
         <v>20</v>
       </c>
@@ -3148,8 +3198,8 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="63"/>
-      <c r="C168" s="66"/>
+      <c r="B168" s="41"/>
+      <c r="C168" s="44"/>
       <c r="D168" s="16" t="s">
         <v>21</v>
       </c>
@@ -3158,8 +3208,8 @@
       <c r="G168" s="19"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="55"/>
-      <c r="C169" s="58" t="s">
+      <c r="B169" s="45"/>
+      <c r="C169" s="48" t="s">
         <v>77</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -3170,8 +3220,8 @@
       <c r="G169" s="6"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="56"/>
-      <c r="C170" s="59"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="49"/>
       <c r="D170" s="21" t="s">
         <v>14</v>
       </c>
@@ -3180,8 +3230,8 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="56"/>
-      <c r="C171" s="59"/>
+      <c r="B171" s="46"/>
+      <c r="C171" s="49"/>
       <c r="D171" s="21" t="s">
         <v>15</v>
       </c>
@@ -3190,8 +3240,8 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="56"/>
-      <c r="C172" s="59"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="49"/>
       <c r="D172" s="26" t="s">
         <v>7</v>
       </c>
@@ -3200,8 +3250,8 @@
       <c r="G172" s="29"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="56"/>
-      <c r="C173" s="59"/>
+      <c r="B173" s="46"/>
+      <c r="C173" s="49"/>
       <c r="D173" s="2" t="s">
         <v>16</v>
       </c>
@@ -3210,8 +3260,8 @@
       <c r="G173" s="20"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="56"/>
-      <c r="C174" s="59"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="49"/>
       <c r="D174" s="2" t="s">
         <v>17</v>
       </c>
@@ -3220,8 +3270,8 @@
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="56"/>
-      <c r="C175" s="59"/>
+      <c r="B175" s="46"/>
+      <c r="C175" s="49"/>
       <c r="D175" s="21" t="s">
         <v>18</v>
       </c>
@@ -3230,8 +3280,8 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="56"/>
-      <c r="C176" s="59"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="49"/>
       <c r="D176" s="2" t="s">
         <v>19</v>
       </c>
@@ -3240,8 +3290,8 @@
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="56"/>
-      <c r="C177" s="59"/>
+      <c r="B177" s="46"/>
+      <c r="C177" s="49"/>
       <c r="D177" s="21" t="s">
         <v>20</v>
       </c>
@@ -3250,8 +3300,8 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="57"/>
-      <c r="C178" s="60"/>
+      <c r="B178" s="47"/>
+      <c r="C178" s="50"/>
       <c r="D178" s="16" t="s">
         <v>21</v>
       </c>
@@ -3260,8 +3310,8 @@
       <c r="G178" s="19"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="61"/>
-      <c r="C179" s="64" t="s">
+      <c r="B179" s="39"/>
+      <c r="C179" s="42" t="s">
         <v>78</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -3272,8 +3322,8 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="62"/>
-      <c r="C180" s="65"/>
+      <c r="B180" s="40"/>
+      <c r="C180" s="43"/>
       <c r="D180" s="21" t="s">
         <v>14</v>
       </c>
@@ -3282,8 +3332,8 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="62"/>
-      <c r="C181" s="65"/>
+      <c r="B181" s="40"/>
+      <c r="C181" s="43"/>
       <c r="D181" s="21" t="s">
         <v>15</v>
       </c>
@@ -3292,8 +3342,8 @@
       <c r="G181" s="25"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="62"/>
-      <c r="C182" s="65"/>
+      <c r="B182" s="40"/>
+      <c r="C182" s="43"/>
       <c r="D182" s="26" t="s">
         <v>7</v>
       </c>
@@ -3302,8 +3352,8 @@
       <c r="G182" s="29"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="62"/>
-      <c r="C183" s="65"/>
+      <c r="B183" s="40"/>
+      <c r="C183" s="43"/>
       <c r="D183" s="21" t="s">
         <v>10</v>
       </c>
@@ -3312,8 +3362,8 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="62"/>
-      <c r="C184" s="65"/>
+      <c r="B184" s="40"/>
+      <c r="C184" s="43"/>
       <c r="D184" s="21" t="s">
         <v>82</v>
       </c>
@@ -3322,8 +3372,8 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="62"/>
-      <c r="C185" s="65"/>
+      <c r="B185" s="40"/>
+      <c r="C185" s="43"/>
       <c r="D185" s="21" t="s">
         <v>83</v>
       </c>
@@ -3332,8 +3382,8 @@
       <c r="G185" s="24"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="62"/>
-      <c r="C186" s="65"/>
+      <c r="B186" s="40"/>
+      <c r="C186" s="43"/>
       <c r="D186" s="21" t="s">
         <v>84</v>
       </c>
@@ -3342,8 +3392,8 @@
       <c r="G186" s="24"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="62"/>
-      <c r="C187" s="65"/>
+      <c r="B187" s="40"/>
+      <c r="C187" s="43"/>
       <c r="D187" s="21" t="s">
         <v>85</v>
       </c>
@@ -3352,8 +3402,8 @@
       <c r="G187" s="24"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="63"/>
-      <c r="C188" s="66"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="44"/>
       <c r="D188" s="16" t="s">
         <v>21</v>
       </c>
@@ -3362,8 +3412,8 @@
       <c r="G188" s="19"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="55"/>
-      <c r="C189" s="58" t="s">
+      <c r="B189" s="45"/>
+      <c r="C189" s="48" t="s">
         <v>79</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -3374,8 +3424,8 @@
       <c r="G189" s="6"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="56"/>
-      <c r="C190" s="59"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="49"/>
       <c r="D190" s="21" t="s">
         <v>14</v>
       </c>
@@ -3384,8 +3434,8 @@
       <c r="G190" s="24"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="56"/>
-      <c r="C191" s="59"/>
+      <c r="B191" s="46"/>
+      <c r="C191" s="49"/>
       <c r="D191" s="21" t="s">
         <v>15</v>
       </c>
@@ -3394,8 +3444,8 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="56"/>
-      <c r="C192" s="59"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="49"/>
       <c r="D192" s="26" t="s">
         <v>7</v>
       </c>
@@ -3404,8 +3454,8 @@
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="56"/>
-      <c r="C193" s="59"/>
+      <c r="B193" s="46"/>
+      <c r="C193" s="49"/>
       <c r="D193" s="2" t="s">
         <v>16</v>
       </c>
@@ -3414,8 +3464,8 @@
       <c r="G193" s="20"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="56"/>
-      <c r="C194" s="59"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="49"/>
       <c r="D194" s="2" t="s">
         <v>17</v>
       </c>
@@ -3424,8 +3474,8 @@
       <c r="G194" s="6"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="56"/>
-      <c r="C195" s="59"/>
+      <c r="B195" s="46"/>
+      <c r="C195" s="49"/>
       <c r="D195" s="21" t="s">
         <v>18</v>
       </c>
@@ -3434,8 +3484,8 @@
       <c r="G195" s="24"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="56"/>
-      <c r="C196" s="59"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="49"/>
       <c r="D196" s="2" t="s">
         <v>19</v>
       </c>
@@ -3444,8 +3494,8 @@
       <c r="G196" s="6"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="56"/>
-      <c r="C197" s="59"/>
+      <c r="B197" s="46"/>
+      <c r="C197" s="49"/>
       <c r="D197" s="21" t="s">
         <v>20</v>
       </c>
@@ -3454,8 +3504,8 @@
       <c r="G197" s="24"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="57"/>
-      <c r="C198" s="60"/>
+      <c r="B198" s="47"/>
+      <c r="C198" s="50"/>
       <c r="D198" s="16" t="s">
         <v>21</v>
       </c>
@@ -3464,8 +3514,8 @@
       <c r="G198" s="19"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="61"/>
-      <c r="C199" s="64" t="s">
+      <c r="B199" s="39"/>
+      <c r="C199" s="42" t="s">
         <v>80</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -3476,8 +3526,8 @@
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="62"/>
-      <c r="C200" s="65"/>
+      <c r="B200" s="40"/>
+      <c r="C200" s="43"/>
       <c r="D200" s="21" t="s">
         <v>14</v>
       </c>
@@ -3486,8 +3536,8 @@
       <c r="G200" s="24"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="62"/>
-      <c r="C201" s="65"/>
+      <c r="B201" s="40"/>
+      <c r="C201" s="43"/>
       <c r="D201" s="21" t="s">
         <v>15</v>
       </c>
@@ -3496,8 +3546,8 @@
       <c r="G201" s="25"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="62"/>
-      <c r="C202" s="65"/>
+      <c r="B202" s="40"/>
+      <c r="C202" s="43"/>
       <c r="D202" s="26" t="s">
         <v>7</v>
       </c>
@@ -3506,8 +3556,8 @@
       <c r="G202" s="29"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="62"/>
-      <c r="C203" s="65"/>
+      <c r="B203" s="40"/>
+      <c r="C203" s="43"/>
       <c r="D203" s="21" t="s">
         <v>10</v>
       </c>
@@ -3516,8 +3566,8 @@
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="62"/>
-      <c r="C204" s="65"/>
+      <c r="B204" s="40"/>
+      <c r="C204" s="43"/>
       <c r="D204" s="21" t="s">
         <v>82</v>
       </c>
@@ -3526,8 +3576,8 @@
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="62"/>
-      <c r="C205" s="65"/>
+      <c r="B205" s="40"/>
+      <c r="C205" s="43"/>
       <c r="D205" s="21" t="s">
         <v>83</v>
       </c>
@@ -3536,8 +3586,8 @@
       <c r="G205" s="24"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="62"/>
-      <c r="C206" s="65"/>
+      <c r="B206" s="40"/>
+      <c r="C206" s="43"/>
       <c r="D206" s="21" t="s">
         <v>84</v>
       </c>
@@ -3546,8 +3596,8 @@
       <c r="G206" s="24"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="62"/>
-      <c r="C207" s="65"/>
+      <c r="B207" s="40"/>
+      <c r="C207" s="43"/>
       <c r="D207" s="21" t="s">
         <v>85</v>
       </c>
@@ -3556,8 +3606,8 @@
       <c r="G207" s="24"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="63"/>
-      <c r="C208" s="66"/>
+      <c r="B208" s="41"/>
+      <c r="C208" s="44"/>
       <c r="D208" s="16" t="s">
         <v>21</v>
       </c>
@@ -3566,8 +3616,8 @@
       <c r="G208" s="19"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="61"/>
-      <c r="C209" s="64" t="s">
+      <c r="B209" s="39"/>
+      <c r="C209" s="42" t="s">
         <v>81</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -3578,8 +3628,8 @@
       <c r="G209" s="6"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="62"/>
-      <c r="C210" s="65"/>
+      <c r="B210" s="40"/>
+      <c r="C210" s="43"/>
       <c r="D210" s="21" t="s">
         <v>14</v>
       </c>
@@ -3588,8 +3638,8 @@
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="62"/>
-      <c r="C211" s="65"/>
+      <c r="B211" s="40"/>
+      <c r="C211" s="43"/>
       <c r="D211" s="21" t="s">
         <v>15</v>
       </c>
@@ -3598,8 +3648,8 @@
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="62"/>
-      <c r="C212" s="65"/>
+      <c r="B212" s="40"/>
+      <c r="C212" s="43"/>
       <c r="D212" s="26" t="s">
         <v>7</v>
       </c>
@@ -3608,8 +3658,8 @@
       <c r="G212" s="29"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="62"/>
-      <c r="C213" s="65"/>
+      <c r="B213" s="40"/>
+      <c r="C213" s="43"/>
       <c r="D213" s="2" t="s">
         <v>16</v>
       </c>
@@ -3618,8 +3668,8 @@
       <c r="G213" s="20"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="62"/>
-      <c r="C214" s="65"/>
+      <c r="B214" s="40"/>
+      <c r="C214" s="43"/>
       <c r="D214" s="2" t="s">
         <v>17</v>
       </c>
@@ -3628,8 +3678,8 @@
       <c r="G214" s="6"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="62"/>
-      <c r="C215" s="65"/>
+      <c r="B215" s="40"/>
+      <c r="C215" s="43"/>
       <c r="D215" s="21" t="s">
         <v>18</v>
       </c>
@@ -3638,8 +3688,8 @@
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="62"/>
-      <c r="C216" s="65"/>
+      <c r="B216" s="40"/>
+      <c r="C216" s="43"/>
       <c r="D216" s="2" t="s">
         <v>19</v>
       </c>
@@ -3648,8 +3698,8 @@
       <c r="G216" s="6"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="62"/>
-      <c r="C217" s="65"/>
+      <c r="B217" s="40"/>
+      <c r="C217" s="43"/>
       <c r="D217" s="21" t="s">
         <v>20</v>
       </c>
@@ -3658,8 +3708,8 @@
       <c r="G217" s="24"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="63"/>
-      <c r="C218" s="66"/>
+      <c r="B218" s="41"/>
+      <c r="C218" s="44"/>
       <c r="D218" s="16" t="s">
         <v>21</v>
       </c>
@@ -3669,46 +3719,11 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="C199:C208"/>
-    <mergeCell ref="B209:B218"/>
-    <mergeCell ref="C209:C218"/>
-    <mergeCell ref="B169:B178"/>
-    <mergeCell ref="C169:C178"/>
-    <mergeCell ref="B179:B188"/>
-    <mergeCell ref="C179:C188"/>
-    <mergeCell ref="B189:B198"/>
-    <mergeCell ref="C189:C198"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="B159:B168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="C109:C118"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="C119:C128"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="C129:C138"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="C99:C108"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="B1:G1"/>
@@ -3725,11 +3740,46 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C48"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="C89:C98"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="C99:C108"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="C109:C118"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="C119:C128"/>
+    <mergeCell ref="B129:B138"/>
+    <mergeCell ref="C129:C138"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="C139:C148"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="B159:B168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="C199:C208"/>
+    <mergeCell ref="B209:B218"/>
+    <mergeCell ref="C209:C218"/>
+    <mergeCell ref="B169:B178"/>
+    <mergeCell ref="C169:C178"/>
+    <mergeCell ref="B179:B188"/>
+    <mergeCell ref="C179:C188"/>
+    <mergeCell ref="B189:B198"/>
+    <mergeCell ref="C189:C198"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BFFFEF8-5EAD-4B3B-A2C1-99ECA558094B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB8AF6-BD6B-49C7-A937-A780DAE34933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="121">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -458,6 +458,15 @@
   </si>
   <si>
     <t>ENG</t>
+  </si>
+  <si>
+    <t>O</t>
+  </si>
+  <si>
+    <t>Cucumber SCPI</t>
+  </si>
+  <si>
+    <t>3GPP TM</t>
   </si>
 </sst>
 </file>
@@ -1380,8 +1389,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E48" sqref="E48"/>
+      <pane ySplit="18" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1864,7 +1873,9 @@
       <c r="E40" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F40" s="23"/>
+      <c r="F40" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
@@ -1876,7 +1887,9 @@
       <c r="E41" s="22" t="s">
         <v>103</v>
       </c>
-      <c r="F41" s="23"/>
+      <c r="F41" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
@@ -1910,7 +1923,9 @@
       <c r="E44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="F44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>118</v>
+      </c>
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:7">
@@ -1922,7 +1937,9 @@
       <c r="E45" s="22" t="s">
         <v>114</v>
       </c>
-      <c r="F45" s="21"/>
+      <c r="F45" s="21" t="s">
+        <v>118</v>
+      </c>
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
@@ -1946,7 +1963,9 @@
       <c r="E47" s="22" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="23"/>
+      <c r="F47" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
@@ -1979,8 +1998,12 @@
       <c r="D50" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E50" s="3"/>
-      <c r="F50" s="23"/>
+      <c r="E50" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F50" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7">
@@ -1989,8 +2012,12 @@
       <c r="D51" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E51" s="3"/>
-      <c r="F51" s="23"/>
+      <c r="E51" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>118</v>
+      </c>
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="2:7">
@@ -2019,7 +2046,9 @@
       <c r="D54" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E54" s="22"/>
+      <c r="E54" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="F54" s="21"/>
       <c r="G54" s="24"/>
     </row>
@@ -2029,7 +2058,9 @@
       <c r="D55" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E55" s="22"/>
+      <c r="E55" s="22" t="s">
+        <v>120</v>
+      </c>
       <c r="F55" s="23"/>
       <c r="G55" s="24"/>
     </row>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFEB8AF6-BD6B-49C7-A937-A780DAE34933}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270CB9E-7744-48EC-A95A-338F02B8E9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -331,9 +331,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Python</t>
-  </si>
-  <si>
     <t>May</t>
   </si>
   <si>
@@ -367,9 +364,6 @@
     <t>Monthly</t>
   </si>
   <si>
-    <t>Weekly</t>
-  </si>
-  <si>
     <t>Yearly</t>
   </si>
   <si>
@@ -379,27 +373,12 @@
     <t>planner</t>
   </si>
   <si>
-    <t>cucumber 적용</t>
-  </si>
-  <si>
-    <t>refactoring</t>
-  </si>
-  <si>
-    <t>3GPP 규격 리뷰</t>
-  </si>
-  <si>
-    <t>JSON</t>
-  </si>
-  <si>
     <t>HTML/CSS, PC App, Java Script, UML, MCU(RTOS), R, MATLAB</t>
   </si>
   <si>
     <t>PDP Process</t>
   </si>
   <si>
-    <t>Android</t>
-  </si>
-  <si>
     <t>XML,PyQt5, Docker</t>
   </si>
   <si>
@@ -409,9 +388,6 @@
     <t>Innovation</t>
   </si>
   <si>
-    <t>Squish</t>
-  </si>
-  <si>
     <t>squish basic</t>
   </si>
   <si>
@@ -424,9 +400,6 @@
     <t>Agile</t>
   </si>
   <si>
-    <t>JIRA, Bamboo CI/CD, Confluence</t>
-  </si>
-  <si>
     <t>Handling CA5G</t>
   </si>
   <si>
@@ -442,18 +415,12 @@
     <t>daily one hour(piano, reading, etc.)</t>
   </si>
   <si>
-    <t>Git, Jenkins</t>
-  </si>
-  <si>
     <t>GDB</t>
   </si>
   <si>
     <t>Cucumber</t>
   </si>
   <si>
-    <t>C++, 3GPP TM, Cucumber</t>
-  </si>
-  <si>
     <t>CPP</t>
   </si>
   <si>
@@ -467,6 +434,100 @@
   </si>
   <si>
     <t>3GPP TM</t>
+  </si>
+  <si>
+    <t>cucumber scpi</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Python, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C++</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, JSON</t>
+    </r>
+  </si>
+  <si>
+    <t>Android, Linux</t>
+  </si>
+  <si>
+    <t>Jenkins</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Git, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>JIRA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Bamboo CI/CD, Confluence</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Cucumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Squish, </t>
+    </r>
+  </si>
+  <si>
+    <t>C++, JIRA</t>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Weekly
+(5/18 - 5/22)</t>
+  </si>
+  <si>
+    <t>JIRA study</t>
+  </si>
+  <si>
+    <t>cucumber scpi implementing</t>
+  </si>
+  <si>
+    <t>Cpp study</t>
   </si>
 </sst>
 </file>
@@ -477,7 +538,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,6 +615,14 @@
       <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -732,7 +801,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -945,6 +1014,12 @@
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1389,8 +1464,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <pane ySplit="18" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1406,7 +1481,7 @@
   <sheetData>
     <row r="1" spans="2:7">
       <c r="B1" s="58" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C1" s="58"/>
       <c r="D1" s="58"/>
@@ -1416,29 +1491,27 @@
     </row>
     <row r="2" spans="2:7">
       <c r="B2" s="56" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" s="57"/>
       <c r="D2" s="63" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
       <c r="E2" s="64"/>
       <c r="F2" s="64"/>
-      <c r="G2" s="37" t="s">
-        <v>75</v>
+      <c r="G2" s="71" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="3" spans="2:7">
       <c r="B3" s="56"/>
       <c r="C3" s="57"/>
       <c r="D3" s="65" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E3" s="66"/>
       <c r="F3" s="66"/>
-      <c r="G3" s="38" t="s">
-        <v>115</v>
-      </c>
+      <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
       <c r="B4" s="56"/>
@@ -1447,7 +1520,7 @@
       <c r="E4" s="66"/>
       <c r="F4" s="66"/>
       <c r="G4" s="37" t="s">
-        <v>94</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:7">
@@ -1456,34 +1529,34 @@
       <c r="D5" s="65"/>
       <c r="E5" s="66"/>
       <c r="F5" s="66"/>
-      <c r="G5" s="37" t="s">
-        <v>96</v>
+      <c r="G5" s="38" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:7">
       <c r="B6" s="56" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C6" s="57"/>
       <c r="D6" s="67" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="E6" s="68"/>
       <c r="F6" s="68"/>
-      <c r="G6" s="36" t="s">
-        <v>97</v>
+      <c r="G6" s="37" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:7">
       <c r="B7" s="56"/>
       <c r="C7" s="57"/>
       <c r="D7" s="67" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E7" s="68"/>
       <c r="F7" s="68"/>
-      <c r="G7" s="36" t="s">
-        <v>112</v>
+      <c r="G7" s="37" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
@@ -1493,7 +1566,7 @@
       <c r="E8" s="68"/>
       <c r="F8" s="68"/>
       <c r="G8" s="36" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7">
@@ -1503,93 +1576,91 @@
       <c r="E9" s="68"/>
       <c r="F9" s="68"/>
       <c r="G9" s="36" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:7">
       <c r="B10" s="59" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C10" s="60"/>
       <c r="D10" s="69" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="E10" s="70"/>
       <c r="F10" s="70"/>
       <c r="G10" s="36" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:7">
       <c r="B11" s="59"/>
       <c r="C11" s="60"/>
       <c r="D11" s="69" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E11" s="70"/>
       <c r="F11" s="70"/>
       <c r="G11" s="36" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:7">
       <c r="B12" s="59"/>
       <c r="C12" s="60"/>
       <c r="D12" s="69" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E12" s="70"/>
       <c r="F12" s="70"/>
       <c r="G12" s="36" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:7">
       <c r="B13" s="59"/>
       <c r="C13" s="60"/>
-      <c r="D13" s="69" t="s">
-        <v>103</v>
-      </c>
+      <c r="D13" s="69"/>
       <c r="E13" s="70"/>
       <c r="F13" s="70"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="61" t="s">
-        <v>87</v>
+      <c r="B14" s="72" t="s">
+        <v>118</v>
       </c>
       <c r="C14" s="62"/>
       <c r="D14" s="54" t="s">
-        <v>91</v>
+        <v>120</v>
       </c>
       <c r="E14" s="55"/>
       <c r="F14" s="55"/>
       <c r="G14" s="36" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
       <c r="B15" s="61"/>
       <c r="C15" s="62"/>
       <c r="D15" s="54" t="s">
-        <v>92</v>
+        <v>119</v>
       </c>
       <c r="E15" s="55"/>
       <c r="F15" s="55"/>
       <c r="G15" s="36" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
       <c r="B16" s="61"/>
       <c r="C16" s="62"/>
       <c r="D16" s="54" t="s">
-        <v>93</v>
+        <v>121</v>
       </c>
       <c r="E16" s="55"/>
       <c r="F16" s="55"/>
       <c r="G16" s="36" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
@@ -1671,7 +1742,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="20"/>
@@ -1683,7 +1754,7 @@
         <v>17</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="6"/>
@@ -1695,7 +1766,7 @@
         <v>18</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F25" s="21"/>
       <c r="G25" s="24"/>
@@ -1707,7 +1778,7 @@
         <v>19</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="6"/>
@@ -1719,7 +1790,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F27" s="23"/>
       <c r="G27" s="24"/>
@@ -1755,7 +1826,7 @@
         <v>14</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="F30" s="23"/>
       <c r="G30" s="24"/>
@@ -1767,7 +1838,7 @@
         <v>15</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F31" s="23"/>
       <c r="G31" s="25"/>
@@ -1796,10 +1867,10 @@
       <c r="B34" s="40"/>
       <c r="C34" s="43"/>
       <c r="D34" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E34" s="22" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="F34" s="21"/>
       <c r="G34" s="24"/>
@@ -1808,10 +1879,10 @@
       <c r="B35" s="40"/>
       <c r="C35" s="43"/>
       <c r="D35" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E35" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F35" s="23"/>
       <c r="G35" s="24"/>
@@ -1820,10 +1891,10 @@
       <c r="B36" s="40"/>
       <c r="C36" s="43"/>
       <c r="D36" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F36" s="21"/>
       <c r="G36" s="24"/>
@@ -1832,10 +1903,10 @@
       <c r="B37" s="40"/>
       <c r="C37" s="43"/>
       <c r="D37" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E37" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F37" s="23"/>
       <c r="G37" s="24"/>
@@ -1871,10 +1942,10 @@
         <v>14</v>
       </c>
       <c r="E40" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F40" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G40" s="24"/>
     </row>
@@ -1885,10 +1956,10 @@
         <v>15</v>
       </c>
       <c r="E41" s="22" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="F41" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G41" s="24"/>
     </row>
@@ -1909,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="E43" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F43" s="7"/>
       <c r="G43" s="20"/>
@@ -1921,10 +1992,10 @@
         <v>17</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G44" s="6"/>
     </row>
@@ -1935,10 +2006,10 @@
         <v>18</v>
       </c>
       <c r="E45" s="22" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F45" s="21" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G45" s="24"/>
     </row>
@@ -1949,7 +2020,7 @@
         <v>19</v>
       </c>
       <c r="E46" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F46" s="2"/>
       <c r="G46" s="6"/>
@@ -1961,10 +2032,10 @@
         <v>20</v>
       </c>
       <c r="E47" s="22" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="F47" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G47" s="24"/>
     </row>
@@ -1999,10 +2070,10 @@
         <v>14</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F50" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G50" s="24"/>
     </row>
@@ -2013,10 +2084,10 @@
         <v>15</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="F51" s="23" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="G51" s="25"/>
     </row>
@@ -2044,33 +2115,39 @@
       <c r="B54" s="52"/>
       <c r="C54" s="43"/>
       <c r="D54" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E54" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F54" s="21"/>
+        <v>109</v>
+      </c>
+      <c r="F54" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
       <c r="B55" s="52"/>
       <c r="C55" s="43"/>
       <c r="D55" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E55" s="22" t="s">
-        <v>120</v>
-      </c>
-      <c r="F55" s="23"/>
+        <v>109</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
       <c r="B56" s="52"/>
       <c r="C56" s="43"/>
       <c r="D56" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E56" s="22"/>
+        <v>83</v>
+      </c>
+      <c r="E56" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="F56" s="21"/>
       <c r="G56" s="24"/>
     </row>
@@ -2078,9 +2155,11 @@
       <c r="B57" s="52"/>
       <c r="C57" s="43"/>
       <c r="D57" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="E57" s="22"/>
+        <v>84</v>
+      </c>
+      <c r="E57" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="F57" s="23"/>
       <c r="G57" s="24"/>
     </row>
@@ -2114,7 +2193,9 @@
       <c r="D60" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E60" s="22"/>
+      <c r="E60" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="F60" s="23"/>
       <c r="G60" s="24"/>
     </row>
@@ -2124,7 +2205,9 @@
       <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="22"/>
+      <c r="E61" s="22" t="s">
+        <v>110</v>
+      </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
     </row>
@@ -2144,7 +2227,9 @@
       <c r="D63" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="3"/>
+      <c r="E63" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F63" s="7"/>
       <c r="G63" s="20"/>
     </row>
@@ -2154,7 +2239,9 @@
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="3"/>
+      <c r="E64" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
     </row>
@@ -2164,7 +2251,9 @@
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="22"/>
+      <c r="E65" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F65" s="21"/>
       <c r="G65" s="24"/>
     </row>
@@ -2174,7 +2263,9 @@
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="3"/>
+      <c r="E66" s="3" t="s">
+        <v>117</v>
+      </c>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
     </row>
@@ -2184,7 +2275,9 @@
       <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="22"/>
+      <c r="E67" s="22" t="s">
+        <v>105</v>
+      </c>
       <c r="F67" s="23"/>
       <c r="G67" s="24"/>
     </row>
@@ -2360,7 +2453,7 @@
       <c r="B84" s="40"/>
       <c r="C84" s="43"/>
       <c r="D84" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E84" s="22"/>
       <c r="F84" s="21"/>
@@ -2370,7 +2463,7 @@
       <c r="B85" s="40"/>
       <c r="C85" s="43"/>
       <c r="D85" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
@@ -2380,7 +2473,7 @@
       <c r="B86" s="40"/>
       <c r="C86" s="43"/>
       <c r="D86" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E86" s="22"/>
       <c r="F86" s="21"/>
@@ -2390,7 +2483,7 @@
       <c r="B87" s="40"/>
       <c r="C87" s="43"/>
       <c r="D87" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
@@ -2568,7 +2661,7 @@
       <c r="B104" s="40"/>
       <c r="C104" s="43"/>
       <c r="D104" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E104" s="22"/>
       <c r="F104" s="21"/>
@@ -2578,7 +2671,7 @@
       <c r="B105" s="40"/>
       <c r="C105" s="43"/>
       <c r="D105" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E105" s="22"/>
       <c r="F105" s="23"/>
@@ -2588,7 +2681,7 @@
       <c r="B106" s="40"/>
       <c r="C106" s="43"/>
       <c r="D106" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="21"/>
@@ -2598,7 +2691,7 @@
       <c r="B107" s="40"/>
       <c r="C107" s="43"/>
       <c r="D107" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E107" s="22"/>
       <c r="F107" s="23"/>
@@ -2880,7 +2973,7 @@
       <c r="B134" s="40"/>
       <c r="C134" s="43"/>
       <c r="D134" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E134" s="22"/>
       <c r="F134" s="21"/>
@@ -2890,7 +2983,7 @@
       <c r="B135" s="40"/>
       <c r="C135" s="43"/>
       <c r="D135" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E135" s="22"/>
       <c r="F135" s="23"/>
@@ -2900,7 +2993,7 @@
       <c r="B136" s="40"/>
       <c r="C136" s="43"/>
       <c r="D136" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E136" s="22"/>
       <c r="F136" s="21"/>
@@ -2910,7 +3003,7 @@
       <c r="B137" s="40"/>
       <c r="C137" s="43"/>
       <c r="D137" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E137" s="22"/>
       <c r="F137" s="23"/>
@@ -3088,7 +3181,7 @@
       <c r="B154" s="40"/>
       <c r="C154" s="43"/>
       <c r="D154" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E154" s="22"/>
       <c r="F154" s="21"/>
@@ -3098,7 +3191,7 @@
       <c r="B155" s="40"/>
       <c r="C155" s="43"/>
       <c r="D155" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E155" s="22"/>
       <c r="F155" s="23"/>
@@ -3108,7 +3201,7 @@
       <c r="B156" s="40"/>
       <c r="C156" s="43"/>
       <c r="D156" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E156" s="22"/>
       <c r="F156" s="21"/>
@@ -3118,7 +3211,7 @@
       <c r="B157" s="40"/>
       <c r="C157" s="43"/>
       <c r="D157" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E157" s="22"/>
       <c r="F157" s="23"/>
@@ -3241,7 +3334,7 @@
     <row r="169" spans="2:7">
       <c r="B169" s="45"/>
       <c r="C169" s="48" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D169" s="2" t="s">
         <v>13</v>
@@ -3343,7 +3436,7 @@
     <row r="179" spans="2:7">
       <c r="B179" s="39"/>
       <c r="C179" s="42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D179" s="21" t="s">
         <v>13</v>
@@ -3396,7 +3489,7 @@
       <c r="B184" s="40"/>
       <c r="C184" s="43"/>
       <c r="D184" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E184" s="22"/>
       <c r="F184" s="21"/>
@@ -3406,7 +3499,7 @@
       <c r="B185" s="40"/>
       <c r="C185" s="43"/>
       <c r="D185" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E185" s="22"/>
       <c r="F185" s="23"/>
@@ -3416,7 +3509,7 @@
       <c r="B186" s="40"/>
       <c r="C186" s="43"/>
       <c r="D186" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E186" s="22"/>
       <c r="F186" s="21"/>
@@ -3426,7 +3519,7 @@
       <c r="B187" s="40"/>
       <c r="C187" s="43"/>
       <c r="D187" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E187" s="22"/>
       <c r="F187" s="23"/>
@@ -3445,7 +3538,7 @@
     <row r="189" spans="2:7">
       <c r="B189" s="45"/>
       <c r="C189" s="48" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D189" s="2" t="s">
         <v>13</v>
@@ -3547,7 +3640,7 @@
     <row r="199" spans="2:7">
       <c r="B199" s="39"/>
       <c r="C199" s="42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D199" s="21" t="s">
         <v>13</v>
@@ -3600,7 +3693,7 @@
       <c r="B204" s="40"/>
       <c r="C204" s="43"/>
       <c r="D204" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="21"/>
@@ -3610,7 +3703,7 @@
       <c r="B205" s="40"/>
       <c r="C205" s="43"/>
       <c r="D205" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E205" s="22"/>
       <c r="F205" s="23"/>
@@ -3620,7 +3713,7 @@
       <c r="B206" s="40"/>
       <c r="C206" s="43"/>
       <c r="D206" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E206" s="22"/>
       <c r="F206" s="21"/>
@@ -3630,7 +3723,7 @@
       <c r="B207" s="40"/>
       <c r="C207" s="43"/>
       <c r="D207" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E207" s="22"/>
       <c r="F207" s="23"/>
@@ -3649,7 +3742,7 @@
     <row r="209" spans="2:7">
       <c r="B209" s="39"/>
       <c r="C209" s="42" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D209" s="2" t="s">
         <v>13</v>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F270CB9E-7744-48EC-A95A-338F02B8E9B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F14F7-D832-4279-9012-0E4625515D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="125">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,9 +511,6 @@
     </r>
   </si>
   <si>
-    <t>C++, JIRA</t>
-  </si>
-  <si>
     <t>JIRA</t>
   </si>
   <si>
@@ -528,6 +525,18 @@
   </si>
   <si>
     <t>Cpp study</t>
+  </si>
+  <si>
+    <t>Cucumber SCPI OCC</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>refactoring constellation calculation</t>
+  </si>
+  <si>
+    <t>cpp</t>
   </si>
 </sst>
 </file>
@@ -538,7 +547,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +629,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
@@ -801,7 +818,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -919,6 +936,9 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,11 +1006,14 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1015,11 +1038,11 @@
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1464,8 +1487,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17:F17"/>
+      <pane ySplit="18" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1480,195 +1503,197 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="59" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="63" t="s">
+      <c r="C2" s="58"/>
+      <c r="D2" s="65" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="71" t="s">
-        <v>116</v>
+      <c r="E2" s="66"/>
+      <c r="F2" s="66"/>
+      <c r="G2" s="39" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="65" t="s">
+      <c r="B3" s="57"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="67" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="56"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66"/>
-      <c r="F4" s="66"/>
+      <c r="B4" s="57"/>
+      <c r="C4" s="58"/>
+      <c r="D4" s="67"/>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
       <c r="G4" s="37" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="56"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="65"/>
-      <c r="E5" s="66"/>
-      <c r="F5" s="66"/>
+      <c r="B5" s="57"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="67"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
       <c r="G5" s="38" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="57"/>
-      <c r="D6" s="67" t="s">
+      <c r="C6" s="58"/>
+      <c r="D6" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="68"/>
-      <c r="F6" s="68"/>
+      <c r="E6" s="70"/>
+      <c r="F6" s="70"/>
       <c r="G6" s="37" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="56"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="67" t="s">
+      <c r="B7" s="57"/>
+      <c r="C7" s="58"/>
+      <c r="D7" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="68"/>
-      <c r="F7" s="68"/>
+      <c r="E7" s="70"/>
+      <c r="F7" s="70"/>
       <c r="G7" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="56"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="67"/>
-      <c r="E8" s="68"/>
-      <c r="F8" s="68"/>
+      <c r="B8" s="57"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="70"/>
+      <c r="F8" s="70"/>
       <c r="G8" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="56"/>
-      <c r="C9" s="57"/>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
-      <c r="F9" s="68"/>
+      <c r="B9" s="57"/>
+      <c r="C9" s="58"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="70"/>
       <c r="G9" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="59" t="s">
+      <c r="B10" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="60"/>
-      <c r="D10" s="69" t="s">
+      <c r="C10" s="61"/>
+      <c r="D10" s="71" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="70"/>
-      <c r="F10" s="70"/>
+      <c r="E10" s="72"/>
+      <c r="F10" s="72"/>
       <c r="G10" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="59"/>
-      <c r="C11" s="60"/>
-      <c r="D11" s="69" t="s">
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="70"/>
-      <c r="F11" s="70"/>
+      <c r="E11" s="72"/>
+      <c r="F11" s="72"/>
       <c r="G11" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="59"/>
-      <c r="C12" s="60"/>
-      <c r="D12" s="69" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
+      <c r="E12" s="72"/>
+      <c r="F12" s="72"/>
       <c r="G12" s="36" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="59"/>
-      <c r="C13" s="60"/>
-      <c r="D13" s="69"/>
-      <c r="E13" s="70"/>
-      <c r="F13" s="70"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="71"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="72"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="72" t="s">
-        <v>118</v>
-      </c>
-      <c r="C14" s="62"/>
-      <c r="D14" s="54" t="s">
-        <v>120</v>
-      </c>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
+      <c r="B14" s="62" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="55" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="61"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="54" t="s">
-        <v>119</v>
-      </c>
-      <c r="E15" s="55"/>
-      <c r="F15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="73" t="s">
+        <v>118</v>
+      </c>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
       <c r="G15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="54" t="s">
-        <v>121</v>
-      </c>
-      <c r="E16" s="55"/>
-      <c r="F16" s="55"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="55" t="s">
+        <v>120</v>
+      </c>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
       <c r="G16" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="61"/>
-      <c r="C17" s="62"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="55"/>
-      <c r="F17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="55" t="s">
+        <v>123</v>
+      </c>
+      <c r="E17" s="56"/>
+      <c r="F17" s="56"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
@@ -1692,10 +1717,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="45">
+      <c r="B19" s="46">
         <v>43962</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1706,8 +1731,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="46"/>
-      <c r="C20" s="49"/>
+      <c r="B20" s="47"/>
+      <c r="C20" s="50"/>
       <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
@@ -1716,8 +1741,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="46"/>
-      <c r="C21" s="49"/>
+      <c r="B21" s="47"/>
+      <c r="C21" s="50"/>
       <c r="D21" s="21" t="s">
         <v>15</v>
       </c>
@@ -1726,8 +1751,8 @@
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="46"/>
-      <c r="C22" s="49"/>
+      <c r="B22" s="47"/>
+      <c r="C22" s="50"/>
       <c r="D22" s="26" t="s">
         <v>7</v>
       </c>
@@ -1736,8 +1761,8 @@
       <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="46"/>
-      <c r="C23" s="49"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="50"/>
       <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1748,8 +1773,8 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="46"/>
-      <c r="C24" s="49"/>
+      <c r="B24" s="47"/>
+      <c r="C24" s="50"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1760,8 +1785,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="46"/>
-      <c r="C25" s="49"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="50"/>
       <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
@@ -1772,8 +1797,8 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="46"/>
-      <c r="C26" s="49"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="50"/>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1784,8 +1809,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="46"/>
-      <c r="C27" s="49"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="50"/>
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
@@ -1796,8 +1821,8 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="47"/>
-      <c r="C28" s="50"/>
+      <c r="B28" s="48"/>
+      <c r="C28" s="51"/>
       <c r="D28" s="16" t="s">
         <v>21</v>
       </c>
@@ -1806,10 +1831,10 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="39">
+      <c r="B29" s="40">
         <v>43963</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1820,8 +1845,8 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="40"/>
-      <c r="C30" s="43"/>
+      <c r="B30" s="41"/>
+      <c r="C30" s="44"/>
       <c r="D30" s="21" t="s">
         <v>14</v>
       </c>
@@ -1832,8 +1857,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="40"/>
-      <c r="C31" s="43"/>
+      <c r="B31" s="41"/>
+      <c r="C31" s="44"/>
       <c r="D31" s="21" t="s">
         <v>15</v>
       </c>
@@ -1844,8 +1869,8 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="40"/>
-      <c r="C32" s="43"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="44"/>
       <c r="D32" s="26" t="s">
         <v>7</v>
       </c>
@@ -1854,8 +1879,8 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="40"/>
-      <c r="C33" s="43"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="44"/>
       <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
@@ -1864,8 +1889,8 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="40"/>
-      <c r="C34" s="43"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="44"/>
       <c r="D34" s="21" t="s">
         <v>81</v>
       </c>
@@ -1876,8 +1901,8 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="40"/>
-      <c r="C35" s="43"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="44"/>
       <c r="D35" s="21" t="s">
         <v>82</v>
       </c>
@@ -1888,8 +1913,8 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="40"/>
-      <c r="C36" s="43"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="44"/>
       <c r="D36" s="21" t="s">
         <v>83</v>
       </c>
@@ -1900,8 +1925,8 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="40"/>
-      <c r="C37" s="43"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="44"/>
       <c r="D37" s="21" t="s">
         <v>84</v>
       </c>
@@ -1912,8 +1937,8 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="41"/>
-      <c r="C38" s="44"/>
+      <c r="B38" s="42"/>
+      <c r="C38" s="45"/>
       <c r="D38" s="16" t="s">
         <v>21</v>
       </c>
@@ -1922,10 +1947,10 @@
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="45">
+      <c r="B39" s="46">
         <v>43964</v>
       </c>
-      <c r="C39" s="48" t="s">
+      <c r="C39" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1936,8 +1961,8 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="46"/>
-      <c r="C40" s="49"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="21" t="s">
         <v>14</v>
       </c>
@@ -1950,8 +1975,8 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="46"/>
-      <c r="C41" s="49"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="21" t="s">
         <v>15</v>
       </c>
@@ -1964,8 +1989,8 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="46"/>
-      <c r="C42" s="49"/>
+      <c r="B42" s="47"/>
+      <c r="C42" s="50"/>
       <c r="D42" s="26" t="s">
         <v>7</v>
       </c>
@@ -1974,8 +1999,8 @@
       <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="46"/>
-      <c r="C43" s="49"/>
+      <c r="B43" s="47"/>
+      <c r="C43" s="50"/>
       <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
@@ -1986,8 +2011,8 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="46"/>
-      <c r="C44" s="49"/>
+      <c r="B44" s="47"/>
+      <c r="C44" s="50"/>
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
@@ -2000,8 +2025,8 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="46"/>
-      <c r="C45" s="49"/>
+      <c r="B45" s="47"/>
+      <c r="C45" s="50"/>
       <c r="D45" s="21" t="s">
         <v>18</v>
       </c>
@@ -2014,8 +2039,8 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="46"/>
-      <c r="C46" s="49"/>
+      <c r="B46" s="47"/>
+      <c r="C46" s="50"/>
       <c r="D46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2026,8 +2051,8 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="46"/>
-      <c r="C47" s="49"/>
+      <c r="B47" s="47"/>
+      <c r="C47" s="50"/>
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
@@ -2040,8 +2065,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="47"/>
-      <c r="C48" s="50"/>
+      <c r="B48" s="48"/>
+      <c r="C48" s="51"/>
       <c r="D48" s="16" t="s">
         <v>21</v>
       </c>
@@ -2050,10 +2075,10 @@
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="51">
+      <c r="B49" s="52">
         <v>43965</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -2064,8 +2089,8 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="52"/>
-      <c r="C50" s="43"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="44"/>
       <c r="D50" s="21" t="s">
         <v>14</v>
       </c>
@@ -2078,8 +2103,8 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="52"/>
-      <c r="C51" s="43"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="44"/>
       <c r="D51" s="21" t="s">
         <v>15</v>
       </c>
@@ -2092,8 +2117,8 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="52"/>
-      <c r="C52" s="43"/>
+      <c r="B52" s="53"/>
+      <c r="C52" s="44"/>
       <c r="D52" s="26" t="s">
         <v>7</v>
       </c>
@@ -2102,8 +2127,8 @@
       <c r="G52" s="29"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="52"/>
-      <c r="C53" s="43"/>
+      <c r="B53" s="53"/>
+      <c r="C53" s="44"/>
       <c r="D53" s="21" t="s">
         <v>10</v>
       </c>
@@ -2112,8 +2137,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="52"/>
-      <c r="C54" s="43"/>
+      <c r="B54" s="53"/>
+      <c r="C54" s="44"/>
       <c r="D54" s="21" t="s">
         <v>81</v>
       </c>
@@ -2126,8 +2151,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="52"/>
-      <c r="C55" s="43"/>
+      <c r="B55" s="53"/>
+      <c r="C55" s="44"/>
       <c r="D55" s="21" t="s">
         <v>82</v>
       </c>
@@ -2140,8 +2165,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="52"/>
-      <c r="C56" s="43"/>
+      <c r="B56" s="53"/>
+      <c r="C56" s="44"/>
       <c r="D56" s="21" t="s">
         <v>83</v>
       </c>
@@ -2152,8 +2177,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="52"/>
-      <c r="C57" s="43"/>
+      <c r="B57" s="53"/>
+      <c r="C57" s="44"/>
       <c r="D57" s="21" t="s">
         <v>84</v>
       </c>
@@ -2164,8 +2189,8 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="53"/>
-      <c r="C58" s="44"/>
+      <c r="B58" s="54"/>
+      <c r="C58" s="45"/>
       <c r="D58" s="16" t="s">
         <v>21</v>
       </c>
@@ -2174,10 +2199,10 @@
       <c r="G58" s="19"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="51">
+      <c r="B59" s="52">
         <v>43966</v>
       </c>
-      <c r="C59" s="48" t="s">
+      <c r="C59" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2188,8 +2213,8 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="52"/>
-      <c r="C60" s="49"/>
+      <c r="B60" s="53"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="21" t="s">
         <v>14</v>
       </c>
@@ -2200,8 +2225,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="52"/>
-      <c r="C61" s="49"/>
+      <c r="B61" s="53"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
@@ -2212,8 +2237,8 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="52"/>
-      <c r="C62" s="49"/>
+      <c r="B62" s="53"/>
+      <c r="C62" s="50"/>
       <c r="D62" s="26" t="s">
         <v>7</v>
       </c>
@@ -2222,56 +2247,56 @@
       <c r="G62" s="29"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="52"/>
-      <c r="C63" s="49"/>
+      <c r="B63" s="53"/>
+      <c r="C63" s="50"/>
       <c r="D63" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="52"/>
-      <c r="C64" s="49"/>
+      <c r="B64" s="53"/>
+      <c r="C64" s="50"/>
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="52"/>
-      <c r="C65" s="49"/>
+      <c r="B65" s="53"/>
+      <c r="C65" s="50"/>
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="52"/>
-      <c r="C66" s="49"/>
+      <c r="B66" s="53"/>
+      <c r="C66" s="50"/>
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="52"/>
-      <c r="C67" s="49"/>
+      <c r="B67" s="53"/>
+      <c r="C67" s="50"/>
       <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
@@ -2282,8 +2307,8 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="53"/>
-      <c r="C68" s="50"/>
+      <c r="B68" s="54"/>
+      <c r="C68" s="51"/>
       <c r="D68" s="16" t="s">
         <v>21</v>
       </c>
@@ -2292,10 +2317,10 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="45">
+      <c r="B69" s="46">
         <v>43969</v>
       </c>
-      <c r="C69" s="48" t="s">
+      <c r="C69" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2306,28 +2331,32 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="46"/>
-      <c r="C70" s="49"/>
+      <c r="B70" s="47"/>
+      <c r="C70" s="50"/>
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E70" s="22"/>
+      <c r="E70" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="46"/>
-      <c r="C71" s="49"/>
+      <c r="B71" s="47"/>
+      <c r="C71" s="50"/>
       <c r="D71" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E71" s="22"/>
+      <c r="E71" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="46"/>
-      <c r="C72" s="49"/>
+      <c r="B72" s="47"/>
+      <c r="C72" s="50"/>
       <c r="D72" s="26" t="s">
         <v>7</v>
       </c>
@@ -2336,58 +2365,68 @@
       <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="46"/>
-      <c r="C73" s="49"/>
+      <c r="B73" s="47"/>
+      <c r="C73" s="50"/>
       <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="3"/>
+      <c r="E73" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F73" s="7"/>
       <c r="G73" s="20"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="46"/>
-      <c r="C74" s="49"/>
+      <c r="B74" s="47"/>
+      <c r="C74" s="50"/>
       <c r="D74" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="3"/>
+      <c r="E74" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="46"/>
-      <c r="C75" s="49"/>
+      <c r="B75" s="47"/>
+      <c r="C75" s="50"/>
       <c r="D75" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="3"/>
+      <c r="E75" s="22" t="s">
+        <v>121</v>
+      </c>
       <c r="F75" s="21"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="46"/>
-      <c r="C76" s="49"/>
+      <c r="B76" s="47"/>
+      <c r="C76" s="50"/>
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E76" s="3"/>
+      <c r="E76" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="46"/>
-      <c r="C77" s="49"/>
+      <c r="B77" s="47"/>
+      <c r="C77" s="50"/>
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E77" s="3"/>
+      <c r="E77" s="3" t="s">
+        <v>116</v>
+      </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="47"/>
-      <c r="C78" s="50"/>
+      <c r="B78" s="48"/>
+      <c r="C78" s="51"/>
       <c r="D78" s="16" t="s">
         <v>21</v>
       </c>
@@ -2396,10 +2435,10 @@
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="39">
+      <c r="B79" s="40">
         <v>43970</v>
       </c>
-      <c r="C79" s="42" t="s">
+      <c r="C79" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -2410,8 +2449,8 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="40"/>
-      <c r="C80" s="43"/>
+      <c r="B80" s="41"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="21" t="s">
         <v>14</v>
       </c>
@@ -2420,8 +2459,8 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="40"/>
-      <c r="C81" s="43"/>
+      <c r="B81" s="41"/>
+      <c r="C81" s="44"/>
       <c r="D81" s="21" t="s">
         <v>15</v>
       </c>
@@ -2430,8 +2469,8 @@
       <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="40"/>
-      <c r="C82" s="43"/>
+      <c r="B82" s="41"/>
+      <c r="C82" s="44"/>
       <c r="D82" s="26" t="s">
         <v>7</v>
       </c>
@@ -2440,8 +2479,8 @@
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="40"/>
-      <c r="C83" s="43"/>
+      <c r="B83" s="41"/>
+      <c r="C83" s="44"/>
       <c r="D83" s="21" t="s">
         <v>10</v>
       </c>
@@ -2450,8 +2489,8 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="40"/>
-      <c r="C84" s="43"/>
+      <c r="B84" s="41"/>
+      <c r="C84" s="44"/>
       <c r="D84" s="21" t="s">
         <v>81</v>
       </c>
@@ -2460,8 +2499,8 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="40"/>
-      <c r="C85" s="43"/>
+      <c r="B85" s="41"/>
+      <c r="C85" s="44"/>
       <c r="D85" s="21" t="s">
         <v>82</v>
       </c>
@@ -2470,8 +2509,8 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="40"/>
-      <c r="C86" s="43"/>
+      <c r="B86" s="41"/>
+      <c r="C86" s="44"/>
       <c r="D86" s="21" t="s">
         <v>83</v>
       </c>
@@ -2480,8 +2519,8 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="40"/>
-      <c r="C87" s="43"/>
+      <c r="B87" s="41"/>
+      <c r="C87" s="44"/>
       <c r="D87" s="21" t="s">
         <v>84</v>
       </c>
@@ -2490,8 +2529,8 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="41"/>
-      <c r="C88" s="44"/>
+      <c r="B88" s="42"/>
+      <c r="C88" s="45"/>
       <c r="D88" s="16" t="s">
         <v>21</v>
       </c>
@@ -2500,10 +2539,10 @@
       <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="45">
+      <c r="B89" s="46">
         <v>43971</v>
       </c>
-      <c r="C89" s="48" t="s">
+      <c r="C89" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2514,8 +2553,8 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="46"/>
-      <c r="C90" s="49"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
@@ -2524,18 +2563,22 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="46"/>
-      <c r="C91" s="49"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="3"/>
-      <c r="F91" s="23"/>
+      <c r="E91" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F91" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="46"/>
-      <c r="C92" s="49"/>
+      <c r="B92" s="47"/>
+      <c r="C92" s="50"/>
       <c r="D92" s="26" t="s">
         <v>7</v>
       </c>
@@ -2544,58 +2587,70 @@
       <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="46"/>
-      <c r="C93" s="49"/>
+      <c r="B93" s="47"/>
+      <c r="C93" s="50"/>
       <c r="D93" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="3"/>
-      <c r="F93" s="7"/>
+      <c r="E93" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="F93" s="7" t="s">
+        <v>107</v>
+      </c>
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="46"/>
-      <c r="C94" s="49"/>
+      <c r="B94" s="47"/>
+      <c r="C94" s="50"/>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="3"/>
+      <c r="E94" s="3" t="s">
+        <v>124</v>
+      </c>
       <c r="F94" s="2"/>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="46"/>
-      <c r="C95" s="49"/>
+      <c r="B95" s="47"/>
+      <c r="C95" s="50"/>
       <c r="D95" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="22"/>
+      <c r="E95" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F95" s="21"/>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="46"/>
-      <c r="C96" s="49"/>
+      <c r="B96" s="47"/>
+      <c r="C96" s="50"/>
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="22"/>
+      <c r="E96" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="F96" s="2"/>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="46"/>
-      <c r="C97" s="49"/>
+      <c r="B97" s="47"/>
+      <c r="C97" s="50"/>
       <c r="D97" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="22"/>
+      <c r="E97" s="22" t="s">
+        <v>124</v>
+      </c>
       <c r="F97" s="23"/>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="47"/>
-      <c r="C98" s="50"/>
+      <c r="B98" s="48"/>
+      <c r="C98" s="51"/>
       <c r="D98" s="16" t="s">
         <v>21</v>
       </c>
@@ -2604,10 +2659,10 @@
       <c r="G98" s="19"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="39">
+      <c r="B99" s="40">
         <v>43972</v>
       </c>
-      <c r="C99" s="42" t="s">
+      <c r="C99" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -2618,8 +2673,8 @@
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="40"/>
-      <c r="C100" s="43"/>
+      <c r="B100" s="41"/>
+      <c r="C100" s="44"/>
       <c r="D100" s="21" t="s">
         <v>14</v>
       </c>
@@ -2628,8 +2683,8 @@
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="40"/>
-      <c r="C101" s="43"/>
+      <c r="B101" s="41"/>
+      <c r="C101" s="44"/>
       <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
@@ -2638,8 +2693,8 @@
       <c r="G101" s="25"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="40"/>
-      <c r="C102" s="43"/>
+      <c r="B102" s="41"/>
+      <c r="C102" s="44"/>
       <c r="D102" s="26" t="s">
         <v>7</v>
       </c>
@@ -2648,8 +2703,8 @@
       <c r="G102" s="29"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="40"/>
-      <c r="C103" s="43"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="44"/>
       <c r="D103" s="21" t="s">
         <v>10</v>
       </c>
@@ -2658,8 +2713,8 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="40"/>
-      <c r="C104" s="43"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="44"/>
       <c r="D104" s="21" t="s">
         <v>81</v>
       </c>
@@ -2668,8 +2723,8 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="40"/>
-      <c r="C105" s="43"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="44"/>
       <c r="D105" s="21" t="s">
         <v>82</v>
       </c>
@@ -2678,8 +2733,8 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="40"/>
-      <c r="C106" s="43"/>
+      <c r="B106" s="41"/>
+      <c r="C106" s="44"/>
       <c r="D106" s="21" t="s">
         <v>83</v>
       </c>
@@ -2688,8 +2743,8 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="40"/>
-      <c r="C107" s="43"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="44"/>
       <c r="D107" s="21" t="s">
         <v>84</v>
       </c>
@@ -2698,8 +2753,8 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="41"/>
-      <c r="C108" s="44"/>
+      <c r="B108" s="42"/>
+      <c r="C108" s="45"/>
       <c r="D108" s="16" t="s">
         <v>21</v>
       </c>
@@ -2708,10 +2763,10 @@
       <c r="G108" s="19"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="39">
+      <c r="B109" s="40">
         <v>43973</v>
       </c>
-      <c r="C109" s="42" t="s">
+      <c r="C109" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -2722,8 +2777,8 @@
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="40"/>
-      <c r="C110" s="43"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="44"/>
       <c r="D110" s="21" t="s">
         <v>14</v>
       </c>
@@ -2732,8 +2787,8 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="40"/>
-      <c r="C111" s="43"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="44"/>
       <c r="D111" s="21" t="s">
         <v>15</v>
       </c>
@@ -2742,8 +2797,8 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="40"/>
-      <c r="C112" s="43"/>
+      <c r="B112" s="41"/>
+      <c r="C112" s="44"/>
       <c r="D112" s="26" t="s">
         <v>7</v>
       </c>
@@ -2752,8 +2807,8 @@
       <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="40"/>
-      <c r="C113" s="43"/>
+      <c r="B113" s="41"/>
+      <c r="C113" s="44"/>
       <c r="D113" s="2" t="s">
         <v>16</v>
       </c>
@@ -2762,8 +2817,8 @@
       <c r="G113" s="20"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="40"/>
-      <c r="C114" s="43"/>
+      <c r="B114" s="41"/>
+      <c r="C114" s="44"/>
       <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
@@ -2772,8 +2827,8 @@
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="40"/>
-      <c r="C115" s="43"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="44"/>
       <c r="D115" s="21" t="s">
         <v>18</v>
       </c>
@@ -2782,8 +2837,8 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="40"/>
-      <c r="C116" s="43"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="44"/>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
@@ -2792,8 +2847,8 @@
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="40"/>
-      <c r="C117" s="43"/>
+      <c r="B117" s="41"/>
+      <c r="C117" s="44"/>
       <c r="D117" s="21" t="s">
         <v>20</v>
       </c>
@@ -2802,8 +2857,8 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="41"/>
-      <c r="C118" s="44"/>
+      <c r="B118" s="42"/>
+      <c r="C118" s="45"/>
       <c r="D118" s="16" t="s">
         <v>21</v>
       </c>
@@ -2812,10 +2867,10 @@
       <c r="G118" s="19"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="45">
+      <c r="B119" s="46">
         <v>43976</v>
       </c>
-      <c r="C119" s="48" t="s">
+      <c r="C119" s="49" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -2826,8 +2881,8 @@
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="46"/>
-      <c r="C120" s="49"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
@@ -2836,8 +2891,8 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="46"/>
-      <c r="C121" s="49"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="21" t="s">
         <v>15</v>
       </c>
@@ -2846,8 +2901,8 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="46"/>
-      <c r="C122" s="49"/>
+      <c r="B122" s="47"/>
+      <c r="C122" s="50"/>
       <c r="D122" s="26" t="s">
         <v>7</v>
       </c>
@@ -2856,8 +2911,8 @@
       <c r="G122" s="29"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="46"/>
-      <c r="C123" s="49"/>
+      <c r="B123" s="47"/>
+      <c r="C123" s="50"/>
       <c r="D123" s="2" t="s">
         <v>16</v>
       </c>
@@ -2866,8 +2921,8 @@
       <c r="G123" s="20"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="46"/>
-      <c r="C124" s="49"/>
+      <c r="B124" s="47"/>
+      <c r="C124" s="50"/>
       <c r="D124" s="2" t="s">
         <v>17</v>
       </c>
@@ -2876,8 +2931,8 @@
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="46"/>
-      <c r="C125" s="49"/>
+      <c r="B125" s="47"/>
+      <c r="C125" s="50"/>
       <c r="D125" s="21" t="s">
         <v>18</v>
       </c>
@@ -2886,8 +2941,8 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="46"/>
-      <c r="C126" s="49"/>
+      <c r="B126" s="47"/>
+      <c r="C126" s="50"/>
       <c r="D126" s="2" t="s">
         <v>19</v>
       </c>
@@ -2896,8 +2951,8 @@
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="46"/>
-      <c r="C127" s="49"/>
+      <c r="B127" s="47"/>
+      <c r="C127" s="50"/>
       <c r="D127" s="21" t="s">
         <v>20</v>
       </c>
@@ -2906,8 +2961,8 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="47"/>
-      <c r="C128" s="50"/>
+      <c r="B128" s="48"/>
+      <c r="C128" s="51"/>
       <c r="D128" s="16" t="s">
         <v>21</v>
       </c>
@@ -2916,10 +2971,10 @@
       <c r="G128" s="19"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="39">
+      <c r="B129" s="40">
         <v>43977</v>
       </c>
-      <c r="C129" s="42" t="s">
+      <c r="C129" s="43" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="21" t="s">
@@ -2930,8 +2985,8 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="40"/>
-      <c r="C130" s="43"/>
+      <c r="B130" s="41"/>
+      <c r="C130" s="44"/>
       <c r="D130" s="21" t="s">
         <v>14</v>
       </c>
@@ -2940,8 +2995,8 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="40"/>
-      <c r="C131" s="43"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="44"/>
       <c r="D131" s="21" t="s">
         <v>15</v>
       </c>
@@ -2950,8 +3005,8 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="40"/>
-      <c r="C132" s="43"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="44"/>
       <c r="D132" s="26" t="s">
         <v>7</v>
       </c>
@@ -2960,8 +3015,8 @@
       <c r="G132" s="29"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="40"/>
-      <c r="C133" s="43"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="44"/>
       <c r="D133" s="21" t="s">
         <v>10</v>
       </c>
@@ -2970,8 +3025,8 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="40"/>
-      <c r="C134" s="43"/>
+      <c r="B134" s="41"/>
+      <c r="C134" s="44"/>
       <c r="D134" s="21" t="s">
         <v>81</v>
       </c>
@@ -2980,8 +3035,8 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="40"/>
-      <c r="C135" s="43"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="44"/>
       <c r="D135" s="21" t="s">
         <v>82</v>
       </c>
@@ -2990,8 +3045,8 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="40"/>
-      <c r="C136" s="43"/>
+      <c r="B136" s="41"/>
+      <c r="C136" s="44"/>
       <c r="D136" s="21" t="s">
         <v>83</v>
       </c>
@@ -3000,8 +3055,8 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="40"/>
-      <c r="C137" s="43"/>
+      <c r="B137" s="41"/>
+      <c r="C137" s="44"/>
       <c r="D137" s="21" t="s">
         <v>84</v>
       </c>
@@ -3010,8 +3065,8 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="41"/>
-      <c r="C138" s="44"/>
+      <c r="B138" s="42"/>
+      <c r="C138" s="45"/>
       <c r="D138" s="16" t="s">
         <v>21</v>
       </c>
@@ -3020,10 +3075,10 @@
       <c r="G138" s="19"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="45">
+      <c r="B139" s="46">
         <v>43978</v>
       </c>
-      <c r="C139" s="48" t="s">
+      <c r="C139" s="49" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -3034,8 +3089,8 @@
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="46"/>
-      <c r="C140" s="49"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="50"/>
       <c r="D140" s="21" t="s">
         <v>14</v>
       </c>
@@ -3044,8 +3099,8 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="46"/>
-      <c r="C141" s="49"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="21" t="s">
         <v>15</v>
       </c>
@@ -3054,8 +3109,8 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="46"/>
-      <c r="C142" s="49"/>
+      <c r="B142" s="47"/>
+      <c r="C142" s="50"/>
       <c r="D142" s="26" t="s">
         <v>7</v>
       </c>
@@ -3064,8 +3119,8 @@
       <c r="G142" s="29"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="46"/>
-      <c r="C143" s="49"/>
+      <c r="B143" s="47"/>
+      <c r="C143" s="50"/>
       <c r="D143" s="2" t="s">
         <v>16</v>
       </c>
@@ -3074,8 +3129,8 @@
       <c r="G143" s="20"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="46"/>
-      <c r="C144" s="49"/>
+      <c r="B144" s="47"/>
+      <c r="C144" s="50"/>
       <c r="D144" s="2" t="s">
         <v>17</v>
       </c>
@@ -3084,8 +3139,8 @@
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="46"/>
-      <c r="C145" s="49"/>
+      <c r="B145" s="47"/>
+      <c r="C145" s="50"/>
       <c r="D145" s="21" t="s">
         <v>18</v>
       </c>
@@ -3094,8 +3149,8 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="46"/>
-      <c r="C146" s="49"/>
+      <c r="B146" s="47"/>
+      <c r="C146" s="50"/>
       <c r="D146" s="2" t="s">
         <v>19</v>
       </c>
@@ -3104,8 +3159,8 @@
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="46"/>
-      <c r="C147" s="49"/>
+      <c r="B147" s="47"/>
+      <c r="C147" s="50"/>
       <c r="D147" s="21" t="s">
         <v>20</v>
       </c>
@@ -3114,8 +3169,8 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="47"/>
-      <c r="C148" s="50"/>
+      <c r="B148" s="48"/>
+      <c r="C148" s="51"/>
       <c r="D148" s="16" t="s">
         <v>21</v>
       </c>
@@ -3124,10 +3179,10 @@
       <c r="G148" s="19"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="39">
+      <c r="B149" s="40">
         <v>43979</v>
       </c>
-      <c r="C149" s="42" t="s">
+      <c r="C149" s="43" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="21" t="s">
@@ -3138,8 +3193,8 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="40"/>
-      <c r="C150" s="43"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="44"/>
       <c r="D150" s="21" t="s">
         <v>14</v>
       </c>
@@ -3148,8 +3203,8 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="40"/>
-      <c r="C151" s="43"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="44"/>
       <c r="D151" s="21" t="s">
         <v>15</v>
       </c>
@@ -3158,8 +3213,8 @@
       <c r="G151" s="25"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="40"/>
-      <c r="C152" s="43"/>
+      <c r="B152" s="41"/>
+      <c r="C152" s="44"/>
       <c r="D152" s="26" t="s">
         <v>7</v>
       </c>
@@ -3168,8 +3223,8 @@
       <c r="G152" s="29"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="40"/>
-      <c r="C153" s="43"/>
+      <c r="B153" s="41"/>
+      <c r="C153" s="44"/>
       <c r="D153" s="21" t="s">
         <v>10</v>
       </c>
@@ -3178,8 +3233,8 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="40"/>
-      <c r="C154" s="43"/>
+      <c r="B154" s="41"/>
+      <c r="C154" s="44"/>
       <c r="D154" s="21" t="s">
         <v>81</v>
       </c>
@@ -3188,8 +3243,8 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="40"/>
-      <c r="C155" s="43"/>
+      <c r="B155" s="41"/>
+      <c r="C155" s="44"/>
       <c r="D155" s="21" t="s">
         <v>82</v>
       </c>
@@ -3198,8 +3253,8 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="40"/>
-      <c r="C156" s="43"/>
+      <c r="B156" s="41"/>
+      <c r="C156" s="44"/>
       <c r="D156" s="21" t="s">
         <v>83</v>
       </c>
@@ -3208,8 +3263,8 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="40"/>
-      <c r="C157" s="43"/>
+      <c r="B157" s="41"/>
+      <c r="C157" s="44"/>
       <c r="D157" s="21" t="s">
         <v>84</v>
       </c>
@@ -3218,8 +3273,8 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="41"/>
-      <c r="C158" s="44"/>
+      <c r="B158" s="42"/>
+      <c r="C158" s="45"/>
       <c r="D158" s="16" t="s">
         <v>21</v>
       </c>
@@ -3228,10 +3283,10 @@
       <c r="G158" s="19"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="39">
+      <c r="B159" s="40">
         <v>43980</v>
       </c>
-      <c r="C159" s="42" t="s">
+      <c r="C159" s="43" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -3242,8 +3297,8 @@
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="40"/>
-      <c r="C160" s="43"/>
+      <c r="B160" s="41"/>
+      <c r="C160" s="44"/>
       <c r="D160" s="21" t="s">
         <v>14</v>
       </c>
@@ -3252,8 +3307,8 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="40"/>
-      <c r="C161" s="43"/>
+      <c r="B161" s="41"/>
+      <c r="C161" s="44"/>
       <c r="D161" s="21" t="s">
         <v>15</v>
       </c>
@@ -3262,8 +3317,8 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="40"/>
-      <c r="C162" s="43"/>
+      <c r="B162" s="41"/>
+      <c r="C162" s="44"/>
       <c r="D162" s="26" t="s">
         <v>7</v>
       </c>
@@ -3272,8 +3327,8 @@
       <c r="G162" s="29"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="40"/>
-      <c r="C163" s="43"/>
+      <c r="B163" s="41"/>
+      <c r="C163" s="44"/>
       <c r="D163" s="2" t="s">
         <v>16</v>
       </c>
@@ -3282,8 +3337,8 @@
       <c r="G163" s="20"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="40"/>
-      <c r="C164" s="43"/>
+      <c r="B164" s="41"/>
+      <c r="C164" s="44"/>
       <c r="D164" s="2" t="s">
         <v>17</v>
       </c>
@@ -3292,8 +3347,8 @@
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="40"/>
-      <c r="C165" s="43"/>
+      <c r="B165" s="41"/>
+      <c r="C165" s="44"/>
       <c r="D165" s="21" t="s">
         <v>18</v>
       </c>
@@ -3302,8 +3357,8 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="40"/>
-      <c r="C166" s="43"/>
+      <c r="B166" s="41"/>
+      <c r="C166" s="44"/>
       <c r="D166" s="2" t="s">
         <v>19</v>
       </c>
@@ -3312,8 +3367,8 @@
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="40"/>
-      <c r="C167" s="43"/>
+      <c r="B167" s="41"/>
+      <c r="C167" s="44"/>
       <c r="D167" s="21" t="s">
         <v>20</v>
       </c>
@@ -3322,8 +3377,8 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="41"/>
-      <c r="C168" s="44"/>
+      <c r="B168" s="42"/>
+      <c r="C168" s="45"/>
       <c r="D168" s="16" t="s">
         <v>21</v>
       </c>
@@ -3332,8 +3387,8 @@
       <c r="G168" s="19"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="45"/>
-      <c r="C169" s="48" t="s">
+      <c r="B169" s="46"/>
+      <c r="C169" s="49" t="s">
         <v>76</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -3344,8 +3399,8 @@
       <c r="G169" s="6"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="46"/>
-      <c r="C170" s="49"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="50"/>
       <c r="D170" s="21" t="s">
         <v>14</v>
       </c>
@@ -3354,8 +3409,8 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="46"/>
-      <c r="C171" s="49"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="21" t="s">
         <v>15</v>
       </c>
@@ -3364,8 +3419,8 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="46"/>
-      <c r="C172" s="49"/>
+      <c r="B172" s="47"/>
+      <c r="C172" s="50"/>
       <c r="D172" s="26" t="s">
         <v>7</v>
       </c>
@@ -3374,8 +3429,8 @@
       <c r="G172" s="29"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="46"/>
-      <c r="C173" s="49"/>
+      <c r="B173" s="47"/>
+      <c r="C173" s="50"/>
       <c r="D173" s="2" t="s">
         <v>16</v>
       </c>
@@ -3384,8 +3439,8 @@
       <c r="G173" s="20"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="46"/>
-      <c r="C174" s="49"/>
+      <c r="B174" s="47"/>
+      <c r="C174" s="50"/>
       <c r="D174" s="2" t="s">
         <v>17</v>
       </c>
@@ -3394,8 +3449,8 @@
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="46"/>
-      <c r="C175" s="49"/>
+      <c r="B175" s="47"/>
+      <c r="C175" s="50"/>
       <c r="D175" s="21" t="s">
         <v>18</v>
       </c>
@@ -3404,8 +3459,8 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="46"/>
-      <c r="C176" s="49"/>
+      <c r="B176" s="47"/>
+      <c r="C176" s="50"/>
       <c r="D176" s="2" t="s">
         <v>19</v>
       </c>
@@ -3414,8 +3469,8 @@
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="46"/>
-      <c r="C177" s="49"/>
+      <c r="B177" s="47"/>
+      <c r="C177" s="50"/>
       <c r="D177" s="21" t="s">
         <v>20</v>
       </c>
@@ -3424,8 +3479,8 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="47"/>
-      <c r="C178" s="50"/>
+      <c r="B178" s="48"/>
+      <c r="C178" s="51"/>
       <c r="D178" s="16" t="s">
         <v>21</v>
       </c>
@@ -3434,8 +3489,8 @@
       <c r="G178" s="19"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="39"/>
-      <c r="C179" s="42" t="s">
+      <c r="B179" s="40"/>
+      <c r="C179" s="43" t="s">
         <v>77</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -3446,8 +3501,8 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="40"/>
-      <c r="C180" s="43"/>
+      <c r="B180" s="41"/>
+      <c r="C180" s="44"/>
       <c r="D180" s="21" t="s">
         <v>14</v>
       </c>
@@ -3456,8 +3511,8 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="40"/>
-      <c r="C181" s="43"/>
+      <c r="B181" s="41"/>
+      <c r="C181" s="44"/>
       <c r="D181" s="21" t="s">
         <v>15</v>
       </c>
@@ -3466,8 +3521,8 @@
       <c r="G181" s="25"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="40"/>
-      <c r="C182" s="43"/>
+      <c r="B182" s="41"/>
+      <c r="C182" s="44"/>
       <c r="D182" s="26" t="s">
         <v>7</v>
       </c>
@@ -3476,8 +3531,8 @@
       <c r="G182" s="29"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="40"/>
-      <c r="C183" s="43"/>
+      <c r="B183" s="41"/>
+      <c r="C183" s="44"/>
       <c r="D183" s="21" t="s">
         <v>10</v>
       </c>
@@ -3486,8 +3541,8 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="40"/>
-      <c r="C184" s="43"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="44"/>
       <c r="D184" s="21" t="s">
         <v>81</v>
       </c>
@@ -3496,8 +3551,8 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="40"/>
-      <c r="C185" s="43"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="44"/>
       <c r="D185" s="21" t="s">
         <v>82</v>
       </c>
@@ -3506,8 +3561,8 @@
       <c r="G185" s="24"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="40"/>
-      <c r="C186" s="43"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="44"/>
       <c r="D186" s="21" t="s">
         <v>83</v>
       </c>
@@ -3516,8 +3571,8 @@
       <c r="G186" s="24"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="40"/>
-      <c r="C187" s="43"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="44"/>
       <c r="D187" s="21" t="s">
         <v>84</v>
       </c>
@@ -3526,8 +3581,8 @@
       <c r="G187" s="24"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="41"/>
-      <c r="C188" s="44"/>
+      <c r="B188" s="42"/>
+      <c r="C188" s="45"/>
       <c r="D188" s="16" t="s">
         <v>21</v>
       </c>
@@ -3536,8 +3591,8 @@
       <c r="G188" s="19"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="45"/>
-      <c r="C189" s="48" t="s">
+      <c r="B189" s="46"/>
+      <c r="C189" s="49" t="s">
         <v>78</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -3548,8 +3603,8 @@
       <c r="G189" s="6"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="46"/>
-      <c r="C190" s="49"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="50"/>
       <c r="D190" s="21" t="s">
         <v>14</v>
       </c>
@@ -3558,8 +3613,8 @@
       <c r="G190" s="24"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="46"/>
-      <c r="C191" s="49"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="21" t="s">
         <v>15</v>
       </c>
@@ -3568,8 +3623,8 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="46"/>
-      <c r="C192" s="49"/>
+      <c r="B192" s="47"/>
+      <c r="C192" s="50"/>
       <c r="D192" s="26" t="s">
         <v>7</v>
       </c>
@@ -3578,8 +3633,8 @@
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="46"/>
-      <c r="C193" s="49"/>
+      <c r="B193" s="47"/>
+      <c r="C193" s="50"/>
       <c r="D193" s="2" t="s">
         <v>16</v>
       </c>
@@ -3588,8 +3643,8 @@
       <c r="G193" s="20"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="46"/>
-      <c r="C194" s="49"/>
+      <c r="B194" s="47"/>
+      <c r="C194" s="50"/>
       <c r="D194" s="2" t="s">
         <v>17</v>
       </c>
@@ -3598,8 +3653,8 @@
       <c r="G194" s="6"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="46"/>
-      <c r="C195" s="49"/>
+      <c r="B195" s="47"/>
+      <c r="C195" s="50"/>
       <c r="D195" s="21" t="s">
         <v>18</v>
       </c>
@@ -3608,8 +3663,8 @@
       <c r="G195" s="24"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="46"/>
-      <c r="C196" s="49"/>
+      <c r="B196" s="47"/>
+      <c r="C196" s="50"/>
       <c r="D196" s="2" t="s">
         <v>19</v>
       </c>
@@ -3618,8 +3673,8 @@
       <c r="G196" s="6"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="46"/>
-      <c r="C197" s="49"/>
+      <c r="B197" s="47"/>
+      <c r="C197" s="50"/>
       <c r="D197" s="21" t="s">
         <v>20</v>
       </c>
@@ -3628,8 +3683,8 @@
       <c r="G197" s="24"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="47"/>
-      <c r="C198" s="50"/>
+      <c r="B198" s="48"/>
+      <c r="C198" s="51"/>
       <c r="D198" s="16" t="s">
         <v>21</v>
       </c>
@@ -3638,8 +3693,8 @@
       <c r="G198" s="19"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="39"/>
-      <c r="C199" s="42" t="s">
+      <c r="B199" s="40"/>
+      <c r="C199" s="43" t="s">
         <v>79</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -3650,8 +3705,8 @@
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="40"/>
-      <c r="C200" s="43"/>
+      <c r="B200" s="41"/>
+      <c r="C200" s="44"/>
       <c r="D200" s="21" t="s">
         <v>14</v>
       </c>
@@ -3660,8 +3715,8 @@
       <c r="G200" s="24"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="40"/>
-      <c r="C201" s="43"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="44"/>
       <c r="D201" s="21" t="s">
         <v>15</v>
       </c>
@@ -3670,8 +3725,8 @@
       <c r="G201" s="25"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="40"/>
-      <c r="C202" s="43"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="44"/>
       <c r="D202" s="26" t="s">
         <v>7</v>
       </c>
@@ -3680,8 +3735,8 @@
       <c r="G202" s="29"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="40"/>
-      <c r="C203" s="43"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="44"/>
       <c r="D203" s="21" t="s">
         <v>10</v>
       </c>
@@ -3690,8 +3745,8 @@
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="40"/>
-      <c r="C204" s="43"/>
+      <c r="B204" s="41"/>
+      <c r="C204" s="44"/>
       <c r="D204" s="21" t="s">
         <v>81</v>
       </c>
@@ -3700,8 +3755,8 @@
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="40"/>
-      <c r="C205" s="43"/>
+      <c r="B205" s="41"/>
+      <c r="C205" s="44"/>
       <c r="D205" s="21" t="s">
         <v>82</v>
       </c>
@@ -3710,8 +3765,8 @@
       <c r="G205" s="24"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="40"/>
-      <c r="C206" s="43"/>
+      <c r="B206" s="41"/>
+      <c r="C206" s="44"/>
       <c r="D206" s="21" t="s">
         <v>83</v>
       </c>
@@ -3720,8 +3775,8 @@
       <c r="G206" s="24"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="40"/>
-      <c r="C207" s="43"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="44"/>
       <c r="D207" s="21" t="s">
         <v>84</v>
       </c>
@@ -3730,8 +3785,8 @@
       <c r="G207" s="24"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="41"/>
-      <c r="C208" s="44"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="45"/>
       <c r="D208" s="16" t="s">
         <v>21</v>
       </c>
@@ -3740,8 +3795,8 @@
       <c r="G208" s="19"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="39"/>
-      <c r="C209" s="42" t="s">
+      <c r="B209" s="40"/>
+      <c r="C209" s="43" t="s">
         <v>80</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -3752,8 +3807,8 @@
       <c r="G209" s="6"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="40"/>
-      <c r="C210" s="43"/>
+      <c r="B210" s="41"/>
+      <c r="C210" s="44"/>
       <c r="D210" s="21" t="s">
         <v>14</v>
       </c>
@@ -3762,8 +3817,8 @@
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="40"/>
-      <c r="C211" s="43"/>
+      <c r="B211" s="41"/>
+      <c r="C211" s="44"/>
       <c r="D211" s="21" t="s">
         <v>15</v>
       </c>
@@ -3772,8 +3827,8 @@
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="40"/>
-      <c r="C212" s="43"/>
+      <c r="B212" s="41"/>
+      <c r="C212" s="44"/>
       <c r="D212" s="26" t="s">
         <v>7</v>
       </c>
@@ -3782,8 +3837,8 @@
       <c r="G212" s="29"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="40"/>
-      <c r="C213" s="43"/>
+      <c r="B213" s="41"/>
+      <c r="C213" s="44"/>
       <c r="D213" s="2" t="s">
         <v>16</v>
       </c>
@@ -3792,8 +3847,8 @@
       <c r="G213" s="20"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="40"/>
-      <c r="C214" s="43"/>
+      <c r="B214" s="41"/>
+      <c r="C214" s="44"/>
       <c r="D214" s="2" t="s">
         <v>17</v>
       </c>
@@ -3802,8 +3857,8 @@
       <c r="G214" s="6"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="40"/>
-      <c r="C215" s="43"/>
+      <c r="B215" s="41"/>
+      <c r="C215" s="44"/>
       <c r="D215" s="21" t="s">
         <v>18</v>
       </c>
@@ -3812,8 +3867,8 @@
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="40"/>
-      <c r="C216" s="43"/>
+      <c r="B216" s="41"/>
+      <c r="C216" s="44"/>
       <c r="D216" s="2" t="s">
         <v>19</v>
       </c>
@@ -3822,8 +3877,8 @@
       <c r="G216" s="6"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="40"/>
-      <c r="C217" s="43"/>
+      <c r="B217" s="41"/>
+      <c r="C217" s="44"/>
       <c r="D217" s="21" t="s">
         <v>20</v>
       </c>
@@ -3832,8 +3887,8 @@
       <c r="G217" s="24"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="41"/>
-      <c r="C218" s="44"/>
+      <c r="B218" s="42"/>
+      <c r="C218" s="45"/>
       <c r="D218" s="16" t="s">
         <v>21</v>
       </c>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA9F14F7-D832-4279-9012-0E4625515D21}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BB782-1B0A-4AA0-9871-1C669A25922E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,12 +16,14 @@
     <sheet name="May" sheetId="39" r:id="rId1"/>
     <sheet name="ProgrammingLanguage" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -472,7 +474,61 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Git, </t>
+      <t>Cucumber</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, Squish, </t>
+    </r>
+  </si>
+  <si>
+    <t>JIRA</t>
+  </si>
+  <si>
+    <t>Weekly
+(5/18 - 5/22)</t>
+  </si>
+  <si>
+    <t>cucumber scpi implementing</t>
+  </si>
+  <si>
+    <t>Cucumber SCPI OCC</t>
+  </si>
+  <si>
+    <t>C++</t>
+  </si>
+  <si>
+    <t>refactoring constellation calculation</t>
+  </si>
+  <si>
+    <t>cpp</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Git</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
     </r>
     <r>
       <rPr>
@@ -497,46 +553,13 @@
     </r>
   </si>
   <si>
-    <r>
-      <t>Cucumber</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, Squish, </t>
-    </r>
-  </si>
-  <si>
-    <t>JIRA</t>
-  </si>
-  <si>
-    <t>Weekly
-(5/18 - 5/22)</t>
-  </si>
-  <si>
-    <t>JIRA study</t>
-  </si>
-  <si>
-    <t>cucumber scpi implementing</t>
-  </si>
-  <si>
-    <t>Cpp study</t>
-  </si>
-  <si>
-    <t>Cucumber SCPI OCC</t>
-  </si>
-  <si>
-    <t>C++</t>
-  </si>
-  <si>
-    <t>refactoring constellation calculation</t>
-  </si>
-  <si>
-    <t>cpp</t>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>JIRA st</t>
+  </si>
+  <si>
+    <t>Cpp st</t>
   </si>
 </sst>
 </file>
@@ -547,7 +570,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -640,6 +663,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -818,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1043,6 +1073,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1487,8 +1520,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E95" sqref="E95"/>
+      <pane ySplit="18" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1523,7 +1556,7 @@
       <c r="E2" s="66"/>
       <c r="F2" s="66"/>
       <c r="G2" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="2:7">
@@ -1553,7 +1586,7 @@
       <c r="E5" s="68"/>
       <c r="F5" s="68"/>
       <c r="G5" s="38" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:7">
@@ -1566,8 +1599,8 @@
       </c>
       <c r="E6" s="70"/>
       <c r="F6" s="70"/>
-      <c r="G6" s="37" t="s">
-        <v>114</v>
+      <c r="G6" s="75" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="2:7">
@@ -1650,14 +1683,14 @@
     </row>
     <row r="14" spans="2:7">
       <c r="B14" s="62" t="s">
+        <v>116</v>
+      </c>
+      <c r="C14" s="63"/>
+      <c r="D14" s="73" t="s">
         <v>117</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="55" t="s">
-        <v>119</v>
-      </c>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
+      <c r="E14" s="74"/>
+      <c r="F14" s="74"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
@@ -1666,7 +1699,7 @@
       <c r="B15" s="64"/>
       <c r="C15" s="63"/>
       <c r="D15" s="73" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E15" s="74"/>
       <c r="F15" s="74"/>
@@ -1678,7 +1711,7 @@
       <c r="B16" s="64"/>
       <c r="C16" s="63"/>
       <c r="D16" s="55" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="E16" s="56"/>
       <c r="F16" s="56"/>
@@ -1690,7 +1723,7 @@
       <c r="B17" s="64"/>
       <c r="C17" s="63"/>
       <c r="D17" s="55" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="E17" s="56"/>
       <c r="F17" s="56"/>
@@ -2253,7 +2286,7 @@
         <v>16</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F63" s="7"/>
       <c r="G63" s="20"/>
@@ -2265,7 +2298,7 @@
         <v>17</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F64" s="2"/>
       <c r="G64" s="6"/>
@@ -2277,7 +2310,7 @@
         <v>18</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F65" s="21"/>
       <c r="G65" s="24"/>
@@ -2289,7 +2322,7 @@
         <v>19</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F66" s="2"/>
       <c r="G66" s="6"/>
@@ -2337,7 +2370,7 @@
         <v>14</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
@@ -2349,7 +2382,7 @@
         <v>15</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
@@ -2371,7 +2404,7 @@
         <v>16</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="20"/>
@@ -2383,7 +2416,7 @@
         <v>17</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
@@ -2395,7 +2428,7 @@
         <v>18</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="24"/>
@@ -2407,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F76" s="2"/>
       <c r="G76" s="6"/>
@@ -2419,7 +2452,7 @@
         <v>20</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F77" s="23"/>
       <c r="G77" s="24"/>
@@ -2593,7 +2626,7 @@
         <v>16</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>107</v>
@@ -2607,9 +2640,11 @@
         <v>17</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="F94" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="2:7">
@@ -2621,7 +2656,9 @@
       <c r="E95" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F95" s="21"/>
+      <c r="F95" s="21" t="s">
+        <v>107</v>
+      </c>
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
@@ -2633,7 +2670,9 @@
       <c r="E96" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="F96" s="2"/>
+      <c r="F96" s="2" t="s">
+        <v>107</v>
+      </c>
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
@@ -2643,9 +2682,11 @@
         <v>20</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>124</v>
-      </c>
-      <c r="F97" s="23"/>
+        <v>121</v>
+      </c>
+      <c r="F97" s="23" t="s">
+        <v>107</v>
+      </c>
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="2:7">
@@ -2688,7 +2729,9 @@
       <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E101" s="22"/>
+      <c r="E101" s="22" t="s">
+        <v>123</v>
+      </c>
       <c r="F101" s="23"/>
       <c r="G101" s="25"/>
     </row>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A60BB782-1B0A-4AA0-9871-1C669A25922E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E7D50-9817-4108-89F7-9FBB39E75E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="377" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -494,16 +494,10 @@
 (5/18 - 5/22)</t>
   </si>
   <si>
-    <t>cucumber scpi implementing</t>
-  </si>
-  <si>
     <t>Cucumber SCPI OCC</t>
   </si>
   <si>
     <t>C++</t>
-  </si>
-  <si>
-    <t>refactoring constellation calculation</t>
   </si>
   <si>
     <t>cpp</t>
@@ -556,10 +550,19 @@
     <t>weekly</t>
   </si>
   <si>
-    <t>JIRA st</t>
-  </si>
-  <si>
     <t>Cpp st</t>
+  </si>
+  <si>
+    <t>Innovation - idea, research, design, presentation</t>
+  </si>
+  <si>
+    <t>cucumber scpi implementing, JIRA st</t>
+  </si>
+  <si>
+    <t>refactoring constellation calculation - idea</t>
+  </si>
+  <si>
+    <t>Innovation - idea</t>
   </si>
 </sst>
 </file>
@@ -969,6 +972,87 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -987,24 +1071,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1013,69 +1079,6 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1520,8 +1523,8 @@
   <dimension ref="B1:G218"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G105" sqref="G105"/>
+      <pane ySplit="18" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1536,197 +1539,199 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="47" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="45" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="58"/>
-      <c r="D2" s="65" t="s">
+      <c r="C2" s="46"/>
+      <c r="D2" s="55" t="s">
         <v>99</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="66"/>
+      <c r="E2" s="56"/>
+      <c r="F2" s="56"/>
       <c r="G2" s="39" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="57"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="67" t="s">
+      <c r="B3" s="45"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="57"/>
-      <c r="C4" s="58"/>
-      <c r="D4" s="67"/>
-      <c r="E4" s="68"/>
-      <c r="F4" s="68"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="58"/>
+      <c r="F4" s="58"/>
       <c r="G4" s="37" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="57"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="67"/>
-      <c r="E5" s="68"/>
-      <c r="F5" s="68"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="58"/>
+      <c r="F5" s="58"/>
       <c r="G5" s="38" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="58"/>
-      <c r="D6" s="69" t="s">
+      <c r="C6" s="46"/>
+      <c r="D6" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="70"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="75" t="s">
-        <v>122</v>
+      <c r="E6" s="60"/>
+      <c r="F6" s="60"/>
+      <c r="G6" s="40" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="57"/>
-      <c r="C7" s="58"/>
-      <c r="D7" s="69" t="s">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="59" t="s">
         <v>98</v>
       </c>
-      <c r="E7" s="70"/>
-      <c r="F7" s="70"/>
+      <c r="E7" s="60"/>
+      <c r="F7" s="60"/>
       <c r="G7" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="57"/>
-      <c r="C8" s="58"/>
-      <c r="D8" s="69"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="60"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="57"/>
-      <c r="C9" s="58"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="70"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="60"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="36" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="50" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="71" t="s">
+      <c r="C10" s="51"/>
+      <c r="D10" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="E10" s="72"/>
-      <c r="F10" s="72"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
       <c r="G10" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="71" t="s">
+      <c r="B11" s="50"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="E11" s="72"/>
-      <c r="F11" s="72"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="36" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="71" t="s">
+      <c r="B12" s="50"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="E12" s="72"/>
-      <c r="F12" s="72"/>
+      <c r="E12" s="42"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="36" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="72"/>
-      <c r="F13" s="72"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="62" t="s">
+      <c r="B14" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="73" t="s">
-        <v>117</v>
-      </c>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
+      <c r="C14" s="53"/>
+      <c r="D14" s="43" t="s">
+        <v>124</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="64"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="73" t="s">
-        <v>124</v>
-      </c>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
+      <c r="B15" s="54"/>
+      <c r="C15" s="53"/>
+      <c r="D15" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="E15" s="44"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="64"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="54"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="48" t="s">
         <v>125</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
       <c r="G16" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="64"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="55" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="56"/>
-      <c r="F17" s="56"/>
+      <c r="B17" s="54"/>
+      <c r="C17" s="53"/>
+      <c r="D17" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7" ht="15" customHeight="1">
@@ -1750,10 +1755,10 @@
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="46">
+      <c r="B19" s="61">
         <v>43962</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -1764,8 +1769,8 @@
       <c r="G19" s="6"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="47"/>
-      <c r="C20" s="50"/>
+      <c r="B20" s="62"/>
+      <c r="C20" s="65"/>
       <c r="D20" s="21" t="s">
         <v>14</v>
       </c>
@@ -1774,8 +1779,8 @@
       <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="47"/>
-      <c r="C21" s="50"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="65"/>
       <c r="D21" s="21" t="s">
         <v>15</v>
       </c>
@@ -1784,8 +1789,8 @@
       <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7">
-      <c r="B22" s="47"/>
-      <c r="C22" s="50"/>
+      <c r="B22" s="62"/>
+      <c r="C22" s="65"/>
       <c r="D22" s="26" t="s">
         <v>7</v>
       </c>
@@ -1794,8 +1799,8 @@
       <c r="G22" s="29"/>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="47"/>
-      <c r="C23" s="50"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="65"/>
       <c r="D23" s="2" t="s">
         <v>16</v>
       </c>
@@ -1806,8 +1811,8 @@
       <c r="G23" s="20"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="47"/>
-      <c r="C24" s="50"/>
+      <c r="B24" s="62"/>
+      <c r="C24" s="65"/>
       <c r="D24" s="2" t="s">
         <v>17</v>
       </c>
@@ -1818,8 +1823,8 @@
       <c r="G24" s="6"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="47"/>
-      <c r="C25" s="50"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="65"/>
       <c r="D25" s="21" t="s">
         <v>18</v>
       </c>
@@ -1830,8 +1835,8 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="47"/>
-      <c r="C26" s="50"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="65"/>
       <c r="D26" s="2" t="s">
         <v>19</v>
       </c>
@@ -1842,8 +1847,8 @@
       <c r="G26" s="6"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="47"/>
-      <c r="C27" s="50"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="21" t="s">
         <v>20</v>
       </c>
@@ -1854,8 +1859,8 @@
       <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="48"/>
-      <c r="C28" s="51"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="66"/>
       <c r="D28" s="16" t="s">
         <v>21</v>
       </c>
@@ -1864,10 +1869,10 @@
       <c r="G28" s="19"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="40">
+      <c r="B29" s="67">
         <v>43963</v>
       </c>
-      <c r="C29" s="43" t="s">
+      <c r="C29" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D29" s="21" t="s">
@@ -1878,8 +1883,8 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="41"/>
-      <c r="C30" s="44"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="71"/>
       <c r="D30" s="21" t="s">
         <v>14</v>
       </c>
@@ -1890,8 +1895,8 @@
       <c r="G30" s="24"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="41"/>
-      <c r="C31" s="44"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="71"/>
       <c r="D31" s="21" t="s">
         <v>15</v>
       </c>
@@ -1902,8 +1907,8 @@
       <c r="G31" s="25"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="41"/>
-      <c r="C32" s="44"/>
+      <c r="B32" s="68"/>
+      <c r="C32" s="71"/>
       <c r="D32" s="26" t="s">
         <v>7</v>
       </c>
@@ -1912,8 +1917,8 @@
       <c r="G32" s="29"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="41"/>
-      <c r="C33" s="44"/>
+      <c r="B33" s="68"/>
+      <c r="C33" s="71"/>
       <c r="D33" s="21" t="s">
         <v>10</v>
       </c>
@@ -1922,8 +1927,8 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="41"/>
-      <c r="C34" s="44"/>
+      <c r="B34" s="68"/>
+      <c r="C34" s="71"/>
       <c r="D34" s="21" t="s">
         <v>81</v>
       </c>
@@ -1934,8 +1939,8 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="41"/>
-      <c r="C35" s="44"/>
+      <c r="B35" s="68"/>
+      <c r="C35" s="71"/>
       <c r="D35" s="21" t="s">
         <v>82</v>
       </c>
@@ -1946,8 +1951,8 @@
       <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="41"/>
-      <c r="C36" s="44"/>
+      <c r="B36" s="68"/>
+      <c r="C36" s="71"/>
       <c r="D36" s="21" t="s">
         <v>83</v>
       </c>
@@ -1958,8 +1963,8 @@
       <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="41"/>
-      <c r="C37" s="44"/>
+      <c r="B37" s="68"/>
+      <c r="C37" s="71"/>
       <c r="D37" s="21" t="s">
         <v>84</v>
       </c>
@@ -1970,8 +1975,8 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="42"/>
-      <c r="C38" s="45"/>
+      <c r="B38" s="69"/>
+      <c r="C38" s="72"/>
       <c r="D38" s="16" t="s">
         <v>21</v>
       </c>
@@ -1980,10 +1985,10 @@
       <c r="G38" s="19"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="46">
+      <c r="B39" s="61">
         <v>43964</v>
       </c>
-      <c r="C39" s="49" t="s">
+      <c r="C39" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -1994,8 +1999,8 @@
       <c r="G39" s="6"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="47"/>
-      <c r="C40" s="50"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="21" t="s">
         <v>14</v>
       </c>
@@ -2008,8 +2013,8 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="47"/>
-      <c r="C41" s="50"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="65"/>
       <c r="D41" s="21" t="s">
         <v>15</v>
       </c>
@@ -2022,8 +2027,8 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="47"/>
-      <c r="C42" s="50"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="26" t="s">
         <v>7</v>
       </c>
@@ -2032,8 +2037,8 @@
       <c r="G42" s="29"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="47"/>
-      <c r="C43" s="50"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="2" t="s">
         <v>16</v>
       </c>
@@ -2044,8 +2049,8 @@
       <c r="G43" s="20"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="47"/>
-      <c r="C44" s="50"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="2" t="s">
         <v>17</v>
       </c>
@@ -2058,8 +2063,8 @@
       <c r="G44" s="6"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="47"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="62"/>
+      <c r="C45" s="65"/>
       <c r="D45" s="21" t="s">
         <v>18</v>
       </c>
@@ -2072,8 +2077,8 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="47"/>
-      <c r="C46" s="50"/>
+      <c r="B46" s="62"/>
+      <c r="C46" s="65"/>
       <c r="D46" s="2" t="s">
         <v>19</v>
       </c>
@@ -2084,8 +2089,8 @@
       <c r="G46" s="6"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="47"/>
-      <c r="C47" s="50"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="65"/>
       <c r="D47" s="21" t="s">
         <v>20</v>
       </c>
@@ -2098,8 +2103,8 @@
       <c r="G47" s="24"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="48"/>
-      <c r="C48" s="51"/>
+      <c r="B48" s="63"/>
+      <c r="C48" s="66"/>
       <c r="D48" s="16" t="s">
         <v>21</v>
       </c>
@@ -2108,10 +2113,10 @@
       <c r="G48" s="19"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="52">
+      <c r="B49" s="73">
         <v>43965</v>
       </c>
-      <c r="C49" s="43" t="s">
+      <c r="C49" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="21" t="s">
@@ -2122,8 +2127,8 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="53"/>
-      <c r="C50" s="44"/>
+      <c r="B50" s="74"/>
+      <c r="C50" s="71"/>
       <c r="D50" s="21" t="s">
         <v>14</v>
       </c>
@@ -2136,8 +2141,8 @@
       <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="53"/>
-      <c r="C51" s="44"/>
+      <c r="B51" s="74"/>
+      <c r="C51" s="71"/>
       <c r="D51" s="21" t="s">
         <v>15</v>
       </c>
@@ -2150,8 +2155,8 @@
       <c r="G51" s="25"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="53"/>
-      <c r="C52" s="44"/>
+      <c r="B52" s="74"/>
+      <c r="C52" s="71"/>
       <c r="D52" s="26" t="s">
         <v>7</v>
       </c>
@@ -2160,8 +2165,8 @@
       <c r="G52" s="29"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="53"/>
-      <c r="C53" s="44"/>
+      <c r="B53" s="74"/>
+      <c r="C53" s="71"/>
       <c r="D53" s="21" t="s">
         <v>10</v>
       </c>
@@ -2170,8 +2175,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="53"/>
-      <c r="C54" s="44"/>
+      <c r="B54" s="74"/>
+      <c r="C54" s="71"/>
       <c r="D54" s="21" t="s">
         <v>81</v>
       </c>
@@ -2184,8 +2189,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="53"/>
-      <c r="C55" s="44"/>
+      <c r="B55" s="74"/>
+      <c r="C55" s="71"/>
       <c r="D55" s="21" t="s">
         <v>82</v>
       </c>
@@ -2198,8 +2203,8 @@
       <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="53"/>
-      <c r="C56" s="44"/>
+      <c r="B56" s="74"/>
+      <c r="C56" s="71"/>
       <c r="D56" s="21" t="s">
         <v>83</v>
       </c>
@@ -2210,8 +2215,8 @@
       <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="53"/>
-      <c r="C57" s="44"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="71"/>
       <c r="D57" s="21" t="s">
         <v>84</v>
       </c>
@@ -2222,8 +2227,8 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="54"/>
-      <c r="C58" s="45"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="72"/>
       <c r="D58" s="16" t="s">
         <v>21</v>
       </c>
@@ -2232,10 +2237,10 @@
       <c r="G58" s="19"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="52">
+      <c r="B59" s="73">
         <v>43966</v>
       </c>
-      <c r="C59" s="49" t="s">
+      <c r="C59" s="64" t="s">
         <v>6</v>
       </c>
       <c r="D59" s="2" t="s">
@@ -2246,8 +2251,8 @@
       <c r="G59" s="6"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="53"/>
-      <c r="C60" s="50"/>
+      <c r="B60" s="74"/>
+      <c r="C60" s="65"/>
       <c r="D60" s="21" t="s">
         <v>14</v>
       </c>
@@ -2258,8 +2263,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="53"/>
-      <c r="C61" s="50"/>
+      <c r="B61" s="74"/>
+      <c r="C61" s="65"/>
       <c r="D61" s="21" t="s">
         <v>15</v>
       </c>
@@ -2270,8 +2275,8 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="53"/>
-      <c r="C62" s="50"/>
+      <c r="B62" s="74"/>
+      <c r="C62" s="65"/>
       <c r="D62" s="26" t="s">
         <v>7</v>
       </c>
@@ -2280,8 +2285,8 @@
       <c r="G62" s="29"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="53"/>
-      <c r="C63" s="50"/>
+      <c r="B63" s="74"/>
+      <c r="C63" s="65"/>
       <c r="D63" s="2" t="s">
         <v>16</v>
       </c>
@@ -2292,8 +2297,8 @@
       <c r="G63" s="20"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="53"/>
-      <c r="C64" s="50"/>
+      <c r="B64" s="74"/>
+      <c r="C64" s="65"/>
       <c r="D64" s="2" t="s">
         <v>17</v>
       </c>
@@ -2304,8 +2309,8 @@
       <c r="G64" s="6"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="53"/>
-      <c r="C65" s="50"/>
+      <c r="B65" s="74"/>
+      <c r="C65" s="65"/>
       <c r="D65" s="21" t="s">
         <v>18</v>
       </c>
@@ -2316,8 +2321,8 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="53"/>
-      <c r="C66" s="50"/>
+      <c r="B66" s="74"/>
+      <c r="C66" s="65"/>
       <c r="D66" s="2" t="s">
         <v>19</v>
       </c>
@@ -2328,8 +2333,8 @@
       <c r="G66" s="6"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="53"/>
-      <c r="C67" s="50"/>
+      <c r="B67" s="74"/>
+      <c r="C67" s="65"/>
       <c r="D67" s="21" t="s">
         <v>20</v>
       </c>
@@ -2340,8 +2345,8 @@
       <c r="G67" s="24"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="54"/>
-      <c r="C68" s="51"/>
+      <c r="B68" s="75"/>
+      <c r="C68" s="66"/>
       <c r="D68" s="16" t="s">
         <v>21</v>
       </c>
@@ -2350,10 +2355,10 @@
       <c r="G68" s="19"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="46">
+      <c r="B69" s="61">
         <v>43969</v>
       </c>
-      <c r="C69" s="49" t="s">
+      <c r="C69" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D69" s="2" t="s">
@@ -2364,32 +2369,32 @@
       <c r="G69" s="6"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="47"/>
-      <c r="C70" s="50"/>
+      <c r="B70" s="62"/>
+      <c r="C70" s="65"/>
       <c r="D70" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E70" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F70" s="23"/>
       <c r="G70" s="24"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="47"/>
-      <c r="C71" s="50"/>
+      <c r="B71" s="62"/>
+      <c r="C71" s="65"/>
       <c r="D71" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E71" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="47"/>
-      <c r="C72" s="50"/>
+      <c r="B72" s="62"/>
+      <c r="C72" s="65"/>
       <c r="D72" s="26" t="s">
         <v>7</v>
       </c>
@@ -2398,44 +2403,44 @@
       <c r="G72" s="29"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="47"/>
-      <c r="C73" s="50"/>
+      <c r="B73" s="62"/>
+      <c r="C73" s="65"/>
       <c r="D73" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E73" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="20"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="47"/>
-      <c r="C74" s="50"/>
+      <c r="B74" s="62"/>
+      <c r="C74" s="65"/>
       <c r="D74" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E74" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F74" s="2"/>
       <c r="G74" s="6"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="47"/>
-      <c r="C75" s="50"/>
+      <c r="B75" s="62"/>
+      <c r="C75" s="65"/>
       <c r="D75" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E75" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F75" s="21"/>
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="47"/>
-      <c r="C76" s="50"/>
+      <c r="B76" s="62"/>
+      <c r="C76" s="65"/>
       <c r="D76" s="2" t="s">
         <v>19</v>
       </c>
@@ -2446,8 +2451,8 @@
       <c r="G76" s="6"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="47"/>
-      <c r="C77" s="50"/>
+      <c r="B77" s="62"/>
+      <c r="C77" s="65"/>
       <c r="D77" s="21" t="s">
         <v>20</v>
       </c>
@@ -2458,8 +2463,8 @@
       <c r="G77" s="24"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="48"/>
-      <c r="C78" s="51"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="66"/>
       <c r="D78" s="16" t="s">
         <v>21</v>
       </c>
@@ -2468,10 +2473,10 @@
       <c r="G78" s="19"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="40">
+      <c r="B79" s="67">
         <v>43970</v>
       </c>
-      <c r="C79" s="43" t="s">
+      <c r="C79" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D79" s="21" t="s">
@@ -2482,8 +2487,8 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="41"/>
-      <c r="C80" s="44"/>
+      <c r="B80" s="68"/>
+      <c r="C80" s="71"/>
       <c r="D80" s="21" t="s">
         <v>14</v>
       </c>
@@ -2492,8 +2497,8 @@
       <c r="G80" s="24"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="41"/>
-      <c r="C81" s="44"/>
+      <c r="B81" s="68"/>
+      <c r="C81" s="71"/>
       <c r="D81" s="21" t="s">
         <v>15</v>
       </c>
@@ -2502,8 +2507,8 @@
       <c r="G81" s="25"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="41"/>
-      <c r="C82" s="44"/>
+      <c r="B82" s="68"/>
+      <c r="C82" s="71"/>
       <c r="D82" s="26" t="s">
         <v>7</v>
       </c>
@@ -2512,8 +2517,8 @@
       <c r="G82" s="29"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="41"/>
-      <c r="C83" s="44"/>
+      <c r="B83" s="68"/>
+      <c r="C83" s="71"/>
       <c r="D83" s="21" t="s">
         <v>10</v>
       </c>
@@ -2522,8 +2527,8 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="41"/>
-      <c r="C84" s="44"/>
+      <c r="B84" s="68"/>
+      <c r="C84" s="71"/>
       <c r="D84" s="21" t="s">
         <v>81</v>
       </c>
@@ -2532,8 +2537,8 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="41"/>
-      <c r="C85" s="44"/>
+      <c r="B85" s="68"/>
+      <c r="C85" s="71"/>
       <c r="D85" s="21" t="s">
         <v>82</v>
       </c>
@@ -2542,8 +2547,8 @@
       <c r="G85" s="24"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="41"/>
-      <c r="C86" s="44"/>
+      <c r="B86" s="68"/>
+      <c r="C86" s="71"/>
       <c r="D86" s="21" t="s">
         <v>83</v>
       </c>
@@ -2552,8 +2557,8 @@
       <c r="G86" s="24"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="41"/>
-      <c r="C87" s="44"/>
+      <c r="B87" s="68"/>
+      <c r="C87" s="71"/>
       <c r="D87" s="21" t="s">
         <v>84</v>
       </c>
@@ -2562,8 +2567,8 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="42"/>
-      <c r="C88" s="45"/>
+      <c r="B88" s="69"/>
+      <c r="C88" s="72"/>
       <c r="D88" s="16" t="s">
         <v>21</v>
       </c>
@@ -2572,10 +2577,10 @@
       <c r="G88" s="19"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="46">
+      <c r="B89" s="61">
         <v>43971</v>
       </c>
-      <c r="C89" s="49" t="s">
+      <c r="C89" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -2586,8 +2591,8 @@
       <c r="G89" s="6"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="47"/>
-      <c r="C90" s="50"/>
+      <c r="B90" s="62"/>
+      <c r="C90" s="65"/>
       <c r="D90" s="21" t="s">
         <v>14</v>
       </c>
@@ -2596,8 +2601,8 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="47"/>
-      <c r="C91" s="50"/>
+      <c r="B91" s="62"/>
+      <c r="C91" s="65"/>
       <c r="D91" s="21" t="s">
         <v>15</v>
       </c>
@@ -2610,8 +2615,8 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="47"/>
-      <c r="C92" s="50"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="65"/>
       <c r="D92" s="26" t="s">
         <v>7</v>
       </c>
@@ -2620,13 +2625,13 @@
       <c r="G92" s="29"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="47"/>
-      <c r="C93" s="50"/>
+      <c r="B93" s="62"/>
+      <c r="C93" s="65"/>
       <c r="D93" s="2" t="s">
         <v>16</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F93" s="7" t="s">
         <v>107</v>
@@ -2634,13 +2639,13 @@
       <c r="G93" s="20"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="47"/>
-      <c r="C94" s="50"/>
+      <c r="B94" s="62"/>
+      <c r="C94" s="65"/>
       <c r="D94" s="2" t="s">
         <v>17</v>
       </c>
       <c r="E94" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F94" s="2" t="s">
         <v>107</v>
@@ -2648,8 +2653,8 @@
       <c r="G94" s="6"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="47"/>
-      <c r="C95" s="50"/>
+      <c r="B95" s="62"/>
+      <c r="C95" s="65"/>
       <c r="D95" s="21" t="s">
         <v>18</v>
       </c>
@@ -2662,8 +2667,8 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="47"/>
-      <c r="C96" s="50"/>
+      <c r="B96" s="62"/>
+      <c r="C96" s="65"/>
       <c r="D96" s="2" t="s">
         <v>19</v>
       </c>
@@ -2676,13 +2681,13 @@
       <c r="G96" s="6"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="47"/>
-      <c r="C97" s="50"/>
+      <c r="B97" s="62"/>
+      <c r="C97" s="65"/>
       <c r="D97" s="21" t="s">
         <v>20</v>
       </c>
       <c r="E97" s="22" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F97" s="23" t="s">
         <v>107</v>
@@ -2690,8 +2695,8 @@
       <c r="G97" s="24"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="48"/>
-      <c r="C98" s="51"/>
+      <c r="B98" s="63"/>
+      <c r="C98" s="66"/>
       <c r="D98" s="16" t="s">
         <v>21</v>
       </c>
@@ -2700,10 +2705,10 @@
       <c r="G98" s="19"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="40">
+      <c r="B99" s="67">
         <v>43972</v>
       </c>
-      <c r="C99" s="43" t="s">
+      <c r="C99" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="21" t="s">
@@ -2714,8 +2719,8 @@
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="41"/>
-      <c r="C100" s="44"/>
+      <c r="B100" s="68"/>
+      <c r="C100" s="71"/>
       <c r="D100" s="21" t="s">
         <v>14</v>
       </c>
@@ -2724,20 +2729,20 @@
       <c r="G100" s="24"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="41"/>
-      <c r="C101" s="44"/>
+      <c r="B101" s="68"/>
+      <c r="C101" s="71"/>
       <c r="D101" s="21" t="s">
         <v>15</v>
       </c>
       <c r="E101" s="22" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F101" s="23"/>
       <c r="G101" s="25"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="41"/>
-      <c r="C102" s="44"/>
+      <c r="B102" s="68"/>
+      <c r="C102" s="71"/>
       <c r="D102" s="26" t="s">
         <v>7</v>
       </c>
@@ -2746,8 +2751,8 @@
       <c r="G102" s="29"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="41"/>
-      <c r="C103" s="44"/>
+      <c r="B103" s="68"/>
+      <c r="C103" s="71"/>
       <c r="D103" s="21" t="s">
         <v>10</v>
       </c>
@@ -2756,8 +2761,8 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="41"/>
-      <c r="C104" s="44"/>
+      <c r="B104" s="68"/>
+      <c r="C104" s="71"/>
       <c r="D104" s="21" t="s">
         <v>81</v>
       </c>
@@ -2766,8 +2771,8 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="41"/>
-      <c r="C105" s="44"/>
+      <c r="B105" s="68"/>
+      <c r="C105" s="71"/>
       <c r="D105" s="21" t="s">
         <v>82</v>
       </c>
@@ -2776,8 +2781,8 @@
       <c r="G105" s="24"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="41"/>
-      <c r="C106" s="44"/>
+      <c r="B106" s="68"/>
+      <c r="C106" s="71"/>
       <c r="D106" s="21" t="s">
         <v>83</v>
       </c>
@@ -2786,8 +2791,8 @@
       <c r="G106" s="24"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="41"/>
-      <c r="C107" s="44"/>
+      <c r="B107" s="68"/>
+      <c r="C107" s="71"/>
       <c r="D107" s="21" t="s">
         <v>84</v>
       </c>
@@ -2796,8 +2801,8 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="42"/>
-      <c r="C108" s="45"/>
+      <c r="B108" s="69"/>
+      <c r="C108" s="72"/>
       <c r="D108" s="16" t="s">
         <v>21</v>
       </c>
@@ -2806,10 +2811,10 @@
       <c r="G108" s="19"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="40">
+      <c r="B109" s="67">
         <v>43973</v>
       </c>
-      <c r="C109" s="43" t="s">
+      <c r="C109" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -2820,8 +2825,8 @@
       <c r="G109" s="6"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="41"/>
-      <c r="C110" s="44"/>
+      <c r="B110" s="68"/>
+      <c r="C110" s="71"/>
       <c r="D110" s="21" t="s">
         <v>14</v>
       </c>
@@ -2830,8 +2835,8 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="41"/>
-      <c r="C111" s="44"/>
+      <c r="B111" s="68"/>
+      <c r="C111" s="71"/>
       <c r="D111" s="21" t="s">
         <v>15</v>
       </c>
@@ -2840,8 +2845,8 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="41"/>
-      <c r="C112" s="44"/>
+      <c r="B112" s="68"/>
+      <c r="C112" s="71"/>
       <c r="D112" s="26" t="s">
         <v>7</v>
       </c>
@@ -2850,8 +2855,8 @@
       <c r="G112" s="29"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="41"/>
-      <c r="C113" s="44"/>
+      <c r="B113" s="68"/>
+      <c r="C113" s="71"/>
       <c r="D113" s="2" t="s">
         <v>16</v>
       </c>
@@ -2860,8 +2865,8 @@
       <c r="G113" s="20"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="41"/>
-      <c r="C114" s="44"/>
+      <c r="B114" s="68"/>
+      <c r="C114" s="71"/>
       <c r="D114" s="2" t="s">
         <v>17</v>
       </c>
@@ -2870,8 +2875,8 @@
       <c r="G114" s="6"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="41"/>
-      <c r="C115" s="44"/>
+      <c r="B115" s="68"/>
+      <c r="C115" s="71"/>
       <c r="D115" s="21" t="s">
         <v>18</v>
       </c>
@@ -2880,8 +2885,8 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="41"/>
-      <c r="C116" s="44"/>
+      <c r="B116" s="68"/>
+      <c r="C116" s="71"/>
       <c r="D116" s="2" t="s">
         <v>19</v>
       </c>
@@ -2890,8 +2895,8 @@
       <c r="G116" s="6"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="41"/>
-      <c r="C117" s="44"/>
+      <c r="B117" s="68"/>
+      <c r="C117" s="71"/>
       <c r="D117" s="21" t="s">
         <v>20</v>
       </c>
@@ -2900,8 +2905,8 @@
       <c r="G117" s="24"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="42"/>
-      <c r="C118" s="45"/>
+      <c r="B118" s="69"/>
+      <c r="C118" s="72"/>
       <c r="D118" s="16" t="s">
         <v>21</v>
       </c>
@@ -2910,10 +2915,10 @@
       <c r="G118" s="19"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="46">
+      <c r="B119" s="61">
         <v>43976</v>
       </c>
-      <c r="C119" s="49" t="s">
+      <c r="C119" s="64" t="s">
         <v>11</v>
       </c>
       <c r="D119" s="2" t="s">
@@ -2924,8 +2929,8 @@
       <c r="G119" s="6"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="47"/>
-      <c r="C120" s="50"/>
+      <c r="B120" s="62"/>
+      <c r="C120" s="65"/>
       <c r="D120" s="21" t="s">
         <v>14</v>
       </c>
@@ -2934,8 +2939,8 @@
       <c r="G120" s="24"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="47"/>
-      <c r="C121" s="50"/>
+      <c r="B121" s="62"/>
+      <c r="C121" s="65"/>
       <c r="D121" s="21" t="s">
         <v>15</v>
       </c>
@@ -2944,8 +2949,8 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="47"/>
-      <c r="C122" s="50"/>
+      <c r="B122" s="62"/>
+      <c r="C122" s="65"/>
       <c r="D122" s="26" t="s">
         <v>7</v>
       </c>
@@ -2954,8 +2959,8 @@
       <c r="G122" s="29"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="47"/>
-      <c r="C123" s="50"/>
+      <c r="B123" s="62"/>
+      <c r="C123" s="65"/>
       <c r="D123" s="2" t="s">
         <v>16</v>
       </c>
@@ -2964,8 +2969,8 @@
       <c r="G123" s="20"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="47"/>
-      <c r="C124" s="50"/>
+      <c r="B124" s="62"/>
+      <c r="C124" s="65"/>
       <c r="D124" s="2" t="s">
         <v>17</v>
       </c>
@@ -2974,8 +2979,8 @@
       <c r="G124" s="6"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="47"/>
-      <c r="C125" s="50"/>
+      <c r="B125" s="62"/>
+      <c r="C125" s="65"/>
       <c r="D125" s="21" t="s">
         <v>18</v>
       </c>
@@ -2984,8 +2989,8 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="47"/>
-      <c r="C126" s="50"/>
+      <c r="B126" s="62"/>
+      <c r="C126" s="65"/>
       <c r="D126" s="2" t="s">
         <v>19</v>
       </c>
@@ -2994,8 +2999,8 @@
       <c r="G126" s="6"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="47"/>
-      <c r="C127" s="50"/>
+      <c r="B127" s="62"/>
+      <c r="C127" s="65"/>
       <c r="D127" s="21" t="s">
         <v>20</v>
       </c>
@@ -3004,8 +3009,8 @@
       <c r="G127" s="24"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="48"/>
-      <c r="C128" s="51"/>
+      <c r="B128" s="63"/>
+      <c r="C128" s="66"/>
       <c r="D128" s="16" t="s">
         <v>21</v>
       </c>
@@ -3014,10 +3019,10 @@
       <c r="G128" s="19"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="40">
+      <c r="B129" s="67">
         <v>43977</v>
       </c>
-      <c r="C129" s="43" t="s">
+      <c r="C129" s="70" t="s">
         <v>12</v>
       </c>
       <c r="D129" s="21" t="s">
@@ -3028,8 +3033,8 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="41"/>
-      <c r="C130" s="44"/>
+      <c r="B130" s="68"/>
+      <c r="C130" s="71"/>
       <c r="D130" s="21" t="s">
         <v>14</v>
       </c>
@@ -3038,8 +3043,8 @@
       <c r="G130" s="24"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="41"/>
-      <c r="C131" s="44"/>
+      <c r="B131" s="68"/>
+      <c r="C131" s="71"/>
       <c r="D131" s="21" t="s">
         <v>15</v>
       </c>
@@ -3048,8 +3053,8 @@
       <c r="G131" s="25"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="41"/>
-      <c r="C132" s="44"/>
+      <c r="B132" s="68"/>
+      <c r="C132" s="71"/>
       <c r="D132" s="26" t="s">
         <v>7</v>
       </c>
@@ -3058,8 +3063,8 @@
       <c r="G132" s="29"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="41"/>
-      <c r="C133" s="44"/>
+      <c r="B133" s="68"/>
+      <c r="C133" s="71"/>
       <c r="D133" s="21" t="s">
         <v>10</v>
       </c>
@@ -3068,8 +3073,8 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="41"/>
-      <c r="C134" s="44"/>
+      <c r="B134" s="68"/>
+      <c r="C134" s="71"/>
       <c r="D134" s="21" t="s">
         <v>81</v>
       </c>
@@ -3078,8 +3083,8 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="41"/>
-      <c r="C135" s="44"/>
+      <c r="B135" s="68"/>
+      <c r="C135" s="71"/>
       <c r="D135" s="21" t="s">
         <v>82</v>
       </c>
@@ -3088,8 +3093,8 @@
       <c r="G135" s="24"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="41"/>
-      <c r="C136" s="44"/>
+      <c r="B136" s="68"/>
+      <c r="C136" s="71"/>
       <c r="D136" s="21" t="s">
         <v>83</v>
       </c>
@@ -3098,8 +3103,8 @@
       <c r="G136" s="24"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="41"/>
-      <c r="C137" s="44"/>
+      <c r="B137" s="68"/>
+      <c r="C137" s="71"/>
       <c r="D137" s="21" t="s">
         <v>84</v>
       </c>
@@ -3108,8 +3113,8 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="42"/>
-      <c r="C138" s="45"/>
+      <c r="B138" s="69"/>
+      <c r="C138" s="72"/>
       <c r="D138" s="16" t="s">
         <v>21</v>
       </c>
@@ -3118,10 +3123,10 @@
       <c r="G138" s="19"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="46">
+      <c r="B139" s="61">
         <v>43978</v>
       </c>
-      <c r="C139" s="49" t="s">
+      <c r="C139" s="64" t="s">
         <v>8</v>
       </c>
       <c r="D139" s="2" t="s">
@@ -3132,8 +3137,8 @@
       <c r="G139" s="6"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="47"/>
-      <c r="C140" s="50"/>
+      <c r="B140" s="62"/>
+      <c r="C140" s="65"/>
       <c r="D140" s="21" t="s">
         <v>14</v>
       </c>
@@ -3142,8 +3147,8 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="47"/>
-      <c r="C141" s="50"/>
+      <c r="B141" s="62"/>
+      <c r="C141" s="65"/>
       <c r="D141" s="21" t="s">
         <v>15</v>
       </c>
@@ -3152,8 +3157,8 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="47"/>
-      <c r="C142" s="50"/>
+      <c r="B142" s="62"/>
+      <c r="C142" s="65"/>
       <c r="D142" s="26" t="s">
         <v>7</v>
       </c>
@@ -3162,8 +3167,8 @@
       <c r="G142" s="29"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="47"/>
-      <c r="C143" s="50"/>
+      <c r="B143" s="62"/>
+      <c r="C143" s="65"/>
       <c r="D143" s="2" t="s">
         <v>16</v>
       </c>
@@ -3172,8 +3177,8 @@
       <c r="G143" s="20"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="47"/>
-      <c r="C144" s="50"/>
+      <c r="B144" s="62"/>
+      <c r="C144" s="65"/>
       <c r="D144" s="2" t="s">
         <v>17</v>
       </c>
@@ -3182,8 +3187,8 @@
       <c r="G144" s="6"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="47"/>
-      <c r="C145" s="50"/>
+      <c r="B145" s="62"/>
+      <c r="C145" s="65"/>
       <c r="D145" s="21" t="s">
         <v>18</v>
       </c>
@@ -3192,8 +3197,8 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="47"/>
-      <c r="C146" s="50"/>
+      <c r="B146" s="62"/>
+      <c r="C146" s="65"/>
       <c r="D146" s="2" t="s">
         <v>19</v>
       </c>
@@ -3202,8 +3207,8 @@
       <c r="G146" s="6"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="47"/>
-      <c r="C147" s="50"/>
+      <c r="B147" s="62"/>
+      <c r="C147" s="65"/>
       <c r="D147" s="21" t="s">
         <v>20</v>
       </c>
@@ -3212,8 +3217,8 @@
       <c r="G147" s="24"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="48"/>
-      <c r="C148" s="51"/>
+      <c r="B148" s="63"/>
+      <c r="C148" s="66"/>
       <c r="D148" s="16" t="s">
         <v>21</v>
       </c>
@@ -3222,10 +3227,10 @@
       <c r="G148" s="19"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="40">
+      <c r="B149" s="67">
         <v>43979</v>
       </c>
-      <c r="C149" s="43" t="s">
+      <c r="C149" s="70" t="s">
         <v>9</v>
       </c>
       <c r="D149" s="21" t="s">
@@ -3236,8 +3241,8 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="41"/>
-      <c r="C150" s="44"/>
+      <c r="B150" s="68"/>
+      <c r="C150" s="71"/>
       <c r="D150" s="21" t="s">
         <v>14</v>
       </c>
@@ -3246,8 +3251,8 @@
       <c r="G150" s="24"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="41"/>
-      <c r="C151" s="44"/>
+      <c r="B151" s="68"/>
+      <c r="C151" s="71"/>
       <c r="D151" s="21" t="s">
         <v>15</v>
       </c>
@@ -3256,8 +3261,8 @@
       <c r="G151" s="25"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="41"/>
-      <c r="C152" s="44"/>
+      <c r="B152" s="68"/>
+      <c r="C152" s="71"/>
       <c r="D152" s="26" t="s">
         <v>7</v>
       </c>
@@ -3266,8 +3271,8 @@
       <c r="G152" s="29"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="41"/>
-      <c r="C153" s="44"/>
+      <c r="B153" s="68"/>
+      <c r="C153" s="71"/>
       <c r="D153" s="21" t="s">
         <v>10</v>
       </c>
@@ -3276,8 +3281,8 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="41"/>
-      <c r="C154" s="44"/>
+      <c r="B154" s="68"/>
+      <c r="C154" s="71"/>
       <c r="D154" s="21" t="s">
         <v>81</v>
       </c>
@@ -3286,8 +3291,8 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="41"/>
-      <c r="C155" s="44"/>
+      <c r="B155" s="68"/>
+      <c r="C155" s="71"/>
       <c r="D155" s="21" t="s">
         <v>82</v>
       </c>
@@ -3296,8 +3301,8 @@
       <c r="G155" s="24"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="41"/>
-      <c r="C156" s="44"/>
+      <c r="B156" s="68"/>
+      <c r="C156" s="71"/>
       <c r="D156" s="21" t="s">
         <v>83</v>
       </c>
@@ -3306,8 +3311,8 @@
       <c r="G156" s="24"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="41"/>
-      <c r="C157" s="44"/>
+      <c r="B157" s="68"/>
+      <c r="C157" s="71"/>
       <c r="D157" s="21" t="s">
         <v>84</v>
       </c>
@@ -3316,8 +3321,8 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="42"/>
-      <c r="C158" s="45"/>
+      <c r="B158" s="69"/>
+      <c r="C158" s="72"/>
       <c r="D158" s="16" t="s">
         <v>21</v>
       </c>
@@ -3326,10 +3331,10 @@
       <c r="G158" s="19"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="40">
+      <c r="B159" s="67">
         <v>43980</v>
       </c>
-      <c r="C159" s="43" t="s">
+      <c r="C159" s="70" t="s">
         <v>6</v>
       </c>
       <c r="D159" s="2" t="s">
@@ -3340,8 +3345,8 @@
       <c r="G159" s="6"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="41"/>
-      <c r="C160" s="44"/>
+      <c r="B160" s="68"/>
+      <c r="C160" s="71"/>
       <c r="D160" s="21" t="s">
         <v>14</v>
       </c>
@@ -3350,8 +3355,8 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="41"/>
-      <c r="C161" s="44"/>
+      <c r="B161" s="68"/>
+      <c r="C161" s="71"/>
       <c r="D161" s="21" t="s">
         <v>15</v>
       </c>
@@ -3360,8 +3365,8 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="41"/>
-      <c r="C162" s="44"/>
+      <c r="B162" s="68"/>
+      <c r="C162" s="71"/>
       <c r="D162" s="26" t="s">
         <v>7</v>
       </c>
@@ -3370,8 +3375,8 @@
       <c r="G162" s="29"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="41"/>
-      <c r="C163" s="44"/>
+      <c r="B163" s="68"/>
+      <c r="C163" s="71"/>
       <c r="D163" s="2" t="s">
         <v>16</v>
       </c>
@@ -3380,8 +3385,8 @@
       <c r="G163" s="20"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="41"/>
-      <c r="C164" s="44"/>
+      <c r="B164" s="68"/>
+      <c r="C164" s="71"/>
       <c r="D164" s="2" t="s">
         <v>17</v>
       </c>
@@ -3390,8 +3395,8 @@
       <c r="G164" s="6"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="41"/>
-      <c r="C165" s="44"/>
+      <c r="B165" s="68"/>
+      <c r="C165" s="71"/>
       <c r="D165" s="21" t="s">
         <v>18</v>
       </c>
@@ -3400,8 +3405,8 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="41"/>
-      <c r="C166" s="44"/>
+      <c r="B166" s="68"/>
+      <c r="C166" s="71"/>
       <c r="D166" s="2" t="s">
         <v>19</v>
       </c>
@@ -3410,8 +3415,8 @@
       <c r="G166" s="6"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="41"/>
-      <c r="C167" s="44"/>
+      <c r="B167" s="68"/>
+      <c r="C167" s="71"/>
       <c r="D167" s="21" t="s">
         <v>20</v>
       </c>
@@ -3420,8 +3425,8 @@
       <c r="G167" s="24"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="42"/>
-      <c r="C168" s="45"/>
+      <c r="B168" s="69"/>
+      <c r="C168" s="72"/>
       <c r="D168" s="16" t="s">
         <v>21</v>
       </c>
@@ -3430,8 +3435,8 @@
       <c r="G168" s="19"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="46"/>
-      <c r="C169" s="49" t="s">
+      <c r="B169" s="61"/>
+      <c r="C169" s="64" t="s">
         <v>76</v>
       </c>
       <c r="D169" s="2" t="s">
@@ -3442,8 +3447,8 @@
       <c r="G169" s="6"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="47"/>
-      <c r="C170" s="50"/>
+      <c r="B170" s="62"/>
+      <c r="C170" s="65"/>
       <c r="D170" s="21" t="s">
         <v>14</v>
       </c>
@@ -3452,8 +3457,8 @@
       <c r="G170" s="24"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="47"/>
-      <c r="C171" s="50"/>
+      <c r="B171" s="62"/>
+      <c r="C171" s="65"/>
       <c r="D171" s="21" t="s">
         <v>15</v>
       </c>
@@ -3462,8 +3467,8 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="47"/>
-      <c r="C172" s="50"/>
+      <c r="B172" s="62"/>
+      <c r="C172" s="65"/>
       <c r="D172" s="26" t="s">
         <v>7</v>
       </c>
@@ -3472,8 +3477,8 @@
       <c r="G172" s="29"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="47"/>
-      <c r="C173" s="50"/>
+      <c r="B173" s="62"/>
+      <c r="C173" s="65"/>
       <c r="D173" s="2" t="s">
         <v>16</v>
       </c>
@@ -3482,8 +3487,8 @@
       <c r="G173" s="20"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="47"/>
-      <c r="C174" s="50"/>
+      <c r="B174" s="62"/>
+      <c r="C174" s="65"/>
       <c r="D174" s="2" t="s">
         <v>17</v>
       </c>
@@ -3492,8 +3497,8 @@
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="47"/>
-      <c r="C175" s="50"/>
+      <c r="B175" s="62"/>
+      <c r="C175" s="65"/>
       <c r="D175" s="21" t="s">
         <v>18</v>
       </c>
@@ -3502,8 +3507,8 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="47"/>
-      <c r="C176" s="50"/>
+      <c r="B176" s="62"/>
+      <c r="C176" s="65"/>
       <c r="D176" s="2" t="s">
         <v>19</v>
       </c>
@@ -3512,8 +3517,8 @@
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="47"/>
-      <c r="C177" s="50"/>
+      <c r="B177" s="62"/>
+      <c r="C177" s="65"/>
       <c r="D177" s="21" t="s">
         <v>20</v>
       </c>
@@ -3522,8 +3527,8 @@
       <c r="G177" s="24"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="48"/>
-      <c r="C178" s="51"/>
+      <c r="B178" s="63"/>
+      <c r="C178" s="66"/>
       <c r="D178" s="16" t="s">
         <v>21</v>
       </c>
@@ -3532,8 +3537,8 @@
       <c r="G178" s="19"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="40"/>
-      <c r="C179" s="43" t="s">
+      <c r="B179" s="67"/>
+      <c r="C179" s="70" t="s">
         <v>77</v>
       </c>
       <c r="D179" s="21" t="s">
@@ -3544,8 +3549,8 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="41"/>
-      <c r="C180" s="44"/>
+      <c r="B180" s="68"/>
+      <c r="C180" s="71"/>
       <c r="D180" s="21" t="s">
         <v>14</v>
       </c>
@@ -3554,8 +3559,8 @@
       <c r="G180" s="24"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="41"/>
-      <c r="C181" s="44"/>
+      <c r="B181" s="68"/>
+      <c r="C181" s="71"/>
       <c r="D181" s="21" t="s">
         <v>15</v>
       </c>
@@ -3564,8 +3569,8 @@
       <c r="G181" s="25"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="41"/>
-      <c r="C182" s="44"/>
+      <c r="B182" s="68"/>
+      <c r="C182" s="71"/>
       <c r="D182" s="26" t="s">
         <v>7</v>
       </c>
@@ -3574,8 +3579,8 @@
       <c r="G182" s="29"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="41"/>
-      <c r="C183" s="44"/>
+      <c r="B183" s="68"/>
+      <c r="C183" s="71"/>
       <c r="D183" s="21" t="s">
         <v>10</v>
       </c>
@@ -3584,8 +3589,8 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="41"/>
-      <c r="C184" s="44"/>
+      <c r="B184" s="68"/>
+      <c r="C184" s="71"/>
       <c r="D184" s="21" t="s">
         <v>81</v>
       </c>
@@ -3594,8 +3599,8 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="41"/>
-      <c r="C185" s="44"/>
+      <c r="B185" s="68"/>
+      <c r="C185" s="71"/>
       <c r="D185" s="21" t="s">
         <v>82</v>
       </c>
@@ -3604,8 +3609,8 @@
       <c r="G185" s="24"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="41"/>
-      <c r="C186" s="44"/>
+      <c r="B186" s="68"/>
+      <c r="C186" s="71"/>
       <c r="D186" s="21" t="s">
         <v>83</v>
       </c>
@@ -3614,8 +3619,8 @@
       <c r="G186" s="24"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="41"/>
-      <c r="C187" s="44"/>
+      <c r="B187" s="68"/>
+      <c r="C187" s="71"/>
       <c r="D187" s="21" t="s">
         <v>84</v>
       </c>
@@ -3624,8 +3629,8 @@
       <c r="G187" s="24"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="42"/>
-      <c r="C188" s="45"/>
+      <c r="B188" s="69"/>
+      <c r="C188" s="72"/>
       <c r="D188" s="16" t="s">
         <v>21</v>
       </c>
@@ -3634,8 +3639,8 @@
       <c r="G188" s="19"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="46"/>
-      <c r="C189" s="49" t="s">
+      <c r="B189" s="61"/>
+      <c r="C189" s="64" t="s">
         <v>78</v>
       </c>
       <c r="D189" s="2" t="s">
@@ -3646,8 +3651,8 @@
       <c r="G189" s="6"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="47"/>
-      <c r="C190" s="50"/>
+      <c r="B190" s="62"/>
+      <c r="C190" s="65"/>
       <c r="D190" s="21" t="s">
         <v>14</v>
       </c>
@@ -3656,8 +3661,8 @@
       <c r="G190" s="24"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="47"/>
-      <c r="C191" s="50"/>
+      <c r="B191" s="62"/>
+      <c r="C191" s="65"/>
       <c r="D191" s="21" t="s">
         <v>15</v>
       </c>
@@ -3666,8 +3671,8 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="47"/>
-      <c r="C192" s="50"/>
+      <c r="B192" s="62"/>
+      <c r="C192" s="65"/>
       <c r="D192" s="26" t="s">
         <v>7</v>
       </c>
@@ -3676,8 +3681,8 @@
       <c r="G192" s="29"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="47"/>
-      <c r="C193" s="50"/>
+      <c r="B193" s="62"/>
+      <c r="C193" s="65"/>
       <c r="D193" s="2" t="s">
         <v>16</v>
       </c>
@@ -3686,8 +3691,8 @@
       <c r="G193" s="20"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="47"/>
-      <c r="C194" s="50"/>
+      <c r="B194" s="62"/>
+      <c r="C194" s="65"/>
       <c r="D194" s="2" t="s">
         <v>17</v>
       </c>
@@ -3696,8 +3701,8 @@
       <c r="G194" s="6"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="47"/>
-      <c r="C195" s="50"/>
+      <c r="B195" s="62"/>
+      <c r="C195" s="65"/>
       <c r="D195" s="21" t="s">
         <v>18</v>
       </c>
@@ -3706,8 +3711,8 @@
       <c r="G195" s="24"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="47"/>
-      <c r="C196" s="50"/>
+      <c r="B196" s="62"/>
+      <c r="C196" s="65"/>
       <c r="D196" s="2" t="s">
         <v>19</v>
       </c>
@@ -3716,8 +3721,8 @@
       <c r="G196" s="6"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="47"/>
-      <c r="C197" s="50"/>
+      <c r="B197" s="62"/>
+      <c r="C197" s="65"/>
       <c r="D197" s="21" t="s">
         <v>20</v>
       </c>
@@ -3726,8 +3731,8 @@
       <c r="G197" s="24"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="48"/>
-      <c r="C198" s="51"/>
+      <c r="B198" s="63"/>
+      <c r="C198" s="66"/>
       <c r="D198" s="16" t="s">
         <v>21</v>
       </c>
@@ -3736,8 +3741,8 @@
       <c r="G198" s="19"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="40"/>
-      <c r="C199" s="43" t="s">
+      <c r="B199" s="67"/>
+      <c r="C199" s="70" t="s">
         <v>79</v>
       </c>
       <c r="D199" s="21" t="s">
@@ -3748,8 +3753,8 @@
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="41"/>
-      <c r="C200" s="44"/>
+      <c r="B200" s="68"/>
+      <c r="C200" s="71"/>
       <c r="D200" s="21" t="s">
         <v>14</v>
       </c>
@@ -3758,8 +3763,8 @@
       <c r="G200" s="24"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="41"/>
-      <c r="C201" s="44"/>
+      <c r="B201" s="68"/>
+      <c r="C201" s="71"/>
       <c r="D201" s="21" t="s">
         <v>15</v>
       </c>
@@ -3768,8 +3773,8 @@
       <c r="G201" s="25"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="41"/>
-      <c r="C202" s="44"/>
+      <c r="B202" s="68"/>
+      <c r="C202" s="71"/>
       <c r="D202" s="26" t="s">
         <v>7</v>
       </c>
@@ -3778,8 +3783,8 @@
       <c r="G202" s="29"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="41"/>
-      <c r="C203" s="44"/>
+      <c r="B203" s="68"/>
+      <c r="C203" s="71"/>
       <c r="D203" s="21" t="s">
         <v>10</v>
       </c>
@@ -3788,8 +3793,8 @@
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="41"/>
-      <c r="C204" s="44"/>
+      <c r="B204" s="68"/>
+      <c r="C204" s="71"/>
       <c r="D204" s="21" t="s">
         <v>81</v>
       </c>
@@ -3798,8 +3803,8 @@
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="41"/>
-      <c r="C205" s="44"/>
+      <c r="B205" s="68"/>
+      <c r="C205" s="71"/>
       <c r="D205" s="21" t="s">
         <v>82</v>
       </c>
@@ -3808,8 +3813,8 @@
       <c r="G205" s="24"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="41"/>
-      <c r="C206" s="44"/>
+      <c r="B206" s="68"/>
+      <c r="C206" s="71"/>
       <c r="D206" s="21" t="s">
         <v>83</v>
       </c>
@@ -3818,8 +3823,8 @@
       <c r="G206" s="24"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="41"/>
-      <c r="C207" s="44"/>
+      <c r="B207" s="68"/>
+      <c r="C207" s="71"/>
       <c r="D207" s="21" t="s">
         <v>84</v>
       </c>
@@ -3828,8 +3833,8 @@
       <c r="G207" s="24"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="42"/>
-      <c r="C208" s="45"/>
+      <c r="B208" s="69"/>
+      <c r="C208" s="72"/>
       <c r="D208" s="16" t="s">
         <v>21</v>
       </c>
@@ -3838,8 +3843,8 @@
       <c r="G208" s="19"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="40"/>
-      <c r="C209" s="43" t="s">
+      <c r="B209" s="67"/>
+      <c r="C209" s="70" t="s">
         <v>80</v>
       </c>
       <c r="D209" s="2" t="s">
@@ -3850,8 +3855,8 @@
       <c r="G209" s="6"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="41"/>
-      <c r="C210" s="44"/>
+      <c r="B210" s="68"/>
+      <c r="C210" s="71"/>
       <c r="D210" s="21" t="s">
         <v>14</v>
       </c>
@@ -3860,8 +3865,8 @@
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="41"/>
-      <c r="C211" s="44"/>
+      <c r="B211" s="68"/>
+      <c r="C211" s="71"/>
       <c r="D211" s="21" t="s">
         <v>15</v>
       </c>
@@ -3870,8 +3875,8 @@
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="41"/>
-      <c r="C212" s="44"/>
+      <c r="B212" s="68"/>
+      <c r="C212" s="71"/>
       <c r="D212" s="26" t="s">
         <v>7</v>
       </c>
@@ -3880,8 +3885,8 @@
       <c r="G212" s="29"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="41"/>
-      <c r="C213" s="44"/>
+      <c r="B213" s="68"/>
+      <c r="C213" s="71"/>
       <c r="D213" s="2" t="s">
         <v>16</v>
       </c>
@@ -3890,8 +3895,8 @@
       <c r="G213" s="20"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="41"/>
-      <c r="C214" s="44"/>
+      <c r="B214" s="68"/>
+      <c r="C214" s="71"/>
       <c r="D214" s="2" t="s">
         <v>17</v>
       </c>
@@ -3900,8 +3905,8 @@
       <c r="G214" s="6"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="41"/>
-      <c r="C215" s="44"/>
+      <c r="B215" s="68"/>
+      <c r="C215" s="71"/>
       <c r="D215" s="21" t="s">
         <v>18</v>
       </c>
@@ -3910,8 +3915,8 @@
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="41"/>
-      <c r="C216" s="44"/>
+      <c r="B216" s="68"/>
+      <c r="C216" s="71"/>
       <c r="D216" s="2" t="s">
         <v>19</v>
       </c>
@@ -3920,8 +3925,8 @@
       <c r="G216" s="6"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="41"/>
-      <c r="C217" s="44"/>
+      <c r="B217" s="68"/>
+      <c r="C217" s="71"/>
       <c r="D217" s="21" t="s">
         <v>20</v>
       </c>
@@ -3930,8 +3935,8 @@
       <c r="G217" s="24"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="42"/>
-      <c r="C218" s="45"/>
+      <c r="B218" s="69"/>
+      <c r="C218" s="72"/>
       <c r="D218" s="16" t="s">
         <v>21</v>
       </c>
@@ -3941,11 +3946,46 @@
     </row>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="B199:B208"/>
+    <mergeCell ref="C199:C208"/>
+    <mergeCell ref="B209:B218"/>
+    <mergeCell ref="C209:C218"/>
+    <mergeCell ref="B169:B178"/>
+    <mergeCell ref="C169:C178"/>
+    <mergeCell ref="B179:B188"/>
+    <mergeCell ref="C179:C188"/>
+    <mergeCell ref="B189:B198"/>
+    <mergeCell ref="C189:C198"/>
+    <mergeCell ref="B139:B148"/>
+    <mergeCell ref="C139:C148"/>
+    <mergeCell ref="B149:B158"/>
+    <mergeCell ref="C149:C158"/>
+    <mergeCell ref="B159:B168"/>
+    <mergeCell ref="C159:C168"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="C109:C118"/>
+    <mergeCell ref="B119:B128"/>
+    <mergeCell ref="C119:C128"/>
+    <mergeCell ref="B129:B138"/>
+    <mergeCell ref="C129:C138"/>
+    <mergeCell ref="B79:B88"/>
+    <mergeCell ref="C79:C88"/>
+    <mergeCell ref="B89:B98"/>
+    <mergeCell ref="C89:C98"/>
+    <mergeCell ref="B99:B108"/>
+    <mergeCell ref="C99:C108"/>
+    <mergeCell ref="B49:B58"/>
+    <mergeCell ref="C49:C58"/>
+    <mergeCell ref="B59:B68"/>
+    <mergeCell ref="C59:C68"/>
+    <mergeCell ref="B69:B78"/>
+    <mergeCell ref="C69:C78"/>
+    <mergeCell ref="B19:B28"/>
+    <mergeCell ref="C19:C28"/>
+    <mergeCell ref="B29:B38"/>
+    <mergeCell ref="C29:C38"/>
+    <mergeCell ref="B39:B48"/>
+    <mergeCell ref="C39:C48"/>
     <mergeCell ref="D15:F15"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="B1:G1"/>
@@ -3962,46 +4002,11 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C48"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="C99:C108"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="C109:C118"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="C119:C128"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="C129:C138"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="B159:B168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="C199:C208"/>
-    <mergeCell ref="B209:B218"/>
-    <mergeCell ref="C209:C218"/>
-    <mergeCell ref="B169:B178"/>
-    <mergeCell ref="C169:C178"/>
-    <mergeCell ref="B179:B188"/>
-    <mergeCell ref="C179:C188"/>
-    <mergeCell ref="B189:B198"/>
-    <mergeCell ref="C189:C198"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D6E7D50-9817-4108-89F7-9FBB39E75E58}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2AA04-594E-4153-ABE8-05660D85FAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="39" r:id="rId1"/>
-    <sheet name="ProgrammingLanguage" sheetId="4" r:id="rId2"/>
+    <sheet name="Jun" sheetId="40" r:id="rId2"/>
+    <sheet name="ProgrammingLanguage" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="154">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -388,9 +389,6 @@
   </si>
   <si>
     <t>Innovation</t>
-  </si>
-  <si>
-    <t>squish basic</t>
   </si>
   <si>
     <t>3GPP</t>
@@ -501,6 +499,31 @@
   </si>
   <si>
     <t>cpp</t>
+  </si>
+  <si>
+    <t>weekly</t>
+  </si>
+  <si>
+    <t>Cpp st</t>
+  </si>
+  <si>
+    <t>Innovation - idea, research, design, presentation</t>
+  </si>
+  <si>
+    <t>cucumber scpi implementing, JIRA st</t>
+  </si>
+  <si>
+    <t>refactoring constellation calculation - idea</t>
+  </si>
+  <si>
+    <t>Innovation - idea</t>
+  </si>
+  <si>
+    <t>Weekly
+(5/25 - 5/29)</t>
+  </si>
+  <si>
+    <t>Refactoring - improve, unused code delete, warning remove, bug fix</t>
   </si>
   <si>
     <r>
@@ -543,26 +566,110 @@
         <charset val="129"/>
         <scheme val="minor"/>
       </rPr>
-      <t>, Bamboo CI/CD, Confluence</t>
+      <t xml:space="preserve">, Bamboo </t>
     </r>
-  </si>
-  <si>
-    <t>weekly</t>
-  </si>
-  <si>
-    <t>Cpp st</t>
-  </si>
-  <si>
-    <t>Innovation - idea, research, design, presentation</t>
-  </si>
-  <si>
-    <t>cucumber scpi implementing, JIRA st</t>
-  </si>
-  <si>
-    <t>refactoring constellation calculation - idea</t>
-  </si>
-  <si>
-    <t>Innovation - idea</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>CI/CD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, Confluence</t>
+    </r>
+  </si>
+  <si>
+    <t>Refactoring, Innovation, 협업 프로세스(JIRA, Confluence, Agile, etc)</t>
+  </si>
+  <si>
+    <t>cucumber apps - implement and verify (just a little bit)</t>
+  </si>
+  <si>
+    <t>refactoring constellation calculation - idea -&gt; design -&gt; implement -&gt; test&amp;verify(HA-7315), refactoring warning message remove(HA-7142)</t>
+  </si>
+  <si>
+    <t>cucumber apps implement and verify, remote test start</t>
+  </si>
+  <si>
+    <t>refactoring design</t>
+  </si>
+  <si>
+    <t>June</t>
+  </si>
+  <si>
+    <t>expert software</t>
+  </si>
+  <si>
+    <t>Yearly
+(D-6)</t>
+  </si>
+  <si>
+    <t>Q2/Q4
+(D-0)</t>
+  </si>
+  <si>
+    <t>Monthly Plan</t>
+  </si>
+  <si>
+    <t>Refactoring - compile warning message, constellation</t>
+  </si>
+  <si>
+    <t>개발 방법론 - JIRA, Agile, TDD(cucumber apps/scpi), Confluence</t>
+  </si>
+  <si>
+    <t>Innovation - idea, research, design, presentation; Seminar presentation</t>
+  </si>
+  <si>
+    <t>book - C++, English; 저장소 정리(google drive, one drive, git, EXT HDD, naver, Local HDD)</t>
+  </si>
+  <si>
+    <t>Real English</t>
+  </si>
+  <si>
+    <t>Expert software</t>
+  </si>
+  <si>
+    <t>Weekly
+1st (6/01 - 6/05)</t>
+  </si>
+  <si>
+    <t>Refactoring - compile warning message</t>
+  </si>
+  <si>
+    <t>Etc - cucumber apps auto test</t>
+  </si>
+  <si>
+    <t>Refactoring - constellation design</t>
+  </si>
+  <si>
+    <t>cucumber apps auto test verification</t>
+  </si>
+  <si>
+    <t>Refactoring compile warning message list-up</t>
+  </si>
+  <si>
+    <t>ST - Cpp, Eng</t>
+  </si>
+  <si>
+    <t>cucumber apps step1 daily test link connection</t>
+  </si>
+  <si>
+    <t>Mode/Measurement Switching Test</t>
+  </si>
+  <si>
+    <t>Meeting for refactoring</t>
   </si>
 </sst>
 </file>
@@ -573,7 +680,7 @@
     <numFmt numFmtId="164" formatCode="m&quot;월&quot;\ d&quot;일&quot;;@"/>
     <numFmt numFmtId="165" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -675,8 +782,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -704,6 +848,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -851,7 +1001,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -975,16 +1125,58 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -996,27 +1188,12 @@
     <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1078,6 +1255,33 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1520,11 +1724,11 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="B1:G218"/>
+  <dimension ref="B1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="18" topLeftCell="A103" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17:F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="22" topLeftCell="A176" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1539,2461 +1743,2529 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="47" t="s">
+      <c r="B1" s="61" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="59" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="46"/>
-      <c r="D2" s="55" t="s">
-        <v>99</v>
-      </c>
-      <c r="E2" s="56"/>
-      <c r="F2" s="56"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
       <c r="G2" s="39" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="45"/>
-      <c r="C3" s="46"/>
-      <c r="D3" s="57" t="s">
-        <v>102</v>
-      </c>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="58"/>
-      <c r="F4" s="58"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="66"/>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
       <c r="G4" s="37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="45"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="58"/>
-      <c r="F5" s="58"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
       <c r="G5" s="38" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="45" t="s">
+      <c r="B6" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="46"/>
-      <c r="D6" s="59" t="s">
+      <c r="C6" s="60"/>
+      <c r="D6" s="68" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="60"/>
-      <c r="F6" s="60"/>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
       <c r="G6" s="40" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="59" t="s">
-        <v>98</v>
-      </c>
-      <c r="E7" s="60"/>
-      <c r="F7" s="60"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
       <c r="G7" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
       <c r="G8" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="36" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="36" t="s">
-        <v>113</v>
-      </c>
-    </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="50" t="s">
+      <c r="B10" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="51"/>
-      <c r="D10" s="41" t="s">
-        <v>101</v>
-      </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="53" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
       <c r="G10" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="E11" s="56"/>
+      <c r="F11" s="56"/>
+      <c r="G11" s="36" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="50"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="41" t="s">
-        <v>94</v>
-      </c>
-      <c r="E11" s="42"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="36" t="s">
-        <v>97</v>
-      </c>
-    </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="50"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="41" t="s">
-        <v>100</v>
-      </c>
-      <c r="E12" s="42"/>
-      <c r="F12" s="42"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="53" t="s">
+        <v>99</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
       <c r="G12" s="36" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="50"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="53" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="52" t="s">
-        <v>116</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="43" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" s="44"/>
-      <c r="F14" s="44"/>
+      <c r="B14" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="49" t="s">
+        <v>122</v>
+      </c>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="54"/>
-      <c r="C15" s="53"/>
-      <c r="D15" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="49" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
       <c r="G15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="54"/>
-      <c r="C16" s="53"/>
-      <c r="D16" s="48" t="s">
-        <v>125</v>
-      </c>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="51" t="s">
+        <v>123</v>
+      </c>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
       <c r="G16" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="54"/>
-      <c r="C17" s="53"/>
-      <c r="D17" s="48" t="s">
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="57" t="s">
+        <v>130</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="41" t="s">
         <v>126</v>
       </c>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="22"/>
-    </row>
-    <row r="18" spans="2:7" ht="15" customHeight="1">
-      <c r="B18" s="33" t="s">
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="51" t="s">
+        <v>124</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C18" s="34" t="s">
+      <c r="C22" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="D18" s="34" t="s">
+      <c r="D22" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="E18" s="34" t="s">
+      <c r="E22" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="34" t="s">
+      <c r="F22" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="G18" s="35" t="s">
+      <c r="G22" s="35" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
-      <c r="B19" s="61">
+    <row r="23" spans="2:7">
+      <c r="B23" s="70">
         <v>43962</v>
       </c>
-      <c r="C19" s="64" t="s">
+      <c r="C23" s="73" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="6"/>
-    </row>
-    <row r="20" spans="2:7">
-      <c r="B20" s="62"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="21" t="s">
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="71"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="24"/>
-    </row>
-    <row r="21" spans="2:7">
-      <c r="B21" s="62"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="21" t="s">
+      <c r="E24" s="3"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="71"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="24"/>
-    </row>
-    <row r="22" spans="2:7">
-      <c r="B22" s="62"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="26" t="s">
+      <c r="E25" s="3"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="71"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="29"/>
-    </row>
-    <row r="23" spans="2:7">
-      <c r="B23" s="62"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="2" t="s">
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="71"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E27" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7">
-      <c r="B24" s="62"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="2" t="s">
+      <c r="F27" s="7"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="71"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E28" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="2"/>
-      <c r="G24" s="6"/>
-    </row>
-    <row r="25" spans="2:7">
-      <c r="B25" s="62"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="21" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="71"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E25" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F25" s="21"/>
-      <c r="G25" s="24"/>
-    </row>
-    <row r="26" spans="2:7">
-      <c r="B26" s="62"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" s="2"/>
-      <c r="G26" s="6"/>
-    </row>
-    <row r="27" spans="2:7">
-      <c r="B27" s="62"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="F27" s="23"/>
-      <c r="G27" s="24"/>
-    </row>
-    <row r="28" spans="2:7">
-      <c r="B28" s="63"/>
-      <c r="C28" s="66"/>
-      <c r="D28" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="17"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="19"/>
-    </row>
-    <row r="29" spans="2:7">
-      <c r="B29" s="67">
-        <v>43963</v>
-      </c>
-      <c r="C29" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D29" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="22"/>
+      <c r="E29" s="3" t="s">
+        <v>94</v>
+      </c>
       <c r="F29" s="21"/>
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="68"/>
-      <c r="C30" s="71"/>
-      <c r="D30" s="21" t="s">
-        <v>14</v>
+      <c r="B30" s="71"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="F30" s="23"/>
-      <c r="G30" s="24"/>
+        <v>94</v>
+      </c>
+      <c r="F30" s="2"/>
+      <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="68"/>
-      <c r="C31" s="71"/>
+      <c r="B31" s="71"/>
+      <c r="C31" s="74"/>
       <c r="D31" s="21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="F31" s="23"/>
-      <c r="G31" s="25"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="68"/>
-      <c r="C32" s="71"/>
-      <c r="D32" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" s="27"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="29"/>
+      <c r="B32" s="72"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="68"/>
-      <c r="C33" s="71"/>
+      <c r="B33" s="76">
+        <v>43963</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="D33" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="22"/>
       <c r="F33" s="21"/>
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="68"/>
-      <c r="C34" s="71"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="80"/>
       <c r="D34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="77"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="77"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="77"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="77"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E34" s="22" t="s">
+      <c r="E38" s="22" t="s">
+        <v>105</v>
+      </c>
+      <c r="F38" s="21"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="77"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="77"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="77"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="78"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="70">
+        <v>43964</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="71"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F44" s="23" t="s">
         <v>106</v>
       </c>
-      <c r="F34" s="21"/>
-      <c r="G34" s="24"/>
-    </row>
-    <row r="35" spans="2:7">
-      <c r="B35" s="68"/>
-      <c r="C35" s="71"/>
-      <c r="D35" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="E35" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
-    </row>
-    <row r="36" spans="2:7">
-      <c r="B36" s="68"/>
-      <c r="C36" s="71"/>
-      <c r="D36" s="21" t="s">
-        <v>83</v>
-      </c>
-      <c r="E36" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F36" s="21"/>
-      <c r="G36" s="24"/>
-    </row>
-    <row r="37" spans="2:7">
-      <c r="B37" s="68"/>
-      <c r="C37" s="71"/>
-      <c r="D37" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F37" s="23"/>
-      <c r="G37" s="24"/>
-    </row>
-    <row r="38" spans="2:7">
-      <c r="B38" s="69"/>
-      <c r="C38" s="72"/>
-      <c r="D38" s="16" t="s">
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="71"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="F45" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="71"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="71"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F47" s="7"/>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="71"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="71"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="71"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F50" s="2"/>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="71"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="72"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E38" s="17"/>
-      <c r="F38" s="16"/>
-      <c r="G38" s="19"/>
-    </row>
-    <row r="39" spans="2:7">
-      <c r="B39" s="61">
-        <v>43964</v>
-      </c>
-      <c r="C39" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D39" s="2" t="s">
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="82">
+        <v>43965</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="7"/>
-      <c r="G39" s="6"/>
-    </row>
-    <row r="40" spans="2:7">
-      <c r="B40" s="62"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F40" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G40" s="24"/>
-    </row>
-    <row r="41" spans="2:7">
-      <c r="B41" s="62"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E41" s="22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F41" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G41" s="24"/>
-    </row>
-    <row r="42" spans="2:7">
-      <c r="B42" s="62"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E42" s="27"/>
-      <c r="F42" s="28"/>
-      <c r="G42" s="29"/>
-    </row>
-    <row r="43" spans="2:7">
-      <c r="B43" s="62"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F43" s="7"/>
-      <c r="G43" s="20"/>
-    </row>
-    <row r="44" spans="2:7">
-      <c r="B44" s="62"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E44" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="F44" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G44" s="6"/>
-    </row>
-    <row r="45" spans="2:7">
-      <c r="B45" s="62"/>
-      <c r="C45" s="65"/>
-      <c r="D45" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E45" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="F45" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G45" s="24"/>
-    </row>
-    <row r="46" spans="2:7">
-      <c r="B46" s="62"/>
-      <c r="C46" s="65"/>
-      <c r="D46" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E46" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F46" s="2"/>
-      <c r="G46" s="6"/>
-    </row>
-    <row r="47" spans="2:7">
-      <c r="B47" s="62"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E47" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F47" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G47" s="24"/>
-    </row>
-    <row r="48" spans="2:7">
-      <c r="B48" s="63"/>
-      <c r="C48" s="66"/>
-      <c r="D48" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="17"/>
-      <c r="F48" s="18"/>
-      <c r="G48" s="19"/>
-    </row>
-    <row r="49" spans="2:7">
-      <c r="B49" s="73">
-        <v>43965</v>
-      </c>
-      <c r="C49" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D49" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E49" s="22"/>
-      <c r="F49" s="21"/>
-      <c r="G49" s="24"/>
-    </row>
-    <row r="50" spans="2:7">
-      <c r="B50" s="74"/>
-      <c r="C50" s="71"/>
-      <c r="D50" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F50" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G50" s="24"/>
-    </row>
-    <row r="51" spans="2:7">
-      <c r="B51" s="74"/>
-      <c r="C51" s="71"/>
-      <c r="D51" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="F51" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G51" s="25"/>
-    </row>
-    <row r="52" spans="2:7">
-      <c r="B52" s="74"/>
-      <c r="C52" s="71"/>
-      <c r="D52" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E52" s="27"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="29"/>
-    </row>
-    <row r="53" spans="2:7">
-      <c r="B53" s="74"/>
-      <c r="C53" s="71"/>
-      <c r="D53" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="21"/>
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="74"/>
-      <c r="C54" s="71"/>
+      <c r="B54" s="83"/>
+      <c r="C54" s="80"/>
       <c r="D54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="83"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="83"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="83"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="83"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E54" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F54" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G54" s="24"/>
-    </row>
-    <row r="55" spans="2:7">
-      <c r="B55" s="74"/>
-      <c r="C55" s="71"/>
-      <c r="D55" s="21" t="s">
+      <c r="E58" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F58" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="83"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E55" s="22" t="s">
-        <v>109</v>
-      </c>
-      <c r="F55" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G55" s="24"/>
-    </row>
-    <row r="56" spans="2:7">
-      <c r="B56" s="74"/>
-      <c r="C56" s="71"/>
-      <c r="D56" s="21" t="s">
+      <c r="E59" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="83"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E56" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F56" s="21"/>
-      <c r="G56" s="24"/>
-    </row>
-    <row r="57" spans="2:7">
-      <c r="B57" s="74"/>
-      <c r="C57" s="71"/>
-      <c r="D57" s="21" t="s">
+      <c r="E60" s="22" t="s">
+        <v>104</v>
+      </c>
+      <c r="F60" s="21"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="83"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E57" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F57" s="23"/>
-      <c r="G57" s="24"/>
-    </row>
-    <row r="58" spans="2:7">
-      <c r="B58" s="75"/>
-      <c r="C58" s="72"/>
-      <c r="D58" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E58" s="17"/>
-      <c r="F58" s="16"/>
-      <c r="G58" s="19"/>
-    </row>
-    <row r="59" spans="2:7">
-      <c r="B59" s="73">
-        <v>43966</v>
-      </c>
-      <c r="C59" s="64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E59" s="3"/>
-      <c r="F59" s="7"/>
-      <c r="G59" s="6"/>
-    </row>
-    <row r="60" spans="2:7">
-      <c r="B60" s="74"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
-    </row>
-    <row r="61" spans="2:7">
-      <c r="B61" s="74"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="E61" s="22" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="F61" s="23"/>
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="74"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="26" t="s">
+      <c r="B62" s="84"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="82">
+        <v>43966</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="83"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="83"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="83"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E62" s="27"/>
-      <c r="F62" s="28"/>
-      <c r="G62" s="29"/>
-    </row>
-    <row r="63" spans="2:7">
-      <c r="B63" s="74"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="2" t="s">
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="83"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F63" s="7"/>
-      <c r="G63" s="20"/>
-    </row>
-    <row r="64" spans="2:7">
-      <c r="B64" s="74"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="2" t="s">
+      <c r="E67" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="83"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E64" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F64" s="2"/>
-      <c r="G64" s="6"/>
-    </row>
-    <row r="65" spans="2:7">
-      <c r="B65" s="74"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="21" t="s">
+      <c r="E68" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="83"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F65" s="21"/>
-      <c r="G65" s="24"/>
-    </row>
-    <row r="66" spans="2:7">
-      <c r="B66" s="74"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="2" t="s">
+      <c r="E69" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F69" s="21"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="83"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E66" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F66" s="2"/>
-      <c r="G66" s="6"/>
-    </row>
-    <row r="67" spans="2:7">
-      <c r="B67" s="74"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="21" t="s">
+      <c r="E70" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="83"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E67" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="23"/>
-      <c r="G67" s="24"/>
-    </row>
-    <row r="68" spans="2:7">
-      <c r="B68" s="75"/>
-      <c r="C68" s="66"/>
-      <c r="D68" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="17"/>
-      <c r="F68" s="18"/>
-      <c r="G68" s="19"/>
-    </row>
-    <row r="69" spans="2:7">
-      <c r="B69" s="61">
-        <v>43969</v>
-      </c>
-      <c r="C69" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E69" s="3"/>
-      <c r="F69" s="7"/>
-      <c r="G69" s="6"/>
-    </row>
-    <row r="70" spans="2:7">
-      <c r="B70" s="62"/>
-      <c r="C70" s="65"/>
-      <c r="D70" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F70" s="23"/>
-      <c r="G70" s="24"/>
-    </row>
-    <row r="71" spans="2:7">
-      <c r="B71" s="62"/>
-      <c r="C71" s="65"/>
-      <c r="D71" s="21" t="s">
-        <v>15</v>
-      </c>
       <c r="E71" s="22" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="F71" s="23"/>
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="62"/>
-      <c r="C72" s="65"/>
-      <c r="D72" s="26" t="s">
+      <c r="B72" s="84"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="70">
+        <v>43969</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="71"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="71"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="71"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E72" s="27"/>
-      <c r="F72" s="28"/>
-      <c r="G72" s="29"/>
-    </row>
-    <row r="73" spans="2:7">
-      <c r="B73" s="62"/>
-      <c r="C73" s="65"/>
-      <c r="D73" s="2" t="s">
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="71"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E73" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F73" s="7"/>
-      <c r="G73" s="20"/>
-    </row>
-    <row r="74" spans="2:7">
-      <c r="B74" s="62"/>
-      <c r="C74" s="65"/>
-      <c r="D74" s="2" t="s">
+      <c r="E77" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="71"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E74" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F74" s="2"/>
-      <c r="G74" s="6"/>
-    </row>
-    <row r="75" spans="2:7">
-      <c r="B75" s="62"/>
-      <c r="C75" s="65"/>
-      <c r="D75" s="21" t="s">
+      <c r="E78" s="22" t="s">
+        <v>116</v>
+      </c>
+      <c r="F78" s="2"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="71"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E75" s="22" t="s">
-        <v>117</v>
-      </c>
-      <c r="F75" s="21"/>
-      <c r="G75" s="24"/>
-    </row>
-    <row r="76" spans="2:7">
-      <c r="B76" s="62"/>
-      <c r="C76" s="65"/>
-      <c r="D76" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F76" s="2"/>
-      <c r="G76" s="6"/>
-    </row>
-    <row r="77" spans="2:7">
-      <c r="B77" s="62"/>
-      <c r="C77" s="65"/>
-      <c r="D77" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F77" s="23"/>
-      <c r="G77" s="24"/>
-    </row>
-    <row r="78" spans="2:7">
-      <c r="B78" s="63"/>
-      <c r="C78" s="66"/>
-      <c r="D78" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E78" s="17"/>
-      <c r="F78" s="18"/>
-      <c r="G78" s="19"/>
-    </row>
-    <row r="79" spans="2:7">
-      <c r="B79" s="67">
-        <v>43970</v>
-      </c>
-      <c r="C79" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D79" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E79" s="22"/>
+      <c r="E79" s="22" t="s">
+        <v>116</v>
+      </c>
       <c r="F79" s="21"/>
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="68"/>
-      <c r="C80" s="71"/>
-      <c r="D80" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E80" s="3"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="24"/>
+      <c r="B80" s="71"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F80" s="2"/>
+      <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="68"/>
-      <c r="C81" s="71"/>
+      <c r="B81" s="71"/>
+      <c r="C81" s="74"/>
       <c r="D81" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E81" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="F81" s="23"/>
-      <c r="G81" s="25"/>
+      <c r="G81" s="24"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="68"/>
-      <c r="C82" s="71"/>
-      <c r="D82" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E82" s="27"/>
-      <c r="F82" s="26"/>
-      <c r="G82" s="29"/>
+      <c r="B82" s="72"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="68"/>
-      <c r="C83" s="71"/>
+      <c r="B83" s="76">
+        <v>43970</v>
+      </c>
+      <c r="C83" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="D83" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E83" s="22"/>
       <c r="F83" s="21"/>
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="68"/>
-      <c r="C84" s="71"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="80"/>
       <c r="D84" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="77"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="77"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="77"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="77"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E84" s="22"/>
-      <c r="F84" s="21"/>
-      <c r="G84" s="24"/>
-    </row>
-    <row r="85" spans="2:7">
-      <c r="B85" s="68"/>
-      <c r="C85" s="71"/>
-      <c r="D85" s="21" t="s">
+      <c r="E88" s="22"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="77"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E85" s="22"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="24"/>
-    </row>
-    <row r="86" spans="2:7">
-      <c r="B86" s="68"/>
-      <c r="C86" s="71"/>
-      <c r="D86" s="21" t="s">
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="77"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E86" s="22"/>
-      <c r="F86" s="21"/>
-      <c r="G86" s="24"/>
-    </row>
-    <row r="87" spans="2:7">
-      <c r="B87" s="68"/>
-      <c r="C87" s="71"/>
-      <c r="D87" s="21" t="s">
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="77"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E87" s="22"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="24"/>
-    </row>
-    <row r="88" spans="2:7">
-      <c r="B88" s="69"/>
-      <c r="C88" s="72"/>
-      <c r="D88" s="16" t="s">
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="78"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E88" s="17"/>
-      <c r="F88" s="16"/>
-      <c r="G88" s="19"/>
-    </row>
-    <row r="89" spans="2:7">
-      <c r="B89" s="61">
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="70">
         <v>43971</v>
       </c>
-      <c r="C89" s="64" t="s">
+      <c r="C93" s="73" t="s">
         <v>8</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D93" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E89" s="3"/>
-      <c r="F89" s="7"/>
-      <c r="G89" s="6"/>
-    </row>
-    <row r="90" spans="2:7">
-      <c r="B90" s="62"/>
-      <c r="C90" s="65"/>
-      <c r="D90" s="21" t="s">
+      <c r="E93" s="3"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="71"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="E90" s="3"/>
-      <c r="F90" s="23"/>
-      <c r="G90" s="24"/>
-    </row>
-    <row r="91" spans="2:7">
-      <c r="B91" s="62"/>
-      <c r="C91" s="65"/>
-      <c r="D91" s="21" t="s">
+      <c r="E94" s="3"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="71"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="E91" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F91" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G91" s="24"/>
-    </row>
-    <row r="92" spans="2:7">
-      <c r="B92" s="62"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="26" t="s">
+      <c r="E95" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F95" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G95" s="24"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="71"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E92" s="27"/>
-      <c r="F92" s="28"/>
-      <c r="G92" s="29"/>
-    </row>
-    <row r="93" spans="2:7">
-      <c r="B93" s="62"/>
-      <c r="C93" s="65"/>
-      <c r="D93" s="2" t="s">
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="71"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E93" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F93" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G93" s="20"/>
-    </row>
-    <row r="94" spans="2:7">
-      <c r="B94" s="62"/>
-      <c r="C94" s="65"/>
-      <c r="D94" s="2" t="s">
+      <c r="E97" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="71"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G94" s="6"/>
-    </row>
-    <row r="95" spans="2:7">
-      <c r="B95" s="62"/>
-      <c r="C95" s="65"/>
-      <c r="D95" s="21" t="s">
+      <c r="E98" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="71"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E95" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F95" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="G95" s="24"/>
-    </row>
-    <row r="96" spans="2:7">
-      <c r="B96" s="62"/>
-      <c r="C96" s="65"/>
-      <c r="D96" s="2" t="s">
+      <c r="E99" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="71"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E96" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F96" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="G96" s="6"/>
-    </row>
-    <row r="97" spans="2:7">
-      <c r="B97" s="62"/>
-      <c r="C97" s="65"/>
-      <c r="D97" s="21" t="s">
+      <c r="E100" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="71"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E97" s="22" t="s">
-        <v>119</v>
-      </c>
-      <c r="F97" s="23" t="s">
-        <v>107</v>
-      </c>
-      <c r="G97" s="24"/>
-    </row>
-    <row r="98" spans="2:7">
-      <c r="B98" s="63"/>
-      <c r="C98" s="66"/>
-      <c r="D98" s="16" t="s">
+      <c r="E101" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="72"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E98" s="17"/>
-      <c r="F98" s="18"/>
-      <c r="G98" s="19"/>
-    </row>
-    <row r="99" spans="2:7">
-      <c r="B99" s="67">
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="76">
         <v>43972</v>
       </c>
-      <c r="C99" s="70" t="s">
+      <c r="C103" s="79" t="s">
         <v>9</v>
       </c>
-      <c r="D99" s="21" t="s">
+      <c r="D103" s="21" t="s">
         <v>13</v>
-      </c>
-      <c r="E99" s="22"/>
-      <c r="F99" s="21"/>
-      <c r="G99" s="24"/>
-    </row>
-    <row r="100" spans="2:7">
-      <c r="B100" s="68"/>
-      <c r="C100" s="71"/>
-      <c r="D100" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E100" s="22"/>
-      <c r="F100" s="23"/>
-      <c r="G100" s="24"/>
-    </row>
-    <row r="101" spans="2:7">
-      <c r="B101" s="68"/>
-      <c r="C101" s="71"/>
-      <c r="D101" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E101" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="F101" s="23"/>
-      <c r="G101" s="25"/>
-    </row>
-    <row r="102" spans="2:7">
-      <c r="B102" s="68"/>
-      <c r="C102" s="71"/>
-      <c r="D102" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E102" s="27"/>
-      <c r="F102" s="26"/>
-      <c r="G102" s="29"/>
-    </row>
-    <row r="103" spans="2:7">
-      <c r="B103" s="68"/>
-      <c r="C103" s="71"/>
-      <c r="D103" s="21" t="s">
-        <v>10</v>
       </c>
       <c r="E103" s="22"/>
       <c r="F103" s="21"/>
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="68"/>
-      <c r="C104" s="71"/>
+      <c r="B104" s="77"/>
+      <c r="C104" s="80"/>
       <c r="D104" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="77"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="F105" s="23"/>
+      <c r="G105" s="25"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="77"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="27"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="29"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="77"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="77"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="E104" s="22"/>
-      <c r="F104" s="21"/>
-      <c r="G104" s="24"/>
-    </row>
-    <row r="105" spans="2:7">
-      <c r="B105" s="68"/>
-      <c r="C105" s="71"/>
-      <c r="D105" s="21" t="s">
+      <c r="E108" s="22"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="77"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="21" t="s">
         <v>82</v>
       </c>
-      <c r="E105" s="22"/>
-      <c r="F105" s="23"/>
-      <c r="G105" s="24"/>
-    </row>
-    <row r="106" spans="2:7">
-      <c r="B106" s="68"/>
-      <c r="C106" s="71"/>
-      <c r="D106" s="21" t="s">
+      <c r="E109" s="22"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="77"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E106" s="22"/>
-      <c r="F106" s="21"/>
-      <c r="G106" s="24"/>
-    </row>
-    <row r="107" spans="2:7">
-      <c r="B107" s="68"/>
-      <c r="C107" s="71"/>
-      <c r="D107" s="21" t="s">
+      <c r="E110" s="22"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="24"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="77"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E107" s="22"/>
-      <c r="F107" s="23"/>
-      <c r="G107" s="24"/>
-    </row>
-    <row r="108" spans="2:7">
-      <c r="B108" s="69"/>
-      <c r="C108" s="72"/>
-      <c r="D108" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E108" s="17"/>
-      <c r="F108" s="16"/>
-      <c r="G108" s="19"/>
-    </row>
-    <row r="109" spans="2:7">
-      <c r="B109" s="67">
-        <v>43973</v>
-      </c>
-      <c r="C109" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E109" s="3"/>
-      <c r="F109" s="7"/>
-      <c r="G109" s="6"/>
-    </row>
-    <row r="110" spans="2:7">
-      <c r="B110" s="68"/>
-      <c r="C110" s="71"/>
-      <c r="D110" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E110" s="22"/>
-      <c r="F110" s="23"/>
-      <c r="G110" s="24"/>
-    </row>
-    <row r="111" spans="2:7">
-      <c r="B111" s="68"/>
-      <c r="C111" s="71"/>
-      <c r="D111" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="E111" s="22"/>
       <c r="F111" s="23"/>
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="68"/>
-      <c r="C112" s="71"/>
-      <c r="D112" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E112" s="27"/>
-      <c r="F112" s="28"/>
-      <c r="G112" s="29"/>
+      <c r="B112" s="78"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="19"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="68"/>
-      <c r="C113" s="71"/>
+      <c r="B113" s="76">
+        <v>43973</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>6</v>
+      </c>
       <c r="D113" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E113" s="3"/>
       <c r="F113" s="7"/>
-      <c r="G113" s="20"/>
+      <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="68"/>
-      <c r="C114" s="71"/>
-      <c r="D114" s="2" t="s">
+      <c r="B114" s="77"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="22"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="24"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="77"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="22"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="24"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="77"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="27"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="29"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="77"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="77"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E114" s="3"/>
-      <c r="F114" s="2"/>
-      <c r="G114" s="6"/>
-    </row>
-    <row r="115" spans="2:7">
-      <c r="B115" s="68"/>
-      <c r="C115" s="71"/>
-      <c r="D115" s="21" t="s">
+      <c r="E118" s="3"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="77"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E115" s="3"/>
-      <c r="F115" s="21"/>
-      <c r="G115" s="24"/>
-    </row>
-    <row r="116" spans="2:7">
-      <c r="B116" s="68"/>
-      <c r="C116" s="71"/>
-      <c r="D116" s="2" t="s">
+      <c r="E119" s="3"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="24"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="77"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E116" s="22"/>
-      <c r="F116" s="2"/>
-      <c r="G116" s="6"/>
-    </row>
-    <row r="117" spans="2:7">
-      <c r="B117" s="68"/>
-      <c r="C117" s="71"/>
-      <c r="D117" s="21" t="s">
+      <c r="E120" s="22"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="77"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E117" s="3"/>
-      <c r="F117" s="23"/>
-      <c r="G117" s="24"/>
-    </row>
-    <row r="118" spans="2:7">
-      <c r="B118" s="69"/>
-      <c r="C118" s="72"/>
-      <c r="D118" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E118" s="17"/>
-      <c r="F118" s="18"/>
-      <c r="G118" s="19"/>
-    </row>
-    <row r="119" spans="2:7">
-      <c r="B119" s="61">
-        <v>43976</v>
-      </c>
-      <c r="C119" s="64" t="s">
-        <v>11</v>
-      </c>
-      <c r="D119" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E119" s="3"/>
-      <c r="F119" s="30"/>
-      <c r="G119" s="6"/>
-    </row>
-    <row r="120" spans="2:7">
-      <c r="B120" s="62"/>
-      <c r="C120" s="65"/>
-      <c r="D120" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E120" s="22"/>
-      <c r="F120" s="23"/>
-      <c r="G120" s="24"/>
-    </row>
-    <row r="121" spans="2:7">
-      <c r="B121" s="62"/>
-      <c r="C121" s="65"/>
-      <c r="D121" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E121" s="22"/>
+      <c r="E121" s="3"/>
       <c r="F121" s="23"/>
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="62"/>
-      <c r="C122" s="65"/>
-      <c r="D122" s="26" t="s">
+      <c r="B122" s="78"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="70">
+        <v>43976</v>
+      </c>
+      <c r="C123" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="71"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="71"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="71"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E122" s="27"/>
-      <c r="F122" s="28"/>
-      <c r="G122" s="29"/>
-    </row>
-    <row r="123" spans="2:7">
-      <c r="B123" s="62"/>
-      <c r="C123" s="65"/>
-      <c r="D123" s="2" t="s">
+      <c r="E126" s="27"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="29"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="71"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E123" s="22"/>
-      <c r="F123" s="7"/>
-      <c r="G123" s="20"/>
-    </row>
-    <row r="124" spans="2:7">
-      <c r="B124" s="62"/>
-      <c r="C124" s="65"/>
-      <c r="D124" s="2" t="s">
+      <c r="E127" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="71"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E124" s="22"/>
-      <c r="F124" s="2"/>
-      <c r="G124" s="6"/>
-    </row>
-    <row r="125" spans="2:7">
-      <c r="B125" s="62"/>
-      <c r="C125" s="65"/>
-      <c r="D125" s="21" t="s">
+      <c r="E128" s="22" t="s">
+        <v>129</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="71"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E125" s="22"/>
-      <c r="F125" s="21"/>
-      <c r="G125" s="24"/>
-    </row>
-    <row r="126" spans="2:7">
-      <c r="B126" s="62"/>
-      <c r="C126" s="65"/>
-      <c r="D126" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E126" s="22"/>
-      <c r="F126" s="2"/>
-      <c r="G126" s="6"/>
-    </row>
-    <row r="127" spans="2:7">
-      <c r="B127" s="62"/>
-      <c r="C127" s="65"/>
-      <c r="D127" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E127" s="22"/>
-      <c r="F127" s="23"/>
-      <c r="G127" s="24"/>
-    </row>
-    <row r="128" spans="2:7">
-      <c r="B128" s="63"/>
-      <c r="C128" s="66"/>
-      <c r="D128" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E128" s="17"/>
-      <c r="F128" s="18"/>
-      <c r="G128" s="19"/>
-    </row>
-    <row r="129" spans="2:7">
-      <c r="B129" s="67">
-        <v>43977</v>
-      </c>
-      <c r="C129" s="70" t="s">
-        <v>12</v>
-      </c>
-      <c r="D129" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E129" s="22"/>
+      <c r="E129" s="22" t="s">
+        <v>129</v>
+      </c>
       <c r="F129" s="21"/>
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="68"/>
-      <c r="C130" s="71"/>
-      <c r="D130" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E130" s="22"/>
-      <c r="F130" s="23"/>
-      <c r="G130" s="24"/>
+      <c r="B130" s="71"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="68"/>
-      <c r="C131" s="71"/>
+      <c r="B131" s="71"/>
+      <c r="C131" s="74"/>
       <c r="D131" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E131" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="E131" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="F131" s="23"/>
-      <c r="G131" s="25"/>
+      <c r="G131" s="24"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="68"/>
-      <c r="C132" s="71"/>
-      <c r="D132" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E132" s="27"/>
-      <c r="F132" s="26"/>
-      <c r="G132" s="29"/>
+      <c r="B132" s="72"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="68"/>
-      <c r="C133" s="71"/>
+      <c r="B133" s="76">
+        <v>43977</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>12</v>
+      </c>
       <c r="D133" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E133" s="22"/>
       <c r="F133" s="21"/>
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="68"/>
-      <c r="C134" s="71"/>
+      <c r="B134" s="77"/>
+      <c r="C134" s="80"/>
       <c r="D134" s="21" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E134" s="22"/>
-      <c r="F134" s="21"/>
+      <c r="F134" s="23"/>
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="68"/>
-      <c r="C135" s="71"/>
+      <c r="B135" s="77"/>
+      <c r="C135" s="80"/>
       <c r="D135" s="21" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E135" s="22"/>
       <c r="F135" s="23"/>
-      <c r="G135" s="24"/>
+      <c r="G135" s="25"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="68"/>
-      <c r="C136" s="71"/>
-      <c r="D136" s="21" t="s">
+      <c r="B136" s="77"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="27"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="29"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="77"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="24"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="77"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" s="22"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="24"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="77"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="24"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="77"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E136" s="22"/>
-      <c r="F136" s="21"/>
-      <c r="G136" s="24"/>
-    </row>
-    <row r="137" spans="2:7">
-      <c r="B137" s="68"/>
-      <c r="C137" s="71"/>
-      <c r="D137" s="21" t="s">
+      <c r="E140" s="22"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="24"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="77"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E137" s="22"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="24"/>
-    </row>
-    <row r="138" spans="2:7">
-      <c r="B138" s="69"/>
-      <c r="C138" s="72"/>
-      <c r="D138" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E138" s="17"/>
-      <c r="F138" s="16"/>
-      <c r="G138" s="19"/>
-    </row>
-    <row r="139" spans="2:7">
-      <c r="B139" s="61">
-        <v>43978</v>
-      </c>
-      <c r="C139" s="64" t="s">
-        <v>8</v>
-      </c>
-      <c r="D139" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E139" s="3"/>
-      <c r="F139" s="7"/>
-      <c r="G139" s="6"/>
-    </row>
-    <row r="140" spans="2:7">
-      <c r="B140" s="62"/>
-      <c r="C140" s="65"/>
-      <c r="D140" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E140" s="3"/>
-      <c r="F140" s="23"/>
-      <c r="G140" s="24"/>
-    </row>
-    <row r="141" spans="2:7">
-      <c r="B141" s="62"/>
-      <c r="C141" s="65"/>
-      <c r="D141" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="E141" s="22"/>
       <c r="F141" s="23"/>
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="62"/>
-      <c r="C142" s="65"/>
-      <c r="D142" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E142" s="27"/>
-      <c r="F142" s="28"/>
-      <c r="G142" s="29"/>
+      <c r="B142" s="78"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="17"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="19"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="62"/>
-      <c r="C143" s="65"/>
+      <c r="B143" s="70">
+        <v>43978</v>
+      </c>
+      <c r="C143" s="73" t="s">
+        <v>8</v>
+      </c>
       <c r="D143" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E143" s="3"/>
       <c r="F143" s="7"/>
-      <c r="G143" s="20"/>
+      <c r="G143" s="6"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="62"/>
-      <c r="C144" s="65"/>
-      <c r="D144" s="2" t="s">
+      <c r="B144" s="71"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="24"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="71"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="F145" s="23"/>
+      <c r="G145" s="24"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="71"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="29"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="71"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="71"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E144" s="3"/>
-      <c r="F144" s="2"/>
-      <c r="G144" s="6"/>
-    </row>
-    <row r="145" spans="2:7">
-      <c r="B145" s="62"/>
-      <c r="C145" s="65"/>
-      <c r="D145" s="21" t="s">
+      <c r="E148" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="F148" s="2"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="71"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E145" s="22"/>
-      <c r="F145" s="21"/>
-      <c r="G145" s="24"/>
-    </row>
-    <row r="146" spans="2:7">
-      <c r="B146" s="62"/>
-      <c r="C146" s="65"/>
-      <c r="D146" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E146" s="3"/>
-      <c r="F146" s="2"/>
-      <c r="G146" s="6"/>
-    </row>
-    <row r="147" spans="2:7">
-      <c r="B147" s="62"/>
-      <c r="C147" s="65"/>
-      <c r="D147" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E147" s="22"/>
-      <c r="F147" s="23"/>
-      <c r="G147" s="24"/>
-    </row>
-    <row r="148" spans="2:7">
-      <c r="B148" s="63"/>
-      <c r="C148" s="66"/>
-      <c r="D148" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E148" s="17"/>
-      <c r="F148" s="18"/>
-      <c r="G148" s="19"/>
-    </row>
-    <row r="149" spans="2:7">
-      <c r="B149" s="67">
-        <v>43979</v>
-      </c>
-      <c r="C149" s="70" t="s">
-        <v>9</v>
-      </c>
-      <c r="D149" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E149" s="22"/>
+      <c r="E149" s="22" t="s">
+        <v>132</v>
+      </c>
       <c r="F149" s="21"/>
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="68"/>
-      <c r="C150" s="71"/>
-      <c r="D150" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="22"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="24"/>
+      <c r="B150" s="71"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="F150" s="2"/>
+      <c r="G150" s="6"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="68"/>
-      <c r="C151" s="71"/>
+      <c r="B151" s="71"/>
+      <c r="C151" s="74"/>
       <c r="D151" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E151" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="E151" s="22" t="s">
+        <v>118</v>
+      </c>
       <c r="F151" s="23"/>
-      <c r="G151" s="25"/>
+      <c r="G151" s="24"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="68"/>
-      <c r="C152" s="71"/>
-      <c r="D152" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E152" s="27"/>
-      <c r="F152" s="26"/>
-      <c r="G152" s="29"/>
+      <c r="B152" s="72"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="68"/>
-      <c r="C153" s="71"/>
+      <c r="B153" s="76">
+        <v>43979</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>9</v>
+      </c>
       <c r="D153" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E153" s="22"/>
       <c r="F153" s="21"/>
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="68"/>
-      <c r="C154" s="71"/>
+      <c r="B154" s="77"/>
+      <c r="C154" s="80"/>
       <c r="D154" s="21" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E154" s="22"/>
-      <c r="F154" s="21"/>
+      <c r="F154" s="23"/>
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="68"/>
-      <c r="C155" s="71"/>
+      <c r="B155" s="77"/>
+      <c r="C155" s="80"/>
       <c r="D155" s="21" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E155" s="22"/>
       <c r="F155" s="23"/>
-      <c r="G155" s="24"/>
+      <c r="G155" s="25"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="68"/>
-      <c r="C156" s="71"/>
-      <c r="D156" s="21" t="s">
+      <c r="B156" s="77"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="27"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="29"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="77"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="22"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="24"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="77"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" s="22"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="24"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="77"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E159" s="22"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="24"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="77"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E156" s="22"/>
-      <c r="F156" s="21"/>
-      <c r="G156" s="24"/>
-    </row>
-    <row r="157" spans="2:7">
-      <c r="B157" s="68"/>
-      <c r="C157" s="71"/>
-      <c r="D157" s="21" t="s">
+      <c r="E160" s="22"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="24"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="77"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E157" s="22"/>
-      <c r="F157" s="23"/>
-      <c r="G157" s="24"/>
-    </row>
-    <row r="158" spans="2:7">
-      <c r="B158" s="69"/>
-      <c r="C158" s="72"/>
-      <c r="D158" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E158" s="17"/>
-      <c r="F158" s="16"/>
-      <c r="G158" s="19"/>
-    </row>
-    <row r="159" spans="2:7">
-      <c r="B159" s="67">
-        <v>43980</v>
-      </c>
-      <c r="C159" s="70" t="s">
-        <v>6</v>
-      </c>
-      <c r="D159" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E159" s="3"/>
-      <c r="F159" s="7"/>
-      <c r="G159" s="6"/>
-    </row>
-    <row r="160" spans="2:7">
-      <c r="B160" s="68"/>
-      <c r="C160" s="71"/>
-      <c r="D160" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E160" s="22"/>
-      <c r="F160" s="23"/>
-      <c r="G160" s="24"/>
-    </row>
-    <row r="161" spans="2:7">
-      <c r="B161" s="68"/>
-      <c r="C161" s="71"/>
-      <c r="D161" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="E161" s="22"/>
       <c r="F161" s="23"/>
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="68"/>
-      <c r="C162" s="71"/>
-      <c r="D162" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="28"/>
-      <c r="G162" s="29"/>
+      <c r="B162" s="78"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="19"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="68"/>
-      <c r="C163" s="71"/>
+      <c r="B163" s="76">
+        <v>43980</v>
+      </c>
+      <c r="C163" s="79" t="s">
+        <v>6</v>
+      </c>
       <c r="D163" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="7"/>
-      <c r="G163" s="20"/>
+      <c r="G163" s="6"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="68"/>
-      <c r="C164" s="71"/>
-      <c r="D164" s="2" t="s">
+      <c r="B164" s="77"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="42" t="s">
+        <v>132</v>
+      </c>
+      <c r="F164" s="23"/>
+      <c r="G164" s="24"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="77"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="24"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="77"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="27"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="29"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="77"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="20"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="77"/>
+      <c r="C168" s="80"/>
+      <c r="D168" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E164" s="3"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="6"/>
-    </row>
-    <row r="165" spans="2:7">
-      <c r="B165" s="68"/>
-      <c r="C165" s="71"/>
-      <c r="D165" s="21" t="s">
+      <c r="E168" s="3"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="77"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E165" s="22"/>
-      <c r="F165" s="21"/>
-      <c r="G165" s="24"/>
-    </row>
-    <row r="166" spans="2:7">
-      <c r="B166" s="68"/>
-      <c r="C166" s="71"/>
-      <c r="D166" s="2" t="s">
+      <c r="E169" s="22"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="24"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="77"/>
+      <c r="C170" s="80"/>
+      <c r="D170" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E166" s="3"/>
-      <c r="F166" s="2"/>
-      <c r="G166" s="6"/>
-    </row>
-    <row r="167" spans="2:7">
-      <c r="B167" s="68"/>
-      <c r="C167" s="71"/>
-      <c r="D167" s="21" t="s">
+      <c r="E170" s="3"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="77"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="21" t="s">
         <v>20</v>
-      </c>
-      <c r="E167" s="22"/>
-      <c r="F167" s="23"/>
-      <c r="G167" s="24"/>
-    </row>
-    <row r="168" spans="2:7">
-      <c r="B168" s="69"/>
-      <c r="C168" s="72"/>
-      <c r="D168" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E168" s="17"/>
-      <c r="F168" s="18"/>
-      <c r="G168" s="19"/>
-    </row>
-    <row r="169" spans="2:7">
-      <c r="B169" s="61"/>
-      <c r="C169" s="64" t="s">
-        <v>76</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E169" s="3"/>
-      <c r="F169" s="7"/>
-      <c r="G169" s="6"/>
-    </row>
-    <row r="170" spans="2:7">
-      <c r="B170" s="62"/>
-      <c r="C170" s="65"/>
-      <c r="D170" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="22"/>
-      <c r="F170" s="23"/>
-      <c r="G170" s="24"/>
-    </row>
-    <row r="171" spans="2:7">
-      <c r="B171" s="62"/>
-      <c r="C171" s="65"/>
-      <c r="D171" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="E171" s="22"/>
       <c r="F171" s="23"/>
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="62"/>
-      <c r="C172" s="65"/>
-      <c r="D172" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E172" s="27"/>
-      <c r="F172" s="28"/>
-      <c r="G172" s="29"/>
+      <c r="B172" s="78"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="17"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="19"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="62"/>
-      <c r="C173" s="65"/>
+      <c r="B173" s="70"/>
+      <c r="C173" s="73" t="s">
+        <v>76</v>
+      </c>
       <c r="D173" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E173" s="3"/>
       <c r="F173" s="7"/>
-      <c r="G173" s="20"/>
+      <c r="G173" s="6"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="62"/>
-      <c r="C174" s="65"/>
-      <c r="D174" s="2" t="s">
+      <c r="B174" s="71"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="24"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="71"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="22"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="24"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="71"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="29"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="71"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="20"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="71"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E174" s="3"/>
-      <c r="F174" s="2"/>
-      <c r="G174" s="6"/>
-    </row>
-    <row r="175" spans="2:7">
-      <c r="B175" s="62"/>
-      <c r="C175" s="65"/>
-      <c r="D175" s="21" t="s">
+      <c r="E178" s="3"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="71"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E175" s="3"/>
-      <c r="F175" s="21"/>
-      <c r="G175" s="24"/>
-    </row>
-    <row r="176" spans="2:7">
-      <c r="B176" s="62"/>
-      <c r="C176" s="65"/>
-      <c r="D176" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E176" s="3"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="6"/>
-    </row>
-    <row r="177" spans="2:7">
-      <c r="B177" s="62"/>
-      <c r="C177" s="65"/>
-      <c r="D177" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E177" s="22"/>
-      <c r="F177" s="23"/>
-      <c r="G177" s="24"/>
-    </row>
-    <row r="178" spans="2:7">
-      <c r="B178" s="63"/>
-      <c r="C178" s="66"/>
-      <c r="D178" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E178" s="17"/>
-      <c r="F178" s="18"/>
-      <c r="G178" s="19"/>
-    </row>
-    <row r="179" spans="2:7">
-      <c r="B179" s="67"/>
-      <c r="C179" s="70" t="s">
-        <v>77</v>
-      </c>
-      <c r="D179" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E179" s="22"/>
+      <c r="E179" s="3"/>
       <c r="F179" s="21"/>
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="68"/>
-      <c r="C180" s="71"/>
-      <c r="D180" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E180" s="22"/>
-      <c r="F180" s="23"/>
-      <c r="G180" s="24"/>
+      <c r="B180" s="71"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="6"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="68"/>
-      <c r="C181" s="71"/>
+      <c r="B181" s="71"/>
+      <c r="C181" s="74"/>
       <c r="D181" s="21" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E181" s="22"/>
       <c r="F181" s="23"/>
-      <c r="G181" s="25"/>
+      <c r="G181" s="24"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="68"/>
-      <c r="C182" s="71"/>
-      <c r="D182" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E182" s="27"/>
-      <c r="F182" s="26"/>
-      <c r="G182" s="29"/>
+      <c r="B182" s="72"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="17"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="19"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="68"/>
-      <c r="C183" s="71"/>
+      <c r="B183" s="76"/>
+      <c r="C183" s="79" t="s">
+        <v>77</v>
+      </c>
       <c r="D183" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E183" s="22"/>
       <c r="F183" s="21"/>
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="68"/>
-      <c r="C184" s="71"/>
+      <c r="B184" s="77"/>
+      <c r="C184" s="80"/>
       <c r="D184" s="21" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E184" s="22"/>
-      <c r="F184" s="21"/>
+      <c r="F184" s="23"/>
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="68"/>
-      <c r="C185" s="71"/>
+      <c r="B185" s="77"/>
+      <c r="C185" s="80"/>
       <c r="D185" s="21" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E185" s="22"/>
       <c r="F185" s="23"/>
-      <c r="G185" s="24"/>
+      <c r="G185" s="25"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="68"/>
-      <c r="C186" s="71"/>
-      <c r="D186" s="21" t="s">
+      <c r="B186" s="77"/>
+      <c r="C186" s="80"/>
+      <c r="D186" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="27"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="29"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="77"/>
+      <c r="C187" s="80"/>
+      <c r="D187" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="22"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="24"/>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="77"/>
+      <c r="C188" s="80"/>
+      <c r="D188" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E188" s="22"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="24"/>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="77"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E189" s="22"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="24"/>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="77"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E186" s="22"/>
-      <c r="F186" s="21"/>
-      <c r="G186" s="24"/>
-    </row>
-    <row r="187" spans="2:7">
-      <c r="B187" s="68"/>
-      <c r="C187" s="71"/>
-      <c r="D187" s="21" t="s">
+      <c r="E190" s="22"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="24"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="77"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="21" t="s">
         <v>84</v>
       </c>
-      <c r="E187" s="22"/>
-      <c r="F187" s="23"/>
-      <c r="G187" s="24"/>
-    </row>
-    <row r="188" spans="2:7">
-      <c r="B188" s="69"/>
-      <c r="C188" s="72"/>
-      <c r="D188" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E188" s="17"/>
-      <c r="F188" s="16"/>
-      <c r="G188" s="19"/>
-    </row>
-    <row r="189" spans="2:7">
-      <c r="B189" s="61"/>
-      <c r="C189" s="64" t="s">
-        <v>78</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E189" s="22"/>
-      <c r="F189" s="7"/>
-      <c r="G189" s="6"/>
-    </row>
-    <row r="190" spans="2:7">
-      <c r="B190" s="62"/>
-      <c r="C190" s="65"/>
-      <c r="D190" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" s="3"/>
-      <c r="F190" s="23"/>
-      <c r="G190" s="24"/>
-    </row>
-    <row r="191" spans="2:7">
-      <c r="B191" s="62"/>
-      <c r="C191" s="65"/>
-      <c r="D191" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E191" s="3"/>
+      <c r="E191" s="22"/>
       <c r="F191" s="23"/>
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="62"/>
-      <c r="C192" s="65"/>
-      <c r="D192" s="26" t="s">
+      <c r="B192" s="78"/>
+      <c r="C192" s="81"/>
+      <c r="D192" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="17"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="19"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="70"/>
+      <c r="C193" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="22"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="71"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="71"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="71"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="26" t="s">
         <v>7</v>
       </c>
-      <c r="E192" s="27"/>
-      <c r="F192" s="28"/>
-      <c r="G192" s="29"/>
-    </row>
-    <row r="193" spans="2:7">
-      <c r="B193" s="62"/>
-      <c r="C193" s="65"/>
-      <c r="D193" s="2" t="s">
+      <c r="E196" s="27"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="29"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="71"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E193" s="3"/>
-      <c r="F193" s="7"/>
-      <c r="G193" s="20"/>
-    </row>
-    <row r="194" spans="2:7">
-      <c r="B194" s="62"/>
-      <c r="C194" s="65"/>
-      <c r="D194" s="2" t="s">
+      <c r="E197" s="3"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="20"/>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="71"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E194" s="3"/>
-      <c r="F194" s="2"/>
-      <c r="G194" s="6"/>
-    </row>
-    <row r="195" spans="2:7">
-      <c r="B195" s="62"/>
-      <c r="C195" s="65"/>
-      <c r="D195" s="21" t="s">
+      <c r="E198" s="3"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="71"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="21" t="s">
         <v>18</v>
-      </c>
-      <c r="E195" s="22"/>
-      <c r="F195" s="21"/>
-      <c r="G195" s="24"/>
-    </row>
-    <row r="196" spans="2:7">
-      <c r="B196" s="62"/>
-      <c r="C196" s="65"/>
-      <c r="D196" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E196" s="3"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="6"/>
-    </row>
-    <row r="197" spans="2:7">
-      <c r="B197" s="62"/>
-      <c r="C197" s="65"/>
-      <c r="D197" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E197" s="3"/>
-      <c r="F197" s="23"/>
-      <c r="G197" s="24"/>
-    </row>
-    <row r="198" spans="2:7">
-      <c r="B198" s="63"/>
-      <c r="C198" s="66"/>
-      <c r="D198" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E198" s="17"/>
-      <c r="F198" s="18"/>
-      <c r="G198" s="19"/>
-    </row>
-    <row r="199" spans="2:7">
-      <c r="B199" s="67"/>
-      <c r="C199" s="70" t="s">
-        <v>79</v>
-      </c>
-      <c r="D199" s="21" t="s">
-        <v>13</v>
       </c>
       <c r="E199" s="22"/>
       <c r="F199" s="21"/>
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="68"/>
-      <c r="C200" s="71"/>
-      <c r="D200" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E200" s="22"/>
-      <c r="F200" s="23"/>
-      <c r="G200" s="24"/>
+      <c r="B200" s="71"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="6"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="68"/>
-      <c r="C201" s="71"/>
+      <c r="B201" s="71"/>
+      <c r="C201" s="74"/>
       <c r="D201" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="E201" s="22"/>
+        <v>20</v>
+      </c>
+      <c r="E201" s="3"/>
       <c r="F201" s="23"/>
-      <c r="G201" s="25"/>
+      <c r="G201" s="24"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="68"/>
-      <c r="C202" s="71"/>
-      <c r="D202" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E202" s="27"/>
-      <c r="F202" s="26"/>
-      <c r="G202" s="29"/>
+      <c r="B202" s="72"/>
+      <c r="C202" s="75"/>
+      <c r="D202" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="17"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="19"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="68"/>
-      <c r="C203" s="71"/>
+      <c r="B203" s="76"/>
+      <c r="C203" s="79" t="s">
+        <v>79</v>
+      </c>
       <c r="D203" s="21" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E203" s="22"/>
       <c r="F203" s="21"/>
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="68"/>
-      <c r="C204" s="71"/>
+      <c r="B204" s="77"/>
+      <c r="C204" s="80"/>
       <c r="D204" s="21" t="s">
-        <v>81</v>
+        <v>14</v>
       </c>
       <c r="E204" s="22"/>
-      <c r="F204" s="21"/>
+      <c r="F204" s="23"/>
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="68"/>
-      <c r="C205" s="71"/>
+      <c r="B205" s="77"/>
+      <c r="C205" s="80"/>
       <c r="D205" s="21" t="s">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="E205" s="22"/>
       <c r="F205" s="23"/>
-      <c r="G205" s="24"/>
+      <c r="G205" s="25"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="68"/>
-      <c r="C206" s="71"/>
-      <c r="D206" s="21" t="s">
+      <c r="B206" s="77"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="27"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="29"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="77"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="22"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="24"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="77"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E208" s="22"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="24"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="77"/>
+      <c r="C209" s="80"/>
+      <c r="D209" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E209" s="22"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="77"/>
+      <c r="C210" s="80"/>
+      <c r="D210" s="21" t="s">
         <v>83</v>
       </c>
-      <c r="E206" s="22"/>
-      <c r="F206" s="21"/>
-      <c r="G206" s="24"/>
-    </row>
-    <row r="207" spans="2:7">
-      <c r="B207" s="68"/>
-      <c r="C207" s="71"/>
-      <c r="D207" s="21" t="s">
+      <c r="E210" s="22"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="24"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="77"/>
+      <c r="C211" s="80"/>
+      <c r="D211" s="21" t="s">
         <v>84</v>
-      </c>
-      <c r="E207" s="22"/>
-      <c r="F207" s="23"/>
-      <c r="G207" s="24"/>
-    </row>
-    <row r="208" spans="2:7">
-      <c r="B208" s="69"/>
-      <c r="C208" s="72"/>
-      <c r="D208" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E208" s="17"/>
-      <c r="F208" s="16"/>
-      <c r="G208" s="19"/>
-    </row>
-    <row r="209" spans="2:7">
-      <c r="B209" s="67"/>
-      <c r="C209" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="D209" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E209" s="3"/>
-      <c r="F209" s="7"/>
-      <c r="G209" s="6"/>
-    </row>
-    <row r="210" spans="2:7">
-      <c r="B210" s="68"/>
-      <c r="C210" s="71"/>
-      <c r="D210" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="E210" s="22"/>
-      <c r="F210" s="23"/>
-      <c r="G210" s="24"/>
-    </row>
-    <row r="211" spans="2:7">
-      <c r="B211" s="68"/>
-      <c r="C211" s="71"/>
-      <c r="D211" s="21" t="s">
-        <v>15</v>
       </c>
       <c r="E211" s="22"/>
       <c r="F211" s="23"/>
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="68"/>
-      <c r="C212" s="71"/>
-      <c r="D212" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E212" s="27"/>
-      <c r="F212" s="28"/>
-      <c r="G212" s="29"/>
+      <c r="B212" s="78"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212" s="17"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="19"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="68"/>
-      <c r="C213" s="71"/>
+      <c r="B213" s="76"/>
+      <c r="C213" s="79" t="s">
+        <v>80</v>
+      </c>
       <c r="D213" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="E213" s="3"/>
       <c r="F213" s="7"/>
-      <c r="G213" s="20"/>
+      <c r="G213" s="6"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="68"/>
-      <c r="C214" s="71"/>
-      <c r="D214" s="2" t="s">
+      <c r="B214" s="77"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="22"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="77"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="22"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="24"/>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="77"/>
+      <c r="C216" s="80"/>
+      <c r="D216" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="27"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="29"/>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="77"/>
+      <c r="C217" s="80"/>
+      <c r="D217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="20"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="77"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="E214" s="3"/>
-      <c r="F214" s="2"/>
-      <c r="G214" s="6"/>
-    </row>
-    <row r="215" spans="2:7">
-      <c r="B215" s="68"/>
-      <c r="C215" s="71"/>
-      <c r="D215" s="21" t="s">
+      <c r="E218" s="3"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="77"/>
+      <c r="C219" s="80"/>
+      <c r="D219" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E215" s="22"/>
-      <c r="F215" s="21"/>
-      <c r="G215" s="24"/>
-    </row>
-    <row r="216" spans="2:7">
-      <c r="B216" s="68"/>
-      <c r="C216" s="71"/>
-      <c r="D216" s="2" t="s">
+      <c r="E219" s="22"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="24"/>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="77"/>
+      <c r="C220" s="80"/>
+      <c r="D220" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E216" s="3"/>
-      <c r="F216" s="2"/>
-      <c r="G216" s="6"/>
-    </row>
-    <row r="217" spans="2:7">
-      <c r="B217" s="68"/>
-      <c r="C217" s="71"/>
-      <c r="D217" s="21" t="s">
+      <c r="E220" s="3"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="77"/>
+      <c r="C221" s="80"/>
+      <c r="D221" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="E217" s="22"/>
-      <c r="F217" s="23"/>
-      <c r="G217" s="24"/>
-    </row>
-    <row r="218" spans="2:7">
-      <c r="B218" s="69"/>
-      <c r="C218" s="72"/>
-      <c r="D218" s="16" t="s">
+      <c r="E221" s="22"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="24"/>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" s="78"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="E218" s="17"/>
-      <c r="F218" s="18"/>
-      <c r="G218" s="19"/>
+      <c r="E222" s="17"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="19"/>
     </row>
   </sheetData>
-  <mergeCells count="61">
-    <mergeCell ref="B199:B208"/>
-    <mergeCell ref="C199:C208"/>
-    <mergeCell ref="B209:B218"/>
-    <mergeCell ref="C209:C218"/>
-    <mergeCell ref="B169:B178"/>
-    <mergeCell ref="C169:C178"/>
-    <mergeCell ref="B179:B188"/>
-    <mergeCell ref="C179:C188"/>
-    <mergeCell ref="B189:B198"/>
-    <mergeCell ref="C189:C198"/>
-    <mergeCell ref="B139:B148"/>
-    <mergeCell ref="C139:C148"/>
-    <mergeCell ref="B149:B158"/>
-    <mergeCell ref="C149:C158"/>
-    <mergeCell ref="B159:B168"/>
-    <mergeCell ref="C159:C168"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="C109:C118"/>
-    <mergeCell ref="B119:B128"/>
-    <mergeCell ref="C119:C128"/>
-    <mergeCell ref="B129:B138"/>
-    <mergeCell ref="C129:C138"/>
-    <mergeCell ref="B79:B88"/>
-    <mergeCell ref="C79:C88"/>
-    <mergeCell ref="B89:B98"/>
-    <mergeCell ref="C89:C98"/>
-    <mergeCell ref="B99:B108"/>
-    <mergeCell ref="C99:C108"/>
-    <mergeCell ref="B49:B58"/>
-    <mergeCell ref="C49:C58"/>
-    <mergeCell ref="B59:B68"/>
-    <mergeCell ref="C59:C68"/>
-    <mergeCell ref="B69:B78"/>
-    <mergeCell ref="C69:C78"/>
-    <mergeCell ref="B19:B28"/>
-    <mergeCell ref="C19:C28"/>
-    <mergeCell ref="B29:B38"/>
-    <mergeCell ref="C29:C38"/>
-    <mergeCell ref="B39:B48"/>
-    <mergeCell ref="C39:C48"/>
-    <mergeCell ref="D15:F15"/>
+  <mergeCells count="66">
+    <mergeCell ref="B203:B212"/>
+    <mergeCell ref="C203:C212"/>
+    <mergeCell ref="B213:B222"/>
+    <mergeCell ref="C213:C222"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:C182"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="C183:C192"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="C143:C152"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="C153:C162"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="C163:C172"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="C133:C142"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="B1:G1"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
     <mergeCell ref="B6:C9"/>
     <mergeCell ref="B10:C13"/>
-    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="B18:C21"/>
     <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
     <mergeCell ref="D4:F4"/>
@@ -4006,7 +4278,12 @@
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="D12:F12"/>
     <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="B14:C17"/>
     <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4014,11 +4291,3016 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57215B51-E873-4C40-A7C3-AD2EC7303DB3}">
+  <sheetPr>
+    <tabColor rgb="FF00B0F0"/>
+  </sheetPr>
+  <dimension ref="B1:G272"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="22" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="85" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="85"/>
+      <c r="F1" s="85"/>
+      <c r="G1" s="85"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="86" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="60"/>
+      <c r="D2" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="59"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="67"/>
+      <c r="F4" s="67"/>
+      <c r="G4" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="66"/>
+      <c r="E5" s="67"/>
+      <c r="F5" s="67"/>
+      <c r="G5" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="86" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="60"/>
+      <c r="D6" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="69"/>
+      <c r="F6" s="69"/>
+      <c r="G6" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="68" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="69"/>
+      <c r="F7" s="69"/>
+      <c r="G7" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="68" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="59"/>
+      <c r="C9" s="60"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="62" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="63"/>
+      <c r="D10" s="53" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="87" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="87" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="88"/>
+      <c r="F13" s="88"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="C14" s="47"/>
+      <c r="D14" s="89" t="s">
+        <v>130</v>
+      </c>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="48"/>
+      <c r="C15" s="47"/>
+      <c r="D15" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="48"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="48"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="89" t="s">
+        <v>120</v>
+      </c>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C18" s="47"/>
+      <c r="D18" s="57" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="58"/>
+      <c r="F18" s="58"/>
+      <c r="G18" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="48"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="57" t="s">
+        <v>146</v>
+      </c>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="48"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="51" t="s">
+        <v>147</v>
+      </c>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="48"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="51" t="s">
+        <v>150</v>
+      </c>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="43" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="44" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="44" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="44" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="70">
+        <v>43983</v>
+      </c>
+      <c r="C23" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="71"/>
+      <c r="C24" s="74"/>
+      <c r="D24" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="71"/>
+      <c r="C25" s="74"/>
+      <c r="D25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="3"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="71"/>
+      <c r="C26" s="74"/>
+      <c r="D26" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="71"/>
+      <c r="C27" s="74"/>
+      <c r="D27" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="71"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G28" s="6"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="71"/>
+      <c r="C29" s="74"/>
+      <c r="D29" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F29" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="71"/>
+      <c r="C30" s="74"/>
+      <c r="D30" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G30" s="6"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="71"/>
+      <c r="C31" s="74"/>
+      <c r="D31" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F31" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="72"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="18"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="91">
+        <v>43984</v>
+      </c>
+      <c r="C33" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="22"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="92"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="3"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="92"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E35" s="3"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="25"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="92"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="27"/>
+      <c r="F36" s="26"/>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="92"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="21"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="92"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" s="22"/>
+      <c r="F38" s="21"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="92"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="92"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="92"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="93"/>
+      <c r="C42" s="81"/>
+      <c r="D42" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E42" s="17"/>
+      <c r="F42" s="16"/>
+      <c r="G42" s="19"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="70">
+        <v>43985</v>
+      </c>
+      <c r="C43" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="3"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="6"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="71"/>
+      <c r="C44" s="74"/>
+      <c r="D44" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="22"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="71"/>
+      <c r="C45" s="74"/>
+      <c r="D45" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="71"/>
+      <c r="C46" s="74"/>
+      <c r="D46" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E46" s="27"/>
+      <c r="F46" s="28"/>
+      <c r="G46" s="29"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="71"/>
+      <c r="C47" s="74"/>
+      <c r="D47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G47" s="20"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="71"/>
+      <c r="C48" s="74"/>
+      <c r="D48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G48" s="6"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="71"/>
+      <c r="C49" s="74"/>
+      <c r="D49" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="F49" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="71"/>
+      <c r="C50" s="74"/>
+      <c r="D50" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="G50" s="6"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="71"/>
+      <c r="C51" s="74"/>
+      <c r="D51" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="72"/>
+      <c r="C52" s="75"/>
+      <c r="D52" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="18"/>
+      <c r="G52" s="19"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="82">
+        <v>43986</v>
+      </c>
+      <c r="C53" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D53" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="22"/>
+      <c r="F53" s="21"/>
+      <c r="G53" s="24"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="83"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E54" s="3"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="83"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E55" s="3"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="25"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="83"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="29"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="83"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="83"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="21"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="83"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="83"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E60" s="22"/>
+      <c r="F60" s="21"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="83"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="84"/>
+      <c r="C62" s="81"/>
+      <c r="D62" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="16"/>
+      <c r="G62" s="19"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="82">
+        <v>43987</v>
+      </c>
+      <c r="C63" s="73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="3"/>
+      <c r="F63" s="7"/>
+      <c r="G63" s="6"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="83"/>
+      <c r="C64" s="74"/>
+      <c r="D64" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="83"/>
+      <c r="C65" s="74"/>
+      <c r="D65" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="23"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="83"/>
+      <c r="C66" s="74"/>
+      <c r="D66" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E66" s="27"/>
+      <c r="F66" s="28"/>
+      <c r="G66" s="29"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="83"/>
+      <c r="C67" s="74"/>
+      <c r="D67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="20"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="83"/>
+      <c r="C68" s="74"/>
+      <c r="D68" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="83"/>
+      <c r="C69" s="74"/>
+      <c r="D69" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E69" s="3"/>
+      <c r="F69" s="21"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="83"/>
+      <c r="C70" s="74"/>
+      <c r="D70" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="3"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="6"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="83"/>
+      <c r="C71" s="74"/>
+      <c r="D71" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E71" s="22"/>
+      <c r="F71" s="23"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="84"/>
+      <c r="C72" s="75"/>
+      <c r="D72" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="18"/>
+      <c r="G72" s="19"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="70">
+        <v>43990</v>
+      </c>
+      <c r="C73" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="71"/>
+      <c r="C74" s="74"/>
+      <c r="D74" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="23"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="71"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E75" s="22"/>
+      <c r="F75" s="23"/>
+      <c r="G75" s="24"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="71"/>
+      <c r="C76" s="74"/>
+      <c r="D76" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E76" s="27"/>
+      <c r="F76" s="28"/>
+      <c r="G76" s="29"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="71"/>
+      <c r="C77" s="74"/>
+      <c r="D77" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E77" s="22"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="20"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="71"/>
+      <c r="C78" s="74"/>
+      <c r="D78" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="22"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="71"/>
+      <c r="C79" s="74"/>
+      <c r="D79" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E79" s="22"/>
+      <c r="F79" s="21"/>
+      <c r="G79" s="24"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="71"/>
+      <c r="C80" s="74"/>
+      <c r="D80" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E80" s="3"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="6"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="71"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E81" s="3"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="72"/>
+      <c r="C82" s="75"/>
+      <c r="D82" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" s="17"/>
+      <c r="F82" s="18"/>
+      <c r="G82" s="19"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="76">
+        <v>43991</v>
+      </c>
+      <c r="C83" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D83" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="22"/>
+      <c r="F83" s="21"/>
+      <c r="G83" s="24"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="77"/>
+      <c r="C84" s="80"/>
+      <c r="D84" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="23"/>
+      <c r="G84" s="24"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="77"/>
+      <c r="C85" s="80"/>
+      <c r="D85" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="23"/>
+      <c r="G85" s="25"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="77"/>
+      <c r="C86" s="80"/>
+      <c r="D86" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E86" s="27"/>
+      <c r="F86" s="26"/>
+      <c r="G86" s="29"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="77"/>
+      <c r="C87" s="80"/>
+      <c r="D87" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E87" s="22"/>
+      <c r="F87" s="21"/>
+      <c r="G87" s="24"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="77"/>
+      <c r="C88" s="80"/>
+      <c r="D88" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E88" s="22"/>
+      <c r="F88" s="21"/>
+      <c r="G88" s="24"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="77"/>
+      <c r="C89" s="80"/>
+      <c r="D89" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="23"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="77"/>
+      <c r="C90" s="80"/>
+      <c r="D90" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="77"/>
+      <c r="C91" s="80"/>
+      <c r="D91" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="78"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E92" s="17"/>
+      <c r="F92" s="16"/>
+      <c r="G92" s="19"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="70">
+        <v>43992</v>
+      </c>
+      <c r="C93" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="3"/>
+      <c r="F93" s="7"/>
+      <c r="G93" s="6"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="71"/>
+      <c r="C94" s="74"/>
+      <c r="D94" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E94" s="3"/>
+      <c r="F94" s="23"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="71"/>
+      <c r="C95" s="74"/>
+      <c r="D95" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E95" s="3"/>
+      <c r="F95" s="23"/>
+      <c r="G95" s="24"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="71"/>
+      <c r="C96" s="74"/>
+      <c r="D96" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E96" s="27"/>
+      <c r="F96" s="28"/>
+      <c r="G96" s="29"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="71"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E97" s="3"/>
+      <c r="F97" s="7"/>
+      <c r="G97" s="20"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="71"/>
+      <c r="C98" s="74"/>
+      <c r="D98" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E98" s="3"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="6"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="71"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E99" s="3"/>
+      <c r="F99" s="21"/>
+      <c r="G99" s="24"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="71"/>
+      <c r="C100" s="74"/>
+      <c r="D100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E100" s="3"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="71"/>
+      <c r="C101" s="74"/>
+      <c r="D101" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="23"/>
+      <c r="G101" s="24"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="72"/>
+      <c r="C102" s="75"/>
+      <c r="D102" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E102" s="17"/>
+      <c r="F102" s="18"/>
+      <c r="G102" s="19"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="76">
+        <v>43993</v>
+      </c>
+      <c r="C103" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D103" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E103" s="22"/>
+      <c r="F103" s="21"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="77"/>
+      <c r="C104" s="80"/>
+      <c r="D104" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="22"/>
+      <c r="F104" s="23"/>
+      <c r="G104" s="24"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="77"/>
+      <c r="C105" s="80"/>
+      <c r="D105" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E105" s="22"/>
+      <c r="F105" s="23"/>
+      <c r="G105" s="25"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="77"/>
+      <c r="C106" s="80"/>
+      <c r="D106" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E106" s="27"/>
+      <c r="F106" s="26"/>
+      <c r="G106" s="29"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="77"/>
+      <c r="C107" s="80"/>
+      <c r="D107" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="77"/>
+      <c r="C108" s="80"/>
+      <c r="D108" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E108" s="22"/>
+      <c r="F108" s="21"/>
+      <c r="G108" s="24"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="77"/>
+      <c r="C109" s="80"/>
+      <c r="D109" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E109" s="22"/>
+      <c r="F109" s="23"/>
+      <c r="G109" s="24"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="77"/>
+      <c r="C110" s="80"/>
+      <c r="D110" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E110" s="22"/>
+      <c r="F110" s="21"/>
+      <c r="G110" s="24"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="77"/>
+      <c r="C111" s="80"/>
+      <c r="D111" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E111" s="22"/>
+      <c r="F111" s="23"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="78"/>
+      <c r="C112" s="81"/>
+      <c r="D112" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E112" s="17"/>
+      <c r="F112" s="16"/>
+      <c r="G112" s="19"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="76">
+        <v>43994</v>
+      </c>
+      <c r="C113" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E113" s="3"/>
+      <c r="F113" s="7"/>
+      <c r="G113" s="6"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="77"/>
+      <c r="C114" s="80"/>
+      <c r="D114" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="22"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="24"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="77"/>
+      <c r="C115" s="80"/>
+      <c r="D115" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E115" s="22"/>
+      <c r="F115" s="23"/>
+      <c r="G115" s="24"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="77"/>
+      <c r="C116" s="80"/>
+      <c r="D116" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E116" s="27"/>
+      <c r="F116" s="28"/>
+      <c r="G116" s="29"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="77"/>
+      <c r="C117" s="80"/>
+      <c r="D117" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E117" s="3"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="20"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="77"/>
+      <c r="C118" s="80"/>
+      <c r="D118" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E118" s="3"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="6"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="77"/>
+      <c r="C119" s="80"/>
+      <c r="D119" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E119" s="3"/>
+      <c r="F119" s="21"/>
+      <c r="G119" s="24"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="77"/>
+      <c r="C120" s="80"/>
+      <c r="D120" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="6"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="77"/>
+      <c r="C121" s="80"/>
+      <c r="D121" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E121" s="3"/>
+      <c r="F121" s="23"/>
+      <c r="G121" s="24"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="78"/>
+      <c r="C122" s="81"/>
+      <c r="D122" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E122" s="17"/>
+      <c r="F122" s="18"/>
+      <c r="G122" s="19"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="70">
+        <v>43997</v>
+      </c>
+      <c r="C123" s="73" t="s">
+        <v>11</v>
+      </c>
+      <c r="D123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="30"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="71"/>
+      <c r="C124" s="74"/>
+      <c r="D124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="71"/>
+      <c r="C125" s="74"/>
+      <c r="D125" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="71"/>
+      <c r="C126" s="74"/>
+      <c r="D126" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="27"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="29"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="71"/>
+      <c r="C127" s="74"/>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="22"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="71"/>
+      <c r="C128" s="74"/>
+      <c r="D128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="22"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="71"/>
+      <c r="C129" s="74"/>
+      <c r="D129" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="71"/>
+      <c r="C130" s="74"/>
+      <c r="D130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="22"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="71"/>
+      <c r="C131" s="74"/>
+      <c r="D131" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="22"/>
+      <c r="F131" s="23"/>
+      <c r="G131" s="24"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="72"/>
+      <c r="C132" s="75"/>
+      <c r="D132" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+    </row>
+    <row r="133" spans="2:7">
+      <c r="B133" s="76">
+        <v>43998</v>
+      </c>
+      <c r="C133" s="79" t="s">
+        <v>12</v>
+      </c>
+      <c r="D133" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E133" s="22"/>
+      <c r="F133" s="21"/>
+      <c r="G133" s="24"/>
+    </row>
+    <row r="134" spans="2:7">
+      <c r="B134" s="77"/>
+      <c r="C134" s="80"/>
+      <c r="D134" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="22"/>
+      <c r="F134" s="23"/>
+      <c r="G134" s="24"/>
+    </row>
+    <row r="135" spans="2:7">
+      <c r="B135" s="77"/>
+      <c r="C135" s="80"/>
+      <c r="D135" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E135" s="22"/>
+      <c r="F135" s="23"/>
+      <c r="G135" s="25"/>
+    </row>
+    <row r="136" spans="2:7">
+      <c r="B136" s="77"/>
+      <c r="C136" s="80"/>
+      <c r="D136" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E136" s="27"/>
+      <c r="F136" s="26"/>
+      <c r="G136" s="29"/>
+    </row>
+    <row r="137" spans="2:7">
+      <c r="B137" s="77"/>
+      <c r="C137" s="80"/>
+      <c r="D137" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E137" s="22"/>
+      <c r="F137" s="21"/>
+      <c r="G137" s="24"/>
+    </row>
+    <row r="138" spans="2:7">
+      <c r="B138" s="77"/>
+      <c r="C138" s="80"/>
+      <c r="D138" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E138" s="22"/>
+      <c r="F138" s="21"/>
+      <c r="G138" s="24"/>
+    </row>
+    <row r="139" spans="2:7">
+      <c r="B139" s="77"/>
+      <c r="C139" s="80"/>
+      <c r="D139" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E139" s="22"/>
+      <c r="F139" s="23"/>
+      <c r="G139" s="24"/>
+    </row>
+    <row r="140" spans="2:7">
+      <c r="B140" s="77"/>
+      <c r="C140" s="80"/>
+      <c r="D140" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E140" s="22"/>
+      <c r="F140" s="21"/>
+      <c r="G140" s="24"/>
+    </row>
+    <row r="141" spans="2:7">
+      <c r="B141" s="77"/>
+      <c r="C141" s="80"/>
+      <c r="D141" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E141" s="22"/>
+      <c r="F141" s="23"/>
+      <c r="G141" s="24"/>
+    </row>
+    <row r="142" spans="2:7">
+      <c r="B142" s="78"/>
+      <c r="C142" s="81"/>
+      <c r="D142" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E142" s="17"/>
+      <c r="F142" s="16"/>
+      <c r="G142" s="19"/>
+    </row>
+    <row r="143" spans="2:7">
+      <c r="B143" s="70">
+        <v>43999</v>
+      </c>
+      <c r="C143" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E143" s="3"/>
+      <c r="F143" s="7"/>
+      <c r="G143" s="6"/>
+    </row>
+    <row r="144" spans="2:7">
+      <c r="B144" s="71"/>
+      <c r="C144" s="74"/>
+      <c r="D144" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="23"/>
+      <c r="G144" s="24"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="71"/>
+      <c r="C145" s="74"/>
+      <c r="D145" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E145" s="22"/>
+      <c r="F145" s="23"/>
+      <c r="G145" s="24"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="71"/>
+      <c r="C146" s="74"/>
+      <c r="D146" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E146" s="27"/>
+      <c r="F146" s="28"/>
+      <c r="G146" s="29"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="71"/>
+      <c r="C147" s="74"/>
+      <c r="D147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E147" s="3"/>
+      <c r="F147" s="7"/>
+      <c r="G147" s="20"/>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="71"/>
+      <c r="C148" s="74"/>
+      <c r="D148" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E148" s="3"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="6"/>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="71"/>
+      <c r="C149" s="74"/>
+      <c r="D149" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E149" s="22"/>
+      <c r="F149" s="21"/>
+      <c r="G149" s="24"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="71"/>
+      <c r="C150" s="74"/>
+      <c r="D150" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E150" s="3"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="6"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="71"/>
+      <c r="C151" s="74"/>
+      <c r="D151" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E151" s="22"/>
+      <c r="F151" s="23"/>
+      <c r="G151" s="24"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="72"/>
+      <c r="C152" s="75"/>
+      <c r="D152" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E152" s="17"/>
+      <c r="F152" s="18"/>
+      <c r="G152" s="19"/>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="76">
+        <v>44000</v>
+      </c>
+      <c r="C153" s="79" t="s">
+        <v>9</v>
+      </c>
+      <c r="D153" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E153" s="22"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="24"/>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="77"/>
+      <c r="C154" s="80"/>
+      <c r="D154" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="22"/>
+      <c r="F154" s="23"/>
+      <c r="G154" s="24"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="77"/>
+      <c r="C155" s="80"/>
+      <c r="D155" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E155" s="22"/>
+      <c r="F155" s="23"/>
+      <c r="G155" s="25"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="77"/>
+      <c r="C156" s="80"/>
+      <c r="D156" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E156" s="27"/>
+      <c r="F156" s="26"/>
+      <c r="G156" s="29"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="77"/>
+      <c r="C157" s="80"/>
+      <c r="D157" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E157" s="22"/>
+      <c r="F157" s="21"/>
+      <c r="G157" s="24"/>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="77"/>
+      <c r="C158" s="80"/>
+      <c r="D158" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E158" s="22"/>
+      <c r="F158" s="21"/>
+      <c r="G158" s="24"/>
+    </row>
+    <row r="159" spans="2:7">
+      <c r="B159" s="77"/>
+      <c r="C159" s="80"/>
+      <c r="D159" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E159" s="22"/>
+      <c r="F159" s="23"/>
+      <c r="G159" s="24"/>
+    </row>
+    <row r="160" spans="2:7">
+      <c r="B160" s="77"/>
+      <c r="C160" s="80"/>
+      <c r="D160" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E160" s="22"/>
+      <c r="F160" s="21"/>
+      <c r="G160" s="24"/>
+    </row>
+    <row r="161" spans="2:7">
+      <c r="B161" s="77"/>
+      <c r="C161" s="80"/>
+      <c r="D161" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E161" s="22"/>
+      <c r="F161" s="23"/>
+      <c r="G161" s="24"/>
+    </row>
+    <row r="162" spans="2:7">
+      <c r="B162" s="78"/>
+      <c r="C162" s="81"/>
+      <c r="D162" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E162" s="17"/>
+      <c r="F162" s="16"/>
+      <c r="G162" s="19"/>
+    </row>
+    <row r="163" spans="2:7">
+      <c r="B163" s="76">
+        <v>44001</v>
+      </c>
+      <c r="C163" s="79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E163" s="3"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="6"/>
+    </row>
+    <row r="164" spans="2:7">
+      <c r="B164" s="77"/>
+      <c r="C164" s="80"/>
+      <c r="D164" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="42"/>
+      <c r="F164" s="23"/>
+      <c r="G164" s="24"/>
+    </row>
+    <row r="165" spans="2:7">
+      <c r="B165" s="77"/>
+      <c r="C165" s="80"/>
+      <c r="D165" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E165" s="22"/>
+      <c r="F165" s="23"/>
+      <c r="G165" s="24"/>
+    </row>
+    <row r="166" spans="2:7">
+      <c r="B166" s="77"/>
+      <c r="C166" s="80"/>
+      <c r="D166" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E166" s="27"/>
+      <c r="F166" s="28"/>
+      <c r="G166" s="29"/>
+    </row>
+    <row r="167" spans="2:7">
+      <c r="B167" s="77"/>
+      <c r="C167" s="80"/>
+      <c r="D167" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E167" s="3"/>
+      <c r="F167" s="7"/>
+      <c r="G167" s="20"/>
+    </row>
+    <row r="168" spans="2:7">
+      <c r="B168" s="77"/>
+      <c r="C168" s="80"/>
+      <c r="D168" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E168" s="3"/>
+      <c r="F168" s="2"/>
+      <c r="G168" s="6"/>
+    </row>
+    <row r="169" spans="2:7">
+      <c r="B169" s="77"/>
+      <c r="C169" s="80"/>
+      <c r="D169" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E169" s="22"/>
+      <c r="F169" s="21"/>
+      <c r="G169" s="24"/>
+    </row>
+    <row r="170" spans="2:7">
+      <c r="B170" s="77"/>
+      <c r="C170" s="80"/>
+      <c r="D170" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E170" s="3"/>
+      <c r="F170" s="2"/>
+      <c r="G170" s="6"/>
+    </row>
+    <row r="171" spans="2:7">
+      <c r="B171" s="77"/>
+      <c r="C171" s="80"/>
+      <c r="D171" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E171" s="22"/>
+      <c r="F171" s="23"/>
+      <c r="G171" s="24"/>
+    </row>
+    <row r="172" spans="2:7">
+      <c r="B172" s="78"/>
+      <c r="C172" s="81"/>
+      <c r="D172" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E172" s="17"/>
+      <c r="F172" s="18"/>
+      <c r="G172" s="19"/>
+    </row>
+    <row r="173" spans="2:7">
+      <c r="B173" s="70">
+        <v>44004</v>
+      </c>
+      <c r="C173" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E173" s="3"/>
+      <c r="F173" s="7"/>
+      <c r="G173" s="6"/>
+    </row>
+    <row r="174" spans="2:7">
+      <c r="B174" s="71"/>
+      <c r="C174" s="74"/>
+      <c r="D174" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E174" s="22"/>
+      <c r="F174" s="23"/>
+      <c r="G174" s="24"/>
+    </row>
+    <row r="175" spans="2:7">
+      <c r="B175" s="71"/>
+      <c r="C175" s="74"/>
+      <c r="D175" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E175" s="22"/>
+      <c r="F175" s="23"/>
+      <c r="G175" s="24"/>
+    </row>
+    <row r="176" spans="2:7">
+      <c r="B176" s="71"/>
+      <c r="C176" s="74"/>
+      <c r="D176" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E176" s="27"/>
+      <c r="F176" s="28"/>
+      <c r="G176" s="29"/>
+    </row>
+    <row r="177" spans="2:7">
+      <c r="B177" s="71"/>
+      <c r="C177" s="74"/>
+      <c r="D177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E177" s="3"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="20"/>
+    </row>
+    <row r="178" spans="2:7">
+      <c r="B178" s="71"/>
+      <c r="C178" s="74"/>
+      <c r="D178" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E178" s="3"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="6"/>
+    </row>
+    <row r="179" spans="2:7">
+      <c r="B179" s="71"/>
+      <c r="C179" s="74"/>
+      <c r="D179" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E179" s="3"/>
+      <c r="F179" s="21"/>
+      <c r="G179" s="24"/>
+    </row>
+    <row r="180" spans="2:7">
+      <c r="B180" s="71"/>
+      <c r="C180" s="74"/>
+      <c r="D180" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E180" s="3"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="6"/>
+    </row>
+    <row r="181" spans="2:7">
+      <c r="B181" s="71"/>
+      <c r="C181" s="74"/>
+      <c r="D181" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E181" s="22"/>
+      <c r="F181" s="23"/>
+      <c r="G181" s="24"/>
+    </row>
+    <row r="182" spans="2:7">
+      <c r="B182" s="72"/>
+      <c r="C182" s="75"/>
+      <c r="D182" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E182" s="17"/>
+      <c r="F182" s="18"/>
+      <c r="G182" s="19"/>
+    </row>
+    <row r="183" spans="2:7">
+      <c r="B183" s="76">
+        <v>44005</v>
+      </c>
+      <c r="C183" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D183" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E183" s="22"/>
+      <c r="F183" s="21"/>
+      <c r="G183" s="24"/>
+    </row>
+    <row r="184" spans="2:7">
+      <c r="B184" s="77"/>
+      <c r="C184" s="80"/>
+      <c r="D184" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="22"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="24"/>
+    </row>
+    <row r="185" spans="2:7">
+      <c r="B185" s="77"/>
+      <c r="C185" s="80"/>
+      <c r="D185" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E185" s="22"/>
+      <c r="F185" s="23"/>
+      <c r="G185" s="25"/>
+    </row>
+    <row r="186" spans="2:7">
+      <c r="B186" s="77"/>
+      <c r="C186" s="80"/>
+      <c r="D186" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E186" s="27"/>
+      <c r="F186" s="26"/>
+      <c r="G186" s="29"/>
+    </row>
+    <row r="187" spans="2:7">
+      <c r="B187" s="77"/>
+      <c r="C187" s="80"/>
+      <c r="D187" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E187" s="22"/>
+      <c r="F187" s="21"/>
+      <c r="G187" s="24"/>
+    </row>
+    <row r="188" spans="2:7">
+      <c r="B188" s="77"/>
+      <c r="C188" s="80"/>
+      <c r="D188" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E188" s="22"/>
+      <c r="F188" s="21"/>
+      <c r="G188" s="24"/>
+    </row>
+    <row r="189" spans="2:7">
+      <c r="B189" s="77"/>
+      <c r="C189" s="80"/>
+      <c r="D189" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E189" s="22"/>
+      <c r="F189" s="23"/>
+      <c r="G189" s="24"/>
+    </row>
+    <row r="190" spans="2:7">
+      <c r="B190" s="77"/>
+      <c r="C190" s="80"/>
+      <c r="D190" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E190" s="22"/>
+      <c r="F190" s="21"/>
+      <c r="G190" s="24"/>
+    </row>
+    <row r="191" spans="2:7">
+      <c r="B191" s="77"/>
+      <c r="C191" s="80"/>
+      <c r="D191" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E191" s="22"/>
+      <c r="F191" s="23"/>
+      <c r="G191" s="24"/>
+    </row>
+    <row r="192" spans="2:7">
+      <c r="B192" s="78"/>
+      <c r="C192" s="81"/>
+      <c r="D192" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E192" s="17"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="19"/>
+    </row>
+    <row r="193" spans="2:7">
+      <c r="B193" s="70">
+        <v>44006</v>
+      </c>
+      <c r="C193" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D193" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E193" s="22"/>
+      <c r="F193" s="7"/>
+      <c r="G193" s="6"/>
+    </row>
+    <row r="194" spans="2:7">
+      <c r="B194" s="71"/>
+      <c r="C194" s="74"/>
+      <c r="D194" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E194" s="3"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="24"/>
+    </row>
+    <row r="195" spans="2:7">
+      <c r="B195" s="71"/>
+      <c r="C195" s="74"/>
+      <c r="D195" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E195" s="3"/>
+      <c r="F195" s="23"/>
+      <c r="G195" s="24"/>
+    </row>
+    <row r="196" spans="2:7">
+      <c r="B196" s="71"/>
+      <c r="C196" s="74"/>
+      <c r="D196" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E196" s="27"/>
+      <c r="F196" s="28"/>
+      <c r="G196" s="29"/>
+    </row>
+    <row r="197" spans="2:7">
+      <c r="B197" s="71"/>
+      <c r="C197" s="74"/>
+      <c r="D197" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E197" s="3"/>
+      <c r="F197" s="7"/>
+      <c r="G197" s="20"/>
+    </row>
+    <row r="198" spans="2:7">
+      <c r="B198" s="71"/>
+      <c r="C198" s="74"/>
+      <c r="D198" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E198" s="3"/>
+      <c r="F198" s="2"/>
+      <c r="G198" s="6"/>
+    </row>
+    <row r="199" spans="2:7">
+      <c r="B199" s="71"/>
+      <c r="C199" s="74"/>
+      <c r="D199" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E199" s="22"/>
+      <c r="F199" s="21"/>
+      <c r="G199" s="24"/>
+    </row>
+    <row r="200" spans="2:7">
+      <c r="B200" s="71"/>
+      <c r="C200" s="74"/>
+      <c r="D200" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E200" s="3"/>
+      <c r="F200" s="2"/>
+      <c r="G200" s="6"/>
+    </row>
+    <row r="201" spans="2:7">
+      <c r="B201" s="71"/>
+      <c r="C201" s="74"/>
+      <c r="D201" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E201" s="3"/>
+      <c r="F201" s="23"/>
+      <c r="G201" s="24"/>
+    </row>
+    <row r="202" spans="2:7">
+      <c r="B202" s="72"/>
+      <c r="C202" s="75"/>
+      <c r="D202" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E202" s="17"/>
+      <c r="F202" s="18"/>
+      <c r="G202" s="19"/>
+    </row>
+    <row r="203" spans="2:7">
+      <c r="B203" s="76">
+        <v>44007</v>
+      </c>
+      <c r="C203" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D203" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E203" s="22"/>
+      <c r="F203" s="21"/>
+      <c r="G203" s="24"/>
+    </row>
+    <row r="204" spans="2:7">
+      <c r="B204" s="77"/>
+      <c r="C204" s="80"/>
+      <c r="D204" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E204" s="22"/>
+      <c r="F204" s="23"/>
+      <c r="G204" s="24"/>
+    </row>
+    <row r="205" spans="2:7">
+      <c r="B205" s="77"/>
+      <c r="C205" s="80"/>
+      <c r="D205" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E205" s="22"/>
+      <c r="F205" s="23"/>
+      <c r="G205" s="25"/>
+    </row>
+    <row r="206" spans="2:7">
+      <c r="B206" s="77"/>
+      <c r="C206" s="80"/>
+      <c r="D206" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E206" s="27"/>
+      <c r="F206" s="26"/>
+      <c r="G206" s="29"/>
+    </row>
+    <row r="207" spans="2:7">
+      <c r="B207" s="77"/>
+      <c r="C207" s="80"/>
+      <c r="D207" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E207" s="22"/>
+      <c r="F207" s="21"/>
+      <c r="G207" s="24"/>
+    </row>
+    <row r="208" spans="2:7">
+      <c r="B208" s="77"/>
+      <c r="C208" s="80"/>
+      <c r="D208" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E208" s="22"/>
+      <c r="F208" s="21"/>
+      <c r="G208" s="24"/>
+    </row>
+    <row r="209" spans="2:7">
+      <c r="B209" s="77"/>
+      <c r="C209" s="80"/>
+      <c r="D209" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E209" s="22"/>
+      <c r="F209" s="23"/>
+      <c r="G209" s="24"/>
+    </row>
+    <row r="210" spans="2:7">
+      <c r="B210" s="77"/>
+      <c r="C210" s="80"/>
+      <c r="D210" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E210" s="22"/>
+      <c r="F210" s="21"/>
+      <c r="G210" s="24"/>
+    </row>
+    <row r="211" spans="2:7">
+      <c r="B211" s="77"/>
+      <c r="C211" s="80"/>
+      <c r="D211" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E211" s="22"/>
+      <c r="F211" s="23"/>
+      <c r="G211" s="24"/>
+    </row>
+    <row r="212" spans="2:7">
+      <c r="B212" s="78"/>
+      <c r="C212" s="81"/>
+      <c r="D212" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E212" s="17"/>
+      <c r="F212" s="16"/>
+      <c r="G212" s="19"/>
+    </row>
+    <row r="213" spans="2:7">
+      <c r="B213" s="76">
+        <v>44008</v>
+      </c>
+      <c r="C213" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E213" s="3"/>
+      <c r="F213" s="7"/>
+      <c r="G213" s="6"/>
+    </row>
+    <row r="214" spans="2:7">
+      <c r="B214" s="77"/>
+      <c r="C214" s="80"/>
+      <c r="D214" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E214" s="22"/>
+      <c r="F214" s="23"/>
+      <c r="G214" s="24"/>
+    </row>
+    <row r="215" spans="2:7">
+      <c r="B215" s="77"/>
+      <c r="C215" s="80"/>
+      <c r="D215" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E215" s="22"/>
+      <c r="F215" s="23"/>
+      <c r="G215" s="24"/>
+    </row>
+    <row r="216" spans="2:7">
+      <c r="B216" s="77"/>
+      <c r="C216" s="80"/>
+      <c r="D216" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E216" s="27"/>
+      <c r="F216" s="28"/>
+      <c r="G216" s="29"/>
+    </row>
+    <row r="217" spans="2:7">
+      <c r="B217" s="77"/>
+      <c r="C217" s="80"/>
+      <c r="D217" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E217" s="3"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="20"/>
+    </row>
+    <row r="218" spans="2:7">
+      <c r="B218" s="77"/>
+      <c r="C218" s="80"/>
+      <c r="D218" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E218" s="3"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="6"/>
+    </row>
+    <row r="219" spans="2:7">
+      <c r="B219" s="77"/>
+      <c r="C219" s="80"/>
+      <c r="D219" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E219" s="22"/>
+      <c r="F219" s="21"/>
+      <c r="G219" s="24"/>
+    </row>
+    <row r="220" spans="2:7">
+      <c r="B220" s="77"/>
+      <c r="C220" s="80"/>
+      <c r="D220" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E220" s="3"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="6"/>
+    </row>
+    <row r="221" spans="2:7">
+      <c r="B221" s="77"/>
+      <c r="C221" s="80"/>
+      <c r="D221" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E221" s="22"/>
+      <c r="F221" s="23"/>
+      <c r="G221" s="24"/>
+    </row>
+    <row r="222" spans="2:7">
+      <c r="B222" s="78"/>
+      <c r="C222" s="81"/>
+      <c r="D222" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E222" s="17"/>
+      <c r="F222" s="18"/>
+      <c r="G222" s="19"/>
+    </row>
+    <row r="223" spans="2:7">
+      <c r="B223" s="70">
+        <v>44011</v>
+      </c>
+      <c r="C223" s="73" t="s">
+        <v>76</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E223" s="3"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="6"/>
+    </row>
+    <row r="224" spans="2:7">
+      <c r="B224" s="71"/>
+      <c r="C224" s="74"/>
+      <c r="D224" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E224" s="22"/>
+      <c r="F224" s="23"/>
+      <c r="G224" s="24"/>
+    </row>
+    <row r="225" spans="2:7">
+      <c r="B225" s="71"/>
+      <c r="C225" s="74"/>
+      <c r="D225" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E225" s="22"/>
+      <c r="F225" s="23"/>
+      <c r="G225" s="24"/>
+    </row>
+    <row r="226" spans="2:7">
+      <c r="B226" s="71"/>
+      <c r="C226" s="74"/>
+      <c r="D226" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E226" s="27"/>
+      <c r="F226" s="28"/>
+      <c r="G226" s="29"/>
+    </row>
+    <row r="227" spans="2:7">
+      <c r="B227" s="71"/>
+      <c r="C227" s="74"/>
+      <c r="D227" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E227" s="3"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="20"/>
+    </row>
+    <row r="228" spans="2:7">
+      <c r="B228" s="71"/>
+      <c r="C228" s="74"/>
+      <c r="D228" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E228" s="3"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="6"/>
+    </row>
+    <row r="229" spans="2:7">
+      <c r="B229" s="71"/>
+      <c r="C229" s="74"/>
+      <c r="D229" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E229" s="3"/>
+      <c r="F229" s="21"/>
+      <c r="G229" s="24"/>
+    </row>
+    <row r="230" spans="2:7">
+      <c r="B230" s="71"/>
+      <c r="C230" s="74"/>
+      <c r="D230" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E230" s="3"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="6"/>
+    </row>
+    <row r="231" spans="2:7">
+      <c r="B231" s="71"/>
+      <c r="C231" s="74"/>
+      <c r="D231" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E231" s="22"/>
+      <c r="F231" s="23"/>
+      <c r="G231" s="24"/>
+    </row>
+    <row r="232" spans="2:7">
+      <c r="B232" s="72"/>
+      <c r="C232" s="75"/>
+      <c r="D232" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E232" s="17"/>
+      <c r="F232" s="18"/>
+      <c r="G232" s="19"/>
+    </row>
+    <row r="233" spans="2:7">
+      <c r="B233" s="76">
+        <v>44012</v>
+      </c>
+      <c r="C233" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="D233" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E233" s="22"/>
+      <c r="F233" s="21"/>
+      <c r="G233" s="24"/>
+    </row>
+    <row r="234" spans="2:7">
+      <c r="B234" s="77"/>
+      <c r="C234" s="80"/>
+      <c r="D234" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E234" s="22"/>
+      <c r="F234" s="23"/>
+      <c r="G234" s="24"/>
+    </row>
+    <row r="235" spans="2:7">
+      <c r="B235" s="77"/>
+      <c r="C235" s="80"/>
+      <c r="D235" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E235" s="22"/>
+      <c r="F235" s="23"/>
+      <c r="G235" s="25"/>
+    </row>
+    <row r="236" spans="2:7">
+      <c r="B236" s="77"/>
+      <c r="C236" s="80"/>
+      <c r="D236" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E236" s="27"/>
+      <c r="F236" s="26"/>
+      <c r="G236" s="29"/>
+    </row>
+    <row r="237" spans="2:7">
+      <c r="B237" s="77"/>
+      <c r="C237" s="80"/>
+      <c r="D237" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E237" s="22"/>
+      <c r="F237" s="21"/>
+      <c r="G237" s="24"/>
+    </row>
+    <row r="238" spans="2:7">
+      <c r="B238" s="77"/>
+      <c r="C238" s="80"/>
+      <c r="D238" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E238" s="22"/>
+      <c r="F238" s="21"/>
+      <c r="G238" s="24"/>
+    </row>
+    <row r="239" spans="2:7">
+      <c r="B239" s="77"/>
+      <c r="C239" s="80"/>
+      <c r="D239" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E239" s="22"/>
+      <c r="F239" s="23"/>
+      <c r="G239" s="24"/>
+    </row>
+    <row r="240" spans="2:7">
+      <c r="B240" s="77"/>
+      <c r="C240" s="80"/>
+      <c r="D240" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E240" s="22"/>
+      <c r="F240" s="21"/>
+      <c r="G240" s="24"/>
+    </row>
+    <row r="241" spans="2:7">
+      <c r="B241" s="77"/>
+      <c r="C241" s="80"/>
+      <c r="D241" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E241" s="22"/>
+      <c r="F241" s="23"/>
+      <c r="G241" s="24"/>
+    </row>
+    <row r="242" spans="2:7">
+      <c r="B242" s="78"/>
+      <c r="C242" s="81"/>
+      <c r="D242" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E242" s="17"/>
+      <c r="F242" s="16"/>
+      <c r="G242" s="19"/>
+    </row>
+    <row r="243" spans="2:7">
+      <c r="B243" s="70"/>
+      <c r="C243" s="73" t="s">
+        <v>78</v>
+      </c>
+      <c r="D243" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E243" s="22"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="6"/>
+    </row>
+    <row r="244" spans="2:7">
+      <c r="B244" s="71"/>
+      <c r="C244" s="74"/>
+      <c r="D244" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E244" s="3"/>
+      <c r="F244" s="23"/>
+      <c r="G244" s="24"/>
+    </row>
+    <row r="245" spans="2:7">
+      <c r="B245" s="71"/>
+      <c r="C245" s="74"/>
+      <c r="D245" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E245" s="3"/>
+      <c r="F245" s="23"/>
+      <c r="G245" s="24"/>
+    </row>
+    <row r="246" spans="2:7">
+      <c r="B246" s="71"/>
+      <c r="C246" s="74"/>
+      <c r="D246" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="27"/>
+      <c r="F246" s="28"/>
+      <c r="G246" s="29"/>
+    </row>
+    <row r="247" spans="2:7">
+      <c r="B247" s="71"/>
+      <c r="C247" s="74"/>
+      <c r="D247" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E247" s="3"/>
+      <c r="F247" s="7"/>
+      <c r="G247" s="20"/>
+    </row>
+    <row r="248" spans="2:7">
+      <c r="B248" s="71"/>
+      <c r="C248" s="74"/>
+      <c r="D248" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E248" s="3"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="6"/>
+    </row>
+    <row r="249" spans="2:7">
+      <c r="B249" s="71"/>
+      <c r="C249" s="74"/>
+      <c r="D249" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E249" s="22"/>
+      <c r="F249" s="21"/>
+      <c r="G249" s="24"/>
+    </row>
+    <row r="250" spans="2:7">
+      <c r="B250" s="71"/>
+      <c r="C250" s="74"/>
+      <c r="D250" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E250" s="3"/>
+      <c r="F250" s="2"/>
+      <c r="G250" s="6"/>
+    </row>
+    <row r="251" spans="2:7">
+      <c r="B251" s="71"/>
+      <c r="C251" s="74"/>
+      <c r="D251" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E251" s="3"/>
+      <c r="F251" s="23"/>
+      <c r="G251" s="24"/>
+    </row>
+    <row r="252" spans="2:7">
+      <c r="B252" s="72"/>
+      <c r="C252" s="75"/>
+      <c r="D252" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E252" s="17"/>
+      <c r="F252" s="18"/>
+      <c r="G252" s="19"/>
+    </row>
+    <row r="253" spans="2:7">
+      <c r="B253" s="76"/>
+      <c r="C253" s="79" t="s">
+        <v>79</v>
+      </c>
+      <c r="D253" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E253" s="22"/>
+      <c r="F253" s="21"/>
+      <c r="G253" s="24"/>
+    </row>
+    <row r="254" spans="2:7">
+      <c r="B254" s="77"/>
+      <c r="C254" s="80"/>
+      <c r="D254" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E254" s="22"/>
+      <c r="F254" s="23"/>
+      <c r="G254" s="24"/>
+    </row>
+    <row r="255" spans="2:7">
+      <c r="B255" s="77"/>
+      <c r="C255" s="80"/>
+      <c r="D255" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E255" s="22"/>
+      <c r="F255" s="23"/>
+      <c r="G255" s="25"/>
+    </row>
+    <row r="256" spans="2:7">
+      <c r="B256" s="77"/>
+      <c r="C256" s="80"/>
+      <c r="D256" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="27"/>
+      <c r="F256" s="26"/>
+      <c r="G256" s="29"/>
+    </row>
+    <row r="257" spans="2:7">
+      <c r="B257" s="77"/>
+      <c r="C257" s="80"/>
+      <c r="D257" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E257" s="22"/>
+      <c r="F257" s="21"/>
+      <c r="G257" s="24"/>
+    </row>
+    <row r="258" spans="2:7">
+      <c r="B258" s="77"/>
+      <c r="C258" s="80"/>
+      <c r="D258" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E258" s="22"/>
+      <c r="F258" s="21"/>
+      <c r="G258" s="24"/>
+    </row>
+    <row r="259" spans="2:7">
+      <c r="B259" s="77"/>
+      <c r="C259" s="80"/>
+      <c r="D259" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E259" s="22"/>
+      <c r="F259" s="23"/>
+      <c r="G259" s="24"/>
+    </row>
+    <row r="260" spans="2:7">
+      <c r="B260" s="77"/>
+      <c r="C260" s="80"/>
+      <c r="D260" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E260" s="22"/>
+      <c r="F260" s="21"/>
+      <c r="G260" s="24"/>
+    </row>
+    <row r="261" spans="2:7">
+      <c r="B261" s="77"/>
+      <c r="C261" s="80"/>
+      <c r="D261" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E261" s="22"/>
+      <c r="F261" s="23"/>
+      <c r="G261" s="24"/>
+    </row>
+    <row r="262" spans="2:7">
+      <c r="B262" s="78"/>
+      <c r="C262" s="81"/>
+      <c r="D262" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E262" s="17"/>
+      <c r="F262" s="16"/>
+      <c r="G262" s="19"/>
+    </row>
+    <row r="263" spans="2:7">
+      <c r="B263" s="76"/>
+      <c r="C263" s="79" t="s">
+        <v>80</v>
+      </c>
+      <c r="D263" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E263" s="3"/>
+      <c r="F263" s="7"/>
+      <c r="G263" s="6"/>
+    </row>
+    <row r="264" spans="2:7">
+      <c r="B264" s="77"/>
+      <c r="C264" s="80"/>
+      <c r="D264" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E264" s="22"/>
+      <c r="F264" s="23"/>
+      <c r="G264" s="24"/>
+    </row>
+    <row r="265" spans="2:7">
+      <c r="B265" s="77"/>
+      <c r="C265" s="80"/>
+      <c r="D265" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E265" s="22"/>
+      <c r="F265" s="23"/>
+      <c r="G265" s="24"/>
+    </row>
+    <row r="266" spans="2:7">
+      <c r="B266" s="77"/>
+      <c r="C266" s="80"/>
+      <c r="D266" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E266" s="27"/>
+      <c r="F266" s="28"/>
+      <c r="G266" s="29"/>
+    </row>
+    <row r="267" spans="2:7">
+      <c r="B267" s="77"/>
+      <c r="C267" s="80"/>
+      <c r="D267" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E267" s="3"/>
+      <c r="F267" s="7"/>
+      <c r="G267" s="20"/>
+    </row>
+    <row r="268" spans="2:7">
+      <c r="B268" s="77"/>
+      <c r="C268" s="80"/>
+      <c r="D268" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E268" s="3"/>
+      <c r="F268" s="2"/>
+      <c r="G268" s="6"/>
+    </row>
+    <row r="269" spans="2:7">
+      <c r="B269" s="77"/>
+      <c r="C269" s="80"/>
+      <c r="D269" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E269" s="22"/>
+      <c r="F269" s="21"/>
+      <c r="G269" s="24"/>
+    </row>
+    <row r="270" spans="2:7">
+      <c r="B270" s="77"/>
+      <c r="C270" s="80"/>
+      <c r="D270" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E270" s="3"/>
+      <c r="F270" s="2"/>
+      <c r="G270" s="6"/>
+    </row>
+    <row r="271" spans="2:7">
+      <c r="B271" s="77"/>
+      <c r="C271" s="80"/>
+      <c r="D271" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E271" s="22"/>
+      <c r="F271" s="23"/>
+      <c r="G271" s="24"/>
+    </row>
+    <row r="272" spans="2:7">
+      <c r="B272" s="78"/>
+      <c r="C272" s="81"/>
+      <c r="D272" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E272" s="17"/>
+      <c r="F272" s="18"/>
+      <c r="G272" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="76">
+    <mergeCell ref="B263:B272"/>
+    <mergeCell ref="C263:C272"/>
+    <mergeCell ref="B233:B242"/>
+    <mergeCell ref="C233:C242"/>
+    <mergeCell ref="B243:B252"/>
+    <mergeCell ref="C243:C252"/>
+    <mergeCell ref="B253:B262"/>
+    <mergeCell ref="C253:C262"/>
+    <mergeCell ref="B203:B212"/>
+    <mergeCell ref="C203:C212"/>
+    <mergeCell ref="B213:B222"/>
+    <mergeCell ref="C213:C222"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="C223:C232"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:C182"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="C183:C192"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="C143:C152"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="C153:C162"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="C163:C172"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="C133:C142"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:H55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60A2AA04-594E-4153-ABE8-05660D85FAE9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DF5CD-8FD7-4067-9BB4-F7EFA45B9FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="May" sheetId="39" r:id="rId1"/>
     <sheet name="Jun" sheetId="40" r:id="rId2"/>
-    <sheet name="ProgrammingLanguage" sheetId="4" r:id="rId3"/>
+    <sheet name="July" sheetId="41" r:id="rId3"/>
+    <sheet name="ProgrammingLanguage" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="735" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="163">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -670,6 +671,34 @@
   </si>
   <si>
     <t>Meeting for refactoring</t>
+  </si>
+  <si>
+    <t>08:30-09:20</t>
+  </si>
+  <si>
+    <t>08:00-08:30</t>
+  </si>
+  <si>
+    <t>14:00-14:50</t>
+  </si>
+  <si>
+    <t>15:00-15:50</t>
+  </si>
+  <si>
+    <t>Weekly
+(7/20 - 7/24)</t>
+  </si>
+  <si>
+    <t>ELF Item</t>
+  </si>
+  <si>
+    <t>basic code structure</t>
+  </si>
+  <si>
+    <t>FSR</t>
+  </si>
+  <si>
+    <t>Eng st</t>
   </si>
 </sst>
 </file>
@@ -820,7 +849,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -854,6 +883,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1001,7 +1036,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1140,6 +1175,78 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1149,140 +1256,80 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1743,243 +1790,243 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="65" t="s">
         <v>75</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="61"/>
-      <c r="E1" s="61"/>
-      <c r="F1" s="61"/>
-      <c r="G1" s="61"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="63" t="s">
         <v>86</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="66"/>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="59" t="s">
+      <c r="B6" s="63" t="s">
         <v>87</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="77" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="68"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="79" t="s">
         <v>100</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="55" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="81" t="s">
         <v>128</v>
       </c>
-      <c r="E11" s="56"/>
-      <c r="F11" s="56"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
       <c r="G11" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="79" t="s">
         <v>99</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="53" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="79" t="s">
         <v>121</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="80"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="70" t="s">
         <v>115</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="49" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="E14" s="50"/>
-      <c r="F14" s="50"/>
+      <c r="E14" s="84"/>
+      <c r="F14" s="84"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="49" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="83" t="s">
         <v>120</v>
       </c>
-      <c r="E15" s="50"/>
-      <c r="F15" s="50"/>
+      <c r="E15" s="84"/>
+      <c r="F15" s="84"/>
       <c r="G15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="66" t="s">
         <v>123</v>
       </c>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
       <c r="G16" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="48"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="51" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E17" s="52"/>
-      <c r="F17" s="52"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="48"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="61" t="s">
         <v>131</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="48"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="51" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="66" t="s">
         <v>124</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="48"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="66" t="s">
         <v>120</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
@@ -2003,10 +2050,10 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="70">
+      <c r="B23" s="52">
         <v>43962</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2017,8 +2064,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="71"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
@@ -2027,8 +2074,8 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="71"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="21" t="s">
         <v>15</v>
       </c>
@@ -2037,8 +2084,8 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="71"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="26" t="s">
         <v>7</v>
       </c>
@@ -2047,8 +2094,8 @@
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="71"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
@@ -2059,8 +2106,8 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="71"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
@@ -2071,8 +2118,8 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="71"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="21" t="s">
         <v>18</v>
       </c>
@@ -2083,8 +2130,8 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="71"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
@@ -2095,8 +2142,8 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="71"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="21" t="s">
         <v>20</v>
       </c>
@@ -2107,8 +2154,8 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="72"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="16" t="s">
         <v>21</v>
       </c>
@@ -2117,10 +2164,10 @@
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="76">
+      <c r="B33" s="46">
         <v>43963</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -2131,8 +2178,8 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="77"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="21" t="s">
         <v>14</v>
       </c>
@@ -2143,8 +2190,8 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="77"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="47"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="21" t="s">
         <v>15</v>
       </c>
@@ -2155,8 +2202,8 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="77"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="47"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="26" t="s">
         <v>7</v>
       </c>
@@ -2165,8 +2212,8 @@
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="77"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="21" t="s">
         <v>10</v>
       </c>
@@ -2175,8 +2222,8 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="77"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="47"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="21" t="s">
         <v>81</v>
       </c>
@@ -2187,8 +2234,8 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="77"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="47"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="21" t="s">
         <v>82</v>
       </c>
@@ -2199,8 +2246,8 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="77"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="21" t="s">
         <v>83</v>
       </c>
@@ -2211,8 +2258,8 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="77"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="21" t="s">
         <v>84</v>
       </c>
@@ -2223,8 +2270,8 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="78"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="48"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="16" t="s">
         <v>21</v>
       </c>
@@ -2233,10 +2280,10 @@
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="70">
+      <c r="B43" s="52">
         <v>43964</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2247,8 +2294,8 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="71"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="21" t="s">
         <v>14</v>
       </c>
@@ -2261,8 +2308,8 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="71"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="21" t="s">
         <v>15</v>
       </c>
@@ -2275,8 +2322,8 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="71"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="26" t="s">
         <v>7</v>
       </c>
@@ -2285,8 +2332,8 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="71"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="2" t="s">
         <v>16</v>
       </c>
@@ -2297,8 +2344,8 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="71"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
@@ -2311,8 +2358,8 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="71"/>
-      <c r="C49" s="74"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="21" t="s">
         <v>18</v>
       </c>
@@ -2325,8 +2372,8 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="71"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
@@ -2337,8 +2384,8 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="71"/>
-      <c r="C51" s="74"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="21" t="s">
         <v>20</v>
       </c>
@@ -2351,8 +2398,8 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="72"/>
-      <c r="C52" s="75"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="16" t="s">
         <v>21</v>
       </c>
@@ -2361,10 +2408,10 @@
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="82">
+      <c r="B53" s="58">
         <v>43965</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="21" t="s">
@@ -2375,8 +2422,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="83"/>
-      <c r="C54" s="80"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="21" t="s">
         <v>14</v>
       </c>
@@ -2389,8 +2436,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="83"/>
-      <c r="C55" s="80"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="21" t="s">
         <v>15</v>
       </c>
@@ -2403,8 +2450,8 @@
       <c r="G55" s="25"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="83"/>
-      <c r="C56" s="80"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="26" t="s">
         <v>7</v>
       </c>
@@ -2413,8 +2460,8 @@
       <c r="G56" s="29"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="83"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="21" t="s">
         <v>10</v>
       </c>
@@ -2423,8 +2470,8 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="83"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="21" t="s">
         <v>81</v>
       </c>
@@ -2437,8 +2484,8 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="83"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="21" t="s">
         <v>82</v>
       </c>
@@ -2451,8 +2498,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="83"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="21" t="s">
         <v>83</v>
       </c>
@@ -2463,8 +2510,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="83"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="21" t="s">
         <v>84</v>
       </c>
@@ -2475,8 +2522,8 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="84"/>
-      <c r="C62" s="81"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
@@ -2485,10 +2532,10 @@
       <c r="G62" s="19"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="82">
+      <c r="B63" s="58">
         <v>43966</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -2499,8 +2546,8 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="83"/>
-      <c r="C64" s="74"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="21" t="s">
         <v>14</v>
       </c>
@@ -2511,8 +2558,8 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="83"/>
-      <c r="C65" s="74"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="21" t="s">
         <v>15</v>
       </c>
@@ -2523,8 +2570,8 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="83"/>
-      <c r="C66" s="74"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="26" t="s">
         <v>7</v>
       </c>
@@ -2533,8 +2580,8 @@
       <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="83"/>
-      <c r="C67" s="74"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="2" t="s">
         <v>16</v>
       </c>
@@ -2545,8 +2592,8 @@
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="83"/>
-      <c r="C68" s="74"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
@@ -2557,8 +2604,8 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="83"/>
-      <c r="C69" s="74"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="21" t="s">
         <v>18</v>
       </c>
@@ -2569,8 +2616,8 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="83"/>
-      <c r="C70" s="74"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
@@ -2581,8 +2628,8 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="83"/>
-      <c r="C71" s="74"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="21" t="s">
         <v>20</v>
       </c>
@@ -2593,8 +2640,8 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="84"/>
-      <c r="C72" s="75"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="16" t="s">
         <v>21</v>
       </c>
@@ -2603,10 +2650,10 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="70">
+      <c r="B73" s="52">
         <v>43969</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -2617,8 +2664,8 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="71"/>
-      <c r="C74" s="74"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
@@ -2629,8 +2676,8 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="71"/>
-      <c r="C75" s="74"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="21" t="s">
         <v>15</v>
       </c>
@@ -2641,8 +2688,8 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="71"/>
-      <c r="C76" s="74"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="26" t="s">
         <v>7</v>
       </c>
@@ -2651,8 +2698,8 @@
       <c r="G76" s="29"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="71"/>
-      <c r="C77" s="74"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="2" t="s">
         <v>16</v>
       </c>
@@ -2663,8 +2710,8 @@
       <c r="G77" s="20"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="71"/>
-      <c r="C78" s="74"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
@@ -2675,8 +2722,8 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="71"/>
-      <c r="C79" s="74"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="21" t="s">
         <v>18</v>
       </c>
@@ -2687,8 +2734,8 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="71"/>
-      <c r="C80" s="74"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="2" t="s">
         <v>19</v>
       </c>
@@ -2699,8 +2746,8 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="71"/>
-      <c r="C81" s="74"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="21" t="s">
         <v>20</v>
       </c>
@@ -2711,8 +2758,8 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="72"/>
-      <c r="C82" s="75"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="16" t="s">
         <v>21</v>
       </c>
@@ -2721,10 +2768,10 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="76">
+      <c r="B83" s="46">
         <v>43970</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="21" t="s">
@@ -2735,8 +2782,8 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="77"/>
-      <c r="C84" s="80"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="21" t="s">
         <v>14</v>
       </c>
@@ -2745,8 +2792,8 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="77"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="21" t="s">
         <v>15</v>
       </c>
@@ -2755,8 +2802,8 @@
       <c r="G85" s="25"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="77"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="26" t="s">
         <v>7</v>
       </c>
@@ -2765,8 +2812,8 @@
       <c r="G86" s="29"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="77"/>
-      <c r="C87" s="80"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="50"/>
       <c r="D87" s="21" t="s">
         <v>10</v>
       </c>
@@ -2775,8 +2822,8 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="77"/>
-      <c r="C88" s="80"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="50"/>
       <c r="D88" s="21" t="s">
         <v>81</v>
       </c>
@@ -2785,8 +2832,8 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="77"/>
-      <c r="C89" s="80"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="21" t="s">
         <v>82</v>
       </c>
@@ -2795,8 +2842,8 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="77"/>
-      <c r="C90" s="80"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="21" t="s">
         <v>83</v>
       </c>
@@ -2805,8 +2852,8 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="77"/>
-      <c r="C91" s="80"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="21" t="s">
         <v>84</v>
       </c>
@@ -2815,8 +2862,8 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="78"/>
-      <c r="C92" s="81"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="16" t="s">
         <v>21</v>
       </c>
@@ -2825,10 +2872,10 @@
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="70">
+      <c r="B93" s="52">
         <v>43971</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -2839,8 +2886,8 @@
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="71"/>
-      <c r="C94" s="74"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
@@ -2849,8 +2896,8 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="71"/>
-      <c r="C95" s="74"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="21" t="s">
         <v>15</v>
       </c>
@@ -2863,8 +2910,8 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="71"/>
-      <c r="C96" s="74"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="26" t="s">
         <v>7</v>
       </c>
@@ -2873,8 +2920,8 @@
       <c r="G96" s="29"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="71"/>
-      <c r="C97" s="74"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
@@ -2887,8 +2934,8 @@
       <c r="G97" s="20"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="71"/>
-      <c r="C98" s="74"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
@@ -2901,8 +2948,8 @@
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="71"/>
-      <c r="C99" s="74"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="21" t="s">
         <v>18</v>
       </c>
@@ -2915,8 +2962,8 @@
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="71"/>
-      <c r="C100" s="74"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="2" t="s">
         <v>19</v>
       </c>
@@ -2929,8 +2976,8 @@
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="71"/>
-      <c r="C101" s="74"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="56"/>
       <c r="D101" s="21" t="s">
         <v>20</v>
       </c>
@@ -2943,8 +2990,8 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="72"/>
-      <c r="C102" s="75"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="16" t="s">
         <v>21</v>
       </c>
@@ -2953,10 +3000,10 @@
       <c r="G102" s="19"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="76">
+      <c r="B103" s="46">
         <v>43972</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="21" t="s">
@@ -2967,8 +3014,8 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="77"/>
-      <c r="C104" s="80"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="21" t="s">
         <v>14</v>
       </c>
@@ -2977,8 +3024,8 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="77"/>
-      <c r="C105" s="80"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="21" t="s">
         <v>15</v>
       </c>
@@ -2989,8 +3036,8 @@
       <c r="G105" s="25"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="77"/>
-      <c r="C106" s="80"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="26" t="s">
         <v>7</v>
       </c>
@@ -2999,8 +3046,8 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="77"/>
-      <c r="C107" s="80"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="50"/>
       <c r="D107" s="21" t="s">
         <v>10</v>
       </c>
@@ -3009,8 +3056,8 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="77"/>
-      <c r="C108" s="80"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="50"/>
       <c r="D108" s="21" t="s">
         <v>81</v>
       </c>
@@ -3019,8 +3066,8 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="77"/>
-      <c r="C109" s="80"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="21" t="s">
         <v>82</v>
       </c>
@@ -3029,8 +3076,8 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="77"/>
-      <c r="C110" s="80"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="50"/>
       <c r="D110" s="21" t="s">
         <v>83</v>
       </c>
@@ -3039,8 +3086,8 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="77"/>
-      <c r="C111" s="80"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="21" t="s">
         <v>84</v>
       </c>
@@ -3049,8 +3096,8 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="78"/>
-      <c r="C112" s="81"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="16" t="s">
         <v>21</v>
       </c>
@@ -3059,10 +3106,10 @@
       <c r="G112" s="19"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="76">
+      <c r="B113" s="46">
         <v>43973</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -3073,8 +3120,8 @@
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="77"/>
-      <c r="C114" s="80"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="50"/>
       <c r="D114" s="21" t="s">
         <v>14</v>
       </c>
@@ -3083,8 +3130,8 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="77"/>
-      <c r="C115" s="80"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="21" t="s">
         <v>15</v>
       </c>
@@ -3093,8 +3140,8 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="77"/>
-      <c r="C116" s="80"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
       <c r="D116" s="26" t="s">
         <v>7</v>
       </c>
@@ -3103,8 +3150,8 @@
       <c r="G116" s="29"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="77"/>
-      <c r="C117" s="80"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="50"/>
       <c r="D117" s="2" t="s">
         <v>16</v>
       </c>
@@ -3113,8 +3160,8 @@
       <c r="G117" s="20"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="77"/>
-      <c r="C118" s="80"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
@@ -3123,8 +3170,8 @@
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="77"/>
-      <c r="C119" s="80"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="21" t="s">
         <v>18</v>
       </c>
@@ -3133,8 +3180,8 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="77"/>
-      <c r="C120" s="80"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="2" t="s">
         <v>19</v>
       </c>
@@ -3143,8 +3190,8 @@
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="77"/>
-      <c r="C121" s="80"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="21" t="s">
         <v>20</v>
       </c>
@@ -3153,8 +3200,8 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="78"/>
-      <c r="C122" s="81"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="16" t="s">
         <v>21</v>
       </c>
@@ -3163,10 +3210,10 @@
       <c r="G122" s="19"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="70">
+      <c r="B123" s="52">
         <v>43976</v>
       </c>
-      <c r="C123" s="73" t="s">
+      <c r="C123" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -3177,8 +3224,8 @@
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="71"/>
-      <c r="C124" s="74"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="21" t="s">
         <v>14</v>
       </c>
@@ -3187,8 +3234,8 @@
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="71"/>
-      <c r="C125" s="74"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="21" t="s">
         <v>15</v>
       </c>
@@ -3197,8 +3244,8 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="71"/>
-      <c r="C126" s="74"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="56"/>
       <c r="D126" s="26" t="s">
         <v>7</v>
       </c>
@@ -3207,8 +3254,8 @@
       <c r="G126" s="29"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="71"/>
-      <c r="C127" s="74"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="2" t="s">
         <v>16</v>
       </c>
@@ -3219,8 +3266,8 @@
       <c r="G127" s="20"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="71"/>
-      <c r="C128" s="74"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="2" t="s">
         <v>17</v>
       </c>
@@ -3231,8 +3278,8 @@
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="71"/>
-      <c r="C129" s="74"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="56"/>
       <c r="D129" s="21" t="s">
         <v>18</v>
       </c>
@@ -3243,8 +3290,8 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="71"/>
-      <c r="C130" s="74"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="56"/>
       <c r="D130" s="2" t="s">
         <v>19</v>
       </c>
@@ -3255,8 +3302,8 @@
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="71"/>
-      <c r="C131" s="74"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="21" t="s">
         <v>20</v>
       </c>
@@ -3267,8 +3314,8 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="72"/>
-      <c r="C132" s="75"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="16" t="s">
         <v>21</v>
       </c>
@@ -3277,10 +3324,10 @@
       <c r="G132" s="19"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="76">
+      <c r="B133" s="46">
         <v>43977</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="21" t="s">
@@ -3291,8 +3338,8 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="77"/>
-      <c r="C134" s="80"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="50"/>
       <c r="D134" s="21" t="s">
         <v>14</v>
       </c>
@@ -3301,8 +3348,8 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="77"/>
-      <c r="C135" s="80"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="50"/>
       <c r="D135" s="21" t="s">
         <v>15</v>
       </c>
@@ -3311,8 +3358,8 @@
       <c r="G135" s="25"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="77"/>
-      <c r="C136" s="80"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="50"/>
       <c r="D136" s="26" t="s">
         <v>7</v>
       </c>
@@ -3321,8 +3368,8 @@
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="77"/>
-      <c r="C137" s="80"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="50"/>
       <c r="D137" s="21" t="s">
         <v>10</v>
       </c>
@@ -3331,8 +3378,8 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="77"/>
-      <c r="C138" s="80"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="50"/>
       <c r="D138" s="21" t="s">
         <v>81</v>
       </c>
@@ -3341,8 +3388,8 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="77"/>
-      <c r="C139" s="80"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="50"/>
       <c r="D139" s="21" t="s">
         <v>82</v>
       </c>
@@ -3351,8 +3398,8 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="77"/>
-      <c r="C140" s="80"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="50"/>
       <c r="D140" s="21" t="s">
         <v>83</v>
       </c>
@@ -3361,8 +3408,8 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="77"/>
-      <c r="C141" s="80"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="21" t="s">
         <v>84</v>
       </c>
@@ -3371,8 +3418,8 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="78"/>
-      <c r="C142" s="81"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="16" t="s">
         <v>21</v>
       </c>
@@ -3381,10 +3428,10 @@
       <c r="G142" s="19"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="70">
+      <c r="B143" s="52">
         <v>43978</v>
       </c>
-      <c r="C143" s="73" t="s">
+      <c r="C143" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -3395,8 +3442,8 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="71"/>
-      <c r="C144" s="74"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="56"/>
       <c r="D144" s="21" t="s">
         <v>14</v>
       </c>
@@ -3405,8 +3452,8 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="71"/>
-      <c r="C145" s="74"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="56"/>
       <c r="D145" s="21" t="s">
         <v>15</v>
       </c>
@@ -3417,8 +3464,8 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="71"/>
-      <c r="C146" s="74"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="56"/>
       <c r="D146" s="26" t="s">
         <v>7</v>
       </c>
@@ -3427,8 +3474,8 @@
       <c r="G146" s="29"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="71"/>
-      <c r="C147" s="74"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="56"/>
       <c r="D147" s="2" t="s">
         <v>16</v>
       </c>
@@ -3439,8 +3486,8 @@
       <c r="G147" s="20"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="71"/>
-      <c r="C148" s="74"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="56"/>
       <c r="D148" s="2" t="s">
         <v>17</v>
       </c>
@@ -3451,8 +3498,8 @@
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="71"/>
-      <c r="C149" s="74"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="56"/>
       <c r="D149" s="21" t="s">
         <v>18</v>
       </c>
@@ -3463,8 +3510,8 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="71"/>
-      <c r="C150" s="74"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="56"/>
       <c r="D150" s="2" t="s">
         <v>19</v>
       </c>
@@ -3475,8 +3522,8 @@
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="71"/>
-      <c r="C151" s="74"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="56"/>
       <c r="D151" s="21" t="s">
         <v>20</v>
       </c>
@@ -3487,8 +3534,8 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="72"/>
-      <c r="C152" s="75"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="16" t="s">
         <v>21</v>
       </c>
@@ -3497,10 +3544,10 @@
       <c r="G152" s="19"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="76">
+      <c r="B153" s="46">
         <v>43979</v>
       </c>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="21" t="s">
@@ -3511,8 +3558,8 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="77"/>
-      <c r="C154" s="80"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="50"/>
       <c r="D154" s="21" t="s">
         <v>14</v>
       </c>
@@ -3521,8 +3568,8 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="77"/>
-      <c r="C155" s="80"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="50"/>
       <c r="D155" s="21" t="s">
         <v>15</v>
       </c>
@@ -3531,8 +3578,8 @@
       <c r="G155" s="25"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="77"/>
-      <c r="C156" s="80"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="50"/>
       <c r="D156" s="26" t="s">
         <v>7</v>
       </c>
@@ -3541,8 +3588,8 @@
       <c r="G156" s="29"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="77"/>
-      <c r="C157" s="80"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="21" t="s">
         <v>10</v>
       </c>
@@ -3551,8 +3598,8 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="77"/>
-      <c r="C158" s="80"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="50"/>
       <c r="D158" s="21" t="s">
         <v>81</v>
       </c>
@@ -3561,8 +3608,8 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="77"/>
-      <c r="C159" s="80"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="50"/>
       <c r="D159" s="21" t="s">
         <v>82</v>
       </c>
@@ -3571,8 +3618,8 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="77"/>
-      <c r="C160" s="80"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="50"/>
       <c r="D160" s="21" t="s">
         <v>83</v>
       </c>
@@ -3581,8 +3628,8 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="77"/>
-      <c r="C161" s="80"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="21" t="s">
         <v>84</v>
       </c>
@@ -3591,8 +3638,8 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="78"/>
-      <c r="C162" s="81"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="51"/>
       <c r="D162" s="16" t="s">
         <v>21</v>
       </c>
@@ -3601,10 +3648,10 @@
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="76">
+      <c r="B163" s="46">
         <v>43980</v>
       </c>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -3615,8 +3662,8 @@
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="77"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="50"/>
       <c r="D164" s="21" t="s">
         <v>14</v>
       </c>
@@ -3627,8 +3674,8 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="77"/>
-      <c r="C165" s="80"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="50"/>
       <c r="D165" s="21" t="s">
         <v>15</v>
       </c>
@@ -3637,8 +3684,8 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="77"/>
-      <c r="C166" s="80"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="50"/>
       <c r="D166" s="26" t="s">
         <v>7</v>
       </c>
@@ -3647,8 +3694,8 @@
       <c r="G166" s="29"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="77"/>
-      <c r="C167" s="80"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="2" t="s">
         <v>16</v>
       </c>
@@ -3657,8 +3704,8 @@
       <c r="G167" s="20"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="77"/>
-      <c r="C168" s="80"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="2" t="s">
         <v>17</v>
       </c>
@@ -3667,8 +3714,8 @@
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="77"/>
-      <c r="C169" s="80"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="50"/>
       <c r="D169" s="21" t="s">
         <v>18</v>
       </c>
@@ -3677,8 +3724,8 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="77"/>
-      <c r="C170" s="80"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="50"/>
       <c r="D170" s="2" t="s">
         <v>19</v>
       </c>
@@ -3687,8 +3734,8 @@
       <c r="G170" s="6"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="77"/>
-      <c r="C171" s="80"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="21" t="s">
         <v>20</v>
       </c>
@@ -3697,8 +3744,8 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="78"/>
-      <c r="C172" s="81"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="51"/>
       <c r="D172" s="16" t="s">
         <v>21</v>
       </c>
@@ -3707,8 +3754,8 @@
       <c r="G172" s="19"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="70"/>
-      <c r="C173" s="73" t="s">
+      <c r="B173" s="52"/>
+      <c r="C173" s="55" t="s">
         <v>76</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -3719,8 +3766,8 @@
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="71"/>
-      <c r="C174" s="74"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="56"/>
       <c r="D174" s="21" t="s">
         <v>14</v>
       </c>
@@ -3729,8 +3776,8 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="71"/>
-      <c r="C175" s="74"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="56"/>
       <c r="D175" s="21" t="s">
         <v>15</v>
       </c>
@@ -3739,8 +3786,8 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="71"/>
-      <c r="C176" s="74"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="56"/>
       <c r="D176" s="26" t="s">
         <v>7</v>
       </c>
@@ -3749,8 +3796,8 @@
       <c r="G176" s="29"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="71"/>
-      <c r="C177" s="74"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="56"/>
       <c r="D177" s="2" t="s">
         <v>16</v>
       </c>
@@ -3759,8 +3806,8 @@
       <c r="G177" s="20"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="71"/>
-      <c r="C178" s="74"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="56"/>
       <c r="D178" s="2" t="s">
         <v>17</v>
       </c>
@@ -3769,8 +3816,8 @@
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="71"/>
-      <c r="C179" s="74"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="56"/>
       <c r="D179" s="21" t="s">
         <v>18</v>
       </c>
@@ -3779,8 +3826,8 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="71"/>
-      <c r="C180" s="74"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="56"/>
       <c r="D180" s="2" t="s">
         <v>19</v>
       </c>
@@ -3789,8 +3836,8 @@
       <c r="G180" s="6"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="71"/>
-      <c r="C181" s="74"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="56"/>
       <c r="D181" s="21" t="s">
         <v>20</v>
       </c>
@@ -3799,8 +3846,8 @@
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="72"/>
-      <c r="C182" s="75"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="57"/>
       <c r="D182" s="16" t="s">
         <v>21</v>
       </c>
@@ -3809,8 +3856,8 @@
       <c r="G182" s="19"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="76"/>
-      <c r="C183" s="79" t="s">
+      <c r="B183" s="46"/>
+      <c r="C183" s="49" t="s">
         <v>77</v>
       </c>
       <c r="D183" s="21" t="s">
@@ -3821,8 +3868,8 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="77"/>
-      <c r="C184" s="80"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="50"/>
       <c r="D184" s="21" t="s">
         <v>14</v>
       </c>
@@ -3831,8 +3878,8 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="77"/>
-      <c r="C185" s="80"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="50"/>
       <c r="D185" s="21" t="s">
         <v>15</v>
       </c>
@@ -3841,8 +3888,8 @@
       <c r="G185" s="25"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="77"/>
-      <c r="C186" s="80"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="50"/>
       <c r="D186" s="26" t="s">
         <v>7</v>
       </c>
@@ -3851,8 +3898,8 @@
       <c r="G186" s="29"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="77"/>
-      <c r="C187" s="80"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="50"/>
       <c r="D187" s="21" t="s">
         <v>10</v>
       </c>
@@ -3861,8 +3908,8 @@
       <c r="G187" s="24"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="77"/>
-      <c r="C188" s="80"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="21" t="s">
         <v>81</v>
       </c>
@@ -3871,8 +3918,8 @@
       <c r="G188" s="24"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="77"/>
-      <c r="C189" s="80"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="21" t="s">
         <v>82</v>
       </c>
@@ -3881,8 +3928,8 @@
       <c r="G189" s="24"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="77"/>
-      <c r="C190" s="80"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="50"/>
       <c r="D190" s="21" t="s">
         <v>83</v>
       </c>
@@ -3891,8 +3938,8 @@
       <c r="G190" s="24"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="77"/>
-      <c r="C191" s="80"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="21" t="s">
         <v>84</v>
       </c>
@@ -3901,8 +3948,8 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="78"/>
-      <c r="C192" s="81"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="51"/>
       <c r="D192" s="16" t="s">
         <v>21</v>
       </c>
@@ -3911,8 +3958,8 @@
       <c r="G192" s="19"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="70"/>
-      <c r="C193" s="73" t="s">
+      <c r="B193" s="52"/>
+      <c r="C193" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -3923,8 +3970,8 @@
       <c r="G193" s="6"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="71"/>
-      <c r="C194" s="74"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="56"/>
       <c r="D194" s="21" t="s">
         <v>14</v>
       </c>
@@ -3933,8 +3980,8 @@
       <c r="G194" s="24"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="71"/>
-      <c r="C195" s="74"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="56"/>
       <c r="D195" s="21" t="s">
         <v>15</v>
       </c>
@@ -3943,8 +3990,8 @@
       <c r="G195" s="24"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="71"/>
-      <c r="C196" s="74"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="56"/>
       <c r="D196" s="26" t="s">
         <v>7</v>
       </c>
@@ -3953,8 +4000,8 @@
       <c r="G196" s="29"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="71"/>
-      <c r="C197" s="74"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="56"/>
       <c r="D197" s="2" t="s">
         <v>16</v>
       </c>
@@ -3963,8 +4010,8 @@
       <c r="G197" s="20"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="71"/>
-      <c r="C198" s="74"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="56"/>
       <c r="D198" s="2" t="s">
         <v>17</v>
       </c>
@@ -3973,8 +4020,8 @@
       <c r="G198" s="6"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="71"/>
-      <c r="C199" s="74"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="56"/>
       <c r="D199" s="21" t="s">
         <v>18</v>
       </c>
@@ -3983,8 +4030,8 @@
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="71"/>
-      <c r="C200" s="74"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="56"/>
       <c r="D200" s="2" t="s">
         <v>19</v>
       </c>
@@ -3993,8 +4040,8 @@
       <c r="G200" s="6"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="71"/>
-      <c r="C201" s="74"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="56"/>
       <c r="D201" s="21" t="s">
         <v>20</v>
       </c>
@@ -4003,8 +4050,8 @@
       <c r="G201" s="24"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="72"/>
-      <c r="C202" s="75"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="57"/>
       <c r="D202" s="16" t="s">
         <v>21</v>
       </c>
@@ -4013,8 +4060,8 @@
       <c r="G202" s="19"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="76"/>
-      <c r="C203" s="79" t="s">
+      <c r="B203" s="46"/>
+      <c r="C203" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D203" s="21" t="s">
@@ -4025,8 +4072,8 @@
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="77"/>
-      <c r="C204" s="80"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="50"/>
       <c r="D204" s="21" t="s">
         <v>14</v>
       </c>
@@ -4035,8 +4082,8 @@
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="77"/>
-      <c r="C205" s="80"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="50"/>
       <c r="D205" s="21" t="s">
         <v>15</v>
       </c>
@@ -4045,8 +4092,8 @@
       <c r="G205" s="25"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="77"/>
-      <c r="C206" s="80"/>
+      <c r="B206" s="47"/>
+      <c r="C206" s="50"/>
       <c r="D206" s="26" t="s">
         <v>7</v>
       </c>
@@ -4055,8 +4102,8 @@
       <c r="G206" s="29"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="77"/>
-      <c r="C207" s="80"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="50"/>
       <c r="D207" s="21" t="s">
         <v>10</v>
       </c>
@@ -4065,8 +4112,8 @@
       <c r="G207" s="24"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="77"/>
-      <c r="C208" s="80"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="50"/>
       <c r="D208" s="21" t="s">
         <v>81</v>
       </c>
@@ -4075,8 +4122,8 @@
       <c r="G208" s="24"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="77"/>
-      <c r="C209" s="80"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="50"/>
       <c r="D209" s="21" t="s">
         <v>82</v>
       </c>
@@ -4085,8 +4132,8 @@
       <c r="G209" s="24"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="77"/>
-      <c r="C210" s="80"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="50"/>
       <c r="D210" s="21" t="s">
         <v>83</v>
       </c>
@@ -4095,8 +4142,8 @@
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="77"/>
-      <c r="C211" s="80"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="50"/>
       <c r="D211" s="21" t="s">
         <v>84</v>
       </c>
@@ -4105,8 +4152,8 @@
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="78"/>
-      <c r="C212" s="81"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="51"/>
       <c r="D212" s="16" t="s">
         <v>21</v>
       </c>
@@ -4115,8 +4162,8 @@
       <c r="G212" s="19"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="76"/>
-      <c r="C213" s="79" t="s">
+      <c r="B213" s="46"/>
+      <c r="C213" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -4127,8 +4174,8 @@
       <c r="G213" s="6"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="77"/>
-      <c r="C214" s="80"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="50"/>
       <c r="D214" s="21" t="s">
         <v>14</v>
       </c>
@@ -4137,8 +4184,8 @@
       <c r="G214" s="24"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="77"/>
-      <c r="C215" s="80"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="50"/>
       <c r="D215" s="21" t="s">
         <v>15</v>
       </c>
@@ -4147,8 +4194,8 @@
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="77"/>
-      <c r="C216" s="80"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="50"/>
       <c r="D216" s="26" t="s">
         <v>7</v>
       </c>
@@ -4157,8 +4204,8 @@
       <c r="G216" s="29"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="77"/>
-      <c r="C217" s="80"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="50"/>
       <c r="D217" s="2" t="s">
         <v>16</v>
       </c>
@@ -4167,8 +4214,8 @@
       <c r="G217" s="20"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="77"/>
-      <c r="C218" s="80"/>
+      <c r="B218" s="47"/>
+      <c r="C218" s="50"/>
       <c r="D218" s="2" t="s">
         <v>17</v>
       </c>
@@ -4177,8 +4224,8 @@
       <c r="G218" s="6"/>
     </row>
     <row r="219" spans="2:7">
-      <c r="B219" s="77"/>
-      <c r="C219" s="80"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="50"/>
       <c r="D219" s="21" t="s">
         <v>18</v>
       </c>
@@ -4187,8 +4234,8 @@
       <c r="G219" s="24"/>
     </row>
     <row r="220" spans="2:7">
-      <c r="B220" s="77"/>
-      <c r="C220" s="80"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="50"/>
       <c r="D220" s="2" t="s">
         <v>19</v>
       </c>
@@ -4197,8 +4244,8 @@
       <c r="G220" s="6"/>
     </row>
     <row r="221" spans="2:7">
-      <c r="B221" s="77"/>
-      <c r="C221" s="80"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="50"/>
       <c r="D221" s="21" t="s">
         <v>20</v>
       </c>
@@ -4207,8 +4254,8 @@
       <c r="G221" s="24"/>
     </row>
     <row r="222" spans="2:7">
-      <c r="B222" s="78"/>
-      <c r="C222" s="81"/>
+      <c r="B222" s="48"/>
+      <c r="C222" s="51"/>
       <c r="D222" s="16" t="s">
         <v>21</v>
       </c>
@@ -4218,46 +4265,16 @@
     </row>
   </sheetData>
   <mergeCells count="66">
-    <mergeCell ref="B203:B212"/>
-    <mergeCell ref="C203:C212"/>
-    <mergeCell ref="B213:B222"/>
-    <mergeCell ref="C213:C222"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:C182"/>
-    <mergeCell ref="B183:B192"/>
-    <mergeCell ref="C183:C192"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="C193:C202"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="C143:C152"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="C153:C162"/>
-    <mergeCell ref="B163:B172"/>
-    <mergeCell ref="C163:C172"/>
-    <mergeCell ref="B113:B122"/>
-    <mergeCell ref="C113:C122"/>
-    <mergeCell ref="B123:B132"/>
-    <mergeCell ref="C123:C132"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="C133:C142"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="B93:B102"/>
-    <mergeCell ref="C93:C102"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="C103:C112"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C73:C82"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D18:F18"/>
     <mergeCell ref="D19:F19"/>
     <mergeCell ref="B2:C5"/>
     <mergeCell ref="B1:G1"/>
@@ -4274,16 +4291,46 @@
     <mergeCell ref="D7:F7"/>
     <mergeCell ref="D8:F8"/>
     <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="B14:C17"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="C133:C142"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="C143:C152"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="C153:C162"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="C163:C172"/>
+    <mergeCell ref="B203:B212"/>
+    <mergeCell ref="C203:C212"/>
+    <mergeCell ref="B213:B222"/>
+    <mergeCell ref="C213:C222"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:C182"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="C183:C192"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="C193:C202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4297,7 +4344,7 @@
   </sheetPr>
   <dimension ref="B1:G272"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="22" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E51" sqref="E51"/>
     </sheetView>
@@ -4314,247 +4361,247 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:7">
-      <c r="B1" s="85" t="s">
+      <c r="B1" s="93" t="s">
         <v>133</v>
       </c>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="93"/>
+      <c r="F1" s="93"/>
+      <c r="G1" s="93"/>
     </row>
     <row r="2" spans="2:7">
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="90" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="64" t="s">
+      <c r="C2" s="64"/>
+      <c r="D2" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
       <c r="G2" s="39" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="3" spans="2:7">
-      <c r="B3" s="59"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="66" t="s">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="75" t="s">
         <v>101</v>
       </c>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
       <c r="G3" s="37"/>
     </row>
     <row r="4" spans="2:7">
-      <c r="B4" s="59"/>
-      <c r="C4" s="60"/>
-      <c r="D4" s="66" t="s">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="75" t="s">
         <v>134</v>
       </c>
-      <c r="E4" s="67"/>
-      <c r="F4" s="67"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
       <c r="G4" s="37" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="5" spans="2:7">
-      <c r="B5" s="59"/>
-      <c r="C5" s="60"/>
-      <c r="D5" s="66"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
       <c r="G5" s="38" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="6" spans="2:7">
-      <c r="B6" s="86" t="s">
+      <c r="B6" s="90" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="60"/>
-      <c r="D6" s="68" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
         <v>93</v>
       </c>
-      <c r="E6" s="69"/>
-      <c r="F6" s="69"/>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
       <c r="G6" s="40" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="2:7">
-      <c r="B7" s="59"/>
-      <c r="C7" s="60"/>
-      <c r="D7" s="68" t="s">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="77" t="s">
         <v>142</v>
       </c>
-      <c r="E7" s="69"/>
-      <c r="F7" s="69"/>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
       <c r="G7" s="37" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="8" spans="2:7">
-      <c r="B8" s="59"/>
-      <c r="C8" s="60"/>
-      <c r="D8" s="68" t="s">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="77" t="s">
         <v>143</v>
       </c>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
       <c r="G8" s="36" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="9" spans="2:7">
-      <c r="B9" s="59"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="68"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
       <c r="G9" s="36" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="10" spans="2:7">
-      <c r="B10" s="62" t="s">
+      <c r="B10" s="68" t="s">
         <v>85</v>
       </c>
-      <c r="C10" s="63"/>
-      <c r="D10" s="53" t="s">
+      <c r="C10" s="69"/>
+      <c r="D10" s="79" t="s">
         <v>141</v>
       </c>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
       <c r="G10" s="36" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="11" spans="2:7">
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="87" t="s">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="91" t="s">
         <v>138</v>
       </c>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
       <c r="G11" s="36" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="12" spans="2:7">
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="53" t="s">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="79" t="s">
         <v>139</v>
       </c>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
       <c r="G12" s="36" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="13" spans="2:7">
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="87" t="s">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="91" t="s">
         <v>140</v>
       </c>
-      <c r="E13" s="88"/>
-      <c r="F13" s="88"/>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
       <c r="G13" s="36"/>
     </row>
     <row r="14" spans="2:7">
-      <c r="B14" s="46" t="s">
+      <c r="B14" s="70" t="s">
         <v>125</v>
       </c>
-      <c r="C14" s="47"/>
-      <c r="D14" s="89" t="s">
+      <c r="C14" s="71"/>
+      <c r="D14" s="88" t="s">
         <v>130</v>
       </c>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="36" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="2:7">
-      <c r="B15" s="48"/>
-      <c r="C15" s="47"/>
-      <c r="D15" s="89" t="s">
+      <c r="B15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="88" t="s">
         <v>131</v>
       </c>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
       <c r="G15" s="36" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="2:7">
-      <c r="B16" s="48"/>
-      <c r="C16" s="47"/>
-      <c r="D16" s="89" t="s">
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="88" t="s">
         <v>124</v>
       </c>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
       <c r="G16" s="36" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="17" spans="2:7">
-      <c r="B17" s="48"/>
-      <c r="C17" s="47"/>
-      <c r="D17" s="89" t="s">
+      <c r="B17" s="72"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="88" t="s">
         <v>120</v>
       </c>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
       <c r="G17" s="22"/>
     </row>
     <row r="18" spans="2:7">
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="70" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="47"/>
-      <c r="D18" s="57" t="s">
+      <c r="C18" s="71"/>
+      <c r="D18" s="61" t="s">
         <v>145</v>
       </c>
-      <c r="E18" s="58"/>
-      <c r="F18" s="58"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
       <c r="G18" s="41" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="19" spans="2:7">
-      <c r="B19" s="48"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="57" t="s">
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="61" t="s">
         <v>146</v>
       </c>
-      <c r="E19" s="58"/>
-      <c r="F19" s="58"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
       <c r="G19" s="36"/>
     </row>
     <row r="20" spans="2:7">
-      <c r="B20" s="48"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="51" t="s">
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="66" t="s">
         <v>147</v>
       </c>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
       <c r="G20" s="36"/>
     </row>
     <row r="21" spans="2:7">
-      <c r="B21" s="48"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="51" t="s">
+      <c r="B21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="66" t="s">
         <v>150</v>
       </c>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
       <c r="G21" s="22"/>
     </row>
     <row r="22" spans="2:7" ht="15" customHeight="1">
@@ -4578,10 +4625,10 @@
       </c>
     </row>
     <row r="23" spans="2:7">
-      <c r="B23" s="70">
+      <c r="B23" s="52">
         <v>43983</v>
       </c>
-      <c r="C23" s="73" t="s">
+      <c r="C23" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -4592,8 +4639,8 @@
       <c r="G23" s="6"/>
     </row>
     <row r="24" spans="2:7">
-      <c r="B24" s="71"/>
-      <c r="C24" s="74"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
       <c r="D24" s="21" t="s">
         <v>14</v>
       </c>
@@ -4602,8 +4649,8 @@
       <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7">
-      <c r="B25" s="71"/>
-      <c r="C25" s="74"/>
+      <c r="B25" s="53"/>
+      <c r="C25" s="56"/>
       <c r="D25" s="21" t="s">
         <v>15</v>
       </c>
@@ -4612,8 +4659,8 @@
       <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7">
-      <c r="B26" s="71"/>
-      <c r="C26" s="74"/>
+      <c r="B26" s="53"/>
+      <c r="C26" s="56"/>
       <c r="D26" s="26" t="s">
         <v>7</v>
       </c>
@@ -4622,8 +4669,8 @@
       <c r="G26" s="29"/>
     </row>
     <row r="27" spans="2:7">
-      <c r="B27" s="71"/>
-      <c r="C27" s="74"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="56"/>
       <c r="D27" s="2" t="s">
         <v>16</v>
       </c>
@@ -4636,8 +4683,8 @@
       <c r="G27" s="20"/>
     </row>
     <row r="28" spans="2:7">
-      <c r="B28" s="71"/>
-      <c r="C28" s="74"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="2" t="s">
         <v>17</v>
       </c>
@@ -4650,8 +4697,8 @@
       <c r="G28" s="6"/>
     </row>
     <row r="29" spans="2:7">
-      <c r="B29" s="71"/>
-      <c r="C29" s="74"/>
+      <c r="B29" s="53"/>
+      <c r="C29" s="56"/>
       <c r="D29" s="21" t="s">
         <v>18</v>
       </c>
@@ -4664,8 +4711,8 @@
       <c r="G29" s="24"/>
     </row>
     <row r="30" spans="2:7">
-      <c r="B30" s="71"/>
-      <c r="C30" s="74"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="56"/>
       <c r="D30" s="2" t="s">
         <v>19</v>
       </c>
@@ -4678,8 +4725,8 @@
       <c r="G30" s="6"/>
     </row>
     <row r="31" spans="2:7">
-      <c r="B31" s="71"/>
-      <c r="C31" s="74"/>
+      <c r="B31" s="53"/>
+      <c r="C31" s="56"/>
       <c r="D31" s="21" t="s">
         <v>20</v>
       </c>
@@ -4692,8 +4739,8 @@
       <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7">
-      <c r="B32" s="72"/>
-      <c r="C32" s="75"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="16" t="s">
         <v>21</v>
       </c>
@@ -4702,10 +4749,10 @@
       <c r="G32" s="19"/>
     </row>
     <row r="33" spans="2:7">
-      <c r="B33" s="91">
+      <c r="B33" s="85">
         <v>43984</v>
       </c>
-      <c r="C33" s="79" t="s">
+      <c r="C33" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="21" t="s">
@@ -4716,8 +4763,8 @@
       <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7">
-      <c r="B34" s="92"/>
-      <c r="C34" s="80"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="50"/>
       <c r="D34" s="21" t="s">
         <v>14</v>
       </c>
@@ -4726,8 +4773,8 @@
       <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7">
-      <c r="B35" s="92"/>
-      <c r="C35" s="80"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="50"/>
       <c r="D35" s="21" t="s">
         <v>15</v>
       </c>
@@ -4736,8 +4783,8 @@
       <c r="G35" s="25"/>
     </row>
     <row r="36" spans="2:7">
-      <c r="B36" s="92"/>
-      <c r="C36" s="80"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="50"/>
       <c r="D36" s="26" t="s">
         <v>7</v>
       </c>
@@ -4746,8 +4793,8 @@
       <c r="G36" s="29"/>
     </row>
     <row r="37" spans="2:7">
-      <c r="B37" s="92"/>
-      <c r="C37" s="80"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="50"/>
       <c r="D37" s="21" t="s">
         <v>10</v>
       </c>
@@ -4756,8 +4803,8 @@
       <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7">
-      <c r="B38" s="92"/>
-      <c r="C38" s="80"/>
+      <c r="B38" s="86"/>
+      <c r="C38" s="50"/>
       <c r="D38" s="21" t="s">
         <v>81</v>
       </c>
@@ -4766,8 +4813,8 @@
       <c r="G38" s="24"/>
     </row>
     <row r="39" spans="2:7">
-      <c r="B39" s="92"/>
-      <c r="C39" s="80"/>
+      <c r="B39" s="86"/>
+      <c r="C39" s="50"/>
       <c r="D39" s="21" t="s">
         <v>82</v>
       </c>
@@ -4776,8 +4823,8 @@
       <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7">
-      <c r="B40" s="92"/>
-      <c r="C40" s="80"/>
+      <c r="B40" s="86"/>
+      <c r="C40" s="50"/>
       <c r="D40" s="21" t="s">
         <v>83</v>
       </c>
@@ -4786,8 +4833,8 @@
       <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="92"/>
-      <c r="C41" s="80"/>
+      <c r="B41" s="86"/>
+      <c r="C41" s="50"/>
       <c r="D41" s="21" t="s">
         <v>84</v>
       </c>
@@ -4796,8 +4843,8 @@
       <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7">
-      <c r="B42" s="93"/>
-      <c r="C42" s="81"/>
+      <c r="B42" s="87"/>
+      <c r="C42" s="51"/>
       <c r="D42" s="16" t="s">
         <v>21</v>
       </c>
@@ -4806,10 +4853,10 @@
       <c r="G42" s="19"/>
     </row>
     <row r="43" spans="2:7">
-      <c r="B43" s="70">
+      <c r="B43" s="52">
         <v>43985</v>
       </c>
-      <c r="C43" s="73" t="s">
+      <c r="C43" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -4820,8 +4867,8 @@
       <c r="G43" s="6"/>
     </row>
     <row r="44" spans="2:7">
-      <c r="B44" s="71"/>
-      <c r="C44" s="74"/>
+      <c r="B44" s="53"/>
+      <c r="C44" s="56"/>
       <c r="D44" s="21" t="s">
         <v>14</v>
       </c>
@@ -4830,8 +4877,8 @@
       <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:7">
-      <c r="B45" s="71"/>
-      <c r="C45" s="74"/>
+      <c r="B45" s="53"/>
+      <c r="C45" s="56"/>
       <c r="D45" s="21" t="s">
         <v>15</v>
       </c>
@@ -4840,8 +4887,8 @@
       <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7">
-      <c r="B46" s="71"/>
-      <c r="C46" s="74"/>
+      <c r="B46" s="53"/>
+      <c r="C46" s="56"/>
       <c r="D46" s="26" t="s">
         <v>7</v>
       </c>
@@ -4850,8 +4897,8 @@
       <c r="G46" s="29"/>
     </row>
     <row r="47" spans="2:7">
-      <c r="B47" s="71"/>
-      <c r="C47" s="74"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="56"/>
       <c r="D47" s="2" t="s">
         <v>16</v>
       </c>
@@ -4864,8 +4911,8 @@
       <c r="G47" s="20"/>
     </row>
     <row r="48" spans="2:7">
-      <c r="B48" s="71"/>
-      <c r="C48" s="74"/>
+      <c r="B48" s="53"/>
+      <c r="C48" s="56"/>
       <c r="D48" s="2" t="s">
         <v>17</v>
       </c>
@@ -4878,8 +4925,8 @@
       <c r="G48" s="6"/>
     </row>
     <row r="49" spans="2:7">
-      <c r="B49" s="71"/>
-      <c r="C49" s="74"/>
+      <c r="B49" s="53"/>
+      <c r="C49" s="56"/>
       <c r="D49" s="21" t="s">
         <v>18</v>
       </c>
@@ -4892,8 +4939,8 @@
       <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7">
-      <c r="B50" s="71"/>
-      <c r="C50" s="74"/>
+      <c r="B50" s="53"/>
+      <c r="C50" s="56"/>
       <c r="D50" s="2" t="s">
         <v>19</v>
       </c>
@@ -4906,8 +4953,8 @@
       <c r="G50" s="6"/>
     </row>
     <row r="51" spans="2:7">
-      <c r="B51" s="71"/>
-      <c r="C51" s="74"/>
+      <c r="B51" s="53"/>
+      <c r="C51" s="56"/>
       <c r="D51" s="21" t="s">
         <v>20</v>
       </c>
@@ -4920,8 +4967,8 @@
       <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7">
-      <c r="B52" s="72"/>
-      <c r="C52" s="75"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="57"/>
       <c r="D52" s="16" t="s">
         <v>21</v>
       </c>
@@ -4930,10 +4977,10 @@
       <c r="G52" s="19"/>
     </row>
     <row r="53" spans="2:7">
-      <c r="B53" s="82">
+      <c r="B53" s="58">
         <v>43986</v>
       </c>
-      <c r="C53" s="79" t="s">
+      <c r="C53" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="21" t="s">
@@ -4944,8 +4991,8 @@
       <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7">
-      <c r="B54" s="83"/>
-      <c r="C54" s="80"/>
+      <c r="B54" s="59"/>
+      <c r="C54" s="50"/>
       <c r="D54" s="21" t="s">
         <v>14</v>
       </c>
@@ -4954,8 +5001,8 @@
       <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7">
-      <c r="B55" s="83"/>
-      <c r="C55" s="80"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="21" t="s">
         <v>15</v>
       </c>
@@ -4964,8 +5011,8 @@
       <c r="G55" s="25"/>
     </row>
     <row r="56" spans="2:7">
-      <c r="B56" s="83"/>
-      <c r="C56" s="80"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="26" t="s">
         <v>7</v>
       </c>
@@ -4974,8 +5021,8 @@
       <c r="G56" s="29"/>
     </row>
     <row r="57" spans="2:7">
-      <c r="B57" s="83"/>
-      <c r="C57" s="80"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="21" t="s">
         <v>10</v>
       </c>
@@ -4984,8 +5031,8 @@
       <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7">
-      <c r="B58" s="83"/>
-      <c r="C58" s="80"/>
+      <c r="B58" s="59"/>
+      <c r="C58" s="50"/>
       <c r="D58" s="21" t="s">
         <v>81</v>
       </c>
@@ -4994,8 +5041,8 @@
       <c r="G58" s="24"/>
     </row>
     <row r="59" spans="2:7">
-      <c r="B59" s="83"/>
-      <c r="C59" s="80"/>
+      <c r="B59" s="59"/>
+      <c r="C59" s="50"/>
       <c r="D59" s="21" t="s">
         <v>82</v>
       </c>
@@ -5004,8 +5051,8 @@
       <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7">
-      <c r="B60" s="83"/>
-      <c r="C60" s="80"/>
+      <c r="B60" s="59"/>
+      <c r="C60" s="50"/>
       <c r="D60" s="21" t="s">
         <v>83</v>
       </c>
@@ -5014,8 +5061,8 @@
       <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7">
-      <c r="B61" s="83"/>
-      <c r="C61" s="80"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="50"/>
       <c r="D61" s="21" t="s">
         <v>84</v>
       </c>
@@ -5024,8 +5071,8 @@
       <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7">
-      <c r="B62" s="84"/>
-      <c r="C62" s="81"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="16" t="s">
         <v>21</v>
       </c>
@@ -5034,10 +5081,10 @@
       <c r="G62" s="19"/>
     </row>
     <row r="63" spans="2:7">
-      <c r="B63" s="82">
+      <c r="B63" s="58">
         <v>43987</v>
       </c>
-      <c r="C63" s="73" t="s">
+      <c r="C63" s="55" t="s">
         <v>6</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -5048,8 +5095,8 @@
       <c r="G63" s="6"/>
     </row>
     <row r="64" spans="2:7">
-      <c r="B64" s="83"/>
-      <c r="C64" s="74"/>
+      <c r="B64" s="59"/>
+      <c r="C64" s="56"/>
       <c r="D64" s="21" t="s">
         <v>14</v>
       </c>
@@ -5058,8 +5105,8 @@
       <c r="G64" s="24"/>
     </row>
     <row r="65" spans="2:7">
-      <c r="B65" s="83"/>
-      <c r="C65" s="74"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="56"/>
       <c r="D65" s="21" t="s">
         <v>15</v>
       </c>
@@ -5068,8 +5115,8 @@
       <c r="G65" s="24"/>
     </row>
     <row r="66" spans="2:7">
-      <c r="B66" s="83"/>
-      <c r="C66" s="74"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="56"/>
       <c r="D66" s="26" t="s">
         <v>7</v>
       </c>
@@ -5078,8 +5125,8 @@
       <c r="G66" s="29"/>
     </row>
     <row r="67" spans="2:7">
-      <c r="B67" s="83"/>
-      <c r="C67" s="74"/>
+      <c r="B67" s="59"/>
+      <c r="C67" s="56"/>
       <c r="D67" s="2" t="s">
         <v>16</v>
       </c>
@@ -5088,8 +5135,8 @@
       <c r="G67" s="20"/>
     </row>
     <row r="68" spans="2:7">
-      <c r="B68" s="83"/>
-      <c r="C68" s="74"/>
+      <c r="B68" s="59"/>
+      <c r="C68" s="56"/>
       <c r="D68" s="2" t="s">
         <v>17</v>
       </c>
@@ -5098,8 +5145,8 @@
       <c r="G68" s="6"/>
     </row>
     <row r="69" spans="2:7">
-      <c r="B69" s="83"/>
-      <c r="C69" s="74"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="56"/>
       <c r="D69" s="21" t="s">
         <v>18</v>
       </c>
@@ -5108,8 +5155,8 @@
       <c r="G69" s="24"/>
     </row>
     <row r="70" spans="2:7">
-      <c r="B70" s="83"/>
-      <c r="C70" s="74"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="56"/>
       <c r="D70" s="2" t="s">
         <v>19</v>
       </c>
@@ -5118,8 +5165,8 @@
       <c r="G70" s="6"/>
     </row>
     <row r="71" spans="2:7">
-      <c r="B71" s="83"/>
-      <c r="C71" s="74"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="56"/>
       <c r="D71" s="21" t="s">
         <v>20</v>
       </c>
@@ -5128,8 +5175,8 @@
       <c r="G71" s="24"/>
     </row>
     <row r="72" spans="2:7">
-      <c r="B72" s="84"/>
-      <c r="C72" s="75"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="57"/>
       <c r="D72" s="16" t="s">
         <v>21</v>
       </c>
@@ -5138,10 +5185,10 @@
       <c r="G72" s="19"/>
     </row>
     <row r="73" spans="2:7">
-      <c r="B73" s="70">
+      <c r="B73" s="52">
         <v>43990</v>
       </c>
-      <c r="C73" s="73" t="s">
+      <c r="C73" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -5152,8 +5199,8 @@
       <c r="G73" s="6"/>
     </row>
     <row r="74" spans="2:7">
-      <c r="B74" s="71"/>
-      <c r="C74" s="74"/>
+      <c r="B74" s="53"/>
+      <c r="C74" s="56"/>
       <c r="D74" s="21" t="s">
         <v>14</v>
       </c>
@@ -5162,8 +5209,8 @@
       <c r="G74" s="24"/>
     </row>
     <row r="75" spans="2:7">
-      <c r="B75" s="71"/>
-      <c r="C75" s="74"/>
+      <c r="B75" s="53"/>
+      <c r="C75" s="56"/>
       <c r="D75" s="21" t="s">
         <v>15</v>
       </c>
@@ -5172,8 +5219,8 @@
       <c r="G75" s="24"/>
     </row>
     <row r="76" spans="2:7">
-      <c r="B76" s="71"/>
-      <c r="C76" s="74"/>
+      <c r="B76" s="53"/>
+      <c r="C76" s="56"/>
       <c r="D76" s="26" t="s">
         <v>7</v>
       </c>
@@ -5182,8 +5229,8 @@
       <c r="G76" s="29"/>
     </row>
     <row r="77" spans="2:7">
-      <c r="B77" s="71"/>
-      <c r="C77" s="74"/>
+      <c r="B77" s="53"/>
+      <c r="C77" s="56"/>
       <c r="D77" s="2" t="s">
         <v>16</v>
       </c>
@@ -5192,8 +5239,8 @@
       <c r="G77" s="20"/>
     </row>
     <row r="78" spans="2:7">
-      <c r="B78" s="71"/>
-      <c r="C78" s="74"/>
+      <c r="B78" s="53"/>
+      <c r="C78" s="56"/>
       <c r="D78" s="2" t="s">
         <v>17</v>
       </c>
@@ -5202,8 +5249,8 @@
       <c r="G78" s="6"/>
     </row>
     <row r="79" spans="2:7">
-      <c r="B79" s="71"/>
-      <c r="C79" s="74"/>
+      <c r="B79" s="53"/>
+      <c r="C79" s="56"/>
       <c r="D79" s="21" t="s">
         <v>18</v>
       </c>
@@ -5212,8 +5259,8 @@
       <c r="G79" s="24"/>
     </row>
     <row r="80" spans="2:7">
-      <c r="B80" s="71"/>
-      <c r="C80" s="74"/>
+      <c r="B80" s="53"/>
+      <c r="C80" s="56"/>
       <c r="D80" s="2" t="s">
         <v>19</v>
       </c>
@@ -5222,8 +5269,8 @@
       <c r="G80" s="6"/>
     </row>
     <row r="81" spans="2:7">
-      <c r="B81" s="71"/>
-      <c r="C81" s="74"/>
+      <c r="B81" s="53"/>
+      <c r="C81" s="56"/>
       <c r="D81" s="21" t="s">
         <v>20</v>
       </c>
@@ -5232,8 +5279,8 @@
       <c r="G81" s="24"/>
     </row>
     <row r="82" spans="2:7">
-      <c r="B82" s="72"/>
-      <c r="C82" s="75"/>
+      <c r="B82" s="54"/>
+      <c r="C82" s="57"/>
       <c r="D82" s="16" t="s">
         <v>21</v>
       </c>
@@ -5242,10 +5289,10 @@
       <c r="G82" s="19"/>
     </row>
     <row r="83" spans="2:7">
-      <c r="B83" s="76">
+      <c r="B83" s="46">
         <v>43991</v>
       </c>
-      <c r="C83" s="79" t="s">
+      <c r="C83" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D83" s="21" t="s">
@@ -5256,8 +5303,8 @@
       <c r="G83" s="24"/>
     </row>
     <row r="84" spans="2:7">
-      <c r="B84" s="77"/>
-      <c r="C84" s="80"/>
+      <c r="B84" s="47"/>
+      <c r="C84" s="50"/>
       <c r="D84" s="21" t="s">
         <v>14</v>
       </c>
@@ -5266,8 +5313,8 @@
       <c r="G84" s="24"/>
     </row>
     <row r="85" spans="2:7">
-      <c r="B85" s="77"/>
-      <c r="C85" s="80"/>
+      <c r="B85" s="47"/>
+      <c r="C85" s="50"/>
       <c r="D85" s="21" t="s">
         <v>15</v>
       </c>
@@ -5276,8 +5323,8 @@
       <c r="G85" s="25"/>
     </row>
     <row r="86" spans="2:7">
-      <c r="B86" s="77"/>
-      <c r="C86" s="80"/>
+      <c r="B86" s="47"/>
+      <c r="C86" s="50"/>
       <c r="D86" s="26" t="s">
         <v>7</v>
       </c>
@@ -5286,8 +5333,8 @@
       <c r="G86" s="29"/>
     </row>
     <row r="87" spans="2:7">
-      <c r="B87" s="77"/>
-      <c r="C87" s="80"/>
+      <c r="B87" s="47"/>
+      <c r="C87" s="50"/>
       <c r="D87" s="21" t="s">
         <v>10</v>
       </c>
@@ -5296,8 +5343,8 @@
       <c r="G87" s="24"/>
     </row>
     <row r="88" spans="2:7">
-      <c r="B88" s="77"/>
-      <c r="C88" s="80"/>
+      <c r="B88" s="47"/>
+      <c r="C88" s="50"/>
       <c r="D88" s="21" t="s">
         <v>81</v>
       </c>
@@ -5306,8 +5353,8 @@
       <c r="G88" s="24"/>
     </row>
     <row r="89" spans="2:7">
-      <c r="B89" s="77"/>
-      <c r="C89" s="80"/>
+      <c r="B89" s="47"/>
+      <c r="C89" s="50"/>
       <c r="D89" s="21" t="s">
         <v>82</v>
       </c>
@@ -5316,8 +5363,8 @@
       <c r="G89" s="24"/>
     </row>
     <row r="90" spans="2:7">
-      <c r="B90" s="77"/>
-      <c r="C90" s="80"/>
+      <c r="B90" s="47"/>
+      <c r="C90" s="50"/>
       <c r="D90" s="21" t="s">
         <v>83</v>
       </c>
@@ -5326,8 +5373,8 @@
       <c r="G90" s="24"/>
     </row>
     <row r="91" spans="2:7">
-      <c r="B91" s="77"/>
-      <c r="C91" s="80"/>
+      <c r="B91" s="47"/>
+      <c r="C91" s="50"/>
       <c r="D91" s="21" t="s">
         <v>84</v>
       </c>
@@ -5336,8 +5383,8 @@
       <c r="G91" s="24"/>
     </row>
     <row r="92" spans="2:7">
-      <c r="B92" s="78"/>
-      <c r="C92" s="81"/>
+      <c r="B92" s="48"/>
+      <c r="C92" s="51"/>
       <c r="D92" s="16" t="s">
         <v>21</v>
       </c>
@@ -5346,10 +5393,10 @@
       <c r="G92" s="19"/>
     </row>
     <row r="93" spans="2:7">
-      <c r="B93" s="70">
+      <c r="B93" s="52">
         <v>43992</v>
       </c>
-      <c r="C93" s="73" t="s">
+      <c r="C93" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -5360,8 +5407,8 @@
       <c r="G93" s="6"/>
     </row>
     <row r="94" spans="2:7">
-      <c r="B94" s="71"/>
-      <c r="C94" s="74"/>
+      <c r="B94" s="53"/>
+      <c r="C94" s="56"/>
       <c r="D94" s="21" t="s">
         <v>14</v>
       </c>
@@ -5370,8 +5417,8 @@
       <c r="G94" s="24"/>
     </row>
     <row r="95" spans="2:7">
-      <c r="B95" s="71"/>
-      <c r="C95" s="74"/>
+      <c r="B95" s="53"/>
+      <c r="C95" s="56"/>
       <c r="D95" s="21" t="s">
         <v>15</v>
       </c>
@@ -5380,8 +5427,8 @@
       <c r="G95" s="24"/>
     </row>
     <row r="96" spans="2:7">
-      <c r="B96" s="71"/>
-      <c r="C96" s="74"/>
+      <c r="B96" s="53"/>
+      <c r="C96" s="56"/>
       <c r="D96" s="26" t="s">
         <v>7</v>
       </c>
@@ -5390,8 +5437,8 @@
       <c r="G96" s="29"/>
     </row>
     <row r="97" spans="2:7">
-      <c r="B97" s="71"/>
-      <c r="C97" s="74"/>
+      <c r="B97" s="53"/>
+      <c r="C97" s="56"/>
       <c r="D97" s="2" t="s">
         <v>16</v>
       </c>
@@ -5400,8 +5447,8 @@
       <c r="G97" s="20"/>
     </row>
     <row r="98" spans="2:7">
-      <c r="B98" s="71"/>
-      <c r="C98" s="74"/>
+      <c r="B98" s="53"/>
+      <c r="C98" s="56"/>
       <c r="D98" s="2" t="s">
         <v>17</v>
       </c>
@@ -5410,8 +5457,8 @@
       <c r="G98" s="6"/>
     </row>
     <row r="99" spans="2:7">
-      <c r="B99" s="71"/>
-      <c r="C99" s="74"/>
+      <c r="B99" s="53"/>
+      <c r="C99" s="56"/>
       <c r="D99" s="21" t="s">
         <v>18</v>
       </c>
@@ -5420,8 +5467,8 @@
       <c r="G99" s="24"/>
     </row>
     <row r="100" spans="2:7">
-      <c r="B100" s="71"/>
-      <c r="C100" s="74"/>
+      <c r="B100" s="53"/>
+      <c r="C100" s="56"/>
       <c r="D100" s="2" t="s">
         <v>19</v>
       </c>
@@ -5430,8 +5477,8 @@
       <c r="G100" s="6"/>
     </row>
     <row r="101" spans="2:7">
-      <c r="B101" s="71"/>
-      <c r="C101" s="74"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="56"/>
       <c r="D101" s="21" t="s">
         <v>20</v>
       </c>
@@ -5440,8 +5487,8 @@
       <c r="G101" s="24"/>
     </row>
     <row r="102" spans="2:7">
-      <c r="B102" s="72"/>
-      <c r="C102" s="75"/>
+      <c r="B102" s="54"/>
+      <c r="C102" s="57"/>
       <c r="D102" s="16" t="s">
         <v>21</v>
       </c>
@@ -5450,10 +5497,10 @@
       <c r="G102" s="19"/>
     </row>
     <row r="103" spans="2:7">
-      <c r="B103" s="76">
+      <c r="B103" s="46">
         <v>43993</v>
       </c>
-      <c r="C103" s="79" t="s">
+      <c r="C103" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="21" t="s">
@@ -5464,8 +5511,8 @@
       <c r="G103" s="24"/>
     </row>
     <row r="104" spans="2:7">
-      <c r="B104" s="77"/>
-      <c r="C104" s="80"/>
+      <c r="B104" s="47"/>
+      <c r="C104" s="50"/>
       <c r="D104" s="21" t="s">
         <v>14</v>
       </c>
@@ -5474,8 +5521,8 @@
       <c r="G104" s="24"/>
     </row>
     <row r="105" spans="2:7">
-      <c r="B105" s="77"/>
-      <c r="C105" s="80"/>
+      <c r="B105" s="47"/>
+      <c r="C105" s="50"/>
       <c r="D105" s="21" t="s">
         <v>15</v>
       </c>
@@ -5484,8 +5531,8 @@
       <c r="G105" s="25"/>
     </row>
     <row r="106" spans="2:7">
-      <c r="B106" s="77"/>
-      <c r="C106" s="80"/>
+      <c r="B106" s="47"/>
+      <c r="C106" s="50"/>
       <c r="D106" s="26" t="s">
         <v>7</v>
       </c>
@@ -5494,8 +5541,8 @@
       <c r="G106" s="29"/>
     </row>
     <row r="107" spans="2:7">
-      <c r="B107" s="77"/>
-      <c r="C107" s="80"/>
+      <c r="B107" s="47"/>
+      <c r="C107" s="50"/>
       <c r="D107" s="21" t="s">
         <v>10</v>
       </c>
@@ -5504,8 +5551,8 @@
       <c r="G107" s="24"/>
     </row>
     <row r="108" spans="2:7">
-      <c r="B108" s="77"/>
-      <c r="C108" s="80"/>
+      <c r="B108" s="47"/>
+      <c r="C108" s="50"/>
       <c r="D108" s="21" t="s">
         <v>81</v>
       </c>
@@ -5514,8 +5561,8 @@
       <c r="G108" s="24"/>
     </row>
     <row r="109" spans="2:7">
-      <c r="B109" s="77"/>
-      <c r="C109" s="80"/>
+      <c r="B109" s="47"/>
+      <c r="C109" s="50"/>
       <c r="D109" s="21" t="s">
         <v>82</v>
       </c>
@@ -5524,8 +5571,8 @@
       <c r="G109" s="24"/>
     </row>
     <row r="110" spans="2:7">
-      <c r="B110" s="77"/>
-      <c r="C110" s="80"/>
+      <c r="B110" s="47"/>
+      <c r="C110" s="50"/>
       <c r="D110" s="21" t="s">
         <v>83</v>
       </c>
@@ -5534,8 +5581,8 @@
       <c r="G110" s="24"/>
     </row>
     <row r="111" spans="2:7">
-      <c r="B111" s="77"/>
-      <c r="C111" s="80"/>
+      <c r="B111" s="47"/>
+      <c r="C111" s="50"/>
       <c r="D111" s="21" t="s">
         <v>84</v>
       </c>
@@ -5544,8 +5591,8 @@
       <c r="G111" s="24"/>
     </row>
     <row r="112" spans="2:7">
-      <c r="B112" s="78"/>
-      <c r="C112" s="81"/>
+      <c r="B112" s="48"/>
+      <c r="C112" s="51"/>
       <c r="D112" s="16" t="s">
         <v>21</v>
       </c>
@@ -5554,10 +5601,10 @@
       <c r="G112" s="19"/>
     </row>
     <row r="113" spans="2:7">
-      <c r="B113" s="76">
+      <c r="B113" s="46">
         <v>43994</v>
       </c>
-      <c r="C113" s="79" t="s">
+      <c r="C113" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -5568,8 +5615,8 @@
       <c r="G113" s="6"/>
     </row>
     <row r="114" spans="2:7">
-      <c r="B114" s="77"/>
-      <c r="C114" s="80"/>
+      <c r="B114" s="47"/>
+      <c r="C114" s="50"/>
       <c r="D114" s="21" t="s">
         <v>14</v>
       </c>
@@ -5578,8 +5625,8 @@
       <c r="G114" s="24"/>
     </row>
     <row r="115" spans="2:7">
-      <c r="B115" s="77"/>
-      <c r="C115" s="80"/>
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
       <c r="D115" s="21" t="s">
         <v>15</v>
       </c>
@@ -5588,8 +5635,8 @@
       <c r="G115" s="24"/>
     </row>
     <row r="116" spans="2:7">
-      <c r="B116" s="77"/>
-      <c r="C116" s="80"/>
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
       <c r="D116" s="26" t="s">
         <v>7</v>
       </c>
@@ -5598,8 +5645,8 @@
       <c r="G116" s="29"/>
     </row>
     <row r="117" spans="2:7">
-      <c r="B117" s="77"/>
-      <c r="C117" s="80"/>
+      <c r="B117" s="47"/>
+      <c r="C117" s="50"/>
       <c r="D117" s="2" t="s">
         <v>16</v>
       </c>
@@ -5608,8 +5655,8 @@
       <c r="G117" s="20"/>
     </row>
     <row r="118" spans="2:7">
-      <c r="B118" s="77"/>
-      <c r="C118" s="80"/>
+      <c r="B118" s="47"/>
+      <c r="C118" s="50"/>
       <c r="D118" s="2" t="s">
         <v>17</v>
       </c>
@@ -5618,8 +5665,8 @@
       <c r="G118" s="6"/>
     </row>
     <row r="119" spans="2:7">
-      <c r="B119" s="77"/>
-      <c r="C119" s="80"/>
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
       <c r="D119" s="21" t="s">
         <v>18</v>
       </c>
@@ -5628,8 +5675,8 @@
       <c r="G119" s="24"/>
     </row>
     <row r="120" spans="2:7">
-      <c r="B120" s="77"/>
-      <c r="C120" s="80"/>
+      <c r="B120" s="47"/>
+      <c r="C120" s="50"/>
       <c r="D120" s="2" t="s">
         <v>19</v>
       </c>
@@ -5638,8 +5685,8 @@
       <c r="G120" s="6"/>
     </row>
     <row r="121" spans="2:7">
-      <c r="B121" s="77"/>
-      <c r="C121" s="80"/>
+      <c r="B121" s="47"/>
+      <c r="C121" s="50"/>
       <c r="D121" s="21" t="s">
         <v>20</v>
       </c>
@@ -5648,8 +5695,8 @@
       <c r="G121" s="24"/>
     </row>
     <row r="122" spans="2:7">
-      <c r="B122" s="78"/>
-      <c r="C122" s="81"/>
+      <c r="B122" s="48"/>
+      <c r="C122" s="51"/>
       <c r="D122" s="16" t="s">
         <v>21</v>
       </c>
@@ -5658,10 +5705,10 @@
       <c r="G122" s="19"/>
     </row>
     <row r="123" spans="2:7">
-      <c r="B123" s="70">
+      <c r="B123" s="52">
         <v>43997</v>
       </c>
-      <c r="C123" s="73" t="s">
+      <c r="C123" s="55" t="s">
         <v>11</v>
       </c>
       <c r="D123" s="2" t="s">
@@ -5672,8 +5719,8 @@
       <c r="G123" s="6"/>
     </row>
     <row r="124" spans="2:7">
-      <c r="B124" s="71"/>
-      <c r="C124" s="74"/>
+      <c r="B124" s="53"/>
+      <c r="C124" s="56"/>
       <c r="D124" s="21" t="s">
         <v>14</v>
       </c>
@@ -5682,8 +5729,8 @@
       <c r="G124" s="24"/>
     </row>
     <row r="125" spans="2:7">
-      <c r="B125" s="71"/>
-      <c r="C125" s="74"/>
+      <c r="B125" s="53"/>
+      <c r="C125" s="56"/>
       <c r="D125" s="21" t="s">
         <v>15</v>
       </c>
@@ -5692,8 +5739,8 @@
       <c r="G125" s="24"/>
     </row>
     <row r="126" spans="2:7">
-      <c r="B126" s="71"/>
-      <c r="C126" s="74"/>
+      <c r="B126" s="53"/>
+      <c r="C126" s="56"/>
       <c r="D126" s="26" t="s">
         <v>7</v>
       </c>
@@ -5702,8 +5749,8 @@
       <c r="G126" s="29"/>
     </row>
     <row r="127" spans="2:7">
-      <c r="B127" s="71"/>
-      <c r="C127" s="74"/>
+      <c r="B127" s="53"/>
+      <c r="C127" s="56"/>
       <c r="D127" s="2" t="s">
         <v>16</v>
       </c>
@@ -5712,8 +5759,8 @@
       <c r="G127" s="20"/>
     </row>
     <row r="128" spans="2:7">
-      <c r="B128" s="71"/>
-      <c r="C128" s="74"/>
+      <c r="B128" s="53"/>
+      <c r="C128" s="56"/>
       <c r="D128" s="2" t="s">
         <v>17</v>
       </c>
@@ -5722,8 +5769,8 @@
       <c r="G128" s="6"/>
     </row>
     <row r="129" spans="2:7">
-      <c r="B129" s="71"/>
-      <c r="C129" s="74"/>
+      <c r="B129" s="53"/>
+      <c r="C129" s="56"/>
       <c r="D129" s="21" t="s">
         <v>18</v>
       </c>
@@ -5732,8 +5779,8 @@
       <c r="G129" s="24"/>
     </row>
     <row r="130" spans="2:7">
-      <c r="B130" s="71"/>
-      <c r="C130" s="74"/>
+      <c r="B130" s="53"/>
+      <c r="C130" s="56"/>
       <c r="D130" s="2" t="s">
         <v>19</v>
       </c>
@@ -5742,8 +5789,8 @@
       <c r="G130" s="6"/>
     </row>
     <row r="131" spans="2:7">
-      <c r="B131" s="71"/>
-      <c r="C131" s="74"/>
+      <c r="B131" s="53"/>
+      <c r="C131" s="56"/>
       <c r="D131" s="21" t="s">
         <v>20</v>
       </c>
@@ -5752,8 +5799,8 @@
       <c r="G131" s="24"/>
     </row>
     <row r="132" spans="2:7">
-      <c r="B132" s="72"/>
-      <c r="C132" s="75"/>
+      <c r="B132" s="54"/>
+      <c r="C132" s="57"/>
       <c r="D132" s="16" t="s">
         <v>21</v>
       </c>
@@ -5762,10 +5809,10 @@
       <c r="G132" s="19"/>
     </row>
     <row r="133" spans="2:7">
-      <c r="B133" s="76">
+      <c r="B133" s="46">
         <v>43998</v>
       </c>
-      <c r="C133" s="79" t="s">
+      <c r="C133" s="49" t="s">
         <v>12</v>
       </c>
       <c r="D133" s="21" t="s">
@@ -5776,8 +5823,8 @@
       <c r="G133" s="24"/>
     </row>
     <row r="134" spans="2:7">
-      <c r="B134" s="77"/>
-      <c r="C134" s="80"/>
+      <c r="B134" s="47"/>
+      <c r="C134" s="50"/>
       <c r="D134" s="21" t="s">
         <v>14</v>
       </c>
@@ -5786,8 +5833,8 @@
       <c r="G134" s="24"/>
     </row>
     <row r="135" spans="2:7">
-      <c r="B135" s="77"/>
-      <c r="C135" s="80"/>
+      <c r="B135" s="47"/>
+      <c r="C135" s="50"/>
       <c r="D135" s="21" t="s">
         <v>15</v>
       </c>
@@ -5796,8 +5843,8 @@
       <c r="G135" s="25"/>
     </row>
     <row r="136" spans="2:7">
-      <c r="B136" s="77"/>
-      <c r="C136" s="80"/>
+      <c r="B136" s="47"/>
+      <c r="C136" s="50"/>
       <c r="D136" s="26" t="s">
         <v>7</v>
       </c>
@@ -5806,8 +5853,8 @@
       <c r="G136" s="29"/>
     </row>
     <row r="137" spans="2:7">
-      <c r="B137" s="77"/>
-      <c r="C137" s="80"/>
+      <c r="B137" s="47"/>
+      <c r="C137" s="50"/>
       <c r="D137" s="21" t="s">
         <v>10</v>
       </c>
@@ -5816,8 +5863,8 @@
       <c r="G137" s="24"/>
     </row>
     <row r="138" spans="2:7">
-      <c r="B138" s="77"/>
-      <c r="C138" s="80"/>
+      <c r="B138" s="47"/>
+      <c r="C138" s="50"/>
       <c r="D138" s="21" t="s">
         <v>81</v>
       </c>
@@ -5826,8 +5873,8 @@
       <c r="G138" s="24"/>
     </row>
     <row r="139" spans="2:7">
-      <c r="B139" s="77"/>
-      <c r="C139" s="80"/>
+      <c r="B139" s="47"/>
+      <c r="C139" s="50"/>
       <c r="D139" s="21" t="s">
         <v>82</v>
       </c>
@@ -5836,8 +5883,8 @@
       <c r="G139" s="24"/>
     </row>
     <row r="140" spans="2:7">
-      <c r="B140" s="77"/>
-      <c r="C140" s="80"/>
+      <c r="B140" s="47"/>
+      <c r="C140" s="50"/>
       <c r="D140" s="21" t="s">
         <v>83</v>
       </c>
@@ -5846,8 +5893,8 @@
       <c r="G140" s="24"/>
     </row>
     <row r="141" spans="2:7">
-      <c r="B141" s="77"/>
-      <c r="C141" s="80"/>
+      <c r="B141" s="47"/>
+      <c r="C141" s="50"/>
       <c r="D141" s="21" t="s">
         <v>84</v>
       </c>
@@ -5856,8 +5903,8 @@
       <c r="G141" s="24"/>
     </row>
     <row r="142" spans="2:7">
-      <c r="B142" s="78"/>
-      <c r="C142" s="81"/>
+      <c r="B142" s="48"/>
+      <c r="C142" s="51"/>
       <c r="D142" s="16" t="s">
         <v>21</v>
       </c>
@@ -5866,10 +5913,10 @@
       <c r="G142" s="19"/>
     </row>
     <row r="143" spans="2:7">
-      <c r="B143" s="70">
+      <c r="B143" s="52">
         <v>43999</v>
       </c>
-      <c r="C143" s="73" t="s">
+      <c r="C143" s="55" t="s">
         <v>8</v>
       </c>
       <c r="D143" s="2" t="s">
@@ -5880,8 +5927,8 @@
       <c r="G143" s="6"/>
     </row>
     <row r="144" spans="2:7">
-      <c r="B144" s="71"/>
-      <c r="C144" s="74"/>
+      <c r="B144" s="53"/>
+      <c r="C144" s="56"/>
       <c r="D144" s="21" t="s">
         <v>14</v>
       </c>
@@ -5890,8 +5937,8 @@
       <c r="G144" s="24"/>
     </row>
     <row r="145" spans="2:7">
-      <c r="B145" s="71"/>
-      <c r="C145" s="74"/>
+      <c r="B145" s="53"/>
+      <c r="C145" s="56"/>
       <c r="D145" s="21" t="s">
         <v>15</v>
       </c>
@@ -5900,8 +5947,8 @@
       <c r="G145" s="24"/>
     </row>
     <row r="146" spans="2:7">
-      <c r="B146" s="71"/>
-      <c r="C146" s="74"/>
+      <c r="B146" s="53"/>
+      <c r="C146" s="56"/>
       <c r="D146" s="26" t="s">
         <v>7</v>
       </c>
@@ -5910,8 +5957,8 @@
       <c r="G146" s="29"/>
     </row>
     <row r="147" spans="2:7">
-      <c r="B147" s="71"/>
-      <c r="C147" s="74"/>
+      <c r="B147" s="53"/>
+      <c r="C147" s="56"/>
       <c r="D147" s="2" t="s">
         <v>16</v>
       </c>
@@ -5920,8 +5967,8 @@
       <c r="G147" s="20"/>
     </row>
     <row r="148" spans="2:7">
-      <c r="B148" s="71"/>
-      <c r="C148" s="74"/>
+      <c r="B148" s="53"/>
+      <c r="C148" s="56"/>
       <c r="D148" s="2" t="s">
         <v>17</v>
       </c>
@@ -5930,8 +5977,8 @@
       <c r="G148" s="6"/>
     </row>
     <row r="149" spans="2:7">
-      <c r="B149" s="71"/>
-      <c r="C149" s="74"/>
+      <c r="B149" s="53"/>
+      <c r="C149" s="56"/>
       <c r="D149" s="21" t="s">
         <v>18</v>
       </c>
@@ -5940,8 +5987,8 @@
       <c r="G149" s="24"/>
     </row>
     <row r="150" spans="2:7">
-      <c r="B150" s="71"/>
-      <c r="C150" s="74"/>
+      <c r="B150" s="53"/>
+      <c r="C150" s="56"/>
       <c r="D150" s="2" t="s">
         <v>19</v>
       </c>
@@ -5950,8 +5997,8 @@
       <c r="G150" s="6"/>
     </row>
     <row r="151" spans="2:7">
-      <c r="B151" s="71"/>
-      <c r="C151" s="74"/>
+      <c r="B151" s="53"/>
+      <c r="C151" s="56"/>
       <c r="D151" s="21" t="s">
         <v>20</v>
       </c>
@@ -5960,8 +6007,8 @@
       <c r="G151" s="24"/>
     </row>
     <row r="152" spans="2:7">
-      <c r="B152" s="72"/>
-      <c r="C152" s="75"/>
+      <c r="B152" s="54"/>
+      <c r="C152" s="57"/>
       <c r="D152" s="16" t="s">
         <v>21</v>
       </c>
@@ -5970,10 +6017,10 @@
       <c r="G152" s="19"/>
     </row>
     <row r="153" spans="2:7">
-      <c r="B153" s="76">
+      <c r="B153" s="46">
         <v>44000</v>
       </c>
-      <c r="C153" s="79" t="s">
+      <c r="C153" s="49" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="21" t="s">
@@ -5984,8 +6031,8 @@
       <c r="G153" s="24"/>
     </row>
     <row r="154" spans="2:7">
-      <c r="B154" s="77"/>
-      <c r="C154" s="80"/>
+      <c r="B154" s="47"/>
+      <c r="C154" s="50"/>
       <c r="D154" s="21" t="s">
         <v>14</v>
       </c>
@@ -5994,8 +6041,8 @@
       <c r="G154" s="24"/>
     </row>
     <row r="155" spans="2:7">
-      <c r="B155" s="77"/>
-      <c r="C155" s="80"/>
+      <c r="B155" s="47"/>
+      <c r="C155" s="50"/>
       <c r="D155" s="21" t="s">
         <v>15</v>
       </c>
@@ -6004,8 +6051,8 @@
       <c r="G155" s="25"/>
     </row>
     <row r="156" spans="2:7">
-      <c r="B156" s="77"/>
-      <c r="C156" s="80"/>
+      <c r="B156" s="47"/>
+      <c r="C156" s="50"/>
       <c r="D156" s="26" t="s">
         <v>7</v>
       </c>
@@ -6014,8 +6061,8 @@
       <c r="G156" s="29"/>
     </row>
     <row r="157" spans="2:7">
-      <c r="B157" s="77"/>
-      <c r="C157" s="80"/>
+      <c r="B157" s="47"/>
+      <c r="C157" s="50"/>
       <c r="D157" s="21" t="s">
         <v>10</v>
       </c>
@@ -6024,8 +6071,8 @@
       <c r="G157" s="24"/>
     </row>
     <row r="158" spans="2:7">
-      <c r="B158" s="77"/>
-      <c r="C158" s="80"/>
+      <c r="B158" s="47"/>
+      <c r="C158" s="50"/>
       <c r="D158" s="21" t="s">
         <v>81</v>
       </c>
@@ -6034,8 +6081,8 @@
       <c r="G158" s="24"/>
     </row>
     <row r="159" spans="2:7">
-      <c r="B159" s="77"/>
-      <c r="C159" s="80"/>
+      <c r="B159" s="47"/>
+      <c r="C159" s="50"/>
       <c r="D159" s="21" t="s">
         <v>82</v>
       </c>
@@ -6044,8 +6091,8 @@
       <c r="G159" s="24"/>
     </row>
     <row r="160" spans="2:7">
-      <c r="B160" s="77"/>
-      <c r="C160" s="80"/>
+      <c r="B160" s="47"/>
+      <c r="C160" s="50"/>
       <c r="D160" s="21" t="s">
         <v>83</v>
       </c>
@@ -6054,8 +6101,8 @@
       <c r="G160" s="24"/>
     </row>
     <row r="161" spans="2:7">
-      <c r="B161" s="77"/>
-      <c r="C161" s="80"/>
+      <c r="B161" s="47"/>
+      <c r="C161" s="50"/>
       <c r="D161" s="21" t="s">
         <v>84</v>
       </c>
@@ -6064,8 +6111,8 @@
       <c r="G161" s="24"/>
     </row>
     <row r="162" spans="2:7">
-      <c r="B162" s="78"/>
-      <c r="C162" s="81"/>
+      <c r="B162" s="48"/>
+      <c r="C162" s="51"/>
       <c r="D162" s="16" t="s">
         <v>21</v>
       </c>
@@ -6074,10 +6121,10 @@
       <c r="G162" s="19"/>
     </row>
     <row r="163" spans="2:7">
-      <c r="B163" s="76">
+      <c r="B163" s="46">
         <v>44001</v>
       </c>
-      <c r="C163" s="79" t="s">
+      <c r="C163" s="49" t="s">
         <v>6</v>
       </c>
       <c r="D163" s="2" t="s">
@@ -6088,8 +6135,8 @@
       <c r="G163" s="6"/>
     </row>
     <row r="164" spans="2:7">
-      <c r="B164" s="77"/>
-      <c r="C164" s="80"/>
+      <c r="B164" s="47"/>
+      <c r="C164" s="50"/>
       <c r="D164" s="21" t="s">
         <v>14</v>
       </c>
@@ -6098,8 +6145,8 @@
       <c r="G164" s="24"/>
     </row>
     <row r="165" spans="2:7">
-      <c r="B165" s="77"/>
-      <c r="C165" s="80"/>
+      <c r="B165" s="47"/>
+      <c r="C165" s="50"/>
       <c r="D165" s="21" t="s">
         <v>15</v>
       </c>
@@ -6108,8 +6155,8 @@
       <c r="G165" s="24"/>
     </row>
     <row r="166" spans="2:7">
-      <c r="B166" s="77"/>
-      <c r="C166" s="80"/>
+      <c r="B166" s="47"/>
+      <c r="C166" s="50"/>
       <c r="D166" s="26" t="s">
         <v>7</v>
       </c>
@@ -6118,8 +6165,8 @@
       <c r="G166" s="29"/>
     </row>
     <row r="167" spans="2:7">
-      <c r="B167" s="77"/>
-      <c r="C167" s="80"/>
+      <c r="B167" s="47"/>
+      <c r="C167" s="50"/>
       <c r="D167" s="2" t="s">
         <v>16</v>
       </c>
@@ -6128,8 +6175,8 @@
       <c r="G167" s="20"/>
     </row>
     <row r="168" spans="2:7">
-      <c r="B168" s="77"/>
-      <c r="C168" s="80"/>
+      <c r="B168" s="47"/>
+      <c r="C168" s="50"/>
       <c r="D168" s="2" t="s">
         <v>17</v>
       </c>
@@ -6138,8 +6185,8 @@
       <c r="G168" s="6"/>
     </row>
     <row r="169" spans="2:7">
-      <c r="B169" s="77"/>
-      <c r="C169" s="80"/>
+      <c r="B169" s="47"/>
+      <c r="C169" s="50"/>
       <c r="D169" s="21" t="s">
         <v>18</v>
       </c>
@@ -6148,8 +6195,8 @@
       <c r="G169" s="24"/>
     </row>
     <row r="170" spans="2:7">
-      <c r="B170" s="77"/>
-      <c r="C170" s="80"/>
+      <c r="B170" s="47"/>
+      <c r="C170" s="50"/>
       <c r="D170" s="2" t="s">
         <v>19</v>
       </c>
@@ -6158,8 +6205,8 @@
       <c r="G170" s="6"/>
     </row>
     <row r="171" spans="2:7">
-      <c r="B171" s="77"/>
-      <c r="C171" s="80"/>
+      <c r="B171" s="47"/>
+      <c r="C171" s="50"/>
       <c r="D171" s="21" t="s">
         <v>20</v>
       </c>
@@ -6168,8 +6215,8 @@
       <c r="G171" s="24"/>
     </row>
     <row r="172" spans="2:7">
-      <c r="B172" s="78"/>
-      <c r="C172" s="81"/>
+      <c r="B172" s="48"/>
+      <c r="C172" s="51"/>
       <c r="D172" s="16" t="s">
         <v>21</v>
       </c>
@@ -6178,10 +6225,10 @@
       <c r="G172" s="19"/>
     </row>
     <row r="173" spans="2:7">
-      <c r="B173" s="70">
+      <c r="B173" s="52">
         <v>44004</v>
       </c>
-      <c r="C173" s="73" t="s">
+      <c r="C173" s="55" t="s">
         <v>76</v>
       </c>
       <c r="D173" s="2" t="s">
@@ -6192,8 +6239,8 @@
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="2:7">
-      <c r="B174" s="71"/>
-      <c r="C174" s="74"/>
+      <c r="B174" s="53"/>
+      <c r="C174" s="56"/>
       <c r="D174" s="21" t="s">
         <v>14</v>
       </c>
@@ -6202,8 +6249,8 @@
       <c r="G174" s="24"/>
     </row>
     <row r="175" spans="2:7">
-      <c r="B175" s="71"/>
-      <c r="C175" s="74"/>
+      <c r="B175" s="53"/>
+      <c r="C175" s="56"/>
       <c r="D175" s="21" t="s">
         <v>15</v>
       </c>
@@ -6212,8 +6259,8 @@
       <c r="G175" s="24"/>
     </row>
     <row r="176" spans="2:7">
-      <c r="B176" s="71"/>
-      <c r="C176" s="74"/>
+      <c r="B176" s="53"/>
+      <c r="C176" s="56"/>
       <c r="D176" s="26" t="s">
         <v>7</v>
       </c>
@@ -6222,8 +6269,8 @@
       <c r="G176" s="29"/>
     </row>
     <row r="177" spans="2:7">
-      <c r="B177" s="71"/>
-      <c r="C177" s="74"/>
+      <c r="B177" s="53"/>
+      <c r="C177" s="56"/>
       <c r="D177" s="2" t="s">
         <v>16</v>
       </c>
@@ -6232,8 +6279,8 @@
       <c r="G177" s="20"/>
     </row>
     <row r="178" spans="2:7">
-      <c r="B178" s="71"/>
-      <c r="C178" s="74"/>
+      <c r="B178" s="53"/>
+      <c r="C178" s="56"/>
       <c r="D178" s="2" t="s">
         <v>17</v>
       </c>
@@ -6242,8 +6289,8 @@
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="2:7">
-      <c r="B179" s="71"/>
-      <c r="C179" s="74"/>
+      <c r="B179" s="53"/>
+      <c r="C179" s="56"/>
       <c r="D179" s="21" t="s">
         <v>18</v>
       </c>
@@ -6252,8 +6299,8 @@
       <c r="G179" s="24"/>
     </row>
     <row r="180" spans="2:7">
-      <c r="B180" s="71"/>
-      <c r="C180" s="74"/>
+      <c r="B180" s="53"/>
+      <c r="C180" s="56"/>
       <c r="D180" s="2" t="s">
         <v>19</v>
       </c>
@@ -6262,8 +6309,8 @@
       <c r="G180" s="6"/>
     </row>
     <row r="181" spans="2:7">
-      <c r="B181" s="71"/>
-      <c r="C181" s="74"/>
+      <c r="B181" s="53"/>
+      <c r="C181" s="56"/>
       <c r="D181" s="21" t="s">
         <v>20</v>
       </c>
@@ -6272,8 +6319,8 @@
       <c r="G181" s="24"/>
     </row>
     <row r="182" spans="2:7">
-      <c r="B182" s="72"/>
-      <c r="C182" s="75"/>
+      <c r="B182" s="54"/>
+      <c r="C182" s="57"/>
       <c r="D182" s="16" t="s">
         <v>21</v>
       </c>
@@ -6282,10 +6329,10 @@
       <c r="G182" s="19"/>
     </row>
     <row r="183" spans="2:7">
-      <c r="B183" s="76">
+      <c r="B183" s="46">
         <v>44005</v>
       </c>
-      <c r="C183" s="79" t="s">
+      <c r="C183" s="49" t="s">
         <v>77</v>
       </c>
       <c r="D183" s="21" t="s">
@@ -6296,8 +6343,8 @@
       <c r="G183" s="24"/>
     </row>
     <row r="184" spans="2:7">
-      <c r="B184" s="77"/>
-      <c r="C184" s="80"/>
+      <c r="B184" s="47"/>
+      <c r="C184" s="50"/>
       <c r="D184" s="21" t="s">
         <v>14</v>
       </c>
@@ -6306,8 +6353,8 @@
       <c r="G184" s="24"/>
     </row>
     <row r="185" spans="2:7">
-      <c r="B185" s="77"/>
-      <c r="C185" s="80"/>
+      <c r="B185" s="47"/>
+      <c r="C185" s="50"/>
       <c r="D185" s="21" t="s">
         <v>15</v>
       </c>
@@ -6316,8 +6363,8 @@
       <c r="G185" s="25"/>
     </row>
     <row r="186" spans="2:7">
-      <c r="B186" s="77"/>
-      <c r="C186" s="80"/>
+      <c r="B186" s="47"/>
+      <c r="C186" s="50"/>
       <c r="D186" s="26" t="s">
         <v>7</v>
       </c>
@@ -6326,8 +6373,8 @@
       <c r="G186" s="29"/>
     </row>
     <row r="187" spans="2:7">
-      <c r="B187" s="77"/>
-      <c r="C187" s="80"/>
+      <c r="B187" s="47"/>
+      <c r="C187" s="50"/>
       <c r="D187" s="21" t="s">
         <v>10</v>
       </c>
@@ -6336,8 +6383,8 @@
       <c r="G187" s="24"/>
     </row>
     <row r="188" spans="2:7">
-      <c r="B188" s="77"/>
-      <c r="C188" s="80"/>
+      <c r="B188" s="47"/>
+      <c r="C188" s="50"/>
       <c r="D188" s="21" t="s">
         <v>81</v>
       </c>
@@ -6346,8 +6393,8 @@
       <c r="G188" s="24"/>
     </row>
     <row r="189" spans="2:7">
-      <c r="B189" s="77"/>
-      <c r="C189" s="80"/>
+      <c r="B189" s="47"/>
+      <c r="C189" s="50"/>
       <c r="D189" s="21" t="s">
         <v>82</v>
       </c>
@@ -6356,8 +6403,8 @@
       <c r="G189" s="24"/>
     </row>
     <row r="190" spans="2:7">
-      <c r="B190" s="77"/>
-      <c r="C190" s="80"/>
+      <c r="B190" s="47"/>
+      <c r="C190" s="50"/>
       <c r="D190" s="21" t="s">
         <v>83</v>
       </c>
@@ -6366,8 +6413,8 @@
       <c r="G190" s="24"/>
     </row>
     <row r="191" spans="2:7">
-      <c r="B191" s="77"/>
-      <c r="C191" s="80"/>
+      <c r="B191" s="47"/>
+      <c r="C191" s="50"/>
       <c r="D191" s="21" t="s">
         <v>84</v>
       </c>
@@ -6376,8 +6423,8 @@
       <c r="G191" s="24"/>
     </row>
     <row r="192" spans="2:7">
-      <c r="B192" s="78"/>
-      <c r="C192" s="81"/>
+      <c r="B192" s="48"/>
+      <c r="C192" s="51"/>
       <c r="D192" s="16" t="s">
         <v>21</v>
       </c>
@@ -6386,10 +6433,10 @@
       <c r="G192" s="19"/>
     </row>
     <row r="193" spans="2:7">
-      <c r="B193" s="70">
+      <c r="B193" s="52">
         <v>44006</v>
       </c>
-      <c r="C193" s="73" t="s">
+      <c r="C193" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D193" s="2" t="s">
@@ -6400,8 +6447,8 @@
       <c r="G193" s="6"/>
     </row>
     <row r="194" spans="2:7">
-      <c r="B194" s="71"/>
-      <c r="C194" s="74"/>
+      <c r="B194" s="53"/>
+      <c r="C194" s="56"/>
       <c r="D194" s="21" t="s">
         <v>14</v>
       </c>
@@ -6410,8 +6457,8 @@
       <c r="G194" s="24"/>
     </row>
     <row r="195" spans="2:7">
-      <c r="B195" s="71"/>
-      <c r="C195" s="74"/>
+      <c r="B195" s="53"/>
+      <c r="C195" s="56"/>
       <c r="D195" s="21" t="s">
         <v>15</v>
       </c>
@@ -6420,8 +6467,8 @@
       <c r="G195" s="24"/>
     </row>
     <row r="196" spans="2:7">
-      <c r="B196" s="71"/>
-      <c r="C196" s="74"/>
+      <c r="B196" s="53"/>
+      <c r="C196" s="56"/>
       <c r="D196" s="26" t="s">
         <v>7</v>
       </c>
@@ -6430,8 +6477,8 @@
       <c r="G196" s="29"/>
     </row>
     <row r="197" spans="2:7">
-      <c r="B197" s="71"/>
-      <c r="C197" s="74"/>
+      <c r="B197" s="53"/>
+      <c r="C197" s="56"/>
       <c r="D197" s="2" t="s">
         <v>16</v>
       </c>
@@ -6440,8 +6487,8 @@
       <c r="G197" s="20"/>
     </row>
     <row r="198" spans="2:7">
-      <c r="B198" s="71"/>
-      <c r="C198" s="74"/>
+      <c r="B198" s="53"/>
+      <c r="C198" s="56"/>
       <c r="D198" s="2" t="s">
         <v>17</v>
       </c>
@@ -6450,8 +6497,8 @@
       <c r="G198" s="6"/>
     </row>
     <row r="199" spans="2:7">
-      <c r="B199" s="71"/>
-      <c r="C199" s="74"/>
+      <c r="B199" s="53"/>
+      <c r="C199" s="56"/>
       <c r="D199" s="21" t="s">
         <v>18</v>
       </c>
@@ -6460,8 +6507,8 @@
       <c r="G199" s="24"/>
     </row>
     <row r="200" spans="2:7">
-      <c r="B200" s="71"/>
-      <c r="C200" s="74"/>
+      <c r="B200" s="53"/>
+      <c r="C200" s="56"/>
       <c r="D200" s="2" t="s">
         <v>19</v>
       </c>
@@ -6470,8 +6517,8 @@
       <c r="G200" s="6"/>
     </row>
     <row r="201" spans="2:7">
-      <c r="B201" s="71"/>
-      <c r="C201" s="74"/>
+      <c r="B201" s="53"/>
+      <c r="C201" s="56"/>
       <c r="D201" s="21" t="s">
         <v>20</v>
       </c>
@@ -6480,8 +6527,8 @@
       <c r="G201" s="24"/>
     </row>
     <row r="202" spans="2:7">
-      <c r="B202" s="72"/>
-      <c r="C202" s="75"/>
+      <c r="B202" s="54"/>
+      <c r="C202" s="57"/>
       <c r="D202" s="16" t="s">
         <v>21</v>
       </c>
@@ -6490,10 +6537,10 @@
       <c r="G202" s="19"/>
     </row>
     <row r="203" spans="2:7">
-      <c r="B203" s="76">
+      <c r="B203" s="46">
         <v>44007</v>
       </c>
-      <c r="C203" s="79" t="s">
+      <c r="C203" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D203" s="21" t="s">
@@ -6504,8 +6551,8 @@
       <c r="G203" s="24"/>
     </row>
     <row r="204" spans="2:7">
-      <c r="B204" s="77"/>
-      <c r="C204" s="80"/>
+      <c r="B204" s="47"/>
+      <c r="C204" s="50"/>
       <c r="D204" s="21" t="s">
         <v>14</v>
       </c>
@@ -6514,8 +6561,8 @@
       <c r="G204" s="24"/>
     </row>
     <row r="205" spans="2:7">
-      <c r="B205" s="77"/>
-      <c r="C205" s="80"/>
+      <c r="B205" s="47"/>
+      <c r="C205" s="50"/>
       <c r="D205" s="21" t="s">
         <v>15</v>
       </c>
@@ -6524,8 +6571,8 @@
       <c r="G205" s="25"/>
     </row>
     <row r="206" spans="2:7">
-      <c r="B206" s="77"/>
-      <c r="C206" s="80"/>
+      <c r="B206" s="47"/>
+      <c r="C206" s="50"/>
       <c r="D206" s="26" t="s">
         <v>7</v>
       </c>
@@ -6534,8 +6581,8 @@
       <c r="G206" s="29"/>
     </row>
     <row r="207" spans="2:7">
-      <c r="B207" s="77"/>
-      <c r="C207" s="80"/>
+      <c r="B207" s="47"/>
+      <c r="C207" s="50"/>
       <c r="D207" s="21" t="s">
         <v>10</v>
       </c>
@@ -6544,8 +6591,8 @@
       <c r="G207" s="24"/>
     </row>
     <row r="208" spans="2:7">
-      <c r="B208" s="77"/>
-      <c r="C208" s="80"/>
+      <c r="B208" s="47"/>
+      <c r="C208" s="50"/>
       <c r="D208" s="21" t="s">
         <v>81</v>
       </c>
@@ -6554,8 +6601,8 @@
       <c r="G208" s="24"/>
     </row>
     <row r="209" spans="2:7">
-      <c r="B209" s="77"/>
-      <c r="C209" s="80"/>
+      <c r="B209" s="47"/>
+      <c r="C209" s="50"/>
       <c r="D209" s="21" t="s">
         <v>82</v>
       </c>
@@ -6564,8 +6611,8 @@
       <c r="G209" s="24"/>
     </row>
     <row r="210" spans="2:7">
-      <c r="B210" s="77"/>
-      <c r="C210" s="80"/>
+      <c r="B210" s="47"/>
+      <c r="C210" s="50"/>
       <c r="D210" s="21" t="s">
         <v>83</v>
       </c>
@@ -6574,8 +6621,8 @@
       <c r="G210" s="24"/>
     </row>
     <row r="211" spans="2:7">
-      <c r="B211" s="77"/>
-      <c r="C211" s="80"/>
+      <c r="B211" s="47"/>
+      <c r="C211" s="50"/>
       <c r="D211" s="21" t="s">
         <v>84</v>
       </c>
@@ -6584,8 +6631,8 @@
       <c r="G211" s="24"/>
     </row>
     <row r="212" spans="2:7">
-      <c r="B212" s="78"/>
-      <c r="C212" s="81"/>
+      <c r="B212" s="48"/>
+      <c r="C212" s="51"/>
       <c r="D212" s="16" t="s">
         <v>21</v>
       </c>
@@ -6594,10 +6641,10 @@
       <c r="G212" s="19"/>
     </row>
     <row r="213" spans="2:7">
-      <c r="B213" s="76">
+      <c r="B213" s="46">
         <v>44008</v>
       </c>
-      <c r="C213" s="79" t="s">
+      <c r="C213" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D213" s="2" t="s">
@@ -6608,8 +6655,8 @@
       <c r="G213" s="6"/>
     </row>
     <row r="214" spans="2:7">
-      <c r="B214" s="77"/>
-      <c r="C214" s="80"/>
+      <c r="B214" s="47"/>
+      <c r="C214" s="50"/>
       <c r="D214" s="21" t="s">
         <v>14</v>
       </c>
@@ -6618,8 +6665,8 @@
       <c r="G214" s="24"/>
     </row>
     <row r="215" spans="2:7">
-      <c r="B215" s="77"/>
-      <c r="C215" s="80"/>
+      <c r="B215" s="47"/>
+      <c r="C215" s="50"/>
       <c r="D215" s="21" t="s">
         <v>15</v>
       </c>
@@ -6628,8 +6675,8 @@
       <c r="G215" s="24"/>
     </row>
     <row r="216" spans="2:7">
-      <c r="B216" s="77"/>
-      <c r="C216" s="80"/>
+      <c r="B216" s="47"/>
+      <c r="C216" s="50"/>
       <c r="D216" s="26" t="s">
         <v>7</v>
       </c>
@@ -6638,8 +6685,8 @@
       <c r="G216" s="29"/>
     </row>
     <row r="217" spans="2:7">
-      <c r="B217" s="77"/>
-      <c r="C217" s="80"/>
+      <c r="B217" s="47"/>
+      <c r="C217" s="50"/>
       <c r="D217" s="2" t="s">
         <v>16</v>
       </c>
@@ -6648,8 +6695,8 @@
       <c r="G217" s="20"/>
     </row>
     <row r="218" spans="2:7">
-      <c r="B218" s="77"/>
-      <c r="C218" s="80"/>
+      <c r="B218" s="47"/>
+      <c r="C218" s="50"/>
       <c r="D218" s="2" t="s">
         <v>17</v>
       </c>
@@ -6658,8 +6705,8 @@
       <c r="G218" s="6"/>
     </row>
     <row r="219" spans="2:7">
-      <c r="B219" s="77"/>
-      <c r="C219" s="80"/>
+      <c r="B219" s="47"/>
+      <c r="C219" s="50"/>
       <c r="D219" s="21" t="s">
         <v>18</v>
       </c>
@@ -6668,8 +6715,8 @@
       <c r="G219" s="24"/>
     </row>
     <row r="220" spans="2:7">
-      <c r="B220" s="77"/>
-      <c r="C220" s="80"/>
+      <c r="B220" s="47"/>
+      <c r="C220" s="50"/>
       <c r="D220" s="2" t="s">
         <v>19</v>
       </c>
@@ -6678,8 +6725,8 @@
       <c r="G220" s="6"/>
     </row>
     <row r="221" spans="2:7">
-      <c r="B221" s="77"/>
-      <c r="C221" s="80"/>
+      <c r="B221" s="47"/>
+      <c r="C221" s="50"/>
       <c r="D221" s="21" t="s">
         <v>20</v>
       </c>
@@ -6688,8 +6735,8 @@
       <c r="G221" s="24"/>
     </row>
     <row r="222" spans="2:7">
-      <c r="B222" s="78"/>
-      <c r="C222" s="81"/>
+      <c r="B222" s="48"/>
+      <c r="C222" s="51"/>
       <c r="D222" s="16" t="s">
         <v>21</v>
       </c>
@@ -6698,10 +6745,10 @@
       <c r="G222" s="19"/>
     </row>
     <row r="223" spans="2:7">
-      <c r="B223" s="70">
+      <c r="B223" s="52">
         <v>44011</v>
       </c>
-      <c r="C223" s="73" t="s">
+      <c r="C223" s="55" t="s">
         <v>76</v>
       </c>
       <c r="D223" s="2" t="s">
@@ -6712,8 +6759,8 @@
       <c r="G223" s="6"/>
     </row>
     <row r="224" spans="2:7">
-      <c r="B224" s="71"/>
-      <c r="C224" s="74"/>
+      <c r="B224" s="53"/>
+      <c r="C224" s="56"/>
       <c r="D224" s="21" t="s">
         <v>14</v>
       </c>
@@ -6722,8 +6769,8 @@
       <c r="G224" s="24"/>
     </row>
     <row r="225" spans="2:7">
-      <c r="B225" s="71"/>
-      <c r="C225" s="74"/>
+      <c r="B225" s="53"/>
+      <c r="C225" s="56"/>
       <c r="D225" s="21" t="s">
         <v>15</v>
       </c>
@@ -6732,8 +6779,8 @@
       <c r="G225" s="24"/>
     </row>
     <row r="226" spans="2:7">
-      <c r="B226" s="71"/>
-      <c r="C226" s="74"/>
+      <c r="B226" s="53"/>
+      <c r="C226" s="56"/>
       <c r="D226" s="26" t="s">
         <v>7</v>
       </c>
@@ -6742,8 +6789,8 @@
       <c r="G226" s="29"/>
     </row>
     <row r="227" spans="2:7">
-      <c r="B227" s="71"/>
-      <c r="C227" s="74"/>
+      <c r="B227" s="53"/>
+      <c r="C227" s="56"/>
       <c r="D227" s="2" t="s">
         <v>16</v>
       </c>
@@ -6752,8 +6799,8 @@
       <c r="G227" s="20"/>
     </row>
     <row r="228" spans="2:7">
-      <c r="B228" s="71"/>
-      <c r="C228" s="74"/>
+      <c r="B228" s="53"/>
+      <c r="C228" s="56"/>
       <c r="D228" s="2" t="s">
         <v>17</v>
       </c>
@@ -6762,8 +6809,8 @@
       <c r="G228" s="6"/>
     </row>
     <row r="229" spans="2:7">
-      <c r="B229" s="71"/>
-      <c r="C229" s="74"/>
+      <c r="B229" s="53"/>
+      <c r="C229" s="56"/>
       <c r="D229" s="21" t="s">
         <v>18</v>
       </c>
@@ -6772,8 +6819,8 @@
       <c r="G229" s="24"/>
     </row>
     <row r="230" spans="2:7">
-      <c r="B230" s="71"/>
-      <c r="C230" s="74"/>
+      <c r="B230" s="53"/>
+      <c r="C230" s="56"/>
       <c r="D230" s="2" t="s">
         <v>19</v>
       </c>
@@ -6782,8 +6829,8 @@
       <c r="G230" s="6"/>
     </row>
     <row r="231" spans="2:7">
-      <c r="B231" s="71"/>
-      <c r="C231" s="74"/>
+      <c r="B231" s="53"/>
+      <c r="C231" s="56"/>
       <c r="D231" s="21" t="s">
         <v>20</v>
       </c>
@@ -6792,8 +6839,8 @@
       <c r="G231" s="24"/>
     </row>
     <row r="232" spans="2:7">
-      <c r="B232" s="72"/>
-      <c r="C232" s="75"/>
+      <c r="B232" s="54"/>
+      <c r="C232" s="57"/>
       <c r="D232" s="16" t="s">
         <v>21</v>
       </c>
@@ -6802,10 +6849,10 @@
       <c r="G232" s="19"/>
     </row>
     <row r="233" spans="2:7">
-      <c r="B233" s="76">
+      <c r="B233" s="46">
         <v>44012</v>
       </c>
-      <c r="C233" s="79" t="s">
+      <c r="C233" s="49" t="s">
         <v>77</v>
       </c>
       <c r="D233" s="21" t="s">
@@ -6816,8 +6863,8 @@
       <c r="G233" s="24"/>
     </row>
     <row r="234" spans="2:7">
-      <c r="B234" s="77"/>
-      <c r="C234" s="80"/>
+      <c r="B234" s="47"/>
+      <c r="C234" s="50"/>
       <c r="D234" s="21" t="s">
         <v>14</v>
       </c>
@@ -6826,8 +6873,8 @@
       <c r="G234" s="24"/>
     </row>
     <row r="235" spans="2:7">
-      <c r="B235" s="77"/>
-      <c r="C235" s="80"/>
+      <c r="B235" s="47"/>
+      <c r="C235" s="50"/>
       <c r="D235" s="21" t="s">
         <v>15</v>
       </c>
@@ -6836,8 +6883,8 @@
       <c r="G235" s="25"/>
     </row>
     <row r="236" spans="2:7">
-      <c r="B236" s="77"/>
-      <c r="C236" s="80"/>
+      <c r="B236" s="47"/>
+      <c r="C236" s="50"/>
       <c r="D236" s="26" t="s">
         <v>7</v>
       </c>
@@ -6846,8 +6893,8 @@
       <c r="G236" s="29"/>
     </row>
     <row r="237" spans="2:7">
-      <c r="B237" s="77"/>
-      <c r="C237" s="80"/>
+      <c r="B237" s="47"/>
+      <c r="C237" s="50"/>
       <c r="D237" s="21" t="s">
         <v>10</v>
       </c>
@@ -6856,8 +6903,8 @@
       <c r="G237" s="24"/>
     </row>
     <row r="238" spans="2:7">
-      <c r="B238" s="77"/>
-      <c r="C238" s="80"/>
+      <c r="B238" s="47"/>
+      <c r="C238" s="50"/>
       <c r="D238" s="21" t="s">
         <v>81</v>
       </c>
@@ -6866,8 +6913,8 @@
       <c r="G238" s="24"/>
     </row>
     <row r="239" spans="2:7">
-      <c r="B239" s="77"/>
-      <c r="C239" s="80"/>
+      <c r="B239" s="47"/>
+      <c r="C239" s="50"/>
       <c r="D239" s="21" t="s">
         <v>82</v>
       </c>
@@ -6876,8 +6923,8 @@
       <c r="G239" s="24"/>
     </row>
     <row r="240" spans="2:7">
-      <c r="B240" s="77"/>
-      <c r="C240" s="80"/>
+      <c r="B240" s="47"/>
+      <c r="C240" s="50"/>
       <c r="D240" s="21" t="s">
         <v>83</v>
       </c>
@@ -6886,8 +6933,8 @@
       <c r="G240" s="24"/>
     </row>
     <row r="241" spans="2:7">
-      <c r="B241" s="77"/>
-      <c r="C241" s="80"/>
+      <c r="B241" s="47"/>
+      <c r="C241" s="50"/>
       <c r="D241" s="21" t="s">
         <v>84</v>
       </c>
@@ -6896,8 +6943,8 @@
       <c r="G241" s="24"/>
     </row>
     <row r="242" spans="2:7">
-      <c r="B242" s="78"/>
-      <c r="C242" s="81"/>
+      <c r="B242" s="48"/>
+      <c r="C242" s="51"/>
       <c r="D242" s="16" t="s">
         <v>21</v>
       </c>
@@ -6906,8 +6953,8 @@
       <c r="G242" s="19"/>
     </row>
     <row r="243" spans="2:7">
-      <c r="B243" s="70"/>
-      <c r="C243" s="73" t="s">
+      <c r="B243" s="52"/>
+      <c r="C243" s="55" t="s">
         <v>78</v>
       </c>
       <c r="D243" s="2" t="s">
@@ -6918,8 +6965,8 @@
       <c r="G243" s="6"/>
     </row>
     <row r="244" spans="2:7">
-      <c r="B244" s="71"/>
-      <c r="C244" s="74"/>
+      <c r="B244" s="53"/>
+      <c r="C244" s="56"/>
       <c r="D244" s="21" t="s">
         <v>14</v>
       </c>
@@ -6928,8 +6975,8 @@
       <c r="G244" s="24"/>
     </row>
     <row r="245" spans="2:7">
-      <c r="B245" s="71"/>
-      <c r="C245" s="74"/>
+      <c r="B245" s="53"/>
+      <c r="C245" s="56"/>
       <c r="D245" s="21" t="s">
         <v>15</v>
       </c>
@@ -6938,8 +6985,8 @@
       <c r="G245" s="24"/>
     </row>
     <row r="246" spans="2:7">
-      <c r="B246" s="71"/>
-      <c r="C246" s="74"/>
+      <c r="B246" s="53"/>
+      <c r="C246" s="56"/>
       <c r="D246" s="26" t="s">
         <v>7</v>
       </c>
@@ -6948,8 +6995,8 @@
       <c r="G246" s="29"/>
     </row>
     <row r="247" spans="2:7">
-      <c r="B247" s="71"/>
-      <c r="C247" s="74"/>
+      <c r="B247" s="53"/>
+      <c r="C247" s="56"/>
       <c r="D247" s="2" t="s">
         <v>16</v>
       </c>
@@ -6958,8 +7005,8 @@
       <c r="G247" s="20"/>
     </row>
     <row r="248" spans="2:7">
-      <c r="B248" s="71"/>
-      <c r="C248" s="74"/>
+      <c r="B248" s="53"/>
+      <c r="C248" s="56"/>
       <c r="D248" s="2" t="s">
         <v>17</v>
       </c>
@@ -6968,8 +7015,8 @@
       <c r="G248" s="6"/>
     </row>
     <row r="249" spans="2:7">
-      <c r="B249" s="71"/>
-      <c r="C249" s="74"/>
+      <c r="B249" s="53"/>
+      <c r="C249" s="56"/>
       <c r="D249" s="21" t="s">
         <v>18</v>
       </c>
@@ -6978,8 +7025,8 @@
       <c r="G249" s="24"/>
     </row>
     <row r="250" spans="2:7">
-      <c r="B250" s="71"/>
-      <c r="C250" s="74"/>
+      <c r="B250" s="53"/>
+      <c r="C250" s="56"/>
       <c r="D250" s="2" t="s">
         <v>19</v>
       </c>
@@ -6988,8 +7035,8 @@
       <c r="G250" s="6"/>
     </row>
     <row r="251" spans="2:7">
-      <c r="B251" s="71"/>
-      <c r="C251" s="74"/>
+      <c r="B251" s="53"/>
+      <c r="C251" s="56"/>
       <c r="D251" s="21" t="s">
         <v>20</v>
       </c>
@@ -6998,8 +7045,8 @@
       <c r="G251" s="24"/>
     </row>
     <row r="252" spans="2:7">
-      <c r="B252" s="72"/>
-      <c r="C252" s="75"/>
+      <c r="B252" s="54"/>
+      <c r="C252" s="57"/>
       <c r="D252" s="16" t="s">
         <v>21</v>
       </c>
@@ -7008,8 +7055,8 @@
       <c r="G252" s="19"/>
     </row>
     <row r="253" spans="2:7">
-      <c r="B253" s="76"/>
-      <c r="C253" s="79" t="s">
+      <c r="B253" s="46"/>
+      <c r="C253" s="49" t="s">
         <v>79</v>
       </c>
       <c r="D253" s="21" t="s">
@@ -7020,8 +7067,8 @@
       <c r="G253" s="24"/>
     </row>
     <row r="254" spans="2:7">
-      <c r="B254" s="77"/>
-      <c r="C254" s="80"/>
+      <c r="B254" s="47"/>
+      <c r="C254" s="50"/>
       <c r="D254" s="21" t="s">
         <v>14</v>
       </c>
@@ -7030,8 +7077,8 @@
       <c r="G254" s="24"/>
     </row>
     <row r="255" spans="2:7">
-      <c r="B255" s="77"/>
-      <c r="C255" s="80"/>
+      <c r="B255" s="47"/>
+      <c r="C255" s="50"/>
       <c r="D255" s="21" t="s">
         <v>15</v>
       </c>
@@ -7040,8 +7087,8 @@
       <c r="G255" s="25"/>
     </row>
     <row r="256" spans="2:7">
-      <c r="B256" s="77"/>
-      <c r="C256" s="80"/>
+      <c r="B256" s="47"/>
+      <c r="C256" s="50"/>
       <c r="D256" s="26" t="s">
         <v>7</v>
       </c>
@@ -7050,8 +7097,8 @@
       <c r="G256" s="29"/>
     </row>
     <row r="257" spans="2:7">
-      <c r="B257" s="77"/>
-      <c r="C257" s="80"/>
+      <c r="B257" s="47"/>
+      <c r="C257" s="50"/>
       <c r="D257" s="21" t="s">
         <v>10</v>
       </c>
@@ -7060,8 +7107,8 @@
       <c r="G257" s="24"/>
     </row>
     <row r="258" spans="2:7">
-      <c r="B258" s="77"/>
-      <c r="C258" s="80"/>
+      <c r="B258" s="47"/>
+      <c r="C258" s="50"/>
       <c r="D258" s="21" t="s">
         <v>81</v>
       </c>
@@ -7070,8 +7117,8 @@
       <c r="G258" s="24"/>
     </row>
     <row r="259" spans="2:7">
-      <c r="B259" s="77"/>
-      <c r="C259" s="80"/>
+      <c r="B259" s="47"/>
+      <c r="C259" s="50"/>
       <c r="D259" s="21" t="s">
         <v>82</v>
       </c>
@@ -7080,8 +7127,8 @@
       <c r="G259" s="24"/>
     </row>
     <row r="260" spans="2:7">
-      <c r="B260" s="77"/>
-      <c r="C260" s="80"/>
+      <c r="B260" s="47"/>
+      <c r="C260" s="50"/>
       <c r="D260" s="21" t="s">
         <v>83</v>
       </c>
@@ -7090,8 +7137,8 @@
       <c r="G260" s="24"/>
     </row>
     <row r="261" spans="2:7">
-      <c r="B261" s="77"/>
-      <c r="C261" s="80"/>
+      <c r="B261" s="47"/>
+      <c r="C261" s="50"/>
       <c r="D261" s="21" t="s">
         <v>84</v>
       </c>
@@ -7100,8 +7147,8 @@
       <c r="G261" s="24"/>
     </row>
     <row r="262" spans="2:7">
-      <c r="B262" s="78"/>
-      <c r="C262" s="81"/>
+      <c r="B262" s="48"/>
+      <c r="C262" s="51"/>
       <c r="D262" s="16" t="s">
         <v>21</v>
       </c>
@@ -7110,8 +7157,8 @@
       <c r="G262" s="19"/>
     </row>
     <row r="263" spans="2:7">
-      <c r="B263" s="76"/>
-      <c r="C263" s="79" t="s">
+      <c r="B263" s="46"/>
+      <c r="C263" s="49" t="s">
         <v>80</v>
       </c>
       <c r="D263" s="2" t="s">
@@ -7122,8 +7169,8 @@
       <c r="G263" s="6"/>
     </row>
     <row r="264" spans="2:7">
-      <c r="B264" s="77"/>
-      <c r="C264" s="80"/>
+      <c r="B264" s="47"/>
+      <c r="C264" s="50"/>
       <c r="D264" s="21" t="s">
         <v>14</v>
       </c>
@@ -7132,8 +7179,8 @@
       <c r="G264" s="24"/>
     </row>
     <row r="265" spans="2:7">
-      <c r="B265" s="77"/>
-      <c r="C265" s="80"/>
+      <c r="B265" s="47"/>
+      <c r="C265" s="50"/>
       <c r="D265" s="21" t="s">
         <v>15</v>
       </c>
@@ -7142,8 +7189,8 @@
       <c r="G265" s="24"/>
     </row>
     <row r="266" spans="2:7">
-      <c r="B266" s="77"/>
-      <c r="C266" s="80"/>
+      <c r="B266" s="47"/>
+      <c r="C266" s="50"/>
       <c r="D266" s="26" t="s">
         <v>7</v>
       </c>
@@ -7152,8 +7199,8 @@
       <c r="G266" s="29"/>
     </row>
     <row r="267" spans="2:7">
-      <c r="B267" s="77"/>
-      <c r="C267" s="80"/>
+      <c r="B267" s="47"/>
+      <c r="C267" s="50"/>
       <c r="D267" s="2" t="s">
         <v>16</v>
       </c>
@@ -7162,8 +7209,8 @@
       <c r="G267" s="20"/>
     </row>
     <row r="268" spans="2:7">
-      <c r="B268" s="77"/>
-      <c r="C268" s="80"/>
+      <c r="B268" s="47"/>
+      <c r="C268" s="50"/>
       <c r="D268" s="2" t="s">
         <v>17</v>
       </c>
@@ -7172,8 +7219,8 @@
       <c r="G268" s="6"/>
     </row>
     <row r="269" spans="2:7">
-      <c r="B269" s="77"/>
-      <c r="C269" s="80"/>
+      <c r="B269" s="47"/>
+      <c r="C269" s="50"/>
       <c r="D269" s="21" t="s">
         <v>18</v>
       </c>
@@ -7182,8 +7229,8 @@
       <c r="G269" s="24"/>
     </row>
     <row r="270" spans="2:7">
-      <c r="B270" s="77"/>
-      <c r="C270" s="80"/>
+      <c r="B270" s="47"/>
+      <c r="C270" s="50"/>
       <c r="D270" s="2" t="s">
         <v>19</v>
       </c>
@@ -7192,8 +7239,8 @@
       <c r="G270" s="6"/>
     </row>
     <row r="271" spans="2:7">
-      <c r="B271" s="77"/>
-      <c r="C271" s="80"/>
+      <c r="B271" s="47"/>
+      <c r="C271" s="50"/>
       <c r="D271" s="21" t="s">
         <v>20</v>
       </c>
@@ -7202,8 +7249,8 @@
       <c r="G271" s="24"/>
     </row>
     <row r="272" spans="2:7">
-      <c r="B272" s="78"/>
-      <c r="C272" s="81"/>
+      <c r="B272" s="48"/>
+      <c r="C272" s="51"/>
       <c r="D272" s="16" t="s">
         <v>21</v>
       </c>
@@ -7213,6 +7260,74 @@
     </row>
   </sheetData>
   <mergeCells count="76">
+    <mergeCell ref="B1:G1"/>
+    <mergeCell ref="B2:C5"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B10:C13"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="B6:C9"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B18:C21"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="B14:C17"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="B23:B32"/>
+    <mergeCell ref="C23:C32"/>
+    <mergeCell ref="B33:B42"/>
+    <mergeCell ref="C33:C42"/>
+    <mergeCell ref="B43:B52"/>
+    <mergeCell ref="C43:C52"/>
+    <mergeCell ref="B53:B62"/>
+    <mergeCell ref="C53:C62"/>
+    <mergeCell ref="B63:B72"/>
+    <mergeCell ref="C63:C72"/>
+    <mergeCell ref="B73:B82"/>
+    <mergeCell ref="C73:C82"/>
+    <mergeCell ref="B83:B92"/>
+    <mergeCell ref="C83:C92"/>
+    <mergeCell ref="B93:B102"/>
+    <mergeCell ref="C93:C102"/>
+    <mergeCell ref="B103:B112"/>
+    <mergeCell ref="C103:C112"/>
+    <mergeCell ref="B113:B122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="B123:B132"/>
+    <mergeCell ref="C123:C132"/>
+    <mergeCell ref="B133:B142"/>
+    <mergeCell ref="C133:C142"/>
+    <mergeCell ref="B143:B152"/>
+    <mergeCell ref="C143:C152"/>
+    <mergeCell ref="B153:B162"/>
+    <mergeCell ref="C153:C162"/>
+    <mergeCell ref="B163:B172"/>
+    <mergeCell ref="C163:C172"/>
+    <mergeCell ref="B173:B182"/>
+    <mergeCell ref="C173:C182"/>
+    <mergeCell ref="B183:B192"/>
+    <mergeCell ref="C183:C192"/>
+    <mergeCell ref="B193:B202"/>
+    <mergeCell ref="C193:C202"/>
+    <mergeCell ref="B203:B212"/>
+    <mergeCell ref="C203:C212"/>
+    <mergeCell ref="B213:B222"/>
+    <mergeCell ref="C213:C222"/>
+    <mergeCell ref="B223:B232"/>
+    <mergeCell ref="C223:C232"/>
     <mergeCell ref="B263:B272"/>
     <mergeCell ref="C263:C272"/>
     <mergeCell ref="B233:B242"/>
@@ -7221,48 +7336,1457 @@
     <mergeCell ref="C243:C252"/>
     <mergeCell ref="B253:B262"/>
     <mergeCell ref="C253:C262"/>
-    <mergeCell ref="B203:B212"/>
-    <mergeCell ref="C203:C212"/>
-    <mergeCell ref="B213:B222"/>
-    <mergeCell ref="C213:C222"/>
-    <mergeCell ref="B223:B232"/>
-    <mergeCell ref="C223:C232"/>
-    <mergeCell ref="B173:B182"/>
-    <mergeCell ref="C173:C182"/>
-    <mergeCell ref="B183:B192"/>
-    <mergeCell ref="C183:C192"/>
-    <mergeCell ref="B193:B202"/>
-    <mergeCell ref="C193:C202"/>
-    <mergeCell ref="B143:B152"/>
-    <mergeCell ref="C143:C152"/>
-    <mergeCell ref="B153:B162"/>
-    <mergeCell ref="C153:C162"/>
-    <mergeCell ref="B163:B172"/>
-    <mergeCell ref="C163:C172"/>
-    <mergeCell ref="B113:B122"/>
-    <mergeCell ref="C113:C122"/>
-    <mergeCell ref="B123:B132"/>
-    <mergeCell ref="C123:C132"/>
-    <mergeCell ref="B133:B142"/>
-    <mergeCell ref="C133:C142"/>
-    <mergeCell ref="B83:B92"/>
-    <mergeCell ref="C83:C92"/>
-    <mergeCell ref="B93:B102"/>
-    <mergeCell ref="C93:C102"/>
-    <mergeCell ref="B103:B112"/>
-    <mergeCell ref="C103:C112"/>
-    <mergeCell ref="B53:B62"/>
-    <mergeCell ref="C53:C62"/>
-    <mergeCell ref="B63:B72"/>
-    <mergeCell ref="C63:C72"/>
-    <mergeCell ref="B73:B82"/>
-    <mergeCell ref="C73:C82"/>
-    <mergeCell ref="B23:B32"/>
-    <mergeCell ref="C23:C32"/>
-    <mergeCell ref="B33:B42"/>
-    <mergeCell ref="C33:C42"/>
-    <mergeCell ref="B43:B52"/>
-    <mergeCell ref="C43:C52"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87365FF3-4B02-490F-9835-DEC95CB05234}">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="B1:G132"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="22" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21:F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="2.5703125" customWidth="1"/>
+    <col min="2" max="2" width="14.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89.5703125" customWidth="1"/>
+    <col min="6" max="6" width="6.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="65.7109375" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:7">
+      <c r="B1" s="94" t="s">
+        <v>133</v>
+      </c>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="94"/>
+      <c r="F1" s="94"/>
+      <c r="G1" s="94"/>
+    </row>
+    <row r="2" spans="2:7">
+      <c r="B2" s="90" t="s">
+        <v>135</v>
+      </c>
+      <c r="C2" s="64"/>
+      <c r="D2" s="73" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="39" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7">
+      <c r="B3" s="63"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="75" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="37"/>
+    </row>
+    <row r="4" spans="2:7">
+      <c r="B4" s="63"/>
+      <c r="C4" s="64"/>
+      <c r="D4" s="75" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="37" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7">
+      <c r="B5" s="63"/>
+      <c r="C5" s="64"/>
+      <c r="D5" s="75"/>
+      <c r="E5" s="76"/>
+      <c r="F5" s="76"/>
+      <c r="G5" s="38" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7">
+      <c r="B6" s="90" t="s">
+        <v>136</v>
+      </c>
+      <c r="C6" s="64"/>
+      <c r="D6" s="77" t="s">
+        <v>93</v>
+      </c>
+      <c r="E6" s="78"/>
+      <c r="F6" s="78"/>
+      <c r="G6" s="40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7">
+      <c r="B7" s="63"/>
+      <c r="C7" s="64"/>
+      <c r="D7" s="77" t="s">
+        <v>142</v>
+      </c>
+      <c r="E7" s="78"/>
+      <c r="F7" s="78"/>
+      <c r="G7" s="37" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7">
+      <c r="B8" s="63"/>
+      <c r="C8" s="64"/>
+      <c r="D8" s="77" t="s">
+        <v>143</v>
+      </c>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="36" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7">
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="77"/>
+      <c r="E9" s="78"/>
+      <c r="F9" s="78"/>
+      <c r="G9" s="36" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7">
+      <c r="B10" s="68" t="s">
+        <v>85</v>
+      </c>
+      <c r="C10" s="69"/>
+      <c r="D10" s="79" t="s">
+        <v>141</v>
+      </c>
+      <c r="E10" s="80"/>
+      <c r="F10" s="80"/>
+      <c r="G10" s="36" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7">
+      <c r="B11" s="68"/>
+      <c r="C11" s="69"/>
+      <c r="D11" s="91" t="s">
+        <v>138</v>
+      </c>
+      <c r="E11" s="92"/>
+      <c r="F11" s="92"/>
+      <c r="G11" s="36" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7">
+      <c r="B12" s="68"/>
+      <c r="C12" s="69"/>
+      <c r="D12" s="79" t="s">
+        <v>139</v>
+      </c>
+      <c r="E12" s="80"/>
+      <c r="F12" s="80"/>
+      <c r="G12" s="36" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7">
+      <c r="B13" s="68"/>
+      <c r="C13" s="69"/>
+      <c r="D13" s="91" t="s">
+        <v>140</v>
+      </c>
+      <c r="E13" s="92"/>
+      <c r="F13" s="92"/>
+      <c r="G13" s="36"/>
+    </row>
+    <row r="14" spans="2:7">
+      <c r="B14" s="70" t="s">
+        <v>158</v>
+      </c>
+      <c r="C14" s="71"/>
+      <c r="D14" s="88" t="s">
+        <v>159</v>
+      </c>
+      <c r="E14" s="89"/>
+      <c r="F14" s="89"/>
+      <c r="G14" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7">
+      <c r="B15" s="72"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="88" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="89"/>
+      <c r="F15" s="89"/>
+      <c r="G15" s="36" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7">
+      <c r="B16" s="72"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="88" t="s">
+        <v>161</v>
+      </c>
+      <c r="E16" s="89"/>
+      <c r="F16" s="89"/>
+      <c r="G16" s="36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7">
+      <c r="B17" s="72"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="88" t="s">
+        <v>96</v>
+      </c>
+      <c r="E17" s="89"/>
+      <c r="F17" s="89"/>
+      <c r="G17" s="22"/>
+    </row>
+    <row r="18" spans="2:7">
+      <c r="B18" s="70"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="41" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7">
+      <c r="B19" s="72"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="36"/>
+    </row>
+    <row r="20" spans="2:7">
+      <c r="B20" s="72"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="66" t="s">
+        <v>162</v>
+      </c>
+      <c r="E20" s="67"/>
+      <c r="F20" s="67"/>
+      <c r="G20" s="36"/>
+    </row>
+    <row r="21" spans="2:7">
+      <c r="B21" s="72"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="67"/>
+      <c r="G21" s="22"/>
+    </row>
+    <row r="22" spans="2:7" ht="15" customHeight="1">
+      <c r="B22" s="95" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="96" t="s">
+        <v>1</v>
+      </c>
+      <c r="D22" s="96" t="s">
+        <v>2</v>
+      </c>
+      <c r="E22" s="96" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="96" t="s">
+        <v>4</v>
+      </c>
+      <c r="G22" s="97" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7">
+      <c r="B23" s="52">
+        <v>44032</v>
+      </c>
+      <c r="C23" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E23" s="3"/>
+      <c r="F23" s="7"/>
+      <c r="G23" s="6"/>
+    </row>
+    <row r="24" spans="2:7">
+      <c r="B24" s="53"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E24" s="3"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="6"/>
+    </row>
+    <row r="25" spans="2:7">
+      <c r="B25" s="53"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="22"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7">
+      <c r="B26" s="53"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="22"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="2:7">
+      <c r="B27" s="53"/>
+      <c r="C27" s="56"/>
+      <c r="D27" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+    </row>
+    <row r="28" spans="2:7">
+      <c r="B28" s="53"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="3"/>
+      <c r="F28" s="7"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7">
+      <c r="B29" s="53"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="3"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="6"/>
+    </row>
+    <row r="30" spans="2:7">
+      <c r="B30" s="53"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="2:7">
+      <c r="B31" s="53"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E31" s="3"/>
+      <c r="F31" s="21"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:7">
+      <c r="B32" s="53"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E32" s="17"/>
+      <c r="F32" s="16"/>
+      <c r="G32" s="19"/>
+    </row>
+    <row r="33" spans="2:7">
+      <c r="B33" s="54"/>
+      <c r="C33" s="57"/>
+      <c r="D33" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="18"/>
+      <c r="G33" s="19"/>
+    </row>
+    <row r="34" spans="2:7">
+      <c r="B34" s="46">
+        <v>44033</v>
+      </c>
+      <c r="C34" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E34" s="22"/>
+      <c r="F34" s="21"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7">
+      <c r="B35" s="47"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="22"/>
+      <c r="F35" s="21"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7">
+      <c r="B36" s="47"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E36" s="22"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:7">
+      <c r="B37" s="47"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E37" s="22"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="25"/>
+    </row>
+    <row r="38" spans="2:7">
+      <c r="B38" s="47"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" s="27"/>
+      <c r="F38" s="26"/>
+      <c r="G38" s="29"/>
+    </row>
+    <row r="39" spans="2:7">
+      <c r="B39" s="47"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E39" s="22"/>
+      <c r="F39" s="21"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7">
+      <c r="B40" s="47"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E40" s="22"/>
+      <c r="F40" s="21"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7">
+      <c r="B41" s="47"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E41" s="22"/>
+      <c r="F41" s="21"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7">
+      <c r="B42" s="47"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E42" s="22"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7">
+      <c r="B43" s="47"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E43" s="22"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="2:7">
+      <c r="B44" s="48"/>
+      <c r="C44" s="51"/>
+      <c r="D44" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="16"/>
+      <c r="G44" s="19"/>
+    </row>
+    <row r="45" spans="2:7">
+      <c r="B45" s="52">
+        <v>44034</v>
+      </c>
+      <c r="C45" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="7"/>
+      <c r="G45" s="6"/>
+    </row>
+    <row r="46" spans="2:7">
+      <c r="B46" s="53"/>
+      <c r="C46" s="56"/>
+      <c r="D46" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="22"/>
+      <c r="F46" s="7"/>
+      <c r="G46" s="6"/>
+    </row>
+    <row r="47" spans="2:7">
+      <c r="B47" s="53"/>
+      <c r="C47" s="56"/>
+      <c r="D47" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="3"/>
+      <c r="F47" s="23"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="2:7">
+      <c r="B48" s="53"/>
+      <c r="C48" s="56"/>
+      <c r="D48" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="3"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="2:7">
+      <c r="B49" s="53"/>
+      <c r="C49" s="56"/>
+      <c r="D49" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E49" s="27"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="29"/>
+    </row>
+    <row r="50" spans="2:7">
+      <c r="B50" s="53"/>
+      <c r="C50" s="56"/>
+      <c r="D50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E50" s="3"/>
+      <c r="F50" s="7"/>
+      <c r="G50" s="20"/>
+    </row>
+    <row r="51" spans="2:7">
+      <c r="B51" s="53"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="3"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="6"/>
+    </row>
+    <row r="52" spans="2:7">
+      <c r="B52" s="53"/>
+      <c r="C52" s="56"/>
+      <c r="D52" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E52" s="22"/>
+      <c r="F52" s="21"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="2:7">
+      <c r="B53" s="53"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E53" s="3"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="6"/>
+    </row>
+    <row r="54" spans="2:7">
+      <c r="B54" s="53"/>
+      <c r="C54" s="56"/>
+      <c r="D54" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E54" s="17"/>
+      <c r="F54" s="18"/>
+      <c r="G54" s="19"/>
+    </row>
+    <row r="55" spans="2:7">
+      <c r="B55" s="54"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="19"/>
+    </row>
+    <row r="56" spans="2:7">
+      <c r="B56" s="46">
+        <v>44035</v>
+      </c>
+      <c r="C56" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E56" s="22"/>
+      <c r="F56" s="21"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="2:7">
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="22"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="2:7">
+      <c r="B58" s="47"/>
+      <c r="C58" s="50"/>
+      <c r="D58" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="22"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="2:7">
+      <c r="B59" s="47"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E59" s="22"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="25"/>
+    </row>
+    <row r="60" spans="2:7">
+      <c r="B60" s="47"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="F60" s="26"/>
+      <c r="G60" s="29"/>
+    </row>
+    <row r="61" spans="2:7">
+      <c r="B61" s="47"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E61" s="22"/>
+      <c r="F61" s="21"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="2:7">
+      <c r="B62" s="47"/>
+      <c r="C62" s="50"/>
+      <c r="D62" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E62" s="22"/>
+      <c r="F62" s="21"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="2:7">
+      <c r="B63" s="47"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63" s="22"/>
+      <c r="F63" s="21"/>
+      <c r="G63" s="24"/>
+    </row>
+    <row r="64" spans="2:7">
+      <c r="B64" s="47"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="22"/>
+      <c r="F64" s="23"/>
+      <c r="G64" s="24"/>
+    </row>
+    <row r="65" spans="2:7">
+      <c r="B65" s="47"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E65" s="22"/>
+      <c r="F65" s="21"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="2:7">
+      <c r="B66" s="48"/>
+      <c r="C66" s="51"/>
+      <c r="D66" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="16"/>
+      <c r="G66" s="19"/>
+    </row>
+    <row r="67" spans="2:7">
+      <c r="B67" s="46">
+        <v>44036</v>
+      </c>
+      <c r="C67" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E67" s="3"/>
+      <c r="F67" s="7"/>
+      <c r="G67" s="6"/>
+    </row>
+    <row r="68" spans="2:7">
+      <c r="B68" s="47"/>
+      <c r="C68" s="50"/>
+      <c r="D68" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="3"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="6"/>
+    </row>
+    <row r="69" spans="2:7">
+      <c r="B69" s="47"/>
+      <c r="C69" s="50"/>
+      <c r="D69" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="22"/>
+      <c r="F69" s="23"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="2:7">
+      <c r="B70" s="47"/>
+      <c r="C70" s="50"/>
+      <c r="D70" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E70" s="22"/>
+      <c r="F70" s="23"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="2:7">
+      <c r="B71" s="47"/>
+      <c r="C71" s="50"/>
+      <c r="D71" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E71" s="27"/>
+      <c r="F71" s="28"/>
+      <c r="G71" s="29"/>
+    </row>
+    <row r="72" spans="2:7">
+      <c r="B72" s="47"/>
+      <c r="C72" s="50"/>
+      <c r="D72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E72" s="3"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="20"/>
+    </row>
+    <row r="73" spans="2:7">
+      <c r="B73" s="47"/>
+      <c r="C73" s="50"/>
+      <c r="D73" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="3"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="6"/>
+    </row>
+    <row r="74" spans="2:7">
+      <c r="B74" s="47"/>
+      <c r="C74" s="50"/>
+      <c r="D74" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E74" s="22"/>
+      <c r="F74" s="21"/>
+      <c r="G74" s="24"/>
+    </row>
+    <row r="75" spans="2:7">
+      <c r="B75" s="47"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E75" s="3"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="6"/>
+    </row>
+    <row r="76" spans="2:7">
+      <c r="B76" s="47"/>
+      <c r="C76" s="50"/>
+      <c r="D76" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="17"/>
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+    </row>
+    <row r="77" spans="2:7">
+      <c r="B77" s="48"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E77" s="17"/>
+      <c r="F77" s="18"/>
+      <c r="G77" s="19"/>
+    </row>
+    <row r="78" spans="2:7">
+      <c r="B78" s="52">
+        <v>44039</v>
+      </c>
+      <c r="C78" s="55" t="s">
+        <v>76</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E78" s="3"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="6"/>
+    </row>
+    <row r="79" spans="2:7">
+      <c r="B79" s="53"/>
+      <c r="C79" s="56"/>
+      <c r="D79" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="E79" s="3"/>
+      <c r="F79" s="7"/>
+      <c r="G79" s="6"/>
+    </row>
+    <row r="80" spans="2:7">
+      <c r="B80" s="53"/>
+      <c r="C80" s="56"/>
+      <c r="D80" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E80" s="22"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="24"/>
+    </row>
+    <row r="81" spans="2:7">
+      <c r="B81" s="53"/>
+      <c r="C81" s="56"/>
+      <c r="D81" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E81" s="22"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="24"/>
+    </row>
+    <row r="82" spans="2:7">
+      <c r="B82" s="53"/>
+      <c r="C82" s="56"/>
+      <c r="D82" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E82" s="27"/>
+      <c r="F82" s="28"/>
+      <c r="G82" s="29"/>
+    </row>
+    <row r="83" spans="2:7">
+      <c r="B83" s="53"/>
+      <c r="C83" s="56"/>
+      <c r="D83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E83" s="3"/>
+      <c r="F83" s="7"/>
+      <c r="G83" s="20"/>
+    </row>
+    <row r="84" spans="2:7">
+      <c r="B84" s="53"/>
+      <c r="C84" s="56"/>
+      <c r="D84" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="3"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="6"/>
+    </row>
+    <row r="85" spans="2:7">
+      <c r="B85" s="53"/>
+      <c r="C85" s="56"/>
+      <c r="D85" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E85" s="3"/>
+      <c r="F85" s="21"/>
+      <c r="G85" s="24"/>
+    </row>
+    <row r="86" spans="2:7">
+      <c r="B86" s="53"/>
+      <c r="C86" s="56"/>
+      <c r="D86" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E86" s="3"/>
+      <c r="F86" s="21"/>
+      <c r="G86" s="24"/>
+    </row>
+    <row r="87" spans="2:7">
+      <c r="B87" s="53"/>
+      <c r="C87" s="56"/>
+      <c r="D87" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E87" s="17"/>
+      <c r="F87" s="16"/>
+      <c r="G87" s="19"/>
+    </row>
+    <row r="88" spans="2:7">
+      <c r="B88" s="54"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E88" s="17"/>
+      <c r="F88" s="18"/>
+      <c r="G88" s="19"/>
+    </row>
+    <row r="89" spans="2:7">
+      <c r="B89" s="46">
+        <v>44040</v>
+      </c>
+      <c r="C89" s="49" t="s">
+        <v>77</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E89" s="22"/>
+      <c r="F89" s="21"/>
+      <c r="G89" s="24"/>
+    </row>
+    <row r="90" spans="2:7">
+      <c r="B90" s="47"/>
+      <c r="C90" s="50"/>
+      <c r="D90" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="22"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="24"/>
+    </row>
+    <row r="91" spans="2:7">
+      <c r="B91" s="47"/>
+      <c r="C91" s="50"/>
+      <c r="D91" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E91" s="22"/>
+      <c r="F91" s="23"/>
+      <c r="G91" s="24"/>
+    </row>
+    <row r="92" spans="2:7">
+      <c r="B92" s="47"/>
+      <c r="C92" s="50"/>
+      <c r="D92" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E92" s="22"/>
+      <c r="F92" s="23"/>
+      <c r="G92" s="25"/>
+    </row>
+    <row r="93" spans="2:7">
+      <c r="B93" s="47"/>
+      <c r="C93" s="50"/>
+      <c r="D93" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E93" s="27"/>
+      <c r="F93" s="26"/>
+      <c r="G93" s="29"/>
+    </row>
+    <row r="94" spans="2:7">
+      <c r="B94" s="47"/>
+      <c r="C94" s="50"/>
+      <c r="D94" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E94" s="22"/>
+      <c r="F94" s="21"/>
+      <c r="G94" s="24"/>
+    </row>
+    <row r="95" spans="2:7">
+      <c r="B95" s="47"/>
+      <c r="C95" s="50"/>
+      <c r="D95" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E95" s="22"/>
+      <c r="F95" s="21"/>
+      <c r="G95" s="24"/>
+    </row>
+    <row r="96" spans="2:7">
+      <c r="B96" s="47"/>
+      <c r="C96" s="50"/>
+      <c r="D96" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E96" s="22"/>
+      <c r="F96" s="21"/>
+      <c r="G96" s="24"/>
+    </row>
+    <row r="97" spans="2:7">
+      <c r="B97" s="47"/>
+      <c r="C97" s="50"/>
+      <c r="D97" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E97" s="22"/>
+      <c r="F97" s="23"/>
+      <c r="G97" s="24"/>
+    </row>
+    <row r="98" spans="2:7">
+      <c r="B98" s="47"/>
+      <c r="C98" s="50"/>
+      <c r="D98" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E98" s="22"/>
+      <c r="F98" s="21"/>
+      <c r="G98" s="24"/>
+    </row>
+    <row r="99" spans="2:7">
+      <c r="B99" s="48"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E99" s="17"/>
+      <c r="F99" s="16"/>
+      <c r="G99" s="19"/>
+    </row>
+    <row r="100" spans="2:7">
+      <c r="B100" s="52">
+        <v>44041</v>
+      </c>
+      <c r="C100" s="55" t="s">
+        <v>78</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E100" s="22"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="6"/>
+    </row>
+    <row r="101" spans="2:7">
+      <c r="B101" s="53"/>
+      <c r="C101" s="56"/>
+      <c r="D101" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E101" s="22"/>
+      <c r="F101" s="7"/>
+      <c r="G101" s="6"/>
+    </row>
+    <row r="102" spans="2:7">
+      <c r="B102" s="53"/>
+      <c r="C102" s="56"/>
+      <c r="D102" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E102" s="3"/>
+      <c r="F102" s="23"/>
+      <c r="G102" s="24"/>
+    </row>
+    <row r="103" spans="2:7">
+      <c r="B103" s="53"/>
+      <c r="C103" s="56"/>
+      <c r="D103" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E103" s="3"/>
+      <c r="F103" s="23"/>
+      <c r="G103" s="24"/>
+    </row>
+    <row r="104" spans="2:7">
+      <c r="B104" s="53"/>
+      <c r="C104" s="56"/>
+      <c r="D104" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E104" s="27"/>
+      <c r="F104" s="28"/>
+      <c r="G104" s="29"/>
+    </row>
+    <row r="105" spans="2:7">
+      <c r="B105" s="53"/>
+      <c r="C105" s="56"/>
+      <c r="D105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E105" s="3"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="20"/>
+    </row>
+    <row r="106" spans="2:7">
+      <c r="B106" s="53"/>
+      <c r="C106" s="56"/>
+      <c r="D106" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E106" s="3"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="6"/>
+    </row>
+    <row r="107" spans="2:7">
+      <c r="B107" s="53"/>
+      <c r="C107" s="56"/>
+      <c r="D107" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E107" s="22"/>
+      <c r="F107" s="21"/>
+      <c r="G107" s="24"/>
+    </row>
+    <row r="108" spans="2:7">
+      <c r="B108" s="53"/>
+      <c r="C108" s="56"/>
+      <c r="D108" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E108" s="3"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="6"/>
+    </row>
+    <row r="109" spans="2:7">
+      <c r="B109" s="53"/>
+      <c r="C109" s="56"/>
+      <c r="D109" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E109" s="17"/>
+      <c r="F109" s="18"/>
+      <c r="G109" s="19"/>
+    </row>
+    <row r="110" spans="2:7">
+      <c r="B110" s="54"/>
+      <c r="C110" s="57"/>
+      <c r="D110" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E110" s="17"/>
+      <c r="F110" s="18"/>
+      <c r="G110" s="19"/>
+    </row>
+    <row r="111" spans="2:7">
+      <c r="B111" s="46">
+        <v>44042</v>
+      </c>
+      <c r="C111" s="49" t="s">
+        <v>79</v>
+      </c>
+      <c r="D111" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E111" s="22"/>
+      <c r="F111" s="21"/>
+      <c r="G111" s="24"/>
+    </row>
+    <row r="112" spans="2:7">
+      <c r="B112" s="47"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E112" s="22"/>
+      <c r="F112" s="21"/>
+      <c r="G112" s="24"/>
+    </row>
+    <row r="113" spans="2:7">
+      <c r="B113" s="47"/>
+      <c r="C113" s="50"/>
+      <c r="D113" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E113" s="22"/>
+      <c r="F113" s="23"/>
+      <c r="G113" s="24"/>
+    </row>
+    <row r="114" spans="2:7">
+      <c r="B114" s="47"/>
+      <c r="C114" s="50"/>
+      <c r="D114" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E114" s="22"/>
+      <c r="F114" s="23"/>
+      <c r="G114" s="25"/>
+    </row>
+    <row r="115" spans="2:7">
+      <c r="B115" s="47"/>
+      <c r="C115" s="50"/>
+      <c r="D115" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E115" s="27"/>
+      <c r="F115" s="26"/>
+      <c r="G115" s="29"/>
+    </row>
+    <row r="116" spans="2:7">
+      <c r="B116" s="47"/>
+      <c r="C116" s="50"/>
+      <c r="D116" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E116" s="22"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="24"/>
+    </row>
+    <row r="117" spans="2:7">
+      <c r="B117" s="47"/>
+      <c r="C117" s="50"/>
+      <c r="D117" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="21"/>
+      <c r="G117" s="24"/>
+    </row>
+    <row r="118" spans="2:7">
+      <c r="B118" s="47"/>
+      <c r="C118" s="50"/>
+      <c r="D118" s="21" t="s">
+        <v>157</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="21"/>
+      <c r="G118" s="24"/>
+    </row>
+    <row r="119" spans="2:7">
+      <c r="B119" s="47"/>
+      <c r="C119" s="50"/>
+      <c r="D119" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E119" s="22"/>
+      <c r="F119" s="23"/>
+      <c r="G119" s="24"/>
+    </row>
+    <row r="120" spans="2:7">
+      <c r="B120" s="47"/>
+      <c r="C120" s="50"/>
+      <c r="D120" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="E120" s="22"/>
+      <c r="F120" s="21"/>
+      <c r="G120" s="24"/>
+    </row>
+    <row r="121" spans="2:7">
+      <c r="B121" s="48"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E121" s="17"/>
+      <c r="F121" s="16"/>
+      <c r="G121" s="19"/>
+    </row>
+    <row r="122" spans="2:7">
+      <c r="B122" s="46">
+        <v>44043</v>
+      </c>
+      <c r="C122" s="49" t="s">
+        <v>80</v>
+      </c>
+      <c r="D122" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="E122" s="3"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="6"/>
+    </row>
+    <row r="123" spans="2:7">
+      <c r="B123" s="47"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E123" s="3"/>
+      <c r="F123" s="7"/>
+      <c r="G123" s="6"/>
+    </row>
+    <row r="124" spans="2:7">
+      <c r="B124" s="47"/>
+      <c r="C124" s="50"/>
+      <c r="D124" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E124" s="22"/>
+      <c r="F124" s="23"/>
+      <c r="G124" s="24"/>
+    </row>
+    <row r="125" spans="2:7">
+      <c r="B125" s="47"/>
+      <c r="C125" s="50"/>
+      <c r="D125" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="E125" s="22"/>
+      <c r="F125" s="23"/>
+      <c r="G125" s="24"/>
+    </row>
+    <row r="126" spans="2:7">
+      <c r="B126" s="47"/>
+      <c r="C126" s="50"/>
+      <c r="D126" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E126" s="27"/>
+      <c r="F126" s="28"/>
+      <c r="G126" s="29"/>
+    </row>
+    <row r="127" spans="2:7">
+      <c r="B127" s="47"/>
+      <c r="C127" s="50"/>
+      <c r="D127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E127" s="3"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="20"/>
+    </row>
+    <row r="128" spans="2:7">
+      <c r="B128" s="47"/>
+      <c r="C128" s="50"/>
+      <c r="D128" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E128" s="3"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="6"/>
+    </row>
+    <row r="129" spans="2:7">
+      <c r="B129" s="47"/>
+      <c r="C129" s="50"/>
+      <c r="D129" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E129" s="22"/>
+      <c r="F129" s="21"/>
+      <c r="G129" s="24"/>
+    </row>
+    <row r="130" spans="2:7">
+      <c r="B130" s="47"/>
+      <c r="C130" s="50"/>
+      <c r="D130" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E130" s="3"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="6"/>
+    </row>
+    <row r="131" spans="2:7">
+      <c r="B131" s="47"/>
+      <c r="C131" s="50"/>
+      <c r="D131" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E131" s="17"/>
+      <c r="F131" s="18"/>
+      <c r="G131" s="19"/>
+    </row>
+    <row r="132" spans="2:7">
+      <c r="B132" s="48"/>
+      <c r="C132" s="51"/>
+      <c r="D132" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E132" s="17"/>
+      <c r="F132" s="18"/>
+      <c r="G132" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="46">
+    <mergeCell ref="B78:B88"/>
+    <mergeCell ref="C78:C88"/>
+    <mergeCell ref="B89:B99"/>
+    <mergeCell ref="C89:C99"/>
+    <mergeCell ref="B100:B110"/>
+    <mergeCell ref="C100:C110"/>
+    <mergeCell ref="B111:B121"/>
+    <mergeCell ref="C111:C121"/>
+    <mergeCell ref="B56:B66"/>
+    <mergeCell ref="C56:C66"/>
+    <mergeCell ref="B67:B77"/>
+    <mergeCell ref="C67:C77"/>
+    <mergeCell ref="B23:B33"/>
+    <mergeCell ref="C23:C33"/>
+    <mergeCell ref="B34:B44"/>
+    <mergeCell ref="C34:C44"/>
+    <mergeCell ref="B45:B55"/>
+    <mergeCell ref="C45:C55"/>
+    <mergeCell ref="B122:B132"/>
+    <mergeCell ref="C122:C132"/>
     <mergeCell ref="B14:C17"/>
     <mergeCell ref="D14:F14"/>
     <mergeCell ref="D15:F15"/>
@@ -7295,7 +8819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B3:H55"/>
   <sheetViews>

--- a/Pomodoro2020.xlsx
+++ b/Pomodoro2020.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Works\04_doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF7DF5CD-8FD7-4067-9BB4-F7EFA45B9FD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD635633-C42C-4B86-BA14-120082B4CDCF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="899" uniqueCount="164">
   <si>
     <t>Date</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -699,6 +699,9 @@
   </si>
   <si>
     <t>Eng st</t>
+  </si>
+  <si>
+    <t>planning</t>
   </si>
 </sst>
 </file>
@@ -7351,7 +7354,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="22" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21:F21"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7635,7 +7638,9 @@
       <c r="D23" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="E23" s="3"/>
+      <c r="E23" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F23" s="7"/>
       <c r="G23" s="6"/>
     </row>
@@ -7645,7 +7650,9 @@
       <c r="D24" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="3"/>
+      <c r="E24" s="3" t="s">
+        <v>163</v>
+      </c>
       <c r="F24" s="7"/>
       <c r="G24" s="6"/>
     </row>
